--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC07E54-85AB-424E-9561-ECBE28848E69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DA14287-C73E-470B-8A99-BF9875EF10EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repartition thèmes par liste" sheetId="3" r:id="rId1"/>
@@ -16,27 +16,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dons d''origine'!$A$1:$K$420</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Listes par type'!$A$1:$D$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="747">
   <si>
     <t>Liste</t>
   </si>
@@ -2096,9 +2089,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Pureté?</t>
-  </si>
-  <si>
     <t>Pureté</t>
   </si>
   <si>
@@ -2180,12 +2170,6 @@
     <t>Chant</t>
   </si>
   <si>
-    <t>Chant ?</t>
-  </si>
-  <si>
-    <t>Rêves ?</t>
-  </si>
-  <si>
     <t>Peut parler aux animaux instinctivement</t>
   </si>
   <si>
@@ -2201,9 +2185,6 @@
     <t>Attire une créature du Ver</t>
   </si>
   <si>
-    <t xml:space="preserve">Chant ? </t>
-  </si>
-  <si>
     <t>A force de couinements, jappements et autres bruit réduit la concentration de la cible</t>
   </si>
   <si>
@@ -2250,6 +2231,52 @@
   </si>
   <si>
     <t>Permet d'altérer les émotions de la cible à souhait</t>
+  </si>
+  <si>
+    <t>Le LG peut planter ses griffes telles des dards dans la chair de ses ennemis. Elles régénèrent en un tour</t>
+  </si>
+  <si>
+    <t>Tactiques de Meutes
+(le transformer en liste)</t>
+  </si>
+  <si>
+    <t>Les esprits infligent moins de dégâts au LG avec leur Rage</t>
+  </si>
+  <si>
+    <t>Augmente le score d'initiative</t>
+  </si>
+  <si>
+    <t>Permet de refouler sa Rage, temporairement.</t>
+  </si>
+  <si>
+    <t>Les griffes et les crocs du LG gagnent de la pénétration d'armure</t>
+  </si>
+  <si>
+    <t>Permet de se soigner en plein milieu d'une bataille sans s'arrêter un tour</t>
+  </si>
+  <si>
+    <t>A chaque fois qu'il subit des dégâts le LG peut gagner de la Rage sans faire de jet de frénésie. Il peut aussi dépenser un point de Rage par tour gratuitement</t>
+  </si>
+  <si>
+    <t>Les personnes cherchant activement à nuire le LG ou sa meute sont entourés d'un doux halo de lumière sous la pleine lune</t>
+  </si>
+  <si>
+    <t>Tant que le LG tiens sa cible avec une morsure il peut refaire une attaque morsure pour infliger plus de dégâts</t>
+  </si>
+  <si>
+    <t>jusqu’à fin de morsure</t>
+  </si>
+  <si>
+    <t>Immunise aux dégâts infligés par le feu</t>
+  </si>
+  <si>
+    <t>Accorde de la Volonté aux alliés</t>
+  </si>
+  <si>
+    <t>Permet de guérrir les dégâts aggravés comme si c'était des létales. Sauf pour l'argent</t>
+  </si>
+  <si>
+    <t>Permet d'utiliser les tactiques de meutes (page 300)</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2407,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="43638.712051967595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="419" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Auteur" refreshedDate="43638.712051967595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="419" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K420" sheet="Dons d'origine"/>
   </cacheSource>
@@ -8531,37 +8558,37 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>561</v>
       </c>
@@ -8569,7 +8596,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>161</v>
       </c>
@@ -8583,7 +8610,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>682</v>
       </c>
@@ -8651,7 +8678,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>424</v>
       </c>
@@ -8720,7 +8747,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>522</v>
       </c>
@@ -8759,7 +8786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>306</v>
       </c>
@@ -8792,7 +8819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>454</v>
       </c>
@@ -8825,7 +8852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>679</v>
       </c>
@@ -8856,7 +8883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>575</v>
       </c>
@@ -8893,9 +8920,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8930,7 +8957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>299</v>
       </c>
@@ -8969,7 +8996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>312</v>
       </c>
@@ -9014,7 +9041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>649</v>
       </c>
@@ -9045,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>631</v>
       </c>
@@ -9078,7 +9105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>597</v>
       </c>
@@ -9113,7 +9140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>93</v>
       </c>
@@ -9146,7 +9173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>416</v>
       </c>
@@ -9179,7 +9206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>429</v>
       </c>
@@ -9224,7 +9251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>223</v>
       </c>
@@ -9257,7 +9284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>656</v>
       </c>
@@ -9288,7 +9315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>562</v>
       </c>
@@ -9321,7 +9348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>636</v>
       </c>
@@ -9358,7 +9385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>598</v>
       </c>
@@ -9393,7 +9420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>403</v>
       </c>
@@ -9440,7 +9467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>676</v>
       </c>
@@ -9471,7 +9498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>427</v>
       </c>
@@ -9506,7 +9533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>413</v>
       </c>
@@ -9557,9 +9584,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -9588,7 +9615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>498</v>
       </c>
@@ -9623,7 +9650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>390</v>
       </c>
@@ -9672,7 +9699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>441</v>
       </c>
@@ -9705,7 +9732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>408</v>
       </c>
@@ -9748,7 +9775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>396</v>
       </c>
@@ -9783,7 +9810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>594</v>
       </c>
@@ -9816,7 +9843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>317</v>
       </c>
@@ -9847,7 +9874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>297</v>
       </c>
@@ -9884,7 +9911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>400</v>
       </c>
@@ -9919,7 +9946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>493</v>
       </c>
@@ -9950,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>578</v>
       </c>
@@ -9981,7 +10008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>655</v>
       </c>
@@ -10012,7 +10039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>681</v>
       </c>
@@ -10093,28 +10120,28 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K420"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G422" sqref="G422"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.86328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -10149,7 +10176,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
@@ -10185,7 +10212,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -10221,7 +10248,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -10257,7 +10284,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -10293,7 +10320,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -10307,7 +10334,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10329,7 +10356,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -10365,7 +10392,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -10401,7 +10428,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -10437,7 +10464,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
@@ -10473,7 +10500,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -10509,7 +10536,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -10545,7 +10572,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -10581,7 +10608,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -10617,7 +10644,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -10653,7 +10680,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -10689,7 +10716,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -10725,7 +10752,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -10761,7 +10788,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
@@ -10797,7 +10824,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -10833,7 +10860,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -10869,7 +10896,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -10905,7 +10932,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -10941,7 +10968,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -10977,7 +11004,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -11013,7 +11040,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -11049,7 +11076,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -11082,7 +11109,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -11118,7 +11145,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>160</v>
       </c>
@@ -11151,7 +11178,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>160</v>
       </c>
@@ -11187,7 +11214,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -11223,7 +11250,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -11259,7 +11286,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -11295,7 +11322,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>160</v>
       </c>
@@ -11331,7 +11358,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>160</v>
       </c>
@@ -11367,7 +11394,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -11403,7 +11430,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
@@ -11439,7 +11466,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -11475,7 +11502,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -11511,7 +11538,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -11547,7 +11574,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -11583,7 +11610,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
@@ -11619,7 +11646,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -11655,7 +11682,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
@@ -11691,7 +11718,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -11727,7 +11754,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -11763,7 +11790,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>160</v>
       </c>
@@ -11799,7 +11826,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -11835,7 +11862,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -11871,7 +11898,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>160</v>
       </c>
@@ -11907,7 +11934,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -11943,7 +11970,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -11979,7 +12006,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -12015,7 +12042,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -12051,7 +12078,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -12087,7 +12114,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -12123,7 +12150,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -12159,7 +12186,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
@@ -12195,7 +12222,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -12231,7 +12258,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
@@ -12267,7 +12294,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>161</v>
       </c>
@@ -12303,7 +12330,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
@@ -12339,7 +12366,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
@@ -12375,7 +12402,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -12411,7 +12438,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -12447,7 +12474,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -12483,7 +12510,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -12519,7 +12546,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -12555,7 +12582,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -12591,7 +12618,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
@@ -12627,7 +12654,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -12663,7 +12690,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -12699,7 +12726,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>161</v>
       </c>
@@ -12735,7 +12762,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>161</v>
       </c>
@@ -12771,7 +12798,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
@@ -12807,7 +12834,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
@@ -12843,7 +12870,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -12879,7 +12906,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -12915,7 +12942,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -12951,7 +12978,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>161</v>
       </c>
@@ -12987,7 +13014,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>161</v>
       </c>
@@ -13023,7 +13050,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -13059,7 +13086,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -13095,7 +13122,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -13131,7 +13158,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
@@ -13167,7 +13194,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
@@ -13203,7 +13230,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -13239,7 +13266,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -13275,7 +13302,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -13311,7 +13338,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -13347,7 +13374,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -13383,7 +13410,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -13419,7 +13446,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>161</v>
       </c>
@@ -13455,7 +13482,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -13491,7 +13518,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>161</v>
       </c>
@@ -13527,7 +13554,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>161</v>
       </c>
@@ -13563,7 +13590,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>161</v>
       </c>
@@ -13599,7 +13626,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -13635,7 +13662,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -13671,7 +13698,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -13707,7 +13734,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>161</v>
       </c>
@@ -13743,7 +13770,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>161</v>
       </c>
@@ -13757,14 +13784,14 @@
         <v>104</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>397</v>
@@ -13776,10 +13803,10 @@
         <v>388</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -13800,7 +13827,7 @@
         <v>Oui</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>391</v>
@@ -13815,7 +13842,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>161</v>
       </c>
@@ -13829,7 +13856,7 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13851,7 +13878,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -13887,7 +13914,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -13901,14 +13928,14 @@
         <v>107</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>391</v>
@@ -13917,13 +13944,13 @@
         <v>486</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>161</v>
       </c>
@@ -13937,14 +13964,14 @@
         <v>108</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>391</v>
@@ -13959,7 +13986,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>161</v>
       </c>
@@ -13973,7 +14000,7 @@
         <v>109</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13995,7 +14022,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -14009,20 +14036,20 @@
         <v>110</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J109" s="9">
         <v>7</v>
@@ -14031,7 +14058,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -14045,20 +14072,20 @@
         <v>111</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J110" s="9">
         <v>7</v>
@@ -14067,7 +14094,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
@@ -14081,14 +14108,14 @@
         <v>112</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>426</v>
@@ -14100,10 +14127,10 @@
         <v>388</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
@@ -14124,13 +14151,13 @@
         <v>Oui</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J112" s="9">
         <v>8</v>
@@ -14139,7 +14166,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>161</v>
       </c>
@@ -14175,7 +14202,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -14211,7 +14238,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>161</v>
       </c>
@@ -14247,7 +14274,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
@@ -14261,14 +14288,14 @@
         <v>116</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>391</v>
@@ -14280,10 +14307,10 @@
         <v>6</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>161</v>
       </c>
@@ -14304,10 +14331,10 @@
         <v>Oui</v>
       </c>
       <c r="G117" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>482</v>
@@ -14319,7 +14346,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -14340,7 +14367,7 @@
         <v>Oui</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>391</v>
@@ -14352,7 +14379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>161</v>
       </c>
@@ -14373,7 +14400,7 @@
         <v>Oui</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>426</v>
@@ -14388,7 +14415,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>161</v>
       </c>
@@ -14424,7 +14451,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -14438,20 +14465,20 @@
         <v>121</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>426</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J121" s="9" t="s">
         <v>490</v>
@@ -14460,7 +14487,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>161</v>
       </c>
@@ -14474,20 +14501,20 @@
         <v>123</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J122" s="9">
         <v>6</v>
@@ -14496,7 +14523,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>161</v>
       </c>
@@ -14510,14 +14537,14 @@
         <v>124</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>391</v>
@@ -14532,7 +14559,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -14553,7 +14580,7 @@
         <v>Oui</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>426</v>
@@ -14568,7 +14595,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -14582,17 +14609,17 @@
         <v>126</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>526</v>
@@ -14604,7 +14631,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>161</v>
       </c>
@@ -14640,7 +14667,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>161</v>
       </c>
@@ -14654,14 +14681,14 @@
         <v>127</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F127" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>391</v>
@@ -14676,7 +14703,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>161</v>
       </c>
@@ -14712,7 +14739,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>161</v>
       </c>
@@ -14726,29 +14753,29 @@
         <v>128</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J129" s="9" t="s">
         <v>490</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>161</v>
       </c>
@@ -14762,7 +14789,7 @@
         <v>129</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F130" s="1" t="str">
         <f t="shared" si="1"/>
@@ -14784,7 +14811,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
@@ -14798,14 +14825,14 @@
         <v>130</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" ref="F131:F194" si="3">IF(COUNTIF(D:D,"="&amp;D131)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>391</v>
@@ -14820,7 +14847,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -14834,7 +14861,7 @@
         <v>131</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14856,7 +14883,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
@@ -14870,20 +14897,20 @@
         <v>132</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J133" s="9" t="s">
         <v>490</v>
@@ -14892,7 +14919,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>161</v>
       </c>
@@ -14906,14 +14933,14 @@
         <v>133</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F134" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>559</v>
@@ -14928,7 +14955,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
@@ -14942,20 +14969,20 @@
         <v>134</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="J135" s="9" t="s">
         <v>490</v>
@@ -14964,7 +14991,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -14978,20 +15005,20 @@
         <v>135</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J136" s="9">
         <v>6</v>
@@ -15000,7 +15027,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -15021,7 +15048,7 @@
         <v>Oui</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>426</v>
@@ -15033,10 +15060,10 @@
         <v>388</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -15050,14 +15077,14 @@
         <v>137</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F138" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>426</v>
@@ -15072,7 +15099,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>161</v>
       </c>
@@ -15108,7 +15135,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>161</v>
       </c>
@@ -15122,14 +15149,14 @@
         <v>139</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F140" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>391</v>
@@ -15144,7 +15171,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -15180,7 +15207,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>161</v>
       </c>
@@ -15194,14 +15221,29 @@
         <v>141</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="F142" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G142" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
@@ -15237,7 +15279,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
@@ -15251,7 +15293,7 @@
         <v>143</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="F144" s="1" t="str">
         <f t="shared" si="3"/>
@@ -15273,7 +15315,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>161</v>
       </c>
@@ -15309,7 +15351,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -15322,15 +15364,30 @@
       <c r="D146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>424</v>
+      <c r="E146" s="3" t="s">
+        <v>733</v>
       </c>
       <c r="F146" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G146" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>161</v>
       </c>
@@ -15344,14 +15401,29 @@
         <v>146</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="F147" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G147" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -15371,8 +15443,23 @@
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G148" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
@@ -15408,7 +15495,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -15444,7 +15531,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -15458,14 +15545,29 @@
         <v>149</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="F151" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G151" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -15479,7 +15581,7 @@
         <v>150</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="F152" s="1" t="str">
         <f t="shared" si="3"/>
@@ -15501,7 +15603,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>161</v>
       </c>
@@ -15515,14 +15617,29 @@
         <v>151</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="F153" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G153" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -15542,8 +15659,23 @@
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G154" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>161</v>
       </c>
@@ -15579,7 +15711,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
@@ -15593,14 +15725,29 @@
         <v>153</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="F156" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G156" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -15620,8 +15767,23 @@
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G157" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -15635,14 +15797,29 @@
         <v>155</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="F158" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G158" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -15662,8 +15839,23 @@
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G159" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -15677,14 +15869,29 @@
         <v>157</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="F160" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G160" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J160" s="9">
+        <v>8</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -15704,8 +15911,23 @@
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G161" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
@@ -15726,7 +15948,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -15762,7 +15984,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -15783,7 +16005,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -15804,7 +16026,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>162</v>
       </c>
@@ -15825,7 +16047,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
@@ -15861,7 +16083,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -15882,7 +16104,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>162</v>
       </c>
@@ -15918,7 +16140,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="170" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>162</v>
       </c>
@@ -15954,7 +16176,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>162</v>
       </c>
@@ -15975,7 +16197,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>162</v>
       </c>
@@ -15996,7 +16218,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -16017,7 +16239,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>162</v>
       </c>
@@ -16038,7 +16260,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>162</v>
       </c>
@@ -16059,7 +16281,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>162</v>
       </c>
@@ -16080,7 +16302,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>162</v>
       </c>
@@ -16101,7 +16323,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>162</v>
       </c>
@@ -16122,7 +16344,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>162</v>
       </c>
@@ -16158,7 +16380,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>162</v>
       </c>
@@ -16179,7 +16401,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>162</v>
       </c>
@@ -16200,7 +16422,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>162</v>
       </c>
@@ -16221,7 +16443,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -16242,7 +16464,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -16278,7 +16500,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>162</v>
       </c>
@@ -16299,7 +16521,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
@@ -16335,7 +16557,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>162</v>
       </c>
@@ -16356,7 +16578,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>162</v>
       </c>
@@ -16377,7 +16599,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>162</v>
       </c>
@@ -16398,7 +16620,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>162</v>
       </c>
@@ -16419,7 +16641,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
@@ -16440,7 +16662,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>162</v>
       </c>
@@ -16461,7 +16683,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>162</v>
       </c>
@@ -16482,7 +16704,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>162</v>
       </c>
@@ -16503,7 +16725,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>162</v>
       </c>
@@ -16539,7 +16761,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -16575,7 +16797,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>162</v>
       </c>
@@ -16611,7 +16833,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>162</v>
       </c>
@@ -16632,7 +16854,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>162</v>
       </c>
@@ -16653,7 +16875,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>162</v>
       </c>
@@ -16674,7 +16896,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>162</v>
       </c>
@@ -16695,7 +16917,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>162</v>
       </c>
@@ -16716,7 +16938,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>162</v>
       </c>
@@ -16730,7 +16952,7 @@
         <v>143</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="F203" s="1" t="str">
         <f t="shared" si="4"/>
@@ -16752,7 +16974,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>162</v>
       </c>
@@ -16773,7 +16995,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>162</v>
       </c>
@@ -16794,7 +17016,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>162</v>
       </c>
@@ -16830,7 +17052,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>162</v>
       </c>
@@ -16866,7 +17088,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>162</v>
       </c>
@@ -16887,7 +17109,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>162</v>
       </c>
@@ -16908,7 +17130,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>162</v>
       </c>
@@ -16944,7 +17166,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>162</v>
       </c>
@@ -16965,7 +17187,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>162</v>
       </c>
@@ -16986,7 +17208,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>162</v>
       </c>
@@ -17000,7 +17222,7 @@
         <v>150</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="F213" s="1" t="str">
         <f t="shared" si="4"/>
@@ -17022,7 +17244,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>162</v>
       </c>
@@ -17043,7 +17265,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>162</v>
       </c>
@@ -17064,7 +17286,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>162</v>
       </c>
@@ -17100,7 +17322,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>162</v>
       </c>
@@ -17121,7 +17343,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>162</v>
       </c>
@@ -17142,7 +17364,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>162</v>
       </c>
@@ -17163,7 +17385,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>162</v>
       </c>
@@ -17184,7 +17406,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>162</v>
       </c>
@@ -17205,7 +17427,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>162</v>
       </c>
@@ -17226,7 +17448,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>162</v>
       </c>
@@ -17247,7 +17469,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>162</v>
       </c>
@@ -17268,7 +17490,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>162</v>
       </c>
@@ -17304,7 +17526,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -17340,7 +17562,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>162</v>
       </c>
@@ -17376,7 +17598,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
@@ -17397,7 +17619,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>162</v>
       </c>
@@ -17418,7 +17640,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>162</v>
       </c>
@@ -17439,7 +17661,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>162</v>
       </c>
@@ -17460,7 +17682,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>162</v>
       </c>
@@ -17481,7 +17703,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>162</v>
       </c>
@@ -17517,7 +17739,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>162</v>
       </c>
@@ -17538,7 +17760,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>162</v>
       </c>
@@ -17559,7 +17781,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>162</v>
       </c>
@@ -17595,7 +17817,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>162</v>
       </c>
@@ -17616,7 +17838,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>162</v>
       </c>
@@ -17637,7 +17859,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>162</v>
       </c>
@@ -17673,7 +17895,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>162</v>
       </c>
@@ -17694,7 +17916,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>162</v>
       </c>
@@ -17715,7 +17937,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>162</v>
       </c>
@@ -17751,7 +17973,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -17772,7 +17994,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -17793,7 +18015,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -17807,7 +18029,7 @@
         <v>7</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F245" s="1" t="str">
         <f t="shared" si="4"/>
@@ -17829,7 +18051,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>162</v>
       </c>
@@ -17865,7 +18087,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>162</v>
       </c>
@@ -17886,7 +18108,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>162</v>
       </c>
@@ -17907,7 +18129,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>162</v>
       </c>
@@ -17928,7 +18150,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>162</v>
       </c>
@@ -17964,7 +18186,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -17985,7 +18207,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -18006,7 +18228,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -18020,7 +18242,7 @@
         <v>131</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F253" s="1" t="str">
         <f t="shared" si="4"/>
@@ -18042,7 +18264,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>162</v>
       </c>
@@ -18063,7 +18285,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>162</v>
       </c>
@@ -18084,7 +18306,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>162</v>
       </c>
@@ -18120,7 +18342,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>162</v>
       </c>
@@ -18141,7 +18363,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -18162,7 +18384,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -18183,7 +18405,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -18204,7 +18426,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -18240,7 +18462,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>162</v>
       </c>
@@ -18276,7 +18498,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>162</v>
       </c>
@@ -18297,7 +18519,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>162</v>
       </c>
@@ -18333,7 +18555,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -18354,7 +18576,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>162</v>
       </c>
@@ -18375,7 +18597,7 @@
         <v>Non</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>162</v>
       </c>
@@ -18396,7 +18618,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -18417,7 +18639,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>162</v>
       </c>
@@ -18438,7 +18660,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>162</v>
       </c>
@@ -18459,7 +18681,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -18480,7 +18702,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -18501,7 +18723,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -18537,7 +18759,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -18558,7 +18780,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>162</v>
       </c>
@@ -18594,7 +18816,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>162</v>
       </c>
@@ -18630,7 +18852,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -18651,7 +18873,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -18672,7 +18894,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -18693,7 +18915,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>162</v>
       </c>
@@ -18714,7 +18936,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>162</v>
       </c>
@@ -18735,7 +18957,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>162</v>
       </c>
@@ -18756,7 +18978,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>162</v>
       </c>
@@ -18792,7 +19014,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>162</v>
       </c>
@@ -18828,7 +19050,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>162</v>
       </c>
@@ -18849,7 +19071,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>162</v>
       </c>
@@ -18870,7 +19092,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>162</v>
       </c>
@@ -18891,7 +19113,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>162</v>
       </c>
@@ -18927,7 +19149,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>162</v>
       </c>
@@ -18948,7 +19170,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>162</v>
       </c>
@@ -18984,7 +19206,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>162</v>
       </c>
@@ -19005,7 +19227,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>162</v>
       </c>
@@ -19026,7 +19248,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>162</v>
       </c>
@@ -19047,7 +19269,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>162</v>
       </c>
@@ -19068,7 +19290,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>162</v>
       </c>
@@ -19089,7 +19311,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>162</v>
       </c>
@@ -19110,7 +19332,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>162</v>
       </c>
@@ -19146,7 +19368,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
@@ -19182,7 +19404,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>162</v>
       </c>
@@ -19203,7 +19425,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>162</v>
       </c>
@@ -19224,7 +19446,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>162</v>
       </c>
@@ -19245,7 +19467,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>162</v>
       </c>
@@ -19266,7 +19488,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>162</v>
       </c>
@@ -19302,7 +19524,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>162</v>
       </c>
@@ -19323,7 +19545,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>162</v>
       </c>
@@ -19344,7 +19566,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>162</v>
       </c>
@@ -19365,7 +19587,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>162</v>
       </c>
@@ -19401,7 +19623,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>162</v>
       </c>
@@ -19422,7 +19644,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>162</v>
       </c>
@@ -19458,7 +19680,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>162</v>
       </c>
@@ -19479,7 +19701,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>162</v>
       </c>
@@ -19500,7 +19722,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>162</v>
       </c>
@@ -19536,7 +19758,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>162</v>
       </c>
@@ -19557,7 +19779,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
@@ -19578,7 +19800,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>162</v>
       </c>
@@ -19599,7 +19821,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>162</v>
       </c>
@@ -19620,7 +19842,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>162</v>
       </c>
@@ -19641,7 +19863,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>162</v>
       </c>
@@ -19662,7 +19884,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>162</v>
       </c>
@@ -19683,7 +19905,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>162</v>
       </c>
@@ -19704,7 +19926,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>162</v>
       </c>
@@ -19725,7 +19947,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>162</v>
       </c>
@@ -19746,7 +19968,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>162</v>
       </c>
@@ -19767,7 +19989,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>162</v>
       </c>
@@ -19781,7 +20003,7 @@
         <v>7</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F324" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19803,7 +20025,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>162</v>
       </c>
@@ -19824,7 +20046,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>162</v>
       </c>
@@ -19845,7 +20067,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>162</v>
       </c>
@@ -19881,7 +20103,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>162</v>
       </c>
@@ -19902,7 +20124,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>162</v>
       </c>
@@ -19923,7 +20145,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>162</v>
       </c>
@@ -19944,7 +20166,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>162</v>
       </c>
@@ -19965,7 +20187,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>162</v>
       </c>
@@ -19986,7 +20208,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>162</v>
       </c>
@@ -20022,7 +20244,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>162</v>
       </c>
@@ -20043,7 +20265,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>162</v>
       </c>
@@ -20064,7 +20286,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>162</v>
       </c>
@@ -20085,7 +20307,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>162</v>
       </c>
@@ -20121,7 +20343,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>162</v>
       </c>
@@ -20142,7 +20364,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>162</v>
       </c>
@@ -20163,7 +20385,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>162</v>
       </c>
@@ -20184,7 +20406,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>162</v>
       </c>
@@ -20205,7 +20427,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>162</v>
       </c>
@@ -20226,7 +20448,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>162</v>
       </c>
@@ -20247,7 +20469,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>162</v>
       </c>
@@ -20268,7 +20490,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>162</v>
       </c>
@@ -20304,7 +20526,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -20325,7 +20547,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -20346,7 +20568,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>162</v>
       </c>
@@ -20367,7 +20589,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>162</v>
       </c>
@@ -20403,7 +20625,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>162</v>
       </c>
@@ -20424,7 +20646,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>162</v>
       </c>
@@ -20445,7 +20667,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -20466,7 +20688,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>162</v>
       </c>
@@ -20487,7 +20709,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>162</v>
       </c>
@@ -20523,7 +20745,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>162</v>
       </c>
@@ -20544,7 +20766,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>162</v>
       </c>
@@ -20565,7 +20787,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>162</v>
       </c>
@@ -20586,7 +20808,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>162</v>
       </c>
@@ -20622,7 +20844,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -20643,7 +20865,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -20664,7 +20886,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>162</v>
       </c>
@@ -20685,7 +20907,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>162</v>
       </c>
@@ -20706,7 +20928,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>162</v>
       </c>
@@ -20727,7 +20949,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>162</v>
       </c>
@@ -20748,7 +20970,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
@@ -20769,7 +20991,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>162</v>
       </c>
@@ -20805,7 +21027,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>162</v>
       </c>
@@ -20826,7 +21048,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>162</v>
       </c>
@@ -20847,7 +21069,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>162</v>
       </c>
@@ -20868,7 +21090,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -20904,7 +21126,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -20925,7 +21147,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -20946,7 +21168,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>162</v>
       </c>
@@ -20967,7 +21189,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>162</v>
       </c>
@@ -20988,7 +21210,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>162</v>
       </c>
@@ -21009,7 +21231,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>162</v>
       </c>
@@ -21030,7 +21252,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>162</v>
       </c>
@@ -21051,7 +21273,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>162</v>
       </c>
@@ -21087,7 +21309,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>162</v>
       </c>
@@ -21108,7 +21330,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>162</v>
       </c>
@@ -21129,7 +21351,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>162</v>
       </c>
@@ -21165,7 +21387,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>162</v>
       </c>
@@ -21201,7 +21423,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>162</v>
       </c>
@@ -21237,7 +21459,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>162</v>
       </c>
@@ -21273,7 +21495,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>162</v>
       </c>
@@ -21309,7 +21531,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>162</v>
       </c>
@@ -21345,7 +21567,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>162</v>
       </c>
@@ -21381,7 +21603,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>162</v>
       </c>
@@ -21417,7 +21639,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -21453,7 +21675,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>162</v>
       </c>
@@ -21489,7 +21711,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>162</v>
       </c>
@@ -21525,7 +21747,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>162</v>
       </c>
@@ -21561,7 +21783,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>162</v>
       </c>
@@ -21597,7 +21819,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>162</v>
       </c>
@@ -21633,7 +21855,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>162</v>
       </c>
@@ -21669,7 +21891,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>162</v>
       </c>
@@ -21705,7 +21927,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>162</v>
       </c>
@@ -21741,7 +21963,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>162</v>
       </c>
@@ -21777,7 +21999,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>162</v>
       </c>
@@ -21813,7 +22035,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>162</v>
       </c>
@@ -21849,7 +22071,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>162</v>
       </c>
@@ -21885,7 +22107,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>162</v>
       </c>
@@ -21921,7 +22143,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>162</v>
       </c>
@@ -21957,7 +22179,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>162</v>
       </c>
@@ -21993,7 +22215,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>162</v>
       </c>
@@ -22029,7 +22251,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>162</v>
       </c>
@@ -22050,7 +22272,7 @@
         <v>Non</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>162</v>
       </c>
@@ -22086,7 +22308,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>162</v>
       </c>
@@ -22122,7 +22344,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>162</v>
       </c>
@@ -22158,7 +22380,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>162</v>
       </c>
@@ -22194,7 +22416,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>162</v>
       </c>
@@ -22230,7 +22452,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>162</v>
       </c>
@@ -22266,7 +22488,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>162</v>
       </c>
@@ -22302,7 +22524,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>162</v>
       </c>
@@ -22338,7 +22560,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>162</v>
       </c>
@@ -22374,7 +22596,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>162</v>
       </c>
@@ -22410,7 +22632,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>162</v>
       </c>
@@ -22446,7 +22668,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>162</v>
       </c>
@@ -22482,7 +22704,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>162</v>
       </c>
@@ -22518,7 +22740,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>162</v>
       </c>
@@ -22558,7 +22780,7 @@
   <autoFilter ref="A1:K420" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Galliard"/>
+        <filter val="Arpenteurs Silencieux"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -22571,19 +22793,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35BA778-DA30-4EA6-A9D5-58601F95069A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>159</v>
       </c>
@@ -22597,7 +22819,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -22608,7 +22830,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -22622,7 +22844,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -22636,7 +22858,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -22650,7 +22872,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -22664,7 +22886,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -22675,10 +22897,10 @@
         <v>684</v>
       </c>
       <c r="D7" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -22686,21 +22908,27 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D8" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -22711,7 +22939,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -22719,7 +22947,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -22727,7 +22955,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -22735,7 +22963,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -22743,7 +22971,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -22751,7 +22979,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -22759,7 +22987,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -22767,7 +22995,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -22778,18 +23006,16 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>315</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -22798,7 +23024,7 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -22812,7 +23038,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89772A40-A659-4794-A865-7D03BA2EA51F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6C10AD2-E968-474F-B8AF-66B914A476FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="802">
   <si>
     <t>Liste</t>
   </si>
@@ -1817,9 +1817,6 @@
     <t>Thème exclusif</t>
   </si>
   <si>
-    <t>Thème secondaire</t>
-  </si>
-  <si>
     <t>Evasion</t>
   </si>
   <si>
@@ -2230,10 +2227,6 @@
     <t>Le LG peut planter ses griffes telles des dards dans la chair de ses ennemis. Elles régénèrent en un tour</t>
   </si>
   <si>
-    <t>Tactiques de Meutes
-(le transformer en liste)</t>
-  </si>
-  <si>
     <t>Les esprits infligent moins de dégâts au LG avec leur Rage</t>
   </si>
   <si>
@@ -2244,9 +2237,6 @@
   </si>
   <si>
     <t>Les griffes et les crocs du LG gagnent de la pénétration d'armure</t>
-  </si>
-  <si>
-    <t>Permet de se soigner en plein milieu d'une bataille sans s'arrêter un tour</t>
   </si>
   <si>
     <t>A chaque fois qu'il subit des dégâts le LG peut gagner de la Rage sans faire de jet de frénésie. Il peut aussi dépenser un point de Rage par tour gratuitement</t>
@@ -2350,6 +2340,108 @@
   </si>
   <si>
     <t>Intelligence + Vigilance</t>
+  </si>
+  <si>
+    <t>Thème principal</t>
+  </si>
+  <si>
+    <t>Visions, enigmes, combat non létal</t>
+  </si>
+  <si>
+    <t>Permet de dépenser jusqu'à 3 points de Rage pour ajouter autant de dés à la prochaine action</t>
+  </si>
+  <si>
+    <t>1 à 3 R</t>
+  </si>
+  <si>
+    <t>Permet de se soigner en plein milieu d'une bataille sans s'arrêter un tour pour le faire</t>
+  </si>
+  <si>
+    <t>Bataille</t>
+  </si>
+  <si>
+    <t>Sauvagerie</t>
+  </si>
+  <si>
+    <t>Agilité</t>
+  </si>
+  <si>
+    <t>Peut marcher sur tout rebord, filin ou autre passage étroit</t>
+  </si>
+  <si>
+    <t>Dépenser un point de Volonté donne deux réussites automatiques au lieu d'une</t>
+  </si>
+  <si>
+    <t>Transforme la Rage en Volonté</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>Le LG est considéré comme utilisant un miroir pour tout passage dans l'Umbra</t>
+  </si>
+  <si>
+    <t>Augmente les résistances aux tentations matérielles ou spirituelles ainsi qu'à la corruption</t>
+  </si>
+  <si>
+    <t>Astuce + Rituels</t>
+  </si>
+  <si>
+    <t>Les obstacles ne ralentissent pas le LG</t>
+  </si>
+  <si>
+    <t>Change la matiére d'un objet d'un élément à un autre</t>
+  </si>
+  <si>
+    <t>Manipulation + Enigmes</t>
+  </si>
+  <si>
+    <t>1 tour par point de Gnose</t>
+  </si>
+  <si>
+    <t>Permet de voir dans le noir total, de voir les personnes invisibles et de reconnaître les illusions</t>
+  </si>
+  <si>
+    <t>Combat non létal</t>
+  </si>
+  <si>
+    <t>A l'activation de ce Donc les attaques du LG infligent des dégâts sont blesser l'adversaire. Une fois la cible hors combat elle se soigne de toutes ses blessures</t>
+  </si>
+  <si>
+    <t>Quand il est la cible d'une attaque armée le LG peut réduire le jet de touche de son adversaire. S'il fait plus de réussites que lui il le désarme</t>
+  </si>
+  <si>
+    <t>Réduit tous les groupements de dés de touche des attaques qui ciblent le LG</t>
+  </si>
+  <si>
+    <t>Perception + Athlétisme</t>
+  </si>
+  <si>
+    <t>Permet de rediriger les attaques des ennemis vers d'autres ennemis</t>
+  </si>
+  <si>
+    <t>Astuce + 3</t>
+  </si>
+  <si>
+    <t>Astuce + Mélée</t>
+  </si>
+  <si>
+    <t>1 attaque par réussite</t>
+  </si>
+  <si>
+    <t>Pendant que le personnage médite le joueur peut poser une question au conteur qui doit répondre (mais la réponse peut être vague et drapée de symbolisme)</t>
+  </si>
+  <si>
+    <t>Intelligence + Enigmes</t>
+  </si>
+  <si>
+    <t>une heure de méditation</t>
+  </si>
+  <si>
+    <t>Pendant un jour le LG bénéficie des bonus de la forme et de la régénération de la forme Crinos sou forme hominidée</t>
+  </si>
+  <si>
+    <t>un jour</t>
   </si>
 </sst>
 </file>
@@ -2445,17 +2537,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8055,7 +8137,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{477637CD-FD25-47E8-A7D2-A30D4A046A9C}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{477637CD-FD25-47E8-A7D2-A30D4A046A9C}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:W43" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -8666,7 +8748,7 @@
         <v>559</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -8680,12 +8762,12 @@
         <v>162</v>
       </c>
       <c r="W4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B5" t="s">
         <v>140</v>
@@ -8927,7 +9009,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8995,7 +9077,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -9116,7 +9198,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -9147,7 +9229,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -9180,7 +9262,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7">
@@ -9359,7 +9441,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -9423,7 +9505,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7">
@@ -9460,7 +9542,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9542,7 +9624,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9659,7 +9741,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10083,7 +10165,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -10114,7 +10196,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B43" s="7">
         <v>20</v>
@@ -10190,12 +10272,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G422" sqref="G422"/>
+      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10249,7 +10330,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
@@ -10266,7 +10347,7 @@
         <v>560</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D2)=1,"Oui","Non")</f>
+        <f t="shared" ref="F2:F65" si="0">IF(COUNTIF(D:D,"="&amp;D2)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -10285,7 +10366,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -10302,7 +10383,7 @@
         <v>491</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D3)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -10321,7 +10402,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -10338,7 +10419,7 @@
         <v>311</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D4)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -10357,7 +10438,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -10374,7 +10455,7 @@
         <v>560</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D5)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -10393,7 +10474,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -10407,10 +10488,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D6)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -10429,7 +10510,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -10446,7 +10527,7 @@
         <v>296</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D7)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -10465,7 +10546,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -10482,7 +10563,7 @@
         <v>560</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D8)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -10501,7 +10582,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -10515,10 +10596,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D9)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -10537,7 +10618,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
@@ -10551,10 +10632,10 @@
         <v>497</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>496</v>
+        <v>595</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D10)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -10573,7 +10654,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -10587,10 +10668,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>496</v>
+        <v>595</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D11)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -10609,7 +10690,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -10626,7 +10707,7 @@
         <v>399</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D12)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -10645,7 +10726,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -10662,7 +10743,7 @@
         <v>305</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D13)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -10681,7 +10762,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -10698,7 +10779,7 @@
         <v>395</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D14)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -10717,7 +10798,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -10734,7 +10815,7 @@
         <v>402</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D15)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -10753,7 +10834,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -10770,7 +10851,7 @@
         <v>389</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D16)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -10789,7 +10870,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -10806,7 +10887,7 @@
         <v>93</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D17)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -10825,7 +10906,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -10839,10 +10920,10 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D18)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -10861,7 +10942,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
@@ -10878,7 +10959,7 @@
         <v>560</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D19)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -10897,7 +10978,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -10911,10 +10992,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D20)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -10933,7 +11014,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -10950,7 +11031,7 @@
         <v>560</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D21)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -10969,7 +11050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -10986,7 +11067,7 @@
         <v>496</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D22)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -11005,7 +11086,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -11022,7 +11103,7 @@
         <v>311</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D23)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -11041,7 +11122,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -11058,7 +11139,7 @@
         <v>520</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D24)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -11077,7 +11158,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -11094,7 +11175,7 @@
         <v>520</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D25)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -11113,7 +11194,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -11130,7 +11211,7 @@
         <v>412</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D26)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -11149,7 +11230,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -11166,7 +11247,7 @@
         <v>520</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D27)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -11182,7 +11263,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -11199,7 +11280,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D28)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -11218,7 +11299,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>160</v>
       </c>
@@ -11235,7 +11316,7 @@
         <v>422</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D29)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -11251,7 +11332,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>160</v>
       </c>
@@ -11268,7 +11349,7 @@
         <v>412</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D30)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -11287,7 +11368,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -11304,7 +11385,7 @@
         <v>427</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D31)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -11323,7 +11404,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -11340,7 +11421,7 @@
         <v>395</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D32)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -11359,7 +11440,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -11376,7 +11457,7 @@
         <v>422</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D33)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -11395,7 +11476,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>160</v>
       </c>
@@ -11412,7 +11493,7 @@
         <v>520</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D34)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -11431,7 +11512,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>160</v>
       </c>
@@ -11448,7 +11529,7 @@
         <v>520</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D35)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -11467,7 +11548,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -11484,7 +11565,7 @@
         <v>496</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D36)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -11503,7 +11584,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
@@ -11520,7 +11601,7 @@
         <v>422</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D37)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -11539,7 +11620,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -11556,7 +11637,7 @@
         <v>520</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D38)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -11575,7 +11656,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -11592,7 +11673,7 @@
         <v>402</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D39)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -11611,7 +11692,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -11628,7 +11709,7 @@
         <v>407</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D40)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -11647,7 +11728,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -11664,7 +11745,7 @@
         <v>422</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D41)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -11683,7 +11764,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
@@ -11700,7 +11781,7 @@
         <v>573</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D42)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -11719,7 +11800,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -11736,7 +11817,7 @@
         <v>520</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D43)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -11755,7 +11836,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
@@ -11769,10 +11850,10 @@
         <v>44</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D44)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -11791,7 +11872,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -11808,7 +11889,7 @@
         <v>412</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D45)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -11827,7 +11908,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -11844,7 +11925,7 @@
         <v>573</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D46)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -11863,7 +11944,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>160</v>
       </c>
@@ -11880,11 +11961,11 @@
         <v>576</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D47)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>390</v>
@@ -11899,7 +11980,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -11916,7 +11997,7 @@
         <v>407</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D48)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -11935,7 +12016,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -11952,7 +12033,7 @@
         <v>412</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D49)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -11971,7 +12052,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>160</v>
       </c>
@@ -11988,7 +12069,7 @@
         <v>412</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D50)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -12007,7 +12088,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -12024,7 +12105,7 @@
         <v>296</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D51)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -12043,7 +12124,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -12060,7 +12141,7 @@
         <v>573</v>
       </c>
       <c r="F52" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D52)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -12079,7 +12160,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -12096,7 +12177,7 @@
         <v>520</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D53)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -12115,7 +12196,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -12126,17 +12207,17 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>412</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D54)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>390</v>
@@ -12151,7 +12232,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -12168,7 +12249,7 @@
         <v>402</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D55)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -12187,7 +12268,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -12204,7 +12285,7 @@
         <v>422</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D56)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -12223,7 +12304,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -12240,7 +12321,7 @@
         <v>573</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D57)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -12259,7 +12340,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
@@ -12273,10 +12354,10 @@
         <v>57</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D58)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -12295,7 +12376,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -12312,7 +12393,7 @@
         <v>425</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D59)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -12331,7 +12412,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
@@ -12348,7 +12429,7 @@
         <v>311</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D60)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -12367,7 +12448,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>160</v>
       </c>
@@ -12381,10 +12462,10 @@
         <v>60</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D61)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -12403,7 +12484,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
@@ -12420,7 +12501,7 @@
         <v>427</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D62)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -12439,7 +12520,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
@@ -12456,7 +12537,7 @@
         <v>592</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D63)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -12475,7 +12556,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -12492,7 +12573,7 @@
         <v>395</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D64)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -12511,7 +12592,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -12528,7 +12609,7 @@
         <v>427</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D65)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -12547,7 +12628,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -12564,7 +12645,7 @@
         <v>592</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D66)=1,"Oui","Non")</f>
+        <f t="shared" ref="F66:F129" si="1">IF(COUNTIF(D:D,"="&amp;D66)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -12583,7 +12664,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -12600,7 +12681,7 @@
         <v>592</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D67)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -12619,7 +12700,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -12636,7 +12717,7 @@
         <v>427</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D68)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -12655,7 +12736,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -12672,7 +12753,7 @@
         <v>573</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D69)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -12691,7 +12772,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
@@ -12708,7 +12789,7 @@
         <v>592</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D70)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -12727,7 +12808,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -12744,7 +12825,7 @@
         <v>592</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D71)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -12763,7 +12844,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -12780,7 +12861,7 @@
         <v>576</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D72)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -12799,7 +12880,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>161</v>
       </c>
@@ -12816,7 +12897,7 @@
         <v>296</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D73)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -12835,7 +12916,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
@@ -12852,7 +12933,7 @@
         <v>576</v>
       </c>
       <c r="F74" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D74)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -12871,7 +12952,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
@@ -12888,7 +12969,7 @@
         <v>402</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D75)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -12907,7 +12988,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
@@ -12921,10 +13002,10 @@
         <v>74</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D76)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -12943,7 +13024,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -12960,7 +13041,7 @@
         <v>422</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D77)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G77" s="3" t="s">
@@ -12979,7 +13060,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -12996,7 +13077,7 @@
         <v>592</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D78)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G78" s="3" t="s">
@@ -13015,7 +13096,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -13032,7 +13113,7 @@
         <v>402</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D79)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -13051,7 +13132,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
@@ -13068,7 +13149,7 @@
         <v>592</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D80)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -13087,7 +13168,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -13104,7 +13185,7 @@
         <v>592</v>
       </c>
       <c r="F81" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D81)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -13123,7 +13204,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -13137,14 +13218,14 @@
         <v>81</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D82)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>424</v>
@@ -13156,10 +13237,10 @@
         <v>387</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -13176,7 +13257,7 @@
         <v>407</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D83)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -13195,7 +13276,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -13212,17 +13293,17 @@
         <v>93</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D84)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J84" s="9">
         <v>8</v>
@@ -13231,7 +13312,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
@@ -13248,7 +13329,7 @@
         <v>412</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D85)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G85" s="3" t="s">
@@ -13267,7 +13348,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
@@ -13284,7 +13365,7 @@
         <v>222</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D86)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G86" s="3" t="s">
@@ -13303,7 +13384,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -13320,17 +13401,17 @@
         <v>93</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D87)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G87" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>441</v>
@@ -13339,7 +13420,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -13356,17 +13437,17 @@
         <v>93</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D88)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J88" s="9">
         <v>7</v>
@@ -13375,7 +13456,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -13392,7 +13473,7 @@
         <v>93</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D89)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G89" s="3" t="s">
@@ -13411,7 +13492,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -13428,11 +13509,11 @@
         <v>422</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D90)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>390</v>
@@ -13444,10 +13525,10 @@
         <v>387</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -13464,7 +13545,7 @@
         <v>427</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D91)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -13483,7 +13564,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -13500,11 +13581,11 @@
         <v>93</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D92)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>390</v>
@@ -13519,7 +13600,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>161</v>
       </c>
@@ -13533,20 +13614,20 @@
         <v>94</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D93)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J93" s="9">
         <v>7</v>
@@ -13555,7 +13636,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -13572,11 +13653,11 @@
         <v>407</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D94)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>390</v>
@@ -13591,7 +13672,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>161</v>
       </c>
@@ -13608,11 +13689,11 @@
         <v>93</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D95)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>390</v>
@@ -13627,7 +13708,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>161</v>
       </c>
@@ -13644,7 +13725,7 @@
         <v>93</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D96)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G96" s="3" t="s">
@@ -13663,7 +13744,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>161</v>
       </c>
@@ -13677,17 +13758,17 @@
         <v>97</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D97)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G97" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>441</v>
@@ -13699,7 +13780,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -13713,14 +13794,14 @@
         <v>98</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D98)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>424</v>
@@ -13735,7 +13816,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -13752,11 +13833,11 @@
         <v>407</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D99)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>390</v>
@@ -13771,7 +13852,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -13788,26 +13869,26 @@
         <v>422</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D100)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G100" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="I100" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>620</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -13824,26 +13905,26 @@
         <v>298</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D101)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J101" s="9" t="s">
         <v>622</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>161</v>
       </c>
@@ -13860,17 +13941,17 @@
         <v>407</v>
       </c>
       <c r="F102" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D102)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G102" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="J102" s="10" t="s">
         <v>562</v>
@@ -13879,7 +13960,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -13893,14 +13974,14 @@
         <v>104</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Oui</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="F103" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D103)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>683</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>396</v>
@@ -13912,10 +13993,10 @@
         <v>387</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>161</v>
       </c>
@@ -13932,11 +14013,11 @@
         <v>412</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D104)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>390</v>
@@ -13951,7 +14032,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -13965,10 +14046,10 @@
         <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D105)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G105" s="3" t="s">
@@ -13987,7 +14068,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -14004,7 +14085,7 @@
         <v>389</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D106)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G106" s="3" t="s">
@@ -14023,7 +14104,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>161</v>
       </c>
@@ -14037,14 +14118,14 @@
         <v>107</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D107)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>390</v>
@@ -14053,13 +14134,13 @@
         <v>484</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>161</v>
       </c>
@@ -14073,20 +14154,20 @@
         <v>108</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D108)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>488</v>
@@ -14095,7 +14176,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -14109,10 +14190,10 @@
         <v>109</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D109)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G109" s="3" t="s">
@@ -14131,7 +14212,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -14148,17 +14229,17 @@
         <v>488</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D110)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J110" s="9">
         <v>7</v>
@@ -14167,7 +14248,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
@@ -14181,20 +14262,20 @@
         <v>111</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Oui</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="F111" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D111)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>692</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J111" s="9">
         <v>7</v>
@@ -14203,7 +14284,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
@@ -14217,14 +14298,14 @@
         <v>112</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D112)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>424</v>
@@ -14236,10 +14317,10 @@
         <v>387</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>161</v>
       </c>
@@ -14256,17 +14337,17 @@
         <v>422</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D113)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J113" s="9">
         <v>8</v>
@@ -14275,7 +14356,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -14292,7 +14373,7 @@
         <v>439</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D114)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G114" s="3" t="s">
@@ -14311,7 +14392,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>161</v>
       </c>
@@ -14328,7 +14409,7 @@
         <v>412</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D115)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G115" s="3" t="s">
@@ -14347,7 +14428,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
@@ -14364,7 +14445,7 @@
         <v>422</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D116)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G116" s="3" t="s">
@@ -14383,7 +14464,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>161</v>
       </c>
@@ -14397,14 +14478,14 @@
         <v>116</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D117)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>390</v>
@@ -14416,10 +14497,10 @@
         <v>6</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -14436,14 +14517,14 @@
         <v>422</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D118)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G118" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>480</v>
@@ -14455,7 +14536,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>161</v>
       </c>
@@ -14472,11 +14553,11 @@
         <v>412</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D119)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>390</v>
@@ -14488,7 +14569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>161</v>
       </c>
@@ -14505,11 +14586,11 @@
         <v>311</v>
       </c>
       <c r="F120" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D120)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>424</v>
@@ -14524,7 +14605,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -14538,10 +14619,10 @@
         <v>120</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F121" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D121)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G121" s="3" t="s">
@@ -14560,7 +14641,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>161</v>
       </c>
@@ -14574,20 +14655,20 @@
         <v>121</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F122" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D122)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>488</v>
@@ -14596,7 +14677,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>161</v>
       </c>
@@ -14610,20 +14691,20 @@
         <v>123</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F123" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D123)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J123" s="9">
         <v>6</v>
@@ -14632,7 +14713,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -14646,14 +14727,14 @@
         <v>124</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Oui</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="F124" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D124)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>709</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>390</v>
@@ -14668,7 +14749,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -14685,11 +14766,11 @@
         <v>422</v>
       </c>
       <c r="F125" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D125)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>424</v>
@@ -14704,7 +14785,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>161</v>
       </c>
@@ -14718,17 +14799,17 @@
         <v>126</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F126" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D126)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G126" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>524</v>
@@ -14740,7 +14821,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>161</v>
       </c>
@@ -14757,7 +14838,7 @@
         <v>412</v>
       </c>
       <c r="F127" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D127)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G127" s="3" t="s">
@@ -14776,7 +14857,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>161</v>
       </c>
@@ -14790,20 +14871,20 @@
         <v>127</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F128" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D128)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J128" s="9">
         <v>7</v>
@@ -14812,7 +14893,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>161</v>
       </c>
@@ -14829,7 +14910,7 @@
         <v>298</v>
       </c>
       <c r="F129" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D129)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G129" s="3" t="s">
@@ -14848,7 +14929,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>161</v>
       </c>
@@ -14862,29 +14943,29 @@
         <v>128</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D130)=1,"Oui","Non")</f>
+        <f t="shared" ref="F130:F193" si="2">IF(COUNTIF(D:D,"="&amp;D130)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J130" s="9" t="s">
         <v>488</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
@@ -14898,10 +14979,10 @@
         <v>129</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D131)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G131" s="3" t="s">
@@ -14920,7 +15001,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -14934,20 +15015,20 @@
         <v>130</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F132" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D132)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J132" s="9">
         <v>8</v>
@@ -14956,7 +15037,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
@@ -14970,10 +15051,10 @@
         <v>131</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F133" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D133)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G133" s="3" t="s">
@@ -14992,7 +15073,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>161</v>
       </c>
@@ -15006,20 +15087,20 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F134" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D134)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J134" s="9" t="s">
         <v>488</v>
@@ -15028,7 +15109,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
@@ -15042,14 +15123,14 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F135" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D135)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>557</v>
@@ -15064,7 +15145,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -15078,20 +15159,20 @@
         <v>134</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F136" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D136)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J136" s="9" t="s">
         <v>488</v>
@@ -15100,7 +15181,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -15114,20 +15195,20 @@
         <v>135</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F137" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D137)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J137" s="9">
         <v>6</v>
@@ -15136,7 +15217,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -15153,11 +15234,11 @@
         <v>422</v>
       </c>
       <c r="F138" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D138)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>424</v>
@@ -15169,10 +15250,10 @@
         <v>387</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>161</v>
       </c>
@@ -15186,20 +15267,20 @@
         <v>137</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D139)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J139" s="9" t="s">
         <v>488</v>
@@ -15208,7 +15289,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>161</v>
       </c>
@@ -15222,10 +15303,10 @@
         <v>138</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D140)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G140" s="3" t="s">
@@ -15244,7 +15325,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -15258,14 +15339,14 @@
         <v>139</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D141)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>390</v>
@@ -15280,7 +15361,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>161</v>
       </c>
@@ -15294,10 +15375,10 @@
         <v>120</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F142" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D142)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G142" s="3" t="s">
@@ -15316,7 +15397,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
@@ -15333,11 +15414,11 @@
         <v>452</v>
       </c>
       <c r="F143" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D143)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>454</v>
@@ -15352,7 +15433,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
@@ -15369,7 +15450,7 @@
         <v>452</v>
       </c>
       <c r="F144" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D144)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G144" s="3" t="s">
@@ -15388,7 +15469,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>161</v>
       </c>
@@ -15402,10 +15483,10 @@
         <v>143</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>488</v>
+        <v>773</v>
       </c>
       <c r="F145" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D145)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G145" s="3" t="s">
@@ -15424,7 +15505,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -15438,10 +15519,10 @@
         <v>144</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>415</v>
+        <v>788</v>
       </c>
       <c r="F146" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D146)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G146" s="3" t="s">
@@ -15460,7 +15541,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>161</v>
       </c>
@@ -15473,15 +15554,15 @@
       <c r="D147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>731</v>
+      <c r="E147" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="F147" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D147)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>396</v>
@@ -15496,7 +15577,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -15510,14 +15591,14 @@
         <v>146</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="F148" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D148)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>396</v>
@@ -15532,7 +15613,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
@@ -15546,14 +15627,14 @@
         <v>147</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>422</v>
+        <v>773</v>
       </c>
       <c r="F149" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D149)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>390</v>
@@ -15568,7 +15649,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -15585,7 +15666,7 @@
         <v>412</v>
       </c>
       <c r="F150" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D150)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G150" s="3" t="s">
@@ -15604,7 +15685,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -15618,10 +15699,10 @@
         <v>148</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>422</v>
+        <v>774</v>
       </c>
       <c r="F151" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D151)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G151" s="3" t="s">
@@ -15640,7 +15721,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -15654,14 +15735,14 @@
         <v>149</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="F152" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D152)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>390</v>
@@ -15676,7 +15757,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>161</v>
       </c>
@@ -15693,7 +15774,7 @@
         <v>452</v>
       </c>
       <c r="F153" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D153)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G153" s="3" t="s">
@@ -15712,7 +15793,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -15729,11 +15810,11 @@
         <v>452</v>
       </c>
       <c r="F154" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D154)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>454</v>
@@ -15745,10 +15826,10 @@
         <v>387</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>161</v>
       </c>
@@ -15762,14 +15843,14 @@
         <v>152</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="F155" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D155)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>390</v>
@@ -15784,7 +15865,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
@@ -15801,7 +15882,7 @@
         <v>402</v>
       </c>
       <c r="F156" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D156)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G156" s="3" t="s">
@@ -15820,7 +15901,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -15834,14 +15915,14 @@
         <v>153</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="F157" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D157)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>390</v>
@@ -15856,7 +15937,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -15870,14 +15951,14 @@
         <v>154</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>422</v>
+        <v>773</v>
       </c>
       <c r="F158" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D158)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>424</v>
@@ -15892,7 +15973,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -15909,11 +15990,11 @@
         <v>452</v>
       </c>
       <c r="F159" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D159)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>454</v>
@@ -15925,10 +16006,10 @@
         <v>387</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -15942,14 +16023,14 @@
         <v>156</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="F160" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D160)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>424</v>
@@ -15964,7 +16045,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -15981,17 +16062,17 @@
         <v>488</v>
       </c>
       <c r="F161" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D161)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>396</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J161" s="9">
         <v>8</v>
@@ -16000,7 +16081,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -16014,14 +16095,14 @@
         <v>158</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="F162" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D162)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>390</v>
@@ -16053,11 +16134,11 @@
         <v>576</v>
       </c>
       <c r="F163" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D163)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>390</v>
@@ -16089,7 +16170,7 @@
         <v>412</v>
       </c>
       <c r="F164" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D164)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G164" s="3" t="s">
@@ -16125,11 +16206,11 @@
         <v>427</v>
       </c>
       <c r="F165" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D165)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>390</v>
@@ -16158,14 +16239,14 @@
         <v>166</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F166" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D166)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>424</v>
@@ -16197,11 +16278,11 @@
         <v>576</v>
       </c>
       <c r="F167" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D167)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>424</v>
@@ -16233,11 +16314,11 @@
         <v>576</v>
       </c>
       <c r="F168" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D168)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>390</v>
@@ -16269,11 +16350,11 @@
         <v>576</v>
       </c>
       <c r="F169" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D169)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>424</v>
@@ -16285,7 +16366,7 @@
         <v>387</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -16305,7 +16386,7 @@
         <v>427</v>
       </c>
       <c r="F170" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D170)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G170" s="3" t="s">
@@ -16341,7 +16422,7 @@
         <v>560</v>
       </c>
       <c r="F171" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D171)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G171" s="4" t="s">
@@ -16377,17 +16458,17 @@
         <v>576</v>
       </c>
       <c r="F172" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D172)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J172" s="9">
         <v>7</v>
@@ -16413,11 +16494,11 @@
         <v>316</v>
       </c>
       <c r="F173" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D173)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>424</v>
@@ -16449,11 +16530,11 @@
         <v>415</v>
       </c>
       <c r="F174" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D174)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>396</v>
@@ -16482,26 +16563,26 @@
         <v>172</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F175" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D175)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J175" s="9">
         <v>7</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -16515,17 +16596,17 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F176" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D176)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>390</v>
@@ -16554,20 +16635,20 @@
         <v>173</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F177" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D177)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J177" s="9" t="s">
         <v>488</v>
@@ -16590,14 +16671,14 @@
         <v>174</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F178" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D178)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>424</v>
@@ -16609,7 +16690,7 @@
         <v>387</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -16629,23 +16710,23 @@
         <v>576</v>
       </c>
       <c r="F179" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D179)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J179" s="9">
         <v>7</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -16665,7 +16746,7 @@
         <v>407</v>
       </c>
       <c r="F180" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D180)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G180" s="3" t="s">
@@ -16698,14 +16779,14 @@
         <v>177</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F181" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D181)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>390</v>
@@ -16737,17 +16818,17 @@
         <v>422</v>
       </c>
       <c r="F182" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D182)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J182" s="9" t="s">
         <v>475</v>
@@ -16756,7 +16837,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -16770,14 +16851,29 @@
         <v>180</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="F183" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D183)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -16791,14 +16887,29 @@
         <v>181</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>422</v>
+        <v>775</v>
       </c>
       <c r="F184" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D184)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>162</v>
       </c>
@@ -16812,10 +16923,10 @@
         <v>144</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>415</v>
+        <v>788</v>
       </c>
       <c r="F185" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D185)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G185" s="3" t="s">
@@ -16834,7 +16945,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
@@ -16848,14 +16959,29 @@
         <v>182</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="F186" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D186)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>162</v>
       </c>
@@ -16872,7 +16998,7 @@
         <v>412</v>
       </c>
       <c r="F187" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D187)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G187" s="3" t="s">
@@ -16891,7 +17017,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>162</v>
       </c>
@@ -16905,14 +17031,29 @@
         <v>183</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="F188" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D188)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J188" s="9">
+        <v>8</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>162</v>
       </c>
@@ -16926,14 +17067,29 @@
         <v>184</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>422</v>
+        <v>652</v>
       </c>
       <c r="F189" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D189)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>162</v>
       </c>
@@ -16947,14 +17103,29 @@
         <v>185</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="F190" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D190)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="J190" s="9">
+        <v>6</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
@@ -16968,14 +17139,29 @@
         <v>186</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>422</v>
+        <v>576</v>
       </c>
       <c r="F191" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D191)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J191" s="9">
+        <v>6</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>162</v>
       </c>
@@ -16989,14 +17175,29 @@
         <v>187</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="F192" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D192)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="J192" s="9">
+        <v>7</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>162</v>
       </c>
@@ -17010,14 +17211,29 @@
         <v>188</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F193" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D193)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Oui</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J193" s="9">
+        <v>7</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>162</v>
       </c>
@@ -17031,14 +17247,29 @@
         <v>189</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>422</v>
+        <v>788</v>
       </c>
       <c r="F194" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D194)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F194:F257" si="3">IF(COUNTIF(D:D,"="&amp;D194)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>162</v>
       </c>
@@ -17052,14 +17283,29 @@
         <v>190</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>422</v>
+        <v>788</v>
       </c>
       <c r="F195" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D195)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -17076,7 +17322,7 @@
         <v>412</v>
       </c>
       <c r="F196" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D196)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G196" s="3" t="s">
@@ -17095,7 +17341,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>162</v>
       </c>
@@ -17112,7 +17358,7 @@
         <v>389</v>
       </c>
       <c r="F197" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D197)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G197" s="3" t="s">
@@ -17131,7 +17377,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>162</v>
       </c>
@@ -17145,10 +17391,10 @@
         <v>192</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>389</v>
+        <v>788</v>
       </c>
       <c r="F198" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D198)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G198" s="3" t="s">
@@ -17167,7 +17413,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>162</v>
       </c>
@@ -17181,14 +17427,29 @@
         <v>193</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>422</v>
+        <v>788</v>
       </c>
       <c r="F199" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D199)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="J199" s="9">
+        <v>7</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>162</v>
       </c>
@@ -17202,14 +17463,29 @@
         <v>194</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>422</v>
+        <v>788</v>
       </c>
       <c r="F200" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D200)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J200" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>162</v>
       </c>
@@ -17223,35 +17499,65 @@
         <v>195</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F201" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="J201" s="9">
+        <v>7</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C202" s="2">
+        <v>5</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F201" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D201)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C202" s="1">
-        <v>5</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F202" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D202)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F202" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J202" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>162</v>
       </c>
@@ -17268,11 +17574,11 @@
         <v>422</v>
       </c>
       <c r="F203" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D203)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>162</v>
       </c>
@@ -17286,10 +17592,10 @@
         <v>143</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>488</v>
+        <v>773</v>
       </c>
       <c r="F204" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D204)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G204" s="3" t="s">
@@ -17308,7 +17614,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>162</v>
       </c>
@@ -17325,11 +17631,11 @@
         <v>422</v>
       </c>
       <c r="F205" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D205)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>162</v>
       </c>
@@ -17346,11 +17652,11 @@
         <v>422</v>
       </c>
       <c r="F206" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D206)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>162</v>
       </c>
@@ -17367,7 +17673,7 @@
         <v>412</v>
       </c>
       <c r="F207" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D207)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G207" s="3" t="s">
@@ -17386,7 +17692,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>162</v>
       </c>
@@ -17403,7 +17709,7 @@
         <v>389</v>
       </c>
       <c r="F208" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D208)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G208" s="3" t="s">
@@ -17422,7 +17728,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>162</v>
       </c>
@@ -17439,11 +17745,11 @@
         <v>422</v>
       </c>
       <c r="F209" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D209)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>162</v>
       </c>
@@ -17460,11 +17766,11 @@
         <v>422</v>
       </c>
       <c r="F210" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D210)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>162</v>
       </c>
@@ -17481,7 +17787,7 @@
         <v>412</v>
       </c>
       <c r="F211" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D211)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G211" s="3" t="s">
@@ -17500,7 +17806,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>162</v>
       </c>
@@ -17517,11 +17823,11 @@
         <v>422</v>
       </c>
       <c r="F212" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D212)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>162</v>
       </c>
@@ -17538,11 +17844,11 @@
         <v>422</v>
       </c>
       <c r="F213" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D213)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>162</v>
       </c>
@@ -17559,7 +17865,7 @@
         <v>452</v>
       </c>
       <c r="F214" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D214)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G214" s="3" t="s">
@@ -17578,7 +17884,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>162</v>
       </c>
@@ -17595,11 +17901,11 @@
         <v>422</v>
       </c>
       <c r="F215" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D215)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>162</v>
       </c>
@@ -17616,11 +17922,11 @@
         <v>422</v>
       </c>
       <c r="F216" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D216)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>162</v>
       </c>
@@ -17637,7 +17943,7 @@
         <v>389</v>
       </c>
       <c r="F217" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D217)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G217" s="3" t="s">
@@ -17656,7 +17962,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>162</v>
       </c>
@@ -17673,11 +17979,11 @@
         <v>422</v>
       </c>
       <c r="F218" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D218)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>162</v>
       </c>
@@ -17694,11 +18000,11 @@
         <v>298</v>
       </c>
       <c r="F219" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D219)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>162</v>
       </c>
@@ -17715,11 +18021,11 @@
         <v>422</v>
       </c>
       <c r="F220" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D220)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>162</v>
       </c>
@@ -17736,11 +18042,11 @@
         <v>422</v>
       </c>
       <c r="F221" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D221)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>162</v>
       </c>
@@ -17757,11 +18063,11 @@
         <v>422</v>
       </c>
       <c r="F222" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D222)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>162</v>
       </c>
@@ -17778,11 +18084,11 @@
         <v>422</v>
       </c>
       <c r="F223" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D223)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>162</v>
       </c>
@@ -17799,11 +18105,11 @@
         <v>422</v>
       </c>
       <c r="F224" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D224)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>162</v>
       </c>
@@ -17820,11 +18126,11 @@
         <v>422</v>
       </c>
       <c r="F225" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D225)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -17841,7 +18147,7 @@
         <v>389</v>
       </c>
       <c r="F226" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D226)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G226" s="3" t="s">
@@ -17860,7 +18166,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>162</v>
       </c>
@@ -17877,7 +18183,7 @@
         <v>222</v>
       </c>
       <c r="F227" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D227)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G227" s="3" t="s">
@@ -17896,7 +18202,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
@@ -17913,7 +18219,7 @@
         <v>389</v>
       </c>
       <c r="F228" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D228)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G228" s="3" t="s">
@@ -17932,7 +18238,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>162</v>
       </c>
@@ -17949,11 +18255,11 @@
         <v>422</v>
       </c>
       <c r="F229" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D229)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>162</v>
       </c>
@@ -17970,11 +18276,11 @@
         <v>422</v>
       </c>
       <c r="F230" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D230)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>162</v>
       </c>
@@ -17991,11 +18297,11 @@
         <v>422</v>
       </c>
       <c r="F231" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D231)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>162</v>
       </c>
@@ -18012,11 +18318,11 @@
         <v>222</v>
       </c>
       <c r="F232" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D232)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>162</v>
       </c>
@@ -18033,11 +18339,11 @@
         <v>422</v>
       </c>
       <c r="F233" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D233)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>162</v>
       </c>
@@ -18051,10 +18357,10 @@
         <v>11</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>496</v>
+        <v>595</v>
       </c>
       <c r="F234" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D234)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G234" s="3" t="s">
@@ -18073,7 +18379,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>162</v>
       </c>
@@ -18090,11 +18396,11 @@
         <v>422</v>
       </c>
       <c r="F235" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D235)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>162</v>
       </c>
@@ -18111,11 +18417,11 @@
         <v>222</v>
       </c>
       <c r="F236" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D236)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>162</v>
       </c>
@@ -18129,10 +18435,10 @@
         <v>192</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>389</v>
+        <v>788</v>
       </c>
       <c r="F237" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D237)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G237" s="3" t="s">
@@ -18151,7 +18457,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>162</v>
       </c>
@@ -18168,11 +18474,11 @@
         <v>422</v>
       </c>
       <c r="F238" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D238)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>162</v>
       </c>
@@ -18189,11 +18495,11 @@
         <v>422</v>
       </c>
       <c r="F239" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D239)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>162</v>
       </c>
@@ -18210,7 +18516,7 @@
         <v>425</v>
       </c>
       <c r="F240" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D240)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G240" s="3" t="s">
@@ -18229,7 +18535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>162</v>
       </c>
@@ -18246,11 +18552,11 @@
         <v>422</v>
       </c>
       <c r="F241" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D241)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>162</v>
       </c>
@@ -18267,11 +18573,11 @@
         <v>422</v>
       </c>
       <c r="F242" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D242)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -18288,7 +18594,7 @@
         <v>520</v>
       </c>
       <c r="F243" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D243)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G243" s="3" t="s">
@@ -18307,7 +18613,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -18324,11 +18630,11 @@
         <v>422</v>
       </c>
       <c r="F244" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D244)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -18345,11 +18651,11 @@
         <v>422</v>
       </c>
       <c r="F245" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D245)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>162</v>
       </c>
@@ -18363,10 +18669,10 @@
         <v>7</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F246" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D246)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G246" s="3" t="s">
@@ -18385,7 +18691,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>162</v>
       </c>
@@ -18402,7 +18708,7 @@
         <v>389</v>
       </c>
       <c r="F247" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D247)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G247" s="3" t="s">
@@ -18421,7 +18727,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>162</v>
       </c>
@@ -18438,11 +18744,11 @@
         <v>422</v>
       </c>
       <c r="F248" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D248)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>162</v>
       </c>
@@ -18459,11 +18765,11 @@
         <v>422</v>
       </c>
       <c r="F249" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D249)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>162</v>
       </c>
@@ -18480,11 +18786,11 @@
         <v>422</v>
       </c>
       <c r="F250" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D250)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -18501,7 +18807,7 @@
         <v>402</v>
       </c>
       <c r="F251" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D251)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G251" s="3" t="s">
@@ -18520,7 +18826,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -18537,11 +18843,11 @@
         <v>422</v>
       </c>
       <c r="F252" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D252)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -18558,11 +18864,11 @@
         <v>422</v>
       </c>
       <c r="F253" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D253)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>162</v>
       </c>
@@ -18576,10 +18882,10 @@
         <v>131</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F254" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D254)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G254" s="3" t="s">
@@ -18598,7 +18904,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>162</v>
       </c>
@@ -18615,11 +18921,11 @@
         <v>422</v>
       </c>
       <c r="F255" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D255)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>162</v>
       </c>
@@ -18636,11 +18942,11 @@
         <v>422</v>
       </c>
       <c r="F256" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D256)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>162</v>
       </c>
@@ -18657,7 +18963,7 @@
         <v>399</v>
       </c>
       <c r="F257" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D257)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G257" s="3" t="s">
@@ -18676,7 +18982,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -18693,11 +18999,11 @@
         <v>422</v>
       </c>
       <c r="F258" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D258)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F258:F321" si="4">IF(COUNTIF(D:D,"="&amp;D258)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -18714,11 +19020,11 @@
         <v>422</v>
       </c>
       <c r="F259" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D259)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -18735,11 +19041,11 @@
         <v>422</v>
       </c>
       <c r="F260" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D260)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -18756,11 +19062,11 @@
         <v>422</v>
       </c>
       <c r="F261" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D261)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>162</v>
       </c>
@@ -18777,7 +19083,7 @@
         <v>452</v>
       </c>
       <c r="F262" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D262)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G262" s="3" t="s">
@@ -18796,7 +19102,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>162</v>
       </c>
@@ -18813,7 +19119,7 @@
         <v>311</v>
       </c>
       <c r="F263" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D263)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G263" s="3" t="s">
@@ -18832,7 +19138,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>162</v>
       </c>
@@ -18849,11 +19155,11 @@
         <v>422</v>
       </c>
       <c r="F264" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D264)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -18870,7 +19176,7 @@
         <v>389</v>
       </c>
       <c r="F265" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D265)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G265" s="3" t="s">
@@ -18889,7 +19195,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>162</v>
       </c>
@@ -18906,11 +19212,11 @@
         <v>422</v>
       </c>
       <c r="F266" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D266)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>162</v>
       </c>
@@ -18927,11 +19233,11 @@
         <v>422</v>
       </c>
       <c r="F267" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D267)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -18948,11 +19254,11 @@
         <v>422</v>
       </c>
       <c r="F268" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D268)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>162</v>
       </c>
@@ -18969,11 +19275,11 @@
         <v>422</v>
       </c>
       <c r="F269" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D269)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>162</v>
       </c>
@@ -18990,11 +19296,11 @@
         <v>422</v>
       </c>
       <c r="F270" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D270)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -19011,11 +19317,11 @@
         <v>422</v>
       </c>
       <c r="F271" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D271)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -19032,11 +19338,11 @@
         <v>422</v>
       </c>
       <c r="F272" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D272)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -19053,11 +19359,11 @@
         <v>422</v>
       </c>
       <c r="F273" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D273)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -19074,7 +19380,7 @@
         <v>402</v>
       </c>
       <c r="F274" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D274)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G274" s="3" t="s">
@@ -19093,7 +19399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>162</v>
       </c>
@@ -19110,11 +19416,11 @@
         <v>422</v>
       </c>
       <c r="F275" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D275)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>162</v>
       </c>
@@ -19131,7 +19437,7 @@
         <v>422</v>
       </c>
       <c r="F276" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D276)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G276" s="3" t="s">
@@ -19150,7 +19456,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -19167,7 +19473,7 @@
         <v>422</v>
       </c>
       <c r="F277" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D277)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G277" s="3" t="s">
@@ -19186,7 +19492,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -19203,11 +19509,11 @@
         <v>422</v>
       </c>
       <c r="F278" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D278)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -19224,11 +19530,11 @@
         <v>422</v>
       </c>
       <c r="F279" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D279)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>162</v>
       </c>
@@ -19245,11 +19551,11 @@
         <v>422</v>
       </c>
       <c r="F280" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D280)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>162</v>
       </c>
@@ -19266,11 +19572,11 @@
         <v>422</v>
       </c>
       <c r="F281" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D281)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>162</v>
       </c>
@@ -19287,11 +19593,11 @@
         <v>422</v>
       </c>
       <c r="F282" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D282)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>162</v>
       </c>
@@ -19308,11 +19614,11 @@
         <v>422</v>
       </c>
       <c r="F283" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D283)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>162</v>
       </c>
@@ -19329,7 +19635,7 @@
         <v>412</v>
       </c>
       <c r="F284" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D284)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G284" s="3" t="s">
@@ -19348,7 +19654,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>162</v>
       </c>
@@ -19365,7 +19671,7 @@
         <v>412</v>
       </c>
       <c r="F285" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D285)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G285" s="3" t="s">
@@ -19384,7 +19690,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>162</v>
       </c>
@@ -19401,11 +19707,11 @@
         <v>422</v>
       </c>
       <c r="F286" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D286)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>162</v>
       </c>
@@ -19422,11 +19728,11 @@
         <v>422</v>
       </c>
       <c r="F287" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D287)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>162</v>
       </c>
@@ -19443,11 +19749,11 @@
         <v>422</v>
       </c>
       <c r="F288" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D288)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>162</v>
       </c>
@@ -19464,7 +19770,7 @@
         <v>402</v>
       </c>
       <c r="F289" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D289)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G289" s="3" t="s">
@@ -19483,7 +19789,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>162</v>
       </c>
@@ -19500,11 +19806,11 @@
         <v>422</v>
       </c>
       <c r="F290" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D290)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>162</v>
       </c>
@@ -19521,7 +19827,7 @@
         <v>573</v>
       </c>
       <c r="F291" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D291)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G291" s="3" t="s">
@@ -19540,7 +19846,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>162</v>
       </c>
@@ -19557,11 +19863,11 @@
         <v>422</v>
       </c>
       <c r="F292" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D292)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>162</v>
       </c>
@@ -19578,11 +19884,11 @@
         <v>422</v>
       </c>
       <c r="F293" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D293)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>162</v>
       </c>
@@ -19599,11 +19905,11 @@
         <v>422</v>
       </c>
       <c r="F294" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D294)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>162</v>
       </c>
@@ -19620,11 +19926,11 @@
         <v>422</v>
       </c>
       <c r="F295" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D295)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>162</v>
       </c>
@@ -19641,11 +19947,11 @@
         <v>422</v>
       </c>
       <c r="F296" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D296)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>162</v>
       </c>
@@ -19662,11 +19968,11 @@
         <v>422</v>
       </c>
       <c r="F297" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D297)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
@@ -19683,7 +19989,7 @@
         <v>425</v>
       </c>
       <c r="F298" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D298)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G298" s="3" t="s">
@@ -19702,7 +20008,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>162</v>
       </c>
@@ -19719,7 +20025,7 @@
         <v>402</v>
       </c>
       <c r="F299" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D299)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G299" s="3" t="s">
@@ -19738,7 +20044,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>162</v>
       </c>
@@ -19755,11 +20061,11 @@
         <v>422</v>
       </c>
       <c r="F300" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D300)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>162</v>
       </c>
@@ -19776,11 +20082,11 @@
         <v>422</v>
       </c>
       <c r="F301" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D301)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>162</v>
       </c>
@@ -19797,11 +20103,11 @@
         <v>422</v>
       </c>
       <c r="F302" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D302)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>162</v>
       </c>
@@ -19818,11 +20124,11 @@
         <v>422</v>
       </c>
       <c r="F303" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D303)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>162</v>
       </c>
@@ -19839,7 +20145,7 @@
         <v>427</v>
       </c>
       <c r="F304" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D304)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G304" s="3" t="s">
@@ -19858,7 +20164,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>162</v>
       </c>
@@ -19875,11 +20181,11 @@
         <v>422</v>
       </c>
       <c r="F305" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D305)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>162</v>
       </c>
@@ -19896,11 +20202,11 @@
         <v>422</v>
       </c>
       <c r="F306" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D306)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>162</v>
       </c>
@@ -19917,11 +20223,11 @@
         <v>422</v>
       </c>
       <c r="F307" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D307)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>162</v>
       </c>
@@ -19938,7 +20244,7 @@
         <v>422</v>
       </c>
       <c r="F308" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D308)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G308" s="3" t="s">
@@ -19957,7 +20263,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>162</v>
       </c>
@@ -19974,11 +20280,11 @@
         <v>422</v>
       </c>
       <c r="F309" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D309)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>162</v>
       </c>
@@ -19995,7 +20301,7 @@
         <v>573</v>
       </c>
       <c r="F310" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D310)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G310" s="3" t="s">
@@ -20014,7 +20320,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>162</v>
       </c>
@@ -20031,11 +20337,11 @@
         <v>422</v>
       </c>
       <c r="F311" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D311)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>162</v>
       </c>
@@ -20052,11 +20358,11 @@
         <v>422</v>
       </c>
       <c r="F312" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D312)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>162</v>
       </c>
@@ -20073,7 +20379,7 @@
         <v>311</v>
       </c>
       <c r="F313" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D313)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G313" s="3" t="s">
@@ -20092,7 +20398,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
@@ -20109,11 +20415,11 @@
         <v>422</v>
       </c>
       <c r="F314" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D314)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>162</v>
       </c>
@@ -20130,11 +20436,11 @@
         <v>422</v>
       </c>
       <c r="F315" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D315)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>162</v>
       </c>
@@ -20151,11 +20457,11 @@
         <v>422</v>
       </c>
       <c r="F316" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D316)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>162</v>
       </c>
@@ -20172,11 +20478,11 @@
         <v>422</v>
       </c>
       <c r="F317" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D317)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>162</v>
       </c>
@@ -20193,11 +20499,11 @@
         <v>422</v>
       </c>
       <c r="F318" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D318)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>162</v>
       </c>
@@ -20214,11 +20520,11 @@
         <v>422</v>
       </c>
       <c r="F319" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D319)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>162</v>
       </c>
@@ -20235,11 +20541,11 @@
         <v>422</v>
       </c>
       <c r="F320" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D320)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>162</v>
       </c>
@@ -20256,11 +20562,11 @@
         <v>422</v>
       </c>
       <c r="F321" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D321)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>162</v>
       </c>
@@ -20277,11 +20583,11 @@
         <v>305</v>
       </c>
       <c r="F322" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D322)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F322:F385" si="5">IF(COUNTIF(D:D,"="&amp;D322)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>162</v>
       </c>
@@ -20298,11 +20604,11 @@
         <v>296</v>
       </c>
       <c r="F323" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D323)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>162</v>
       </c>
@@ -20319,11 +20625,11 @@
         <v>296</v>
       </c>
       <c r="F324" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D324)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>162</v>
       </c>
@@ -20337,10 +20643,10 @@
         <v>7</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F325" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D325)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G325" s="3" t="s">
@@ -20359,7 +20665,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>162</v>
       </c>
@@ -20376,11 +20682,11 @@
         <v>296</v>
       </c>
       <c r="F326" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D326)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>162</v>
       </c>
@@ -20397,11 +20703,11 @@
         <v>296</v>
       </c>
       <c r="F327" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D327)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>162</v>
       </c>
@@ -20418,7 +20724,7 @@
         <v>296</v>
       </c>
       <c r="F328" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D328)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G328" s="3" t="s">
@@ -20437,7 +20743,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>162</v>
       </c>
@@ -20454,11 +20760,11 @@
         <v>422</v>
       </c>
       <c r="F329" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D329)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>162</v>
       </c>
@@ -20475,11 +20781,11 @@
         <v>305</v>
       </c>
       <c r="F330" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D330)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>162</v>
       </c>
@@ -20496,11 +20802,11 @@
         <v>296</v>
       </c>
       <c r="F331" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D331)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>162</v>
       </c>
@@ -20517,11 +20823,11 @@
         <v>296</v>
       </c>
       <c r="F332" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D332)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>162</v>
       </c>
@@ -20538,11 +20844,11 @@
         <v>422</v>
       </c>
       <c r="F333" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D333)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>162</v>
       </c>
@@ -20559,7 +20865,7 @@
         <v>311</v>
       </c>
       <c r="F334" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D334)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G334" s="3" t="s">
@@ -20578,7 +20884,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>162</v>
       </c>
@@ -20595,11 +20901,11 @@
         <v>422</v>
       </c>
       <c r="F335" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D335)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>162</v>
       </c>
@@ -20616,11 +20922,11 @@
         <v>422</v>
       </c>
       <c r="F336" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D336)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>162</v>
       </c>
@@ -20637,11 +20943,11 @@
         <v>422</v>
       </c>
       <c r="F337" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D337)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>162</v>
       </c>
@@ -20658,7 +20964,7 @@
         <v>407</v>
       </c>
       <c r="F338" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D338)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G338" s="3" t="s">
@@ -20677,7 +20983,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>162</v>
       </c>
@@ -20694,11 +21000,11 @@
         <v>296</v>
       </c>
       <c r="F339" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D339)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>162</v>
       </c>
@@ -20715,11 +21021,11 @@
         <v>296</v>
       </c>
       <c r="F340" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D340)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>162</v>
       </c>
@@ -20736,11 +21042,11 @@
         <v>422</v>
       </c>
       <c r="F341" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D341)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>162</v>
       </c>
@@ -20757,11 +21063,11 @@
         <v>316</v>
       </c>
       <c r="F342" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D342)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>162</v>
       </c>
@@ -20778,11 +21084,11 @@
         <v>422</v>
       </c>
       <c r="F343" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D343)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>162</v>
       </c>
@@ -20799,11 +21105,11 @@
         <v>422</v>
       </c>
       <c r="F344" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D344)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>162</v>
       </c>
@@ -20820,11 +21126,11 @@
         <v>422</v>
       </c>
       <c r="F345" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D345)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -20841,7 +21147,7 @@
         <v>389</v>
       </c>
       <c r="F346" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D346)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G346" s="3" t="s">
@@ -20860,7 +21166,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -20877,11 +21183,11 @@
         <v>422</v>
       </c>
       <c r="F347" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D347)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>162</v>
       </c>
@@ -20898,11 +21204,11 @@
         <v>422</v>
       </c>
       <c r="F348" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D348)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>162</v>
       </c>
@@ -20919,11 +21225,11 @@
         <v>422</v>
       </c>
       <c r="F349" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D349)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>162</v>
       </c>
@@ -20940,7 +21246,7 @@
         <v>427</v>
       </c>
       <c r="F350" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D350)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G350" s="3" t="s">
@@ -20959,7 +21265,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>162</v>
       </c>
@@ -20976,11 +21282,11 @@
         <v>422</v>
       </c>
       <c r="F351" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D351)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -20997,11 +21303,11 @@
         <v>422</v>
       </c>
       <c r="F352" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D352)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>162</v>
       </c>
@@ -21018,11 +21324,11 @@
         <v>422</v>
       </c>
       <c r="F353" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D353)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>162</v>
       </c>
@@ -21039,11 +21345,11 @@
         <v>422</v>
       </c>
       <c r="F354" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D354)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>162</v>
       </c>
@@ -21060,7 +21366,7 @@
         <v>399</v>
       </c>
       <c r="F355" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D355)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G355" s="3" t="s">
@@ -21079,7 +21385,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>162</v>
       </c>
@@ -21096,11 +21402,11 @@
         <v>422</v>
       </c>
       <c r="F356" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D356)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>162</v>
       </c>
@@ -21117,11 +21423,11 @@
         <v>422</v>
       </c>
       <c r="F357" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D357)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>162</v>
       </c>
@@ -21138,11 +21444,11 @@
         <v>422</v>
       </c>
       <c r="F358" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D358)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -21159,7 +21465,7 @@
         <v>407</v>
       </c>
       <c r="F359" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D359)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G359" s="3" t="s">
@@ -21178,7 +21484,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -21195,11 +21501,11 @@
         <v>422</v>
       </c>
       <c r="F360" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D360)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>162</v>
       </c>
@@ -21216,11 +21522,11 @@
         <v>316</v>
       </c>
       <c r="F361" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D361)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>162</v>
       </c>
@@ -21237,11 +21543,11 @@
         <v>422</v>
       </c>
       <c r="F362" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D362)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>162</v>
       </c>
@@ -21258,11 +21564,11 @@
         <v>422</v>
       </c>
       <c r="F363" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D363)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>162</v>
       </c>
@@ -21279,11 +21585,11 @@
         <v>422</v>
       </c>
       <c r="F364" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D364)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
@@ -21300,11 +21606,11 @@
         <v>422</v>
       </c>
       <c r="F365" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D365)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>162</v>
       </c>
@@ -21321,11 +21627,11 @@
         <v>422</v>
       </c>
       <c r="F366" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D366)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>162</v>
       </c>
@@ -21342,7 +21648,7 @@
         <v>389</v>
       </c>
       <c r="F367" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D367)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G367" s="3" t="s">
@@ -21361,7 +21667,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>162</v>
       </c>
@@ -21378,11 +21684,11 @@
         <v>422</v>
       </c>
       <c r="F368" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D368)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>162</v>
       </c>
@@ -21399,11 +21705,11 @@
         <v>422</v>
       </c>
       <c r="F369" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D369)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -21420,11 +21726,11 @@
         <v>422</v>
       </c>
       <c r="F370" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D370)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -21441,7 +21747,7 @@
         <v>422</v>
       </c>
       <c r="F371" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D371)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G371" s="3" t="s">
@@ -21460,7 +21766,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -21477,11 +21783,11 @@
         <v>422</v>
       </c>
       <c r="F372" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D372)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>162</v>
       </c>
@@ -21498,11 +21804,11 @@
         <v>422</v>
       </c>
       <c r="F373" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D373)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>162</v>
       </c>
@@ -21519,11 +21825,11 @@
         <v>422</v>
       </c>
       <c r="F374" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D374)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>162</v>
       </c>
@@ -21540,11 +21846,11 @@
         <v>422</v>
       </c>
       <c r="F375" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D375)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>162</v>
       </c>
@@ -21561,11 +21867,11 @@
         <v>422</v>
       </c>
       <c r="F376" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D376)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>162</v>
       </c>
@@ -21582,11 +21888,11 @@
         <v>422</v>
       </c>
       <c r="F377" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D377)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>162</v>
       </c>
@@ -21603,11 +21909,11 @@
         <v>422</v>
       </c>
       <c r="F378" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D378)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>162</v>
       </c>
@@ -21621,10 +21927,10 @@
         <v>348</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F379" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D379)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G379" s="3" t="s">
@@ -21643,7 +21949,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>162</v>
       </c>
@@ -21660,11 +21966,11 @@
         <v>422</v>
       </c>
       <c r="F380" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D380)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>162</v>
       </c>
@@ -21681,11 +21987,11 @@
         <v>298</v>
       </c>
       <c r="F381" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D381)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>162</v>
       </c>
@@ -21702,11 +22008,11 @@
         <v>520</v>
       </c>
       <c r="F382" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D382)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H382" s="1" t="s">
         <v>424</v>
@@ -21721,7 +22027,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>162</v>
       </c>
@@ -21738,7 +22044,7 @@
         <v>407</v>
       </c>
       <c r="F383" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D383)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G383" s="3" t="s">
@@ -21757,7 +22063,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>162</v>
       </c>
@@ -21774,11 +22080,11 @@
         <v>422</v>
       </c>
       <c r="F384" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D384)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H384" s="1" t="s">
         <v>390</v>
@@ -21793,7 +22099,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>162</v>
       </c>
@@ -21810,11 +22116,11 @@
         <v>412</v>
       </c>
       <c r="F385" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D385)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H385" s="1" t="s">
         <v>390</v>
@@ -21829,7 +22135,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>162</v>
       </c>
@@ -21846,7 +22152,7 @@
         <v>412</v>
       </c>
       <c r="F386" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D386)=1,"Oui","Non")</f>
+        <f t="shared" ref="F386:F421" si="6">IF(COUNTIF(D:D,"="&amp;D386)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G386" s="3" t="s">
@@ -21865,7 +22171,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>162</v>
       </c>
@@ -21879,14 +22185,14 @@
         <v>355</v>
       </c>
       <c r="E387" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F387" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oui</v>
+      </c>
+      <c r="G387" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="F387" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D387)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G387" s="3" t="s">
-        <v>630</v>
       </c>
       <c r="H387" s="1" t="s">
         <v>424</v>
@@ -21901,7 +22207,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>162</v>
       </c>
@@ -21918,11 +22224,11 @@
         <v>520</v>
       </c>
       <c r="F388" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D388)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>424</v>
@@ -21937,7 +22243,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -21954,17 +22260,17 @@
         <v>520</v>
       </c>
       <c r="F389" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D389)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H389" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J389" s="9" t="s">
         <v>387</v>
@@ -21973,7 +22279,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>162</v>
       </c>
@@ -21987,20 +22293,20 @@
         <v>358</v>
       </c>
       <c r="E390" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F390" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oui</v>
+      </c>
+      <c r="G390" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="F390" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D390)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G390" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="H390" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J390" s="9">
         <v>7</v>
@@ -22009,7 +22315,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>162</v>
       </c>
@@ -22026,11 +22332,11 @@
         <v>592</v>
       </c>
       <c r="F391" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D391)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H391" s="1" t="s">
         <v>390</v>
@@ -22045,7 +22351,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>162</v>
       </c>
@@ -22059,29 +22365,29 @@
         <v>360</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F392" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D392)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G392" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H392" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="H392" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="I392" s="1" t="s">
         <v>441</v>
       </c>
       <c r="J392" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K392" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>162</v>
       </c>
@@ -22095,20 +22401,20 @@
         <v>361</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F393" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D393)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J393" s="9">
         <v>7</v>
@@ -22117,7 +22423,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>162</v>
       </c>
@@ -22134,11 +22440,11 @@
         <v>412</v>
       </c>
       <c r="F394" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D394)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>424</v>
@@ -22147,13 +22453,13 @@
         <v>409</v>
       </c>
       <c r="J394" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K394" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>162</v>
       </c>
@@ -22170,17 +22476,17 @@
         <v>427</v>
       </c>
       <c r="F395" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D395)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J395" s="9" t="s">
         <v>475</v>
@@ -22189,7 +22495,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>162</v>
       </c>
@@ -22206,11 +22512,11 @@
         <v>422</v>
       </c>
       <c r="F396" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D396)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H396" s="1" t="s">
         <v>396</v>
@@ -22225,7 +22531,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>162</v>
       </c>
@@ -22239,14 +22545,14 @@
         <v>365</v>
       </c>
       <c r="E397" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F397" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oui</v>
+      </c>
+      <c r="G397" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="F397" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D397)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G397" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="H397" s="1" t="s">
         <v>424</v>
@@ -22261,7 +22567,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>162</v>
       </c>
@@ -22275,10 +22581,10 @@
         <v>348</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F398" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D398)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G398" s="3" t="s">
@@ -22297,7 +22603,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>162</v>
       </c>
@@ -22314,17 +22620,17 @@
         <v>311</v>
       </c>
       <c r="F399" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D399)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J399" s="9">
         <v>7</v>
@@ -22333,7 +22639,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>162</v>
       </c>
@@ -22347,10 +22653,10 @@
         <v>138</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F400" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D400)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G400" s="3" t="s">
@@ -22369,7 +22675,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>162</v>
       </c>
@@ -22383,29 +22689,29 @@
         <v>367</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F401" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D401)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H401" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J401" s="9">
         <v>8</v>
       </c>
       <c r="K401" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>162</v>
       </c>
@@ -22419,14 +22725,14 @@
         <v>369</v>
       </c>
       <c r="E402" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F402" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oui</v>
+      </c>
+      <c r="G402" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="F402" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D402)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G402" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>390</v>
@@ -22441,7 +22747,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>162</v>
       </c>
@@ -22455,20 +22761,20 @@
         <v>370</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F403" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D403)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H403" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J403" s="9">
         <v>7</v>
@@ -22477,7 +22783,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>162</v>
       </c>
@@ -22488,17 +22794,17 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>427</v>
       </c>
       <c r="F404" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D404)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H404" s="1" t="s">
         <v>390</v>
@@ -22513,7 +22819,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>162</v>
       </c>
@@ -22527,14 +22833,14 @@
         <v>371</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F405" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D405)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H405" s="1" t="s">
         <v>424</v>
@@ -22549,7 +22855,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>162</v>
       </c>
@@ -22566,7 +22872,7 @@
         <v>389</v>
       </c>
       <c r="F406" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D406)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G406" s="3" t="s">
@@ -22585,7 +22891,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>162</v>
       </c>
@@ -22602,11 +22908,11 @@
         <v>422</v>
       </c>
       <c r="F407" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D407)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>162</v>
       </c>
@@ -22623,11 +22929,11 @@
         <v>520</v>
       </c>
       <c r="F408" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D408)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H408" s="1" t="s">
         <v>424</v>
@@ -22642,7 +22948,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>162</v>
       </c>
@@ -22656,14 +22962,14 @@
         <v>373</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F409" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D409)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H409" s="1" t="s">
         <v>390</v>
@@ -22678,7 +22984,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>162</v>
       </c>
@@ -22692,14 +22998,14 @@
         <v>374</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F410" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D410)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H410" s="1" t="s">
         <v>396</v>
@@ -22714,7 +23020,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>162</v>
       </c>
@@ -22728,10 +23034,10 @@
         <v>148</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>422</v>
+        <v>774</v>
       </c>
       <c r="F411" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D411)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G411" s="3" t="s">
@@ -22750,7 +23056,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>162</v>
       </c>
@@ -22767,11 +23073,11 @@
         <v>422</v>
       </c>
       <c r="F412" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D412)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H412" s="1" t="s">
         <v>396</v>
@@ -22783,10 +23089,10 @@
         <v>387</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>162</v>
       </c>
@@ -22800,14 +23106,14 @@
         <v>376</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F413" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D413)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H413" s="1" t="s">
         <v>390</v>
@@ -22816,13 +23122,13 @@
         <v>441</v>
       </c>
       <c r="J413" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K413" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>162</v>
       </c>
@@ -22839,7 +23145,7 @@
         <v>439</v>
       </c>
       <c r="F414" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D414)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G414" s="3" t="s">
@@ -22858,7 +23164,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>162</v>
       </c>
@@ -22872,14 +23178,14 @@
         <v>377</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F415" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D415)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H415" s="1" t="s">
         <v>390</v>
@@ -22894,7 +23200,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>162</v>
       </c>
@@ -22908,29 +23214,29 @@
         <v>378</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F416" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D416)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G416" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H416" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="H416" s="3" t="s">
+      <c r="I416" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="I416" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="J416" s="9">
         <v>8</v>
       </c>
       <c r="K416" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>162</v>
       </c>
@@ -22947,7 +23253,7 @@
         <v>422</v>
       </c>
       <c r="F417" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D417)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G417" s="3" t="s">
@@ -22966,7 +23272,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>162</v>
       </c>
@@ -22980,20 +23286,20 @@
         <v>379</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F418" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D418)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J418" s="9" t="s">
         <v>475</v>
@@ -23002,7 +23308,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>162</v>
       </c>
@@ -23019,7 +23325,7 @@
         <v>422</v>
       </c>
       <c r="F419" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D419)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G419" s="3" t="s">
@@ -23038,7 +23344,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>162</v>
       </c>
@@ -23052,14 +23358,14 @@
         <v>380</v>
       </c>
       <c r="E420" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F420" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oui</v>
+      </c>
+      <c r="G420" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="F420" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D420)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>424</v>
@@ -23074,7 +23380,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>162</v>
       </c>
@@ -23088,20 +23394,20 @@
         <v>381</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F421" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D421)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H421" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J421" s="9" t="s">
         <v>488</v>
@@ -23111,13 +23417,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K421" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Arpenteurs Silencieux"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K421" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -23125,10 +23425,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35BA778-DA30-4EA6-A9D5-58601F95069A}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23139,7 +23439,7 @@
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>159</v>
       </c>
@@ -23150,10 +23450,10 @@
         <v>593</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -23161,10 +23461,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -23172,27 +23475,27 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -23206,7 +23509,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -23217,10 +23520,10 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -23228,13 +23531,13 @@
         <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -23242,13 +23545,13 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
+        <v>716</v>
+      </c>
+      <c r="D8" t="s">
         <v>717</v>
       </c>
-      <c r="D8" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -23256,13 +23559,13 @@
         <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -23270,21 +23573,30 @@
         <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D10" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>788</v>
+      </c>
+      <c r="D11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -23292,15 +23604,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
       <c r="B13" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -23308,7 +23623,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -23316,7 +23631,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -23324,7 +23639,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -23332,18 +23647,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
       <c r="B18" t="s">
         <v>293</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -23352,7 +23667,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -23361,7 +23676,7 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -23369,13 +23684,13 @@
         <v>351</v>
       </c>
       <c r="C21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D21" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -23383,18 +23698,15 @@
         <v>368</v>
       </c>
       <c r="C22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D22" xr:uid="{AA0A2059-2468-4436-9D39-9E427EB14547}"/>
-  <conditionalFormatting sqref="C2:C22">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D22">
+  <conditionalFormatting sqref="C2:D22">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6C10AD2-E968-474F-B8AF-66B914A476FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4152EC3-7697-4B09-B414-6A5D2338A9E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repartition thèmes par liste" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dons d''origine'!$A$1:$K$421</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Listes par type'!$A$1:$D$22</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -24,12 +24,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="820">
   <si>
     <t>Liste</t>
   </si>
@@ -2345,9 +2351,6 @@
     <t>Thème principal</t>
   </si>
   <si>
-    <t>Visions, enigmes, combat non létal</t>
-  </si>
-  <si>
     <t>Permet de dépenser jusqu'à 3 points de Rage pour ajouter autant de dés à la prochaine action</t>
   </si>
   <si>
@@ -2442,6 +2445,63 @@
   </si>
   <si>
     <t>un jour</t>
+  </si>
+  <si>
+    <t>Héroïsme</t>
+  </si>
+  <si>
+    <t>Le LG irradie une lumière de son corps, qui permet de voir à 30m et réduit les attaques sur soit</t>
+  </si>
+  <si>
+    <t>Facilite la visée avec les armes à distance</t>
+  </si>
+  <si>
+    <t>Il deviens presque impossible de se libérer de la poigne (ou morsure) du LG</t>
+  </si>
+  <si>
+    <t>Permet de comprendre l'humeur générale et les attentes d'un groupe</t>
+  </si>
+  <si>
+    <t>Armes blanches</t>
+  </si>
+  <si>
+    <t>Transforme le bras du LG en épée</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>La meute gagne un dé bonus pour faire les tactiques de meute en présence du LG</t>
+  </si>
+  <si>
+    <t>Les serviteurs du Ver ont envie de fuir à la vue du LG</t>
+  </si>
+  <si>
+    <t>Nimbe la lame du LG de feu</t>
+  </si>
+  <si>
+    <t>Les griffes du LG se transforment en armes d'estoc pouvant empaler la cible</t>
+  </si>
+  <si>
+    <t>Le LG est automatiquement mis hors de portée d'une attaque devant le tuer. Peut importe la portée de l'attaque</t>
+  </si>
+  <si>
+    <t>3 V</t>
+  </si>
+  <si>
+    <t>Donne un ordre à un lycanthrope</t>
+  </si>
+  <si>
+    <t>Prive la cible de ses pouvoir surnaturels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volonté </t>
+  </si>
+  <si>
+    <t>L'argent n'inflige plus de dégâts au LG et tous les dégâts qu'il inflige sont comptés comme ayant étés faits avec de l'argent</t>
+  </si>
+  <si>
+    <t>Réduit n'importe quel mort vivant en poussière</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2622,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Auteur" refreshedDate="43638.712051967595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="419" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="43638.712051967595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="419" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K421" sheet="Dons d'origine"/>
   </cacheSource>
@@ -8713,37 +8773,37 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>559</v>
       </c>
@@ -8751,7 +8811,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>161</v>
       </c>
@@ -8765,7 +8825,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>679</v>
       </c>
@@ -8833,7 +8893,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>422</v>
       </c>
@@ -8902,7 +8962,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>520</v>
       </c>
@@ -8941,7 +9001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>305</v>
       </c>
@@ -8974,7 +9034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>452</v>
       </c>
@@ -9007,7 +9067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>676</v>
       </c>
@@ -9038,7 +9098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>573</v>
       </c>
@@ -9075,7 +9135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>690</v>
       </c>
@@ -9112,7 +9172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>298</v>
       </c>
@@ -9151,7 +9211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>311</v>
       </c>
@@ -9196,7 +9256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>646</v>
       </c>
@@ -9227,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>628</v>
       </c>
@@ -9260,7 +9320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>594</v>
       </c>
@@ -9295,7 +9355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>93</v>
       </c>
@@ -9328,7 +9388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>415</v>
       </c>
@@ -9361,7 +9421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>427</v>
       </c>
@@ -9406,7 +9466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>222</v>
       </c>
@@ -9439,7 +9499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>653</v>
       </c>
@@ -9470,7 +9530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>560</v>
       </c>
@@ -9503,7 +9563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>633</v>
       </c>
@@ -9540,7 +9600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>595</v>
       </c>
@@ -9575,7 +9635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>402</v>
       </c>
@@ -9622,7 +9682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>673</v>
       </c>
@@ -9653,7 +9713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>425</v>
       </c>
@@ -9688,7 +9748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>412</v>
       </c>
@@ -9739,7 +9799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>681</v>
       </c>
@@ -9770,7 +9830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>496</v>
       </c>
@@ -9805,7 +9865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>389</v>
       </c>
@@ -9854,7 +9914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>439</v>
       </c>
@@ -9887,7 +9947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>407</v>
       </c>
@@ -9930,7 +9990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>395</v>
       </c>
@@ -9965,7 +10025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>592</v>
       </c>
@@ -9998,7 +10058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>316</v>
       </c>
@@ -10029,7 +10089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
         <v>296</v>
       </c>
@@ -10066,7 +10126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
         <v>399</v>
       </c>
@@ -10101,7 +10161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>491</v>
       </c>
@@ -10132,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>576</v>
       </c>
@@ -10163,7 +10223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>652</v>
       </c>
@@ -10194,7 +10254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>678</v>
       </c>
@@ -10272,30 +10332,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.86328125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -10330,7 +10391,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
@@ -10366,7 +10427,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -10402,7 +10463,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -10438,7 +10499,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -10474,7 +10535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -10510,7 +10571,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -10546,7 +10607,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -10582,7 +10643,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -10618,7 +10679,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
@@ -10654,7 +10715,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -10690,7 +10751,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -10726,7 +10787,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -10762,7 +10823,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -10798,7 +10859,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -10834,7 +10895,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -10870,7 +10931,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -10906,7 +10967,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -10942,7 +11003,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
@@ -10978,7 +11039,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -11014,7 +11075,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -11050,7 +11111,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -11086,7 +11147,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -11122,7 +11183,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -11158,7 +11219,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -11194,7 +11255,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -11230,7 +11291,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -11263,7 +11324,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -11299,7 +11360,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>160</v>
       </c>
@@ -11332,7 +11393,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>160</v>
       </c>
@@ -11368,7 +11429,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -11404,7 +11465,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -11440,7 +11501,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -11476,7 +11537,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>160</v>
       </c>
@@ -11512,7 +11573,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>160</v>
       </c>
@@ -11548,7 +11609,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -11584,7 +11645,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
@@ -11620,7 +11681,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -11656,7 +11717,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -11692,7 +11753,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -11728,7 +11789,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -11764,7 +11825,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
@@ -11800,7 +11861,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -11836,7 +11897,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
@@ -11872,7 +11933,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -11908,7 +11969,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -11944,7 +12005,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>160</v>
       </c>
@@ -11980,7 +12041,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -12016,7 +12077,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -12052,7 +12113,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>160</v>
       </c>
@@ -12088,7 +12149,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -12124,7 +12185,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -12160,7 +12221,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -12196,7 +12257,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -12232,7 +12293,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -12268,7 +12329,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -12304,7 +12365,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -12340,7 +12401,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
@@ -12376,7 +12437,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -12412,7 +12473,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
@@ -12448,7 +12509,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>160</v>
       </c>
@@ -12484,7 +12545,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
@@ -12520,7 +12581,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
@@ -12556,7 +12617,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -12592,7 +12653,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -12628,7 +12689,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -12664,7 +12725,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -12700,7 +12761,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -12736,7 +12797,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -12772,7 +12833,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
@@ -12808,7 +12869,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -12844,7 +12905,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -12880,7 +12941,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>161</v>
       </c>
@@ -12916,7 +12977,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
@@ -12952,7 +13013,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
@@ -12988,7 +13049,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
@@ -13024,7 +13085,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -13060,7 +13121,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -13096,7 +13157,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -13132,7 +13193,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
@@ -13168,7 +13229,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -13204,7 +13265,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -13240,7 +13301,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -13276,7 +13337,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -13312,7 +13373,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
@@ -13348,7 +13409,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
@@ -13384,7 +13445,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -13420,7 +13481,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -13456,7 +13517,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -13492,7 +13553,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -13528,7 +13589,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -13564,7 +13625,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -13600,7 +13661,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>161</v>
       </c>
@@ -13636,7 +13697,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -13672,7 +13733,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>161</v>
       </c>
@@ -13708,7 +13769,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>161</v>
       </c>
@@ -13744,7 +13805,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>161</v>
       </c>
@@ -13780,7 +13841,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -13816,7 +13877,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -13852,7 +13913,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -13888,7 +13949,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -13924,7 +13985,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>161</v>
       </c>
@@ -13960,7 +14021,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -13996,7 +14057,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>161</v>
       </c>
@@ -14032,7 +14093,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -14068,7 +14129,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -14104,7 +14165,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>161</v>
       </c>
@@ -14140,7 +14201,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>161</v>
       </c>
@@ -14176,7 +14237,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -14212,7 +14273,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -14248,7 +14309,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
@@ -14284,7 +14345,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
@@ -14320,7 +14381,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>161</v>
       </c>
@@ -14356,7 +14417,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -14392,7 +14453,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>161</v>
       </c>
@@ -14428,7 +14489,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
@@ -14464,7 +14525,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>161</v>
       </c>
@@ -14500,7 +14561,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -14536,7 +14597,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>161</v>
       </c>
@@ -14569,7 +14630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>161</v>
       </c>
@@ -14605,7 +14666,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -14641,7 +14702,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>161</v>
       </c>
@@ -14677,7 +14738,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>161</v>
       </c>
@@ -14713,7 +14774,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -14749,7 +14810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -14785,7 +14846,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>161</v>
       </c>
@@ -14821,7 +14882,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>161</v>
       </c>
@@ -14857,7 +14918,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>161</v>
       </c>
@@ -14893,7 +14954,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>161</v>
       </c>
@@ -14929,7 +14990,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>161</v>
       </c>
@@ -14965,7 +15026,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
@@ -15001,7 +15062,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -15037,7 +15098,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
@@ -15073,7 +15134,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>161</v>
       </c>
@@ -15109,7 +15170,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
@@ -15145,7 +15206,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -15181,7 +15242,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -15217,7 +15278,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -15253,7 +15314,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>161</v>
       </c>
@@ -15289,7 +15350,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>161</v>
       </c>
@@ -15325,7 +15386,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -15361,7 +15422,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>161</v>
       </c>
@@ -15397,7 +15458,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
@@ -15433,7 +15494,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
@@ -15469,7 +15530,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>161</v>
       </c>
@@ -15483,7 +15544,7 @@
         <v>143</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="F145" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15505,7 +15566,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -15519,7 +15580,7 @@
         <v>144</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F146" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15541,7 +15602,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>161</v>
       </c>
@@ -15555,7 +15616,7 @@
         <v>145</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F147" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15577,7 +15638,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -15591,7 +15652,7 @@
         <v>146</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F148" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15613,7 +15674,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
@@ -15627,7 +15688,7 @@
         <v>147</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F149" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15649,7 +15710,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -15685,7 +15746,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -15699,7 +15760,7 @@
         <v>148</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F151" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15721,7 +15782,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -15735,7 +15796,7 @@
         <v>149</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F152" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15757,7 +15818,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>161</v>
       </c>
@@ -15793,7 +15854,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -15829,7 +15890,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>161</v>
       </c>
@@ -15850,7 +15911,7 @@
         <v>Oui</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>390</v>
@@ -15865,7 +15926,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
@@ -15901,7 +15962,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -15915,7 +15976,7 @@
         <v>153</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F157" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15937,7 +15998,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -15951,7 +16012,7 @@
         <v>154</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F158" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15973,7 +16034,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -16009,7 +16070,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -16045,7 +16106,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -16081,7 +16142,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -16117,7 +16178,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -16153,7 +16214,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -16189,7 +16250,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -16225,7 +16286,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>162</v>
       </c>
@@ -16261,7 +16322,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
@@ -16297,7 +16358,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -16333,7 +16394,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>162</v>
       </c>
@@ -16369,7 +16430,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>162</v>
       </c>
@@ -16405,7 +16466,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -16441,7 +16502,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>162</v>
       </c>
@@ -16477,7 +16538,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -16513,7 +16574,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>162</v>
       </c>
@@ -16549,7 +16610,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>162</v>
       </c>
@@ -16585,7 +16646,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>162</v>
       </c>
@@ -16621,7 +16682,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>162</v>
       </c>
@@ -16657,7 +16718,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>162</v>
       </c>
@@ -16693,7 +16754,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>162</v>
       </c>
@@ -16729,7 +16790,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>162</v>
       </c>
@@ -16765,7 +16826,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>162</v>
       </c>
@@ -16801,7 +16862,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>162</v>
       </c>
@@ -16837,7 +16898,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -16858,10 +16919,10 @@
         <v>Oui</v>
       </c>
       <c r="G183" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>387</v>
@@ -16873,7 +16934,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -16887,14 +16948,14 @@
         <v>181</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F184" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>390</v>
@@ -16909,7 +16970,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>162</v>
       </c>
@@ -16923,7 +16984,7 @@
         <v>144</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F185" s="1" t="str">
         <f t="shared" si="2"/>
@@ -16945,7 +17006,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
@@ -16966,7 +17027,7 @@
         <v>Oui</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>390</v>
@@ -16981,7 +17042,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>162</v>
       </c>
@@ -17017,7 +17078,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>162</v>
       </c>
@@ -17038,7 +17099,7 @@
         <v>Oui</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>390</v>
@@ -17050,10 +17111,10 @@
         <v>8</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>162</v>
       </c>
@@ -17074,7 +17135,7 @@
         <v>Oui</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>390</v>
@@ -17089,7 +17150,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>162</v>
       </c>
@@ -17110,13 +17171,13 @@
         <v>Oui</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J190" s="9">
         <v>6</v>
@@ -17125,7 +17186,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
@@ -17146,7 +17207,7 @@
         <v>Oui</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>390</v>
@@ -17161,7 +17222,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>162</v>
       </c>
@@ -17182,22 +17243,22 @@
         <v>Oui</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J192" s="9">
         <v>7</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>162</v>
       </c>
@@ -17218,7 +17279,7 @@
         <v>Oui</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>390</v>
@@ -17233,7 +17294,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>162</v>
       </c>
@@ -17247,14 +17308,14 @@
         <v>189</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F194" s="1" t="str">
         <f t="shared" ref="F194:F257" si="3">IF(COUNTIF(D:D,"="&amp;D194)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>424</v>
@@ -17269,7 +17330,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>162</v>
       </c>
@@ -17283,14 +17344,14 @@
         <v>190</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F195" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>396</v>
@@ -17299,13 +17360,13 @@
         <v>420</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -17341,7 +17402,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>162</v>
       </c>
@@ -17377,7 +17438,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>162</v>
       </c>
@@ -17391,7 +17452,7 @@
         <v>192</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F198" s="1" t="str">
         <f t="shared" si="3"/>
@@ -17413,7 +17474,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>162</v>
       </c>
@@ -17427,20 +17488,20 @@
         <v>193</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F199" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J199" s="9">
         <v>7</v>
@@ -17449,7 +17510,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>162</v>
       </c>
@@ -17463,14 +17524,14 @@
         <v>194</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F200" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>396</v>
@@ -17479,13 +17540,13 @@
         <v>489</v>
       </c>
       <c r="J200" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>162</v>
       </c>
@@ -17506,22 +17567,22 @@
         <v>Oui</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J201" s="9">
         <v>7</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
         <v>162</v>
       </c>
@@ -17542,7 +17603,7 @@
         <v>Oui</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>424</v>
@@ -17554,10 +17615,10 @@
         <v>387</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>162</v>
       </c>
@@ -17571,14 +17632,29 @@
         <v>198</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>422</v>
+        <v>801</v>
       </c>
       <c r="F203" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G203" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>162</v>
       </c>
@@ -17592,7 +17668,7 @@
         <v>143</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="F204" s="1" t="str">
         <f t="shared" si="3"/>
@@ -17614,7 +17690,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>162</v>
       </c>
@@ -17628,14 +17704,29 @@
         <v>199</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="F205" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G205" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>162</v>
       </c>
@@ -17655,8 +17746,23 @@
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G206" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J206" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>162</v>
       </c>
@@ -17692,7 +17798,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>162</v>
       </c>
@@ -17728,7 +17834,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>162</v>
       </c>
@@ -17742,14 +17848,29 @@
         <v>202</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>422</v>
+        <v>808</v>
       </c>
       <c r="F209" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G209" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J209" s="9">
+        <v>4</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>162</v>
       </c>
@@ -17763,14 +17884,29 @@
         <v>203</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F210" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G210" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J210" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>162</v>
       </c>
@@ -17806,7 +17942,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>162</v>
       </c>
@@ -17820,14 +17956,29 @@
         <v>204</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>422</v>
+        <v>808</v>
       </c>
       <c r="F212" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G212" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J212" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>162</v>
       </c>
@@ -17841,14 +17992,29 @@
         <v>205</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>422</v>
+        <v>801</v>
       </c>
       <c r="F213" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G213" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J213" s="9">
+        <v>7</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>162</v>
       </c>
@@ -17884,7 +18050,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>162</v>
       </c>
@@ -17898,14 +18064,29 @@
         <v>206</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>422</v>
+        <v>806</v>
       </c>
       <c r="F215" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G215" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J215" s="9">
+        <v>7</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>162</v>
       </c>
@@ -17919,14 +18100,29 @@
         <v>207</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="F216" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G216" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J216" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>162</v>
       </c>
@@ -17962,7 +18158,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>162</v>
       </c>
@@ -17976,14 +18172,29 @@
         <v>208</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>422</v>
+        <v>801</v>
       </c>
       <c r="F218" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G218" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J218" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>162</v>
       </c>
@@ -17997,14 +18208,29 @@
         <v>209</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>298</v>
+        <v>808</v>
       </c>
       <c r="F219" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G219" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J219" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>162</v>
       </c>
@@ -18024,8 +18250,23 @@
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G220" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J220" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>162</v>
       </c>
@@ -18039,14 +18280,29 @@
         <v>211</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>422</v>
+        <v>595</v>
       </c>
       <c r="F221" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G221" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J221" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>162</v>
       </c>
@@ -18060,14 +18316,29 @@
         <v>212</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>422</v>
+        <v>761</v>
       </c>
       <c r="F222" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G222" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J222" s="9">
+        <v>8</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>162</v>
       </c>
@@ -18088,7 +18359,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>162</v>
       </c>
@@ -18109,7 +18380,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>162</v>
       </c>
@@ -18130,7 +18401,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -18166,7 +18437,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>162</v>
       </c>
@@ -18202,7 +18473,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
@@ -18238,7 +18509,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>162</v>
       </c>
@@ -18259,7 +18530,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>162</v>
       </c>
@@ -18280,7 +18551,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>162</v>
       </c>
@@ -18301,7 +18572,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>162</v>
       </c>
@@ -18322,7 +18593,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>162</v>
       </c>
@@ -18343,7 +18614,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>162</v>
       </c>
@@ -18379,7 +18650,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>162</v>
       </c>
@@ -18400,7 +18671,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>162</v>
       </c>
@@ -18421,7 +18692,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>162</v>
       </c>
@@ -18435,7 +18706,7 @@
         <v>192</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F237" s="1" t="str">
         <f t="shared" si="3"/>
@@ -18457,7 +18728,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>162</v>
       </c>
@@ -18478,7 +18749,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>162</v>
       </c>
@@ -18499,7 +18770,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>162</v>
       </c>
@@ -18535,7 +18806,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>162</v>
       </c>
@@ -18556,7 +18827,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>162</v>
       </c>
@@ -18577,7 +18848,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -18613,7 +18884,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -18634,7 +18905,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -18655,7 +18926,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>162</v>
       </c>
@@ -18691,7 +18962,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>162</v>
       </c>
@@ -18727,7 +18998,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>162</v>
       </c>
@@ -18748,7 +19019,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>162</v>
       </c>
@@ -18769,7 +19040,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>162</v>
       </c>
@@ -18790,7 +19061,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -18826,7 +19097,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -18847,7 +19118,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -18868,7 +19139,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>162</v>
       </c>
@@ -18904,7 +19175,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>162</v>
       </c>
@@ -18925,7 +19196,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>162</v>
       </c>
@@ -18946,7 +19217,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>162</v>
       </c>
@@ -18982,7 +19253,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -19003,7 +19274,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -19024,7 +19295,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -19045,7 +19316,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -19066,7 +19337,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>162</v>
       </c>
@@ -19102,7 +19373,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>162</v>
       </c>
@@ -19138,7 +19409,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>162</v>
       </c>
@@ -19159,7 +19430,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -19195,7 +19466,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>162</v>
       </c>
@@ -19216,7 +19487,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>162</v>
       </c>
@@ -19237,7 +19508,7 @@
         <v>Non</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -19258,7 +19529,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>162</v>
       </c>
@@ -19279,7 +19550,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>162</v>
       </c>
@@ -19300,7 +19571,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -19321,7 +19592,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -19342,7 +19613,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -19363,7 +19634,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -19399,7 +19670,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>162</v>
       </c>
@@ -19420,7 +19691,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>162</v>
       </c>
@@ -19456,7 +19727,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -19492,7 +19763,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -19513,7 +19784,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -19534,7 +19805,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>162</v>
       </c>
@@ -19555,7 +19826,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>162</v>
       </c>
@@ -19576,7 +19847,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>162</v>
       </c>
@@ -19597,7 +19868,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>162</v>
       </c>
@@ -19618,7 +19889,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>162</v>
       </c>
@@ -19654,7 +19925,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>162</v>
       </c>
@@ -19690,7 +19961,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>162</v>
       </c>
@@ -19711,7 +19982,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>162</v>
       </c>
@@ -19732,7 +20003,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>162</v>
       </c>
@@ -19753,7 +20024,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>162</v>
       </c>
@@ -19789,7 +20060,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>162</v>
       </c>
@@ -19810,7 +20081,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>162</v>
       </c>
@@ -19846,7 +20117,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>162</v>
       </c>
@@ -19867,7 +20138,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>162</v>
       </c>
@@ -19888,7 +20159,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>162</v>
       </c>
@@ -19909,7 +20180,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>162</v>
       </c>
@@ -19930,7 +20201,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>162</v>
       </c>
@@ -19951,7 +20222,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>162</v>
       </c>
@@ -19972,7 +20243,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
@@ -20008,7 +20279,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>162</v>
       </c>
@@ -20044,7 +20315,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>162</v>
       </c>
@@ -20065,7 +20336,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>162</v>
       </c>
@@ -20086,7 +20357,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>162</v>
       </c>
@@ -20107,7 +20378,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>162</v>
       </c>
@@ -20128,7 +20399,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>162</v>
       </c>
@@ -20164,7 +20435,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>162</v>
       </c>
@@ -20185,7 +20456,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>162</v>
       </c>
@@ -20206,7 +20477,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>162</v>
       </c>
@@ -20227,7 +20498,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>162</v>
       </c>
@@ -20263,7 +20534,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>162</v>
       </c>
@@ -20284,7 +20555,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>162</v>
       </c>
@@ -20320,7 +20591,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>162</v>
       </c>
@@ -20341,7 +20612,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>162</v>
       </c>
@@ -20362,7 +20633,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>162</v>
       </c>
@@ -20398,7 +20669,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
@@ -20419,7 +20690,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>162</v>
       </c>
@@ -20440,7 +20711,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>162</v>
       </c>
@@ -20461,7 +20732,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>162</v>
       </c>
@@ -20482,7 +20753,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>162</v>
       </c>
@@ -20503,7 +20774,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>162</v>
       </c>
@@ -20524,7 +20795,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>162</v>
       </c>
@@ -20545,7 +20816,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>162</v>
       </c>
@@ -20566,7 +20837,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>162</v>
       </c>
@@ -20587,7 +20858,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>162</v>
       </c>
@@ -20608,7 +20879,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>162</v>
       </c>
@@ -20629,7 +20900,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>162</v>
       </c>
@@ -20665,7 +20936,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>162</v>
       </c>
@@ -20686,7 +20957,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>162</v>
       </c>
@@ -20707,7 +20978,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>162</v>
       </c>
@@ -20743,7 +21014,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>162</v>
       </c>
@@ -20764,7 +21035,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>162</v>
       </c>
@@ -20785,7 +21056,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>162</v>
       </c>
@@ -20806,7 +21077,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>162</v>
       </c>
@@ -20827,7 +21098,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>162</v>
       </c>
@@ -20848,7 +21119,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>162</v>
       </c>
@@ -20884,7 +21155,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>162</v>
       </c>
@@ -20905,7 +21176,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>162</v>
       </c>
@@ -20926,7 +21197,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>162</v>
       </c>
@@ -20947,7 +21218,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>162</v>
       </c>
@@ -20983,7 +21254,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>162</v>
       </c>
@@ -21004,7 +21275,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
         <v>162</v>
       </c>
@@ -21025,7 +21296,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>162</v>
       </c>
@@ -21046,7 +21317,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>162</v>
       </c>
@@ -21067,7 +21338,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>162</v>
       </c>
@@ -21088,7 +21359,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>162</v>
       </c>
@@ -21109,7 +21380,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>162</v>
       </c>
@@ -21130,7 +21401,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -21166,7 +21437,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -21187,7 +21458,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>162</v>
       </c>
@@ -21208,7 +21479,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>162</v>
       </c>
@@ -21229,7 +21500,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>162</v>
       </c>
@@ -21265,7 +21536,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>162</v>
       </c>
@@ -21286,7 +21557,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -21307,7 +21578,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>162</v>
       </c>
@@ -21328,7 +21599,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>162</v>
       </c>
@@ -21349,7 +21620,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>162</v>
       </c>
@@ -21385,7 +21656,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>162</v>
       </c>
@@ -21406,7 +21677,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>162</v>
       </c>
@@ -21427,7 +21698,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>162</v>
       </c>
@@ -21448,7 +21719,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -21484,7 +21755,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -21505,7 +21776,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>162</v>
       </c>
@@ -21526,7 +21797,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
         <v>162</v>
       </c>
@@ -21547,7 +21818,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>162</v>
       </c>
@@ -21568,7 +21839,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>162</v>
       </c>
@@ -21589,7 +21860,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
@@ -21610,7 +21881,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
         <v>162</v>
       </c>
@@ -21631,7 +21902,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>162</v>
       </c>
@@ -21667,7 +21938,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>162</v>
       </c>
@@ -21688,7 +21959,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>162</v>
       </c>
@@ -21709,7 +21980,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -21730,7 +22001,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -21766,7 +22037,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -21787,7 +22058,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>162</v>
       </c>
@@ -21808,7 +22079,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>162</v>
       </c>
@@ -21829,7 +22100,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
         <v>162</v>
       </c>
@@ -21850,7 +22121,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
         <v>162</v>
       </c>
@@ -21871,7 +22142,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>162</v>
       </c>
@@ -21892,7 +22163,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
         <v>162</v>
       </c>
@@ -21913,7 +22184,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
         <v>162</v>
       </c>
@@ -21949,7 +22220,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
         <v>162</v>
       </c>
@@ -21970,7 +22241,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>162</v>
       </c>
@@ -21991,7 +22262,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
         <v>162</v>
       </c>
@@ -22027,7 +22298,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
         <v>162</v>
       </c>
@@ -22063,7 +22334,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
         <v>162</v>
       </c>
@@ -22099,7 +22370,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
         <v>162</v>
       </c>
@@ -22135,7 +22406,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
         <v>162</v>
       </c>
@@ -22171,7 +22442,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
         <v>162</v>
       </c>
@@ -22207,7 +22478,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
         <v>162</v>
       </c>
@@ -22243,7 +22514,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -22279,7 +22550,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
         <v>162</v>
       </c>
@@ -22315,7 +22586,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
         <v>162</v>
       </c>
@@ -22351,7 +22622,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
         <v>162</v>
       </c>
@@ -22387,7 +22658,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
         <v>162</v>
       </c>
@@ -22423,7 +22694,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
         <v>162</v>
       </c>
@@ -22459,7 +22730,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
         <v>162</v>
       </c>
@@ -22495,7 +22766,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
         <v>162</v>
       </c>
@@ -22531,7 +22802,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
         <v>162</v>
       </c>
@@ -22567,7 +22838,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="1" t="s">
         <v>162</v>
       </c>
@@ -22603,7 +22874,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
         <v>162</v>
       </c>
@@ -22639,7 +22910,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="1" t="s">
         <v>162</v>
       </c>
@@ -22675,7 +22946,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
         <v>162</v>
       </c>
@@ -22711,7 +22982,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="1" t="s">
         <v>162</v>
       </c>
@@ -22747,7 +23018,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
         <v>162</v>
       </c>
@@ -22783,7 +23054,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
         <v>162</v>
       </c>
@@ -22819,7 +23090,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
         <v>162</v>
       </c>
@@ -22855,7 +23126,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="1" t="s">
         <v>162</v>
       </c>
@@ -22891,7 +23162,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
         <v>162</v>
       </c>
@@ -22912,7 +23183,7 @@
         <v>Non</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="1" t="s">
         <v>162</v>
       </c>
@@ -22948,7 +23219,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="1" t="s">
         <v>162</v>
       </c>
@@ -22984,7 +23255,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="1" t="s">
         <v>162</v>
       </c>
@@ -23020,7 +23291,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="1" t="s">
         <v>162</v>
       </c>
@@ -23034,7 +23305,7 @@
         <v>148</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F411" s="1" t="str">
         <f t="shared" si="6"/>
@@ -23056,7 +23327,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" s="1" t="s">
         <v>162</v>
       </c>
@@ -23092,7 +23363,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
         <v>162</v>
       </c>
@@ -23128,7 +23399,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="1" t="s">
         <v>162</v>
       </c>
@@ -23164,7 +23435,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
         <v>162</v>
       </c>
@@ -23200,7 +23471,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
         <v>162</v>
       </c>
@@ -23236,7 +23507,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
         <v>162</v>
       </c>
@@ -23272,7 +23543,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="1" t="s">
         <v>162</v>
       </c>
@@ -23308,7 +23579,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="1" t="s">
         <v>162</v>
       </c>
@@ -23344,7 +23615,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="1" t="s">
         <v>162</v>
       </c>
@@ -23380,7 +23651,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
         <v>162</v>
       </c>
@@ -23417,7 +23688,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K421" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}"/>
+  <autoFilter ref="A1:K421" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Crocs d'Argent"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -23428,18 +23705,18 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>159</v>
       </c>
@@ -23453,7 +23730,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -23467,7 +23744,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -23481,7 +23758,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -23495,7 +23772,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -23509,7 +23786,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -23523,7 +23800,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -23537,7 +23814,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -23551,7 +23828,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -23559,13 +23836,13 @@
         <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D9" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -23579,7 +23856,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -23587,24 +23864,27 @@
         <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D11" t="s">
         <v>488</v>
       </c>
-      <c r="E11" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>162</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>801</v>
+      </c>
+      <c r="D12" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -23615,7 +23895,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -23623,7 +23903,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -23631,7 +23911,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -23639,7 +23919,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -23647,7 +23927,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -23658,7 +23938,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -23667,7 +23947,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -23676,7 +23956,7 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -23690,7 +23970,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>162</v>
       </c>

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2140CCB6-9FDF-4CB8-9525-258EC60C803A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F059F4C0-9AC4-41F9-946A-63F3CF6A39F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repartition thèmes par liste" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Listes par type" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dons d''origine'!$A$1:$K$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dons d''origine'!$A$1:$K$422</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Listes par type'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="870">
   <si>
     <t>Liste</t>
   </si>
@@ -2128,9 +2128,6 @@
     <t>Oblige les créatures à reprendre leur forme de naissance</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Permet de projeter ses sens dans un lieu connu.</t>
   </si>
   <si>
@@ -2583,6 +2580,73 @@
   </si>
   <si>
     <t>Vigueur, Fées</t>
+  </si>
+  <si>
+    <t>Permet dire deux choses à la fois. Le LG décide qui entends quelle version.</t>
+  </si>
+  <si>
+    <t>Fait apparaître une petite lumière</t>
+  </si>
+  <si>
+    <t>1 scène si dépense de 1 G
+ou 1 tour par réussite</t>
+  </si>
+  <si>
+    <t>Permet d'esquiver des attaques plus facilement</t>
+  </si>
+  <si>
+    <t>Reflexe</t>
+  </si>
+  <si>
+    <t>Hurlement qui fait fuir les gens</t>
+  </si>
+  <si>
+    <t>La voix du LG traverse le Goulet</t>
+  </si>
+  <si>
+    <t>Le LG peut dire ce qu'il veut, les autres seront complètement d'accord</t>
+  </si>
+  <si>
+    <t>Astuce + Vigilance</t>
+  </si>
+  <si>
+    <t>Le LG a beaucoup de chance, il peut relancer des jets ratés</t>
+  </si>
+  <si>
+    <t>Invoque les fées locales pour lui venir en aide</t>
+  </si>
+  <si>
+    <t>Deviens plus difficile à traquer</t>
+  </si>
+  <si>
+    <t>Fantasmagorie</t>
+  </si>
+  <si>
+    <t>Créé une illusion visuelle, auditive, olfactive et même tactile</t>
+  </si>
+  <si>
+    <t>Intelligence + Expresion</t>
+  </si>
+  <si>
+    <t>Un œil du LG brille d'un rouge vif qui fait souffrir ceux qui le regardent</t>
+  </si>
+  <si>
+    <t>invoque le Chasseur pour mener une chasse. S'il n'aime pas la chasse il prendra pour cible le LG qui l'a dérangé</t>
+  </si>
+  <si>
+    <t>Transforme le LG en silouhette de brouillard qui peut tout traverser, sauf l'argent</t>
+  </si>
+  <si>
+    <t>Le LG peut changer sa taille. Il peut la multiplier par 3 ou devenir haut comme 2 pommes</t>
+  </si>
+  <si>
+    <t>Fée</t>
+  </si>
+  <si>
+    <t>Vocalisation</t>
+  </si>
+  <si>
+    <t>Esquive</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2769,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Auteur" refreshedDate="43643.43254386574" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="420" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K421" sheet="Dons d'origine"/>
+    <worksheetSource ref="A1:K422" sheet="Dons d'origine"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Type de liste" numFmtId="0">
@@ -8974,7 +9038,7 @@
         <v>559</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -8988,12 +9052,12 @@
         <v>162</v>
       </c>
       <c r="W4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B5" t="s">
         <v>140</v>
@@ -9128,7 +9192,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -9233,7 +9297,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -9299,7 +9363,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
@@ -9361,7 +9425,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7">
@@ -9431,7 +9495,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -9748,7 +9812,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9859,7 +9923,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9890,7 +9954,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -10024,7 +10088,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -10172,7 +10236,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -10240,7 +10304,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -10435,7 +10499,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7">
@@ -10466,7 +10530,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B45" s="7">
         <v>4</v>
@@ -10888,7 +10952,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -10919,7 +10983,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B58" s="7">
         <v>20</v>
@@ -10996,11 +11060,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K421"/>
+  <dimension ref="A1:K422"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D247" sqref="D247"/>
+      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11071,7 +11135,7 @@
         <v>560</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F65" si="0">IF(COUNTIF(D:D,"="&amp;D2)=1,"Oui","Non")</f>
+        <f>IF(COUNTIF(D:D,"="&amp;D2)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -11107,7 +11171,7 @@
         <v>491</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D3)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -11143,7 +11207,7 @@
         <v>311</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D4)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -11179,7 +11243,7 @@
         <v>560</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D5)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -11215,7 +11279,7 @@
         <v>687</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D6)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -11251,7 +11315,7 @@
         <v>296</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D7)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -11287,7 +11351,7 @@
         <v>560</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D8)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -11323,7 +11387,7 @@
         <v>595</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D9)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -11359,7 +11423,7 @@
         <v>595</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D10)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -11395,7 +11459,7 @@
         <v>595</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D11)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -11431,7 +11495,7 @@
         <v>399</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D12)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -11467,7 +11531,7 @@
         <v>305</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D13)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -11503,7 +11567,7 @@
         <v>395</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D14)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -11539,7 +11603,7 @@
         <v>402</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D15)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -11575,7 +11639,7 @@
         <v>389</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D16)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -11611,7 +11675,7 @@
         <v>93</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D17)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -11647,7 +11711,7 @@
         <v>595</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D18)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -11683,7 +11747,7 @@
         <v>560</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D19)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -11719,7 +11783,7 @@
         <v>595</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D20)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -11755,7 +11819,7 @@
         <v>560</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D21)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -11791,7 +11855,7 @@
         <v>496</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D22)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -11827,7 +11891,7 @@
         <v>311</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D23)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -11863,7 +11927,7 @@
         <v>520</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D24)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -11899,7 +11963,7 @@
         <v>520</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D25)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -11935,7 +11999,7 @@
         <v>412</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D26)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -11971,7 +12035,7 @@
         <v>520</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D27)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -12004,7 +12068,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D28)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -12040,7 +12104,7 @@
         <v>422</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D29)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -12073,7 +12137,7 @@
         <v>412</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D30)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -12109,7 +12173,7 @@
         <v>427</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D31)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -12145,7 +12209,7 @@
         <v>395</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D32)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -12181,7 +12245,7 @@
         <v>422</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D33)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -12217,7 +12281,7 @@
         <v>520</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D34)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -12253,7 +12317,7 @@
         <v>520</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D35)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -12289,7 +12353,7 @@
         <v>496</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D36)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -12325,7 +12389,7 @@
         <v>422</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D37)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -12361,7 +12425,7 @@
         <v>520</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D38)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -12397,7 +12461,7 @@
         <v>402</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D39)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -12433,7 +12497,7 @@
         <v>407</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D40)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -12469,7 +12533,7 @@
         <v>422</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D41)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -12505,7 +12569,7 @@
         <v>573</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D42)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -12541,7 +12605,7 @@
         <v>520</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D43)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -12577,7 +12641,7 @@
         <v>594</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D44)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -12613,7 +12677,7 @@
         <v>412</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D45)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -12649,7 +12713,7 @@
         <v>573</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D46)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -12685,11 +12749,11 @@
         <v>576</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D47)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>390</v>
@@ -12721,7 +12785,7 @@
         <v>407</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D48)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -12757,7 +12821,7 @@
         <v>412</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D49)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -12793,7 +12857,7 @@
         <v>412</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D50)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -12829,7 +12893,7 @@
         <v>296</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D51)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -12865,7 +12929,7 @@
         <v>573</v>
       </c>
       <c r="F52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D52)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -12901,7 +12965,7 @@
         <v>520</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D53)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -12931,17 +12995,17 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>412</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D54)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>390</v>
@@ -12973,7 +13037,7 @@
         <v>402</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D55)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -13009,7 +13073,7 @@
         <v>422</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D56)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -13045,7 +13109,7 @@
         <v>573</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D57)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -13081,7 +13145,7 @@
         <v>595</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D58)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -13117,7 +13181,7 @@
         <v>425</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D59)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -13153,7 +13217,7 @@
         <v>311</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D60)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -13189,7 +13253,7 @@
         <v>633</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D61)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -13225,7 +13289,7 @@
         <v>427</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D62)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -13261,7 +13325,7 @@
         <v>592</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D63)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -13297,7 +13361,7 @@
         <v>395</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D64)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -13333,7 +13397,7 @@
         <v>427</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D65)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -13369,7 +13433,7 @@
         <v>592</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" ref="F66:F129" si="1">IF(COUNTIF(D:D,"="&amp;D66)=1,"Oui","Non")</f>
+        <f>IF(COUNTIF(D:D,"="&amp;D66)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -13405,7 +13469,7 @@
         <v>592</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D67)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -13441,7 +13505,7 @@
         <v>427</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D68)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -13477,7 +13541,7 @@
         <v>573</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D69)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -13513,7 +13577,7 @@
         <v>592</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D70)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -13549,7 +13613,7 @@
         <v>592</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D71)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -13585,7 +13649,7 @@
         <v>576</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D72)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -13621,7 +13685,7 @@
         <v>296</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D73)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -13657,7 +13721,7 @@
         <v>576</v>
       </c>
       <c r="F74" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D74)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -13693,7 +13757,7 @@
         <v>402</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D75)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -13729,7 +13793,7 @@
         <v>595</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D76)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -13765,7 +13829,7 @@
         <v>422</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D77)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G77" s="3" t="s">
@@ -13801,7 +13865,7 @@
         <v>592</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D78)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G78" s="3" t="s">
@@ -13837,7 +13901,7 @@
         <v>402</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D79)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -13873,7 +13937,7 @@
         <v>592</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D80)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -13909,7 +13973,7 @@
         <v>592</v>
       </c>
       <c r="F81" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D81)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -13945,7 +14009,7 @@
         <v>652</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D82)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G82" s="3" t="s">
@@ -13981,7 +14045,7 @@
         <v>407</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D83)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -14017,7 +14081,7 @@
         <v>93</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D84)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G84" s="3" t="s">
@@ -14053,7 +14117,7 @@
         <v>412</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D85)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G85" s="3" t="s">
@@ -14086,10 +14150,10 @@
         <v>88</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D86)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G86" s="3" t="s">
@@ -14125,7 +14189,7 @@
         <v>93</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D87)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G87" s="3" t="s">
@@ -14161,7 +14225,7 @@
         <v>93</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D88)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G88" s="3" t="s">
@@ -14197,7 +14261,7 @@
         <v>93</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D89)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G89" s="3" t="s">
@@ -14233,7 +14297,7 @@
         <v>422</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D90)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G90" s="3" t="s">
@@ -14269,7 +14333,7 @@
         <v>427</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D91)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -14305,7 +14369,7 @@
         <v>93</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D92)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G92" s="3" t="s">
@@ -14341,7 +14405,7 @@
         <v>652</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D93)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -14377,7 +14441,7 @@
         <v>407</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D94)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G94" s="3" t="s">
@@ -14413,7 +14477,7 @@
         <v>93</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D95)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G95" s="3" t="s">
@@ -14449,7 +14513,7 @@
         <v>93</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D96)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G96" s="3" t="s">
@@ -14485,7 +14549,7 @@
         <v>652</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D97)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G97" s="3" t="s">
@@ -14521,7 +14585,7 @@
         <v>652</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D98)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G98" s="3" t="s">
@@ -14557,7 +14621,7 @@
         <v>407</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D99)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G99" s="3" t="s">
@@ -14593,7 +14657,7 @@
         <v>422</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D100)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G100" s="3" t="s">
@@ -14629,7 +14693,7 @@
         <v>298</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D101)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G101" s="3" t="s">
@@ -14665,7 +14729,7 @@
         <v>407</v>
       </c>
       <c r="F102" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D102)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G102" s="4" t="s">
@@ -14701,7 +14765,7 @@
         <v>678</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D103)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G103" s="3" t="s">
@@ -14737,7 +14801,7 @@
         <v>412</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D104)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G104" s="3" t="s">
@@ -14773,7 +14837,7 @@
         <v>687</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D105)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G105" s="3" t="s">
@@ -14809,7 +14873,7 @@
         <v>389</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D106)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G106" s="3" t="s">
@@ -14845,7 +14909,7 @@
         <v>678</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D107)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G107" s="3" t="s">
@@ -14881,7 +14945,7 @@
         <v>687</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D108)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G108" s="3" t="s">
@@ -14917,7 +14981,7 @@
         <v>687</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D109)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G109" s="3" t="s">
@@ -14953,7 +15017,7 @@
         <v>488</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D110)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G110" s="3" t="s">
@@ -14989,7 +15053,7 @@
         <v>687</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D111)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G111" s="3" t="s">
@@ -15025,7 +15089,7 @@
         <v>678</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D112)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G112" s="3" t="s">
@@ -15061,7 +15125,7 @@
         <v>422</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D113)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G113" s="3" t="s">
@@ -15097,7 +15161,7 @@
         <v>439</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D114)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G114" s="3" t="s">
@@ -15133,7 +15197,7 @@
         <v>412</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D115)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G115" s="3" t="s">
@@ -15169,7 +15233,7 @@
         <v>422</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D116)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G116" s="3" t="s">
@@ -15205,7 +15269,7 @@
         <v>687</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D117)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G117" s="3" t="s">
@@ -15238,17 +15302,17 @@
         <v>117</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>422</v>
+        <v>678</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D118)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>696</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>697</v>
+        <v>390</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>480</v>
@@ -15277,11 +15341,11 @@
         <v>412</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D119)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>390</v>
@@ -15310,11 +15374,11 @@
         <v>311</v>
       </c>
       <c r="F120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D120)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>424</v>
@@ -15346,7 +15410,7 @@
         <v>594</v>
       </c>
       <c r="F121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D121)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G121" s="3" t="s">
@@ -15382,17 +15446,17 @@
         <v>678</v>
       </c>
       <c r="F122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D122)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>488</v>
@@ -15415,20 +15479,20 @@
         <v>123</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D123)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J123" s="9">
         <v>6</v>
@@ -15451,14 +15515,14 @@
         <v>124</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f>IF(COUNTIF(D:D,"="&amp;D124)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="F124" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Oui</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>390</v>
@@ -15490,11 +15554,11 @@
         <v>422</v>
       </c>
       <c r="F125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D125)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>424</v>
@@ -15523,17 +15587,17 @@
         <v>126</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D126)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G126" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>524</v>
@@ -15562,7 +15626,7 @@
         <v>412</v>
       </c>
       <c r="F127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D127)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G127" s="3" t="s">
@@ -15595,14 +15659,14 @@
         <v>127</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D128)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>390</v>
@@ -15634,7 +15698,7 @@
         <v>298</v>
       </c>
       <c r="F129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D129)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G129" s="3" t="s">
@@ -15667,26 +15731,26 @@
         <v>128</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f t="shared" ref="F130:F193" si="2">IF(COUNTIF(D:D,"="&amp;D130)=1,"Oui","Non")</f>
+        <f>IF(COUNTIF(D:D,"="&amp;D130)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J130" s="9" t="s">
         <v>488</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -15703,10 +15767,10 @@
         <v>129</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D131)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G131" s="3" t="s">
@@ -15739,14 +15803,14 @@
         <v>130</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F132" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D132)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>390</v>
@@ -15775,10 +15839,10 @@
         <v>131</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F133" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D133)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G133" s="3" t="s">
@@ -15811,20 +15875,20 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F134" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D134)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J134" s="9" t="s">
         <v>488</v>
@@ -15847,14 +15911,14 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F135" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D135)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>557</v>
@@ -15883,20 +15947,20 @@
         <v>134</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F136" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D136)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J136" s="9" t="s">
         <v>488</v>
@@ -15919,20 +15983,20 @@
         <v>135</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F137" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D137)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J137" s="9">
         <v>6</v>
@@ -15958,11 +16022,11 @@
         <v>422</v>
       </c>
       <c r="F138" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D138)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>424</v>
@@ -15974,7 +16038,7 @@
         <v>387</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -15991,14 +16055,14 @@
         <v>137</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D139)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>424</v>
@@ -16030,7 +16094,7 @@
         <v>633</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D140)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G140" s="3" t="s">
@@ -16063,14 +16127,14 @@
         <v>139</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D141)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>390</v>
@@ -16102,7 +16166,7 @@
         <v>594</v>
       </c>
       <c r="F142" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D142)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G142" s="3" t="s">
@@ -16138,11 +16202,11 @@
         <v>452</v>
       </c>
       <c r="F143" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D143)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>454</v>
@@ -16174,7 +16238,7 @@
         <v>452</v>
       </c>
       <c r="F144" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D144)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G144" s="3" t="s">
@@ -16207,10 +16271,10 @@
         <v>143</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F145" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D145)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G145" s="3" t="s">
@@ -16243,10 +16307,10 @@
         <v>144</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F146" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D146)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G146" s="3" t="s">
@@ -16279,14 +16343,14 @@
         <v>145</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F147" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D147)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>396</v>
@@ -16315,14 +16379,14 @@
         <v>146</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F148" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D148)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>396</v>
@@ -16351,14 +16415,14 @@
         <v>147</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F149" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D149)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>390</v>
@@ -16390,7 +16454,7 @@
         <v>412</v>
       </c>
       <c r="F150" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D150)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G150" s="3" t="s">
@@ -16423,10 +16487,10 @@
         <v>148</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F151" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D151)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G151" s="3" t="s">
@@ -16459,14 +16523,14 @@
         <v>149</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F152" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D152)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>390</v>
@@ -16498,7 +16562,7 @@
         <v>452</v>
       </c>
       <c r="F153" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D153)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G153" s="3" t="s">
@@ -16534,11 +16598,11 @@
         <v>452</v>
       </c>
       <c r="F154" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D154)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>454</v>
@@ -16567,14 +16631,14 @@
         <v>152</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F155" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D155)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>390</v>
@@ -16606,7 +16670,7 @@
         <v>402</v>
       </c>
       <c r="F156" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D156)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G156" s="3" t="s">
@@ -16639,14 +16703,14 @@
         <v>153</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F157" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D157)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>390</v>
@@ -16675,14 +16739,14 @@
         <v>154</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F158" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D158)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>424</v>
@@ -16714,11 +16778,11 @@
         <v>452</v>
       </c>
       <c r="F159" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D159)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>454</v>
@@ -16730,7 +16794,7 @@
         <v>387</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -16750,11 +16814,11 @@
         <v>311</v>
       </c>
       <c r="F160" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D160)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>424</v>
@@ -16786,11 +16850,11 @@
         <v>488</v>
       </c>
       <c r="F161" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D161)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>396</v>
@@ -16819,14 +16883,14 @@
         <v>158</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F162" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D162)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>390</v>
@@ -16858,11 +16922,11 @@
         <v>576</v>
       </c>
       <c r="F163" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D163)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>390</v>
@@ -16894,7 +16958,7 @@
         <v>412</v>
       </c>
       <c r="F164" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D164)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G164" s="3" t="s">
@@ -16930,11 +16994,11 @@
         <v>427</v>
       </c>
       <c r="F165" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D165)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>390</v>
@@ -16963,14 +17027,14 @@
         <v>166</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F166" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D166)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>424</v>
@@ -17002,11 +17066,11 @@
         <v>576</v>
       </c>
       <c r="F167" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D167)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>424</v>
@@ -17038,11 +17102,11 @@
         <v>576</v>
       </c>
       <c r="F168" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D168)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>390</v>
@@ -17074,11 +17138,11 @@
         <v>576</v>
       </c>
       <c r="F169" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D169)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>424</v>
@@ -17090,7 +17154,7 @@
         <v>387</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17110,7 +17174,7 @@
         <v>427</v>
       </c>
       <c r="F170" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D170)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G170" s="3" t="s">
@@ -17146,7 +17210,7 @@
         <v>560</v>
       </c>
       <c r="F171" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D171)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G171" s="4" t="s">
@@ -17182,17 +17246,17 @@
         <v>576</v>
       </c>
       <c r="F172" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D172)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J172" s="9">
         <v>7</v>
@@ -17218,11 +17282,11 @@
         <v>316</v>
       </c>
       <c r="F173" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D173)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>424</v>
@@ -17254,11 +17318,11 @@
         <v>576</v>
       </c>
       <c r="F174" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D174)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>396</v>
@@ -17287,14 +17351,14 @@
         <v>172</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F175" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D175)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>424</v>
@@ -17306,7 +17370,7 @@
         <v>7</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -17320,17 +17384,17 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F176" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D176)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>390</v>
@@ -17359,20 +17423,20 @@
         <v>173</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F177" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D177)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J177" s="9" t="s">
         <v>488</v>
@@ -17395,14 +17459,14 @@
         <v>174</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F178" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D178)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>424</v>
@@ -17414,7 +17478,7 @@
         <v>387</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -17434,23 +17498,23 @@
         <v>576</v>
       </c>
       <c r="F179" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D179)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J179" s="9">
         <v>7</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -17470,7 +17534,7 @@
         <v>407</v>
       </c>
       <c r="F180" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D180)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G180" s="3" t="s">
@@ -17506,11 +17570,11 @@
         <v>652</v>
       </c>
       <c r="F181" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D181)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>390</v>
@@ -17542,17 +17606,17 @@
         <v>422</v>
       </c>
       <c r="F182" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D182)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J182" s="9" t="s">
         <v>475</v>
@@ -17578,14 +17642,14 @@
         <v>496</v>
       </c>
       <c r="F183" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D183)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G183" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>387</v>
@@ -17611,14 +17675,14 @@
         <v>181</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F184" s="1" t="str">
+        <f>IF(COUNTIF(D:D,"="&amp;D184)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G184" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="F184" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Oui</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>772</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>390</v>
@@ -17647,10 +17711,10 @@
         <v>144</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F185" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D185)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G185" s="3" t="s">
@@ -17686,11 +17750,11 @@
         <v>488</v>
       </c>
       <c r="F186" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D186)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>390</v>
@@ -17722,7 +17786,7 @@
         <v>412</v>
       </c>
       <c r="F187" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D187)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G187" s="3" t="s">
@@ -17758,11 +17822,11 @@
         <v>488</v>
       </c>
       <c r="F188" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D188)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>390</v>
@@ -17774,7 +17838,7 @@
         <v>8</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -17794,11 +17858,11 @@
         <v>652</v>
       </c>
       <c r="F189" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D189)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>390</v>
@@ -17830,17 +17894,17 @@
         <v>488</v>
       </c>
       <c r="F190" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D190)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J190" s="9">
         <v>6</v>
@@ -17866,11 +17930,11 @@
         <v>576</v>
       </c>
       <c r="F191" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D191)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>390</v>
@@ -17902,23 +17966,23 @@
         <v>399</v>
       </c>
       <c r="F192" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D192)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J192" s="9">
         <v>7</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -17938,11 +18002,11 @@
         <v>412</v>
       </c>
       <c r="F193" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D193)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>390</v>
@@ -17971,14 +18035,14 @@
         <v>189</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F194" s="1" t="str">
+        <f>IF(COUNTIF(D:D,"="&amp;D194)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G194" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="F194" s="1" t="str">
-        <f t="shared" ref="F194:F257" si="3">IF(COUNTIF(D:D,"="&amp;D194)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>785</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>424</v>
@@ -18007,14 +18071,14 @@
         <v>190</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F195" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D195)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>396</v>
@@ -18023,7 +18087,7 @@
         <v>420</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>398</v>
@@ -18046,7 +18110,7 @@
         <v>412</v>
       </c>
       <c r="F196" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D196)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G196" s="3" t="s">
@@ -18082,7 +18146,7 @@
         <v>389</v>
       </c>
       <c r="F197" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D197)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G197" s="3" t="s">
@@ -18115,10 +18179,10 @@
         <v>192</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F198" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D198)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G198" s="3" t="s">
@@ -18151,20 +18215,20 @@
         <v>193</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F199" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D199)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J199" s="9">
         <v>7</v>
@@ -18187,14 +18251,14 @@
         <v>194</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F200" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D200)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>396</v>
@@ -18203,10 +18267,10 @@
         <v>489</v>
       </c>
       <c r="J200" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -18226,23 +18290,23 @@
         <v>488</v>
       </c>
       <c r="F201" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D201)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J201" s="9">
         <v>7</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="202" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -18262,11 +18326,11 @@
         <v>422</v>
       </c>
       <c r="F202" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D202)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>424</v>
@@ -18278,7 +18342,7 @@
         <v>387</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -18295,14 +18359,14 @@
         <v>198</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F203" s="1" t="str">
+        <f>IF(COUNTIF(D:D,"="&amp;D203)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G203" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="F203" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>396</v>
@@ -18331,10 +18395,10 @@
         <v>143</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F204" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D204)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G204" s="3" t="s">
@@ -18370,11 +18434,11 @@
         <v>305</v>
       </c>
       <c r="F205" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D205)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>424</v>
@@ -18406,11 +18470,11 @@
         <v>422</v>
       </c>
       <c r="F206" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D206)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>454</v>
@@ -18442,7 +18506,7 @@
         <v>412</v>
       </c>
       <c r="F207" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D207)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G207" s="3" t="s">
@@ -18478,7 +18542,7 @@
         <v>389</v>
       </c>
       <c r="F208" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D208)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G208" s="3" t="s">
@@ -18511,14 +18575,14 @@
         <v>202</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F209" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D209)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>424</v>
@@ -18550,11 +18614,11 @@
         <v>402</v>
       </c>
       <c r="F210" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D210)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>454</v>
@@ -18586,7 +18650,7 @@
         <v>412</v>
       </c>
       <c r="F211" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D211)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G211" s="3" t="s">
@@ -18619,14 +18683,14 @@
         <v>204</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F212" s="1" t="str">
+        <f>IF(COUNTIF(D:D,"="&amp;D212)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G212" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="F212" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>806</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>390</v>
@@ -18655,14 +18719,14 @@
         <v>205</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F213" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D213)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>424</v>
@@ -18694,7 +18758,7 @@
         <v>452</v>
       </c>
       <c r="F214" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D214)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G214" s="3" t="s">
@@ -18727,14 +18791,14 @@
         <v>206</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F215" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D215)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>390</v>
@@ -18766,11 +18830,11 @@
         <v>452</v>
       </c>
       <c r="F216" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D216)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>424</v>
@@ -18802,7 +18866,7 @@
         <v>389</v>
       </c>
       <c r="F217" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D217)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G217" s="3" t="s">
@@ -18835,17 +18899,17 @@
         <v>208</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F218" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D218)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G218" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="H218" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>387</v>
@@ -18871,14 +18935,14 @@
         <v>209</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F219" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D219)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>390</v>
@@ -18910,11 +18974,11 @@
         <v>422</v>
       </c>
       <c r="F220" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D220)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>557</v>
@@ -18923,7 +18987,7 @@
         <v>441</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K220" s="3" t="s">
         <v>449</v>
@@ -18946,11 +19010,11 @@
         <v>595</v>
       </c>
       <c r="F221" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D221)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>424</v>
@@ -18979,14 +19043,14 @@
         <v>212</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F222" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D222)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>617</v>
@@ -19018,11 +19082,11 @@
         <v>422</v>
       </c>
       <c r="F223" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D223)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>424</v>
@@ -19051,20 +19115,20 @@
         <v>215</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F224" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D224)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J224" s="9">
         <v>6</v>
@@ -19087,14 +19151,14 @@
         <v>216</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F225" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D225)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>424</v>
@@ -19126,7 +19190,7 @@
         <v>389</v>
       </c>
       <c r="F226" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D226)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G226" s="3" t="s">
@@ -19159,10 +19223,10 @@
         <v>88</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F227" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D227)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G227" s="3" t="s">
@@ -19198,7 +19262,7 @@
         <v>389</v>
       </c>
       <c r="F228" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D228)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G228" s="3" t="s">
@@ -19231,14 +19295,14 @@
         <v>217</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F229" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D229)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>424</v>
@@ -19267,14 +19331,14 @@
         <v>218</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F230" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D230)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>424</v>
@@ -19303,14 +19367,14 @@
         <v>219</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F231" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D231)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>454</v>
@@ -19339,14 +19403,14 @@
         <v>220</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F232" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D232)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>424</v>
@@ -19375,14 +19439,14 @@
         <v>221</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F233" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D233)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>390</v>
@@ -19414,7 +19478,7 @@
         <v>595</v>
       </c>
       <c r="F234" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D234)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G234" s="3" t="s">
@@ -19447,14 +19511,14 @@
         <v>223</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F235" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D235)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>390</v>
@@ -19483,23 +19547,23 @@
         <v>224</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F236" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D236)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I236" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="J236" s="9" t="s">
         <v>831</v>
-      </c>
-      <c r="J236" s="9" t="s">
-        <v>832</v>
       </c>
       <c r="K236" s="3" t="s">
         <v>398</v>
@@ -19519,10 +19583,10 @@
         <v>192</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F237" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D237)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G237" s="3" t="s">
@@ -19558,20 +19622,20 @@
         <v>594</v>
       </c>
       <c r="F238" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D238)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K238" s="3" t="s">
         <v>401</v>
@@ -19591,20 +19655,20 @@
         <v>226</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F239" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D239)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J239" s="9" t="s">
         <v>488</v>
@@ -19630,7 +19694,7 @@
         <v>425</v>
       </c>
       <c r="F240" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D240)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G240" s="3" t="s">
@@ -19663,20 +19727,20 @@
         <v>227</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F241" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D241)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J241" s="9">
         <v>8</v>
@@ -19702,11 +19766,11 @@
         <v>422</v>
       </c>
       <c r="F242" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D242)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>424</v>
@@ -19738,7 +19802,7 @@
         <v>520</v>
       </c>
       <c r="F243" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D243)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G243" s="3" t="s">
@@ -19757,7 +19821,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -19771,14 +19835,29 @@
         <v>230</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>422</v>
+        <v>868</v>
       </c>
       <c r="F244" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D244)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J244" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -19792,11 +19871,26 @@
         <v>231</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>422</v>
+        <v>867</v>
       </c>
       <c r="F245" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D245)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J245" s="9">
+        <v>6</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -19816,7 +19910,7 @@
         <v>687</v>
       </c>
       <c r="F246" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D246)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G246" s="3" t="s">
@@ -19852,7 +19946,7 @@
         <v>389</v>
       </c>
       <c r="F247" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D247)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G247" s="3" t="s">
@@ -19885,11 +19979,26 @@
         <v>233</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>422</v>
+        <v>869</v>
       </c>
       <c r="F248" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D248)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J248" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -19906,11 +20015,26 @@
         <v>234</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>422</v>
+        <v>868</v>
       </c>
       <c r="F249" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D249)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J249" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -19927,11 +20051,26 @@
         <v>235</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>422</v>
+        <v>868</v>
       </c>
       <c r="F250" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D250)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J250" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -19951,7 +20090,7 @@
         <v>402</v>
       </c>
       <c r="F251" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D251)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G251" s="3" t="s">
@@ -19970,7 +20109,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -19984,14 +20123,29 @@
         <v>236</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>422</v>
+        <v>868</v>
       </c>
       <c r="F252" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D252)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="J252" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -20005,11 +20159,26 @@
         <v>237</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>422</v>
+        <v>867</v>
       </c>
       <c r="F253" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D253)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J253" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -20026,10 +20195,10 @@
         <v>131</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F254" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D254)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G254" s="3" t="s">
@@ -20062,11 +20231,26 @@
         <v>238</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>422</v>
+        <v>867</v>
       </c>
       <c r="F255" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D255)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="J255" s="9">
+        <v>8</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -20083,11 +20267,26 @@
         <v>239</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>422</v>
+        <v>867</v>
       </c>
       <c r="F256" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D256)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J256" s="9">
+        <v>7</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -20107,7 +20306,7 @@
         <v>399</v>
       </c>
       <c r="F257" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D257)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G257" s="3" t="s">
@@ -20126,7 +20325,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -20137,17 +20336,32 @@
         <v>4</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>240</v>
+        <v>860</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>422</v>
+        <v>867</v>
       </c>
       <c r="F258" s="1" t="str">
-        <f t="shared" ref="F258:F321" si="4">IF(COUNTIF(D:D,"="&amp;D258)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D258)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="J258" s="9">
+        <v>6</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -20155,20 +20369,35 @@
         <v>229</v>
       </c>
       <c r="C259" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F259" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D259)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J259" s="9">
+        <v>8</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -20179,17 +20408,32 @@
         <v>5</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>422</v>
+        <v>867</v>
       </c>
       <c r="F260" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D260)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J260" s="9">
+        <v>8</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -20200,47 +20444,62 @@
         <v>5</v>
       </c>
       <c r="D261" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F261" s="1" t="str">
+        <f>IF(COUNTIF(D:D,"="&amp;D261)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J261" s="9">
+        <v>7</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C262" s="1">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E261" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F261" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C262" s="1">
-        <v>1</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>452</v>
+        <v>867</v>
       </c>
       <c r="F262" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D262)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>453</v>
+        <v>866</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J262" s="9" t="s">
-        <v>387</v>
+        <v>404</v>
+      </c>
+      <c r="J262" s="9">
+        <v>8</v>
       </c>
       <c r="K262" s="3" t="s">
         <v>388</v>
@@ -20257,20 +20516,20 @@
         <v>1</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>311</v>
+        <v>452</v>
       </c>
       <c r="F263" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D263)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>387</v>
@@ -20293,14 +20552,29 @@
         <v>1</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="F264" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D264)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J264" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20314,29 +20588,14 @@
         <v>1</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="F265" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I265" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J265" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K265" s="3" t="s">
-        <v>388</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D265)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20350,14 +20609,29 @@
         <v>1</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="F266" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D266)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J266" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20368,17 +20642,17 @@
         <v>244</v>
       </c>
       <c r="C267" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F267" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D267)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20392,14 +20666,14 @@
         <v>2</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F268" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D268)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
     </row>
     <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20413,13 +20687,13 @@
         <v>2</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F269" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D269)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20434,13 +20708,13 @@
         <v>2</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F270" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D270)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20452,16 +20726,16 @@
         <v>244</v>
       </c>
       <c r="C271" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F271" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D271)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20476,13 +20750,13 @@
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F272" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D272)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20497,13 +20771,13 @@
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F273" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D273)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20515,32 +20789,17 @@
         <v>244</v>
       </c>
       <c r="C274" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F274" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G274" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I274" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J274" s="9">
-        <v>6</v>
-      </c>
-      <c r="K274" s="3" t="s">
-        <v>388</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D274)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20554,14 +20813,29 @@
         <v>4</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F275" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D275)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J275" s="9">
+        <v>6</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20575,32 +20849,17 @@
         <v>4</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F276" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G276" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J276" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K276" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D276)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -20611,32 +20870,32 @@
         <v>4</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F277" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D277)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J277" s="9">
-        <v>8</v>
+        <v>387</v>
+      </c>
+      <c r="J277" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -20644,17 +20903,32 @@
         <v>244</v>
       </c>
       <c r="C278" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F278" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D278)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J278" s="9">
+        <v>8</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20668,13 +20942,13 @@
         <v>5</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F279" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D279)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20689,13 +20963,13 @@
         <v>5</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F280" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D280)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20707,16 +20981,16 @@
         <v>244</v>
       </c>
       <c r="C281" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F281" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D281)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20725,19 +20999,19 @@
         <v>162</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C282" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F282" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D282)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20752,13 +21026,13 @@
         <v>1</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F283" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D283)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20773,32 +21047,17 @@
         <v>1</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F284" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G284" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J284" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K284" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D284)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>162</v>
       </c>
@@ -20809,32 +21068,32 @@
         <v>1</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>412</v>
       </c>
       <c r="F285" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D285)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="J285" s="9" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>162</v>
       </c>
@@ -20845,14 +21104,29 @@
         <v>1</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F286" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D286)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J286" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20863,16 +21137,16 @@
         <v>260</v>
       </c>
       <c r="C287" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F287" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D287)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20887,13 +21161,13 @@
         <v>2</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F288" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D288)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -20908,29 +21182,14 @@
         <v>2</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F289" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I289" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J289" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K289" s="3" t="s">
-        <v>411</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D289)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -20944,17 +21203,32 @@
         <v>2</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F290" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D290)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J290" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>162</v>
       </c>
@@ -20965,32 +21239,17 @@
         <v>2</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>573</v>
+        <v>422</v>
       </c>
       <c r="F291" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G291" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J291" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K291" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D291)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>162</v>
       </c>
@@ -20998,17 +21257,32 @@
         <v>260</v>
       </c>
       <c r="C292" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>422</v>
+        <v>573</v>
       </c>
       <c r="F292" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D292)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J292" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21022,13 +21296,13 @@
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F293" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D293)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21043,13 +21317,13 @@
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F294" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D294)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21064,13 +21338,13 @@
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F295" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D295)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21082,16 +21356,16 @@
         <v>260</v>
       </c>
       <c r="C296" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F296" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D296)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21106,13 +21380,13 @@
         <v>4</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F297" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D297)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21127,29 +21401,14 @@
         <v>4</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F298" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G298" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I298" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J298" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K298" s="3" t="s">
-        <v>411</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D298)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21160,32 +21419,32 @@
         <v>260</v>
       </c>
       <c r="C299" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="F299" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D299)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="J299" s="9">
-        <v>6</v>
+        <v>387</v>
+      </c>
+      <c r="J299" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21199,14 +21458,29 @@
         <v>5</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F300" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D300)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J300" s="9">
+        <v>6</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21220,13 +21494,13 @@
         <v>5</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F301" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D301)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21235,19 +21509,19 @@
         <v>162</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C302" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F302" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D302)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21262,13 +21536,13 @@
         <v>1</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F303" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D303)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21283,29 +21557,14 @@
         <v>1</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F304" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G304" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H304" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I304" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J304" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K304" s="3" t="s">
-        <v>411</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D304)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21319,14 +21578,29 @@
         <v>1</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>278</v>
+        <v>62</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F305" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D305)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J305" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21340,13 +21614,13 @@
         <v>1</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F306" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D306)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21358,20 +21632,20 @@
         <v>275</v>
       </c>
       <c r="C307" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F307" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D307)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>162</v>
       </c>
@@ -21382,32 +21656,17 @@
         <v>2</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F308" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G308" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="H308" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I308" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J308" s="9">
-        <v>6</v>
-      </c>
-      <c r="K308" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D308)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>162</v>
       </c>
@@ -21418,17 +21677,32 @@
         <v>2</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F309" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D309)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J309" s="9">
+        <v>6</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>162</v>
       </c>
@@ -21439,32 +21713,17 @@
         <v>2</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>573</v>
+        <v>422</v>
       </c>
       <c r="F310" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G310" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I310" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J310" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K310" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D310)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>162</v>
       </c>
@@ -21472,17 +21731,32 @@
         <v>275</v>
       </c>
       <c r="C311" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>422</v>
+        <v>573</v>
       </c>
       <c r="F311" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D311)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J311" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21496,17 +21770,17 @@
         <v>3</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F312" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D312)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>162</v>
       </c>
@@ -21517,32 +21791,17 @@
         <v>3</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="F313" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Non</v>
-      </c>
-      <c r="G313" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I313" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J313" s="9">
-        <v>7</v>
-      </c>
-      <c r="K313" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D313)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
@@ -21553,14 +21812,29 @@
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="F314" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D314)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J314" s="9">
+        <v>7</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21571,16 +21845,16 @@
         <v>275</v>
       </c>
       <c r="C315" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F315" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D315)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21595,13 +21869,13 @@
         <v>4</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F316" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D316)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21616,13 +21890,13 @@
         <v>4</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F317" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D317)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21634,16 +21908,16 @@
         <v>275</v>
       </c>
       <c r="C318" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F318" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D318)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21658,13 +21932,13 @@
         <v>5</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F319" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D319)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21679,13 +21953,13 @@
         <v>5</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F320" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D320)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21697,16 +21971,16 @@
         <v>275</v>
       </c>
       <c r="C321" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F321" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D321)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21715,19 +21989,19 @@
         <v>162</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C322" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="F322" s="1" t="str">
-        <f t="shared" ref="F322:F385" si="5">IF(COUNTIF(D:D,"="&amp;D322)=1,"Oui","Non")</f>
+        <f>IF(COUNTIF(D:D,"="&amp;D322)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21742,13 +22016,13 @@
         <v>1</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F323" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D323)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21763,13 +22037,13 @@
         <v>1</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F324" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D324)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21784,29 +22058,14 @@
         <v>1</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>687</v>
+        <v>296</v>
       </c>
       <c r="F325" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G325" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H325" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J325" s="9">
-        <v>7</v>
-      </c>
-      <c r="K325" s="3" t="s">
-        <v>388</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D325)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21820,14 +22079,29 @@
         <v>1</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>299</v>
+        <v>7</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>296</v>
+        <v>687</v>
       </c>
       <c r="F326" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D326)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J326" s="9">
+        <v>7</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21838,16 +22112,16 @@
         <v>293</v>
       </c>
       <c r="C327" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F327" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D327)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21862,29 +22136,14 @@
         <v>2</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F328" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G328" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I328" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="J328" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="K328" s="3" t="s">
-        <v>392</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D328)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21898,14 +22157,29 @@
         <v>2</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>301</v>
+        <v>8</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="F329" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D329)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J329" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -21919,13 +22193,13 @@
         <v>2</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="F330" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D330)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21940,13 +22214,13 @@
         <v>2</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F331" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D331)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21958,16 +22232,16 @@
         <v>293</v>
       </c>
       <c r="C332" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F332" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D332)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -21982,17 +22256,17 @@
         <v>3</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="F333" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D333)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>162</v>
       </c>
@@ -22003,32 +22277,17 @@
         <v>3</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="F334" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G334" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I334" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J334" s="9">
-        <v>7</v>
-      </c>
-      <c r="K334" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D334)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>162</v>
       </c>
@@ -22039,14 +22298,29 @@
         <v>3</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="F335" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D335)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J335" s="9">
+        <v>7</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22057,16 +22331,16 @@
         <v>293</v>
       </c>
       <c r="C336" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F336" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D336)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22081,17 +22355,17 @@
         <v>4</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F337" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D337)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>162</v>
       </c>
@@ -22102,32 +22376,17 @@
         <v>4</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="F338" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G338" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H338" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I338" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="J338" s="11">
-        <v>6</v>
-      </c>
-      <c r="K338" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D338)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>162</v>
       </c>
@@ -22138,14 +22397,29 @@
         <v>4</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
       <c r="F339" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D339)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J339" s="11">
+        <v>6</v>
+      </c>
+      <c r="K339" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22156,16 +22430,16 @@
         <v>293</v>
       </c>
       <c r="C340" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F340" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D340)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22180,13 +22454,13 @@
         <v>5</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="F341" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D341)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22195,19 +22469,19 @@
         <v>162</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C342" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="F342" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D342)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22222,13 +22496,13 @@
         <v>1</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="F343" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D343)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22243,13 +22517,13 @@
         <v>1</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F344" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D344)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22264,17 +22538,17 @@
         <v>1</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F345" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D345)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -22285,32 +22559,17 @@
         <v>1</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="F346" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G346" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I346" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J346" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K346" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D346)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -22318,17 +22577,32 @@
         <v>314</v>
       </c>
       <c r="C347" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="F347" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D347)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J347" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22342,13 +22616,13 @@
         <v>2</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F348" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D348)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22363,13 +22637,13 @@
         <v>2</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F349" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D349)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22384,29 +22658,14 @@
         <v>2</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>67</v>
+        <v>322</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F350" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G350" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H350" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I350" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J350" s="9">
-        <v>5</v>
-      </c>
-      <c r="K350" s="3" t="s">
-        <v>430</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D350)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22420,14 +22679,29 @@
         <v>2</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F351" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D351)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J351" s="9">
+        <v>5</v>
+      </c>
+      <c r="K351" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22438,16 +22712,16 @@
         <v>314</v>
       </c>
       <c r="C352" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F352" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D352)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22462,13 +22736,13 @@
         <v>3</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F353" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D353)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22483,13 +22757,13 @@
         <v>3</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F354" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D354)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22504,29 +22778,14 @@
         <v>3</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="F355" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G355" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I355" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="J355" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="K355" s="3" t="s">
-        <v>401</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D355)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22540,14 +22799,29 @@
         <v>3</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="F356" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D356)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J356" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22558,16 +22832,16 @@
         <v>314</v>
       </c>
       <c r="C357" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F357" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D357)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22582,17 +22856,17 @@
         <v>4</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F358" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D358)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -22603,32 +22877,17 @@
         <v>4</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>176</v>
+        <v>329</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="F359" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G359" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H359" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I359" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="J359" s="11">
-        <v>6</v>
-      </c>
-      <c r="K359" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D359)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -22636,17 +22895,32 @@
         <v>314</v>
       </c>
       <c r="C360" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>330</v>
+        <v>176</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F360" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D360)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J360" s="11">
+        <v>6</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22660,13 +22934,13 @@
         <v>5</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="F361" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D361)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22675,19 +22949,19 @@
         <v>162</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C362" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="F362" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D362)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22702,13 +22976,13 @@
         <v>1</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F363" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D363)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22723,13 +22997,13 @@
         <v>1</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F364" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D364)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22744,13 +23018,13 @@
         <v>1</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F365" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D365)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22765,13 +23039,13 @@
         <v>1</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F366" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D366)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22783,32 +23057,17 @@
         <v>332</v>
       </c>
       <c r="C367" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="F367" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G367" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="H367" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I367" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="J367" s="9">
-        <v>6</v>
-      </c>
-      <c r="K367" s="3" t="s">
-        <v>388</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D367)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22822,14 +23081,29 @@
         <v>2</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="F368" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D368)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J368" s="9">
+        <v>6</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22843,13 +23117,13 @@
         <v>2</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F369" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D369)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22864,17 +23138,17 @@
         <v>2</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F370" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D370)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -22885,32 +23159,17 @@
         <v>2</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>129</v>
+        <v>340</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F371" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G371" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="H371" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I371" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J371" s="9">
-        <v>6</v>
-      </c>
-      <c r="K371" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTIF(D:D,"="&amp;D371)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -22918,17 +23177,32 @@
         <v>332</v>
       </c>
       <c r="C372" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F372" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D372)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J372" s="9">
+        <v>6</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -22942,13 +23216,13 @@
         <v>3</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F373" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D373)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22963,13 +23237,13 @@
         <v>3</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F374" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D374)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22984,13 +23258,13 @@
         <v>3</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F375" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D375)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -23005,13 +23279,13 @@
         <v>3</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F376" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D376)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -23023,16 +23297,16 @@
         <v>332</v>
       </c>
       <c r="C377" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F377" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D377)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -23047,13 +23321,13 @@
         <v>4</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>422</v>
       </c>
       <c r="F378" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D378)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -23068,29 +23342,14 @@
         <v>4</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>628</v>
+        <v>422</v>
       </c>
       <c r="F379" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
-      </c>
-      <c r="G379" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I379" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J379" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K379" s="3" t="s">
-        <v>472</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D379)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -23101,17 +23360,32 @@
         <v>332</v>
       </c>
       <c r="C380" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>422</v>
+        <v>628</v>
       </c>
       <c r="F380" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D380)=1,"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J380" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -23125,13 +23399,13 @@
         <v>5</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="F381" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D381)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -23140,35 +23414,20 @@
         <v>162</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C382" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>520</v>
+        <v>298</v>
       </c>
       <c r="F382" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
-      </c>
-      <c r="G382" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="H382" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I382" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J382" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K382" s="3" t="s">
-        <v>388</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D382)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
     </row>
     <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -23182,20 +23441,20 @@
         <v>1</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>85</v>
+        <v>352</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>407</v>
+        <v>520</v>
       </c>
       <c r="F383" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D383)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>433</v>
+        <v>625</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="I383" s="1" t="s">
         <v>387</v>
@@ -23204,10 +23463,10 @@
         <v>387</v>
       </c>
       <c r="K383" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>162</v>
       </c>
@@ -23218,29 +23477,29 @@
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F384" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D384)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>626</v>
+        <v>433</v>
       </c>
       <c r="H384" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="J384" s="9" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
       <c r="K384" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="385" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -23254,29 +23513,29 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F385" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D385)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H385" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="J385" s="9" t="s">
         <v>475</v>
       </c>
       <c r="K385" s="3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -23290,23 +23549,23 @@
         <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>87</v>
+        <v>354</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>412</v>
       </c>
       <c r="F386" s="1" t="str">
-        <f t="shared" ref="F386:F421" si="6">IF(COUNTIF(D:D,"="&amp;D386)=1,"Oui","Non")</f>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D386)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>408</v>
+        <v>627</v>
       </c>
       <c r="H386" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="J386" s="9" t="s">
         <v>475</v>
@@ -23323,35 +23582,35 @@
         <v>351</v>
       </c>
       <c r="C387" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>355</v>
+        <v>87</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>628</v>
+        <v>412</v>
       </c>
       <c r="F387" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D387)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>629</v>
+        <v>408</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="J387" s="9" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="K387" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>162</v>
       </c>
@@ -23362,17 +23621,17 @@
         <v>2</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>520</v>
+        <v>628</v>
       </c>
       <c r="F388" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D388)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>424</v>
@@ -23384,10 +23643,10 @@
         <v>387</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -23398,23 +23657,23 @@
         <v>2</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>520</v>
       </c>
       <c r="F389" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D389)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H389" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>632</v>
+        <v>387</v>
       </c>
       <c r="J389" s="9" t="s">
         <v>387</v>
@@ -23434,32 +23693,32 @@
         <v>2</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>633</v>
+        <v>520</v>
       </c>
       <c r="F390" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D390)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="J390" s="9">
-        <v>7</v>
+        <v>632</v>
+      </c>
+      <c r="J390" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="K390" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>162</v>
       </c>
@@ -23470,32 +23729,32 @@
         <v>2</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="F391" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D391)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H391" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="J391" s="9" t="s">
-        <v>575</v>
+        <v>635</v>
+      </c>
+      <c r="J391" s="9">
+        <v>7</v>
       </c>
       <c r="K391" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>162</v>
       </c>
@@ -23503,35 +23762,35 @@
         <v>351</v>
       </c>
       <c r="C392" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>633</v>
+        <v>592</v>
       </c>
       <c r="F392" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D392)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="H392" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>441</v>
+        <v>575</v>
       </c>
       <c r="J392" s="9" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="K392" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>162</v>
       </c>
@@ -23542,29 +23801,29 @@
         <v>3</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>633</v>
       </c>
       <c r="F393" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D393)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="H393" s="1" t="s">
-        <v>424</v>
+        <v>637</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>638</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="J393" s="9">
-        <v>7</v>
+        <v>441</v>
+      </c>
+      <c r="J393" s="9" t="s">
+        <v>639</v>
       </c>
       <c r="K393" s="3" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -23578,26 +23837,26 @@
         <v>3</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>412</v>
+        <v>633</v>
       </c>
       <c r="F394" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D394)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J394" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
+      </c>
+      <c r="J394" s="9">
+        <v>7</v>
       </c>
       <c r="K394" s="3" t="s">
         <v>388</v>
@@ -23614,32 +23873,32 @@
         <v>3</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F395" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D395)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>600</v>
+        <v>409</v>
       </c>
       <c r="J395" s="9" t="s">
-        <v>475</v>
+        <v>643</v>
       </c>
       <c r="K395" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>162</v>
       </c>
@@ -23650,32 +23909,32 @@
         <v>3</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F396" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D396)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>387</v>
+        <v>600</v>
       </c>
       <c r="J396" s="9" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="K396" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>162</v>
       </c>
@@ -23683,32 +23942,32 @@
         <v>351</v>
       </c>
       <c r="C397" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>646</v>
+        <v>422</v>
       </c>
       <c r="F397" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D397)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="J397" s="9" t="s">
-        <v>562</v>
+        <v>387</v>
       </c>
       <c r="K397" s="3" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -23722,32 +23981,32 @@
         <v>4</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="F398" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D398)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>471</v>
+        <v>647</v>
       </c>
       <c r="H398" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="J398" s="9" t="s">
-        <v>387</v>
+        <v>562</v>
       </c>
       <c r="K398" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>162</v>
       </c>
@@ -23758,32 +24017,32 @@
         <v>4</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>311</v>
+        <v>628</v>
       </c>
       <c r="F399" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D399)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>648</v>
+        <v>471</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="J399" s="9">
-        <v>7</v>
+        <v>387</v>
+      </c>
+      <c r="J399" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="K399" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>162</v>
       </c>
@@ -23791,32 +24050,32 @@
         <v>351</v>
       </c>
       <c r="C400" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>138</v>
+        <v>366</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>633</v>
+        <v>311</v>
       </c>
       <c r="F400" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D400)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>450</v>
+        <v>648</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>487</v>
+        <v>635</v>
       </c>
       <c r="J400" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K400" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -23830,29 +24089,29 @@
         <v>5</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>367</v>
+        <v>138</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F401" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D401)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>649</v>
+        <v>450</v>
       </c>
       <c r="H401" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>650</v>
+        <v>487</v>
       </c>
       <c r="J401" s="9">
         <v>8</v>
       </c>
       <c r="K401" s="3" t="s">
-        <v>651</v>
+        <v>451</v>
       </c>
     </row>
     <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -23860,38 +24119,38 @@
         <v>162</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C402" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="F402" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D402)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J402" s="9" t="s">
-        <v>387</v>
+        <v>650</v>
+      </c>
+      <c r="J402" s="9">
+        <v>8</v>
       </c>
       <c r="K402" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>162</v>
       </c>
@@ -23902,32 +24161,32 @@
         <v>1</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="F403" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D403)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="J403" s="9">
-        <v>7</v>
+        <v>387</v>
+      </c>
+      <c r="J403" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="K403" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>162</v>
       </c>
@@ -23938,32 +24197,32 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>657</v>
+        <v>370</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>427</v>
+        <v>676</v>
       </c>
       <c r="F404" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D404)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J404" s="9" t="s">
-        <v>387</v>
+        <v>656</v>
+      </c>
+      <c r="J404" s="9">
+        <v>7</v>
       </c>
       <c r="K404" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>162</v>
       </c>
@@ -23974,20 +24233,20 @@
         <v>1</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>371</v>
+        <v>657</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>633</v>
+        <v>427</v>
       </c>
       <c r="F405" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D405)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="I405" s="1" t="s">
         <v>387</v>
@@ -23996,10 +24255,10 @@
         <v>387</v>
       </c>
       <c r="K405" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>162</v>
       </c>
@@ -24010,20 +24269,20 @@
         <v>1</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>106</v>
+        <v>371</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>389</v>
+        <v>633</v>
       </c>
       <c r="F406" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D406)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>436</v>
+        <v>659</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="I406" s="1" t="s">
         <v>387</v>
@@ -24043,20 +24302,35 @@
         <v>368</v>
       </c>
       <c r="C407" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="F407" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D407)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G407" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J407" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K407" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>162</v>
       </c>
@@ -24067,29 +24341,14 @@
         <v>2</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>520</v>
+        <v>422</v>
       </c>
       <c r="F408" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Oui</v>
-      </c>
-      <c r="G408" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="H408" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I408" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J408" s="9">
-        <v>7</v>
-      </c>
-      <c r="K408" s="3" t="s">
-        <v>388</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D408)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
     </row>
     <row r="409" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -24103,32 +24362,32 @@
         <v>2</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>673</v>
+        <v>520</v>
       </c>
       <c r="F409" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D409)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J409" s="9" t="s">
-        <v>387</v>
+        <v>420</v>
+      </c>
+      <c r="J409" s="9">
+        <v>7</v>
       </c>
       <c r="K409" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>162</v>
       </c>
@@ -24139,20 +24398,20 @@
         <v>2</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="F410" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D410)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I410" s="1" t="s">
         <v>387</v>
@@ -24161,7 +24420,7 @@
         <v>387</v>
       </c>
       <c r="K410" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -24175,32 +24434,32 @@
         <v>2</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>770</v>
+        <v>653</v>
       </c>
       <c r="F411" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D411)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>458</v>
+        <v>662</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="J411" s="9" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>162</v>
       </c>
@@ -24208,35 +24467,35 @@
         <v>368</v>
       </c>
       <c r="C412" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>375</v>
+        <v>148</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>422</v>
+        <v>769</v>
       </c>
       <c r="F412" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D412)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>663</v>
+        <v>458</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="J412" s="9" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>162</v>
       </c>
@@ -24247,32 +24506,32 @@
         <v>3</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>676</v>
+        <v>422</v>
       </c>
       <c r="F413" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D413)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="J413" s="9" t="s">
-        <v>665</v>
+        <v>387</v>
       </c>
       <c r="K413" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>162</v>
       </c>
@@ -24283,17 +24542,17 @@
         <v>3</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>439</v>
+        <v>676</v>
       </c>
       <c r="F414" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D414)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>440</v>
+        <v>666</v>
       </c>
       <c r="H414" s="1" t="s">
         <v>390</v>
@@ -24301,14 +24560,14 @@
       <c r="I414" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J414" s="9">
-        <v>6</v>
+      <c r="J414" s="9" t="s">
+        <v>665</v>
       </c>
       <c r="K414" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>162</v>
       </c>
@@ -24319,32 +24578,32 @@
         <v>3</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>377</v>
+        <v>114</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>653</v>
+        <v>439</v>
       </c>
       <c r="F415" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D415)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>667</v>
+        <v>440</v>
       </c>
       <c r="H415" s="1" t="s">
         <v>390</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J415" s="9" t="s">
-        <v>387</v>
+        <v>441</v>
+      </c>
+      <c r="J415" s="9">
+        <v>6</v>
       </c>
       <c r="K415" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>162</v>
       </c>
@@ -24352,35 +24611,35 @@
         <v>368</v>
       </c>
       <c r="C416" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="F416" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D416)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="H416" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="J416" s="9">
-        <v>8</v>
+        <v>387</v>
+      </c>
+      <c r="J416" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="K416" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>162</v>
       </c>
@@ -24391,29 +24650,29 @@
         <v>4</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>55</v>
+        <v>378</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>422</v>
+        <v>676</v>
       </c>
       <c r="F417" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D417)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H417" s="1" t="s">
-        <v>424</v>
+        <v>668</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>669</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J417" s="9" t="s">
-        <v>387</v>
+        <v>670</v>
+      </c>
+      <c r="J417" s="9">
+        <v>8</v>
       </c>
       <c r="K417" s="3" t="s">
-        <v>398</v>
+        <v>671</v>
       </c>
     </row>
     <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -24427,32 +24686,32 @@
         <v>4</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>379</v>
+        <v>55</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>653</v>
+        <v>422</v>
       </c>
       <c r="F418" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D418)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>672</v>
+        <v>423</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>600</v>
+        <v>387</v>
       </c>
       <c r="J418" s="9" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
       <c r="K418" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>162</v>
       </c>
@@ -24463,29 +24722,29 @@
         <v>4</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E419" s="8" t="s">
-        <v>422</v>
+        <v>379</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="F419" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Non</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D419)=1,"Oui","Non")</f>
+        <v>Oui</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>468</v>
+        <v>672</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J419" s="9">
-        <v>8</v>
+        <v>600</v>
+      </c>
+      <c r="J419" s="9" t="s">
+        <v>475</v>
       </c>
       <c r="K419" s="3" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="420" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -24496,35 +24755,35 @@
         <v>368</v>
       </c>
       <c r="C420" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E420" s="1" t="s">
-        <v>673</v>
+        <v>255</v>
+      </c>
+      <c r="E420" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="F420" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Oui</v>
+        <f>IF(COUNTIF(D:D,"="&amp;D420)=1,"Oui","Non")</f>
+        <v>Non</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>674</v>
+        <v>468</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="I420" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J420" s="9" t="s">
-        <v>475</v>
+      <c r="J420" s="9">
+        <v>8</v>
       </c>
       <c r="K420" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>162</v>
       </c>
@@ -24535,33 +24794,69 @@
         <v>5</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="F421" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF(D:D,"="&amp;D421)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H421" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I421" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J421" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="K421" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C422" s="1">
+        <v>5</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F422" s="1" t="str">
+        <f>IF(COUNTIF(D:D,"="&amp;D422)=1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I422" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J421" s="9" t="s">
+      <c r="J422" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="K421" s="3" t="s">
+      <c r="K422" s="3" t="s">
         <v>398</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K421" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
+  <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
     <filterColumn colId="1">
       <filters>
         <filter val="Fianna"/>
@@ -24577,8 +24872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35BA778-DA30-4EA6-A9D5-58601F95069A}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24600,7 +24895,7 @@
         <v>593</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -24695,10 +24990,10 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D8" t="s">
         <v>713</v>
-      </c>
-      <c r="D8" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -24709,10 +25004,10 @@
         <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -24723,7 +25018,7 @@
         <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D10" t="s">
         <v>576</v>
@@ -24737,7 +25032,7 @@
         <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D11" t="s">
         <v>488</v>
@@ -24751,10 +25046,10 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -24765,21 +25060,27 @@
         <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>229</v>
       </c>
+      <c r="C14" t="s">
+        <v>867</v>
+      </c>
+      <c r="D14" t="s">
+        <v>868</v>
+      </c>
       <c r="E14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F059F4C0-9AC4-41F9-946A-63F3CF6A39F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C6A5C60-E91F-490D-BB15-FED2150B4114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="872">
   <si>
     <t>Liste</t>
   </si>
@@ -2647,6 +2647,12 @@
   </si>
   <si>
     <t>Esquive</t>
+  </si>
+  <si>
+    <t>Ragnarok</t>
+  </si>
+  <si>
+    <t>Férocité, combat et combat</t>
   </si>
 </sst>
 </file>
@@ -11064,7 +11070,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
+      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19785,7 +19791,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -19821,7 +19827,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -19857,7 +19863,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -19893,7 +19899,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>162</v>
       </c>
@@ -19929,7 +19935,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>162</v>
       </c>
@@ -19965,7 +19971,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>162</v>
       </c>
@@ -20001,7 +20007,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>162</v>
       </c>
@@ -20037,7 +20043,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>162</v>
       </c>
@@ -20073,7 +20079,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -20109,7 +20115,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -20145,7 +20151,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -20181,7 +20187,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>162</v>
       </c>
@@ -20217,7 +20223,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>162</v>
       </c>
@@ -20253,7 +20259,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>162</v>
       </c>
@@ -20289,7 +20295,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>162</v>
       </c>
@@ -20325,7 +20331,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -20361,7 +20367,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -20397,7 +20403,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -20433,7 +20439,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -20469,7 +20475,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>162</v>
       </c>
@@ -20505,7 +20511,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>162</v>
       </c>
@@ -20541,7 +20547,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>162</v>
       </c>
@@ -20577,7 +20583,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -20598,7 +20604,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>162</v>
       </c>
@@ -20634,7 +20640,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>162</v>
       </c>
@@ -20655,7 +20661,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -20676,7 +20682,7 @@
         <v>Non</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>162</v>
       </c>
@@ -20697,7 +20703,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>162</v>
       </c>
@@ -20718,7 +20724,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -20739,7 +20745,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -20760,7 +20766,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -20781,7 +20787,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -20802,7 +20808,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>162</v>
       </c>
@@ -20838,7 +20844,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>162</v>
       </c>
@@ -20859,7 +20865,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -20895,7 +20901,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -20931,7 +20937,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -20952,7 +20958,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>162</v>
       </c>
@@ -20973,7 +20979,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>162</v>
       </c>
@@ -20994,7 +21000,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>162</v>
       </c>
@@ -24859,7 +24865,7 @@
   <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Fianna"/>
+        <filter val="Fils de Fenrir"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -24873,7 +24879,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25090,6 +25096,12 @@
       <c r="B15" t="s">
         <v>244</v>
       </c>
+      <c r="C15" t="s">
+        <v>870</v>
+      </c>
+      <c r="E15" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -25166,7 +25178,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D22" xr:uid="{AA0A2059-2468-4436-9D39-9E427EB14547}"/>
-  <conditionalFormatting sqref="C2:D22">
+  <conditionalFormatting sqref="C2:D22 E15">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C6A5C60-E91F-490D-BB15-FED2150B4114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{414E4CC9-A408-4207-968D-236C41C2FC72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="885">
   <si>
     <t>Liste</t>
   </si>
@@ -2649,10 +2649,49 @@
     <t>Esquive</t>
   </si>
   <si>
-    <t>Ragnarok</t>
-  </si>
-  <si>
     <t>Férocité, combat et combat</t>
+  </si>
+  <si>
+    <t>Permet de passer d'une action aggressive à une action défensive gratuitement</t>
+  </si>
+  <si>
+    <t>1 jour</t>
+  </si>
+  <si>
+    <t>Férocité ?</t>
+  </si>
+  <si>
+    <t>Ragnarok ?</t>
+  </si>
+  <si>
+    <t>Le LG semble plus grand et térrifiant</t>
+  </si>
+  <si>
+    <t>Charisme + Initimidation</t>
+  </si>
+  <si>
+    <t>Ragnarok?</t>
+  </si>
+  <si>
+    <t>Les crocs du LG exhalent une fumée bleue et sont transformées en glace dure. Les plaies infligées gangrènent</t>
+  </si>
+  <si>
+    <t>Astuce + Survie</t>
+  </si>
+  <si>
+    <t>Ralenti les ennemis qui fuient pour les rattraper</t>
+  </si>
+  <si>
+    <t>Grondement bestion qui terrifie et intimide</t>
+  </si>
+  <si>
+    <t>Renforme la peau du LG pour augmenter son absorption</t>
+  </si>
+  <si>
+    <t>Augmente la force du LG</t>
+  </si>
+  <si>
+    <t>Redirige la douleur de ses blessures à ceux qui les lui ont infligées</t>
   </si>
 </sst>
 </file>
@@ -8375,7 +8414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{477637CD-FD25-47E8-A7D2-A30D4A046A9C}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{477637CD-FD25-47E8-A7D2-A30D4A046A9C}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:W58" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -11070,7 +11109,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
+      <selection pane="bottomLeft" activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11141,7 +11180,7 @@
         <v>560</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D2)=1,"Oui","Non")</f>
+        <f t="shared" ref="F2:F65" si="0">IF(COUNTIF(D:D,"="&amp;D2)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -11177,7 +11216,7 @@
         <v>491</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D3)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -11213,7 +11252,7 @@
         <v>311</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D4)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -11249,7 +11288,7 @@
         <v>560</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D5)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -11285,7 +11324,7 @@
         <v>687</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D6)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -11321,7 +11360,7 @@
         <v>296</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D7)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -11357,7 +11396,7 @@
         <v>560</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D8)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -11393,7 +11432,7 @@
         <v>595</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D9)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -11429,7 +11468,7 @@
         <v>595</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D10)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -11465,7 +11504,7 @@
         <v>595</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D11)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -11501,7 +11540,7 @@
         <v>399</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D12)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -11537,7 +11576,7 @@
         <v>305</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D13)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -11573,7 +11612,7 @@
         <v>395</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D14)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -11609,7 +11648,7 @@
         <v>402</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D15)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -11645,7 +11684,7 @@
         <v>389</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D16)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -11681,7 +11720,7 @@
         <v>93</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D17)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -11717,7 +11756,7 @@
         <v>595</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D18)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -11753,7 +11792,7 @@
         <v>560</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D19)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -11789,7 +11828,7 @@
         <v>595</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D20)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -11825,7 +11864,7 @@
         <v>560</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D21)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -11861,7 +11900,7 @@
         <v>496</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D22)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -11897,7 +11936,7 @@
         <v>311</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D23)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -11933,7 +11972,7 @@
         <v>520</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D24)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -11969,7 +12008,7 @@
         <v>520</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D25)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -12005,7 +12044,7 @@
         <v>412</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D26)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -12041,7 +12080,7 @@
         <v>520</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D27)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -12074,7 +12113,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D28)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -12110,7 +12149,7 @@
         <v>422</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D29)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -12143,7 +12182,7 @@
         <v>412</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D30)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -12179,7 +12218,7 @@
         <v>427</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D31)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -12215,7 +12254,7 @@
         <v>395</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D32)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -12251,7 +12290,7 @@
         <v>422</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D33)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -12287,7 +12326,7 @@
         <v>520</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D34)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -12323,7 +12362,7 @@
         <v>520</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D35)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -12359,7 +12398,7 @@
         <v>496</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D36)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -12395,7 +12434,7 @@
         <v>422</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D37)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -12431,7 +12470,7 @@
         <v>520</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D38)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -12467,7 +12506,7 @@
         <v>402</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D39)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -12503,7 +12542,7 @@
         <v>407</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D40)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -12539,7 +12578,7 @@
         <v>422</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D41)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -12575,7 +12614,7 @@
         <v>573</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D42)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -12611,7 +12650,7 @@
         <v>520</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D43)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -12647,7 +12686,7 @@
         <v>594</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D44)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -12683,7 +12722,7 @@
         <v>412</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D45)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -12719,7 +12758,7 @@
         <v>573</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D46)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -12755,7 +12794,7 @@
         <v>576</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D47)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -12791,7 +12830,7 @@
         <v>407</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D48)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -12827,7 +12866,7 @@
         <v>412</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D49)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -12863,7 +12902,7 @@
         <v>412</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D50)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -12899,7 +12938,7 @@
         <v>296</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D51)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -12935,7 +12974,7 @@
         <v>573</v>
       </c>
       <c r="F52" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D52)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -12971,7 +13010,7 @@
         <v>520</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D53)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -13007,7 +13046,7 @@
         <v>412</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D54)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G54" s="3" t="s">
@@ -13043,7 +13082,7 @@
         <v>402</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D55)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -13079,7 +13118,7 @@
         <v>422</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D56)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -13115,7 +13154,7 @@
         <v>573</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D57)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -13151,7 +13190,7 @@
         <v>595</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D58)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -13187,7 +13226,7 @@
         <v>425</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D59)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -13223,7 +13262,7 @@
         <v>311</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D60)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -13259,7 +13298,7 @@
         <v>633</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D61)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -13295,7 +13334,7 @@
         <v>427</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D62)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Non</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -13331,7 +13370,7 @@
         <v>592</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D63)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -13367,7 +13406,7 @@
         <v>395</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D64)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -13403,7 +13442,7 @@
         <v>427</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D65)=1,"Oui","Non")</f>
+        <f t="shared" si="0"/>
         <v>Oui</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -13439,7 +13478,7 @@
         <v>592</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D66)=1,"Oui","Non")</f>
+        <f t="shared" ref="F66:F129" si="1">IF(COUNTIF(D:D,"="&amp;D66)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -13475,7 +13514,7 @@
         <v>592</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D67)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -13511,7 +13550,7 @@
         <v>427</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D68)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -13547,7 +13586,7 @@
         <v>573</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D69)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -13583,7 +13622,7 @@
         <v>592</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D70)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -13619,7 +13658,7 @@
         <v>592</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D71)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -13655,7 +13694,7 @@
         <v>576</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D72)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -13691,7 +13730,7 @@
         <v>296</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D73)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -13727,7 +13766,7 @@
         <v>576</v>
       </c>
       <c r="F74" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D74)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -13763,7 +13802,7 @@
         <v>402</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D75)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -13799,7 +13838,7 @@
         <v>595</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D76)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -13835,7 +13874,7 @@
         <v>422</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D77)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G77" s="3" t="s">
@@ -13871,7 +13910,7 @@
         <v>592</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D78)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G78" s="3" t="s">
@@ -13907,7 +13946,7 @@
         <v>402</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D79)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -13943,7 +13982,7 @@
         <v>592</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D80)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -13979,7 +14018,7 @@
         <v>592</v>
       </c>
       <c r="F81" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D81)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -14015,7 +14054,7 @@
         <v>652</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D82)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G82" s="3" t="s">
@@ -14051,7 +14090,7 @@
         <v>407</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D83)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -14087,7 +14126,7 @@
         <v>93</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D84)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G84" s="3" t="s">
@@ -14123,7 +14162,7 @@
         <v>412</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D85)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G85" s="3" t="s">
@@ -14159,7 +14198,7 @@
         <v>846</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D86)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G86" s="3" t="s">
@@ -14195,7 +14234,7 @@
         <v>93</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D87)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G87" s="3" t="s">
@@ -14231,7 +14270,7 @@
         <v>93</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D88)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G88" s="3" t="s">
@@ -14267,7 +14306,7 @@
         <v>93</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D89)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G89" s="3" t="s">
@@ -14303,7 +14342,7 @@
         <v>422</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D90)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G90" s="3" t="s">
@@ -14339,7 +14378,7 @@
         <v>427</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D91)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -14375,7 +14414,7 @@
         <v>93</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D92)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G92" s="3" t="s">
@@ -14411,7 +14450,7 @@
         <v>652</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D93)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -14447,7 +14486,7 @@
         <v>407</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D94)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G94" s="3" t="s">
@@ -14483,7 +14522,7 @@
         <v>93</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D95)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G95" s="3" t="s">
@@ -14519,7 +14558,7 @@
         <v>93</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D96)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G96" s="3" t="s">
@@ -14555,7 +14594,7 @@
         <v>652</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D97)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G97" s="3" t="s">
@@ -14591,7 +14630,7 @@
         <v>652</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D98)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G98" s="3" t="s">
@@ -14627,7 +14666,7 @@
         <v>407</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D99)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G99" s="3" t="s">
@@ -14663,7 +14702,7 @@
         <v>422</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D100)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G100" s="3" t="s">
@@ -14699,7 +14738,7 @@
         <v>298</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D101)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G101" s="3" t="s">
@@ -14735,7 +14774,7 @@
         <v>407</v>
       </c>
       <c r="F102" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D102)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G102" s="4" t="s">
@@ -14771,7 +14810,7 @@
         <v>678</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D103)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G103" s="3" t="s">
@@ -14807,7 +14846,7 @@
         <v>412</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D104)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G104" s="3" t="s">
@@ -14843,7 +14882,7 @@
         <v>687</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D105)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G105" s="3" t="s">
@@ -14879,7 +14918,7 @@
         <v>389</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D106)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G106" s="3" t="s">
@@ -14915,7 +14954,7 @@
         <v>678</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D107)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G107" s="3" t="s">
@@ -14951,7 +14990,7 @@
         <v>687</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D108)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G108" s="3" t="s">
@@ -14987,7 +15026,7 @@
         <v>687</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D109)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G109" s="3" t="s">
@@ -15023,7 +15062,7 @@
         <v>488</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D110)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G110" s="3" t="s">
@@ -15059,7 +15098,7 @@
         <v>687</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D111)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G111" s="3" t="s">
@@ -15095,7 +15134,7 @@
         <v>678</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D112)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G112" s="3" t="s">
@@ -15131,7 +15170,7 @@
         <v>422</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D113)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G113" s="3" t="s">
@@ -15167,7 +15206,7 @@
         <v>439</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D114)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G114" s="3" t="s">
@@ -15203,7 +15242,7 @@
         <v>412</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D115)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G115" s="3" t="s">
@@ -15239,7 +15278,7 @@
         <v>422</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D116)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G116" s="3" t="s">
@@ -15275,7 +15314,7 @@
         <v>687</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D117)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G117" s="3" t="s">
@@ -15311,7 +15350,7 @@
         <v>678</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D118)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G118" s="3" t="s">
@@ -15347,7 +15386,7 @@
         <v>412</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D119)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G119" s="3" t="s">
@@ -15380,7 +15419,7 @@
         <v>311</v>
       </c>
       <c r="F120" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D120)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G120" s="3" t="s">
@@ -15416,7 +15455,7 @@
         <v>594</v>
       </c>
       <c r="F121" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D121)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G121" s="3" t="s">
@@ -15452,7 +15491,7 @@
         <v>678</v>
       </c>
       <c r="F122" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D122)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G122" s="3" t="s">
@@ -15488,7 +15527,7 @@
         <v>703</v>
       </c>
       <c r="F123" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D123)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G123" s="3" t="s">
@@ -15524,7 +15563,7 @@
         <v>703</v>
       </c>
       <c r="F124" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D124)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G124" s="3" t="s">
@@ -15560,7 +15599,7 @@
         <v>422</v>
       </c>
       <c r="F125" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D125)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G125" s="3" t="s">
@@ -15596,7 +15635,7 @@
         <v>712</v>
       </c>
       <c r="F126" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D126)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G126" s="3" t="s">
@@ -15632,7 +15671,7 @@
         <v>412</v>
       </c>
       <c r="F127" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D127)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G127" s="3" t="s">
@@ -15668,7 +15707,7 @@
         <v>703</v>
       </c>
       <c r="F128" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D128)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
       <c r="G128" s="3" t="s">
@@ -15704,7 +15743,7 @@
         <v>298</v>
       </c>
       <c r="F129" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D129)=1,"Oui","Non")</f>
+        <f t="shared" si="1"/>
         <v>Non</v>
       </c>
       <c r="G129" s="3" t="s">
@@ -15740,7 +15779,7 @@
         <v>703</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D130)=1,"Oui","Non")</f>
+        <f t="shared" ref="F130:F193" si="2">IF(COUNTIF(D:D,"="&amp;D130)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G130" s="3" t="s">
@@ -15776,7 +15815,7 @@
         <v>703</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D131)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G131" s="3" t="s">
@@ -15812,7 +15851,7 @@
         <v>712</v>
       </c>
       <c r="F132" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D132)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G132" s="3" t="s">
@@ -15848,7 +15887,7 @@
         <v>703</v>
       </c>
       <c r="F133" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D133)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G133" s="3" t="s">
@@ -15884,7 +15923,7 @@
         <v>703</v>
       </c>
       <c r="F134" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D134)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G134" s="3" t="s">
@@ -15920,7 +15959,7 @@
         <v>703</v>
       </c>
       <c r="F135" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D135)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G135" s="3" t="s">
@@ -15956,7 +15995,7 @@
         <v>712</v>
       </c>
       <c r="F136" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D136)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G136" s="3" t="s">
@@ -15992,7 +16031,7 @@
         <v>712</v>
       </c>
       <c r="F137" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D137)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G137" s="3" t="s">
@@ -16028,7 +16067,7 @@
         <v>422</v>
       </c>
       <c r="F138" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D138)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G138" s="3" t="s">
@@ -16064,7 +16103,7 @@
         <v>712</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D139)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G139" s="3" t="s">
@@ -16100,7 +16139,7 @@
         <v>633</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D140)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G140" s="3" t="s">
@@ -16136,7 +16175,7 @@
         <v>712</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D141)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G141" s="3" t="s">
@@ -16172,7 +16211,7 @@
         <v>594</v>
       </c>
       <c r="F142" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D142)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G142" s="3" t="s">
@@ -16208,7 +16247,7 @@
         <v>452</v>
       </c>
       <c r="F143" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D143)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G143" s="3" t="s">
@@ -16244,7 +16283,7 @@
         <v>452</v>
       </c>
       <c r="F144" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D144)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G144" s="3" t="s">
@@ -16280,7 +16319,7 @@
         <v>797</v>
       </c>
       <c r="F145" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D145)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G145" s="3" t="s">
@@ -16316,7 +16355,7 @@
         <v>783</v>
       </c>
       <c r="F146" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D146)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G146" s="3" t="s">
@@ -16352,7 +16391,7 @@
         <v>768</v>
       </c>
       <c r="F147" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D147)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G147" s="3" t="s">
@@ -16388,7 +16427,7 @@
         <v>769</v>
       </c>
       <c r="F148" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D148)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G148" s="3" t="s">
@@ -16424,7 +16463,7 @@
         <v>768</v>
       </c>
       <c r="F149" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D149)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G149" s="3" t="s">
@@ -16460,7 +16499,7 @@
         <v>412</v>
       </c>
       <c r="F150" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D150)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G150" s="3" t="s">
@@ -16496,7 +16535,7 @@
         <v>769</v>
       </c>
       <c r="F151" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D151)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G151" s="3" t="s">
@@ -16532,7 +16571,7 @@
         <v>769</v>
       </c>
       <c r="F152" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D152)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G152" s="3" t="s">
@@ -16568,7 +16607,7 @@
         <v>452</v>
       </c>
       <c r="F153" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D153)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G153" s="3" t="s">
@@ -16604,7 +16643,7 @@
         <v>452</v>
       </c>
       <c r="F154" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D154)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G154" s="3" t="s">
@@ -16640,7 +16679,7 @@
         <v>845</v>
       </c>
       <c r="F155" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D155)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G155" s="3" t="s">
@@ -16676,7 +16715,7 @@
         <v>402</v>
       </c>
       <c r="F156" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D156)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G156" s="3" t="s">
@@ -16712,7 +16751,7 @@
         <v>769</v>
       </c>
       <c r="F157" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D157)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G157" s="3" t="s">
@@ -16748,7 +16787,7 @@
         <v>768</v>
       </c>
       <c r="F158" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D158)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G158" s="3" t="s">
@@ -16784,7 +16823,7 @@
         <v>452</v>
       </c>
       <c r="F159" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D159)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G159" s="3" t="s">
@@ -16820,7 +16859,7 @@
         <v>311</v>
       </c>
       <c r="F160" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D160)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G160" s="3" t="s">
@@ -16856,7 +16895,7 @@
         <v>488</v>
       </c>
       <c r="F161" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D161)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G161" s="3" t="s">
@@ -16892,7 +16931,7 @@
         <v>845</v>
       </c>
       <c r="F162" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D162)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G162" s="3" t="s">
@@ -16928,7 +16967,7 @@
         <v>576</v>
       </c>
       <c r="F163" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D163)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G163" s="3" t="s">
@@ -16964,7 +17003,7 @@
         <v>412</v>
       </c>
       <c r="F164" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D164)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G164" s="3" t="s">
@@ -17000,7 +17039,7 @@
         <v>427</v>
       </c>
       <c r="F165" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D165)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G165" s="3" t="s">
@@ -17036,7 +17075,7 @@
         <v>757</v>
       </c>
       <c r="F166" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D166)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G166" s="3" t="s">
@@ -17072,7 +17111,7 @@
         <v>576</v>
       </c>
       <c r="F167" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D167)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G167" s="3" t="s">
@@ -17108,7 +17147,7 @@
         <v>576</v>
       </c>
       <c r="F168" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D168)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G168" s="3" t="s">
@@ -17144,7 +17183,7 @@
         <v>576</v>
       </c>
       <c r="F169" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D169)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G169" s="3" t="s">
@@ -17180,7 +17219,7 @@
         <v>427</v>
       </c>
       <c r="F170" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D170)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G170" s="3" t="s">
@@ -17216,7 +17255,7 @@
         <v>560</v>
       </c>
       <c r="F171" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D171)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G171" s="4" t="s">
@@ -17252,7 +17291,7 @@
         <v>576</v>
       </c>
       <c r="F172" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D172)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G172" s="3" t="s">
@@ -17288,7 +17327,7 @@
         <v>316</v>
       </c>
       <c r="F173" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D173)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G173" s="3" t="s">
@@ -17324,7 +17363,7 @@
         <v>576</v>
       </c>
       <c r="F174" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D174)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G174" s="3" t="s">
@@ -17360,7 +17399,7 @@
         <v>757</v>
       </c>
       <c r="F175" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D175)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G175" s="3" t="s">
@@ -17396,7 +17435,7 @@
         <v>422</v>
       </c>
       <c r="F176" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D176)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G176" s="3" t="s">
@@ -17432,7 +17471,7 @@
         <v>757</v>
       </c>
       <c r="F177" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D177)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G177" s="3" t="s">
@@ -17468,7 +17507,7 @@
         <v>757</v>
       </c>
       <c r="F178" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D178)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G178" s="3" t="s">
@@ -17504,7 +17543,7 @@
         <v>576</v>
       </c>
       <c r="F179" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D179)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G179" s="3" t="s">
@@ -17540,7 +17579,7 @@
         <v>407</v>
       </c>
       <c r="F180" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D180)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G180" s="3" t="s">
@@ -17576,7 +17615,7 @@
         <v>652</v>
       </c>
       <c r="F181" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D181)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G181" s="3" t="s">
@@ -17612,7 +17651,7 @@
         <v>422</v>
       </c>
       <c r="F182" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D182)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G182" s="3" t="s">
@@ -17648,7 +17687,7 @@
         <v>496</v>
       </c>
       <c r="F183" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D183)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G183" s="3" t="s">
@@ -17684,7 +17723,7 @@
         <v>770</v>
       </c>
       <c r="F184" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D184)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G184" s="3" t="s">
@@ -17720,7 +17759,7 @@
         <v>783</v>
       </c>
       <c r="F185" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D185)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G185" s="3" t="s">
@@ -17756,7 +17795,7 @@
         <v>488</v>
       </c>
       <c r="F186" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D186)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G186" s="3" t="s">
@@ -17792,7 +17831,7 @@
         <v>412</v>
       </c>
       <c r="F187" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D187)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Non</v>
       </c>
       <c r="G187" s="3" t="s">
@@ -17828,7 +17867,7 @@
         <v>488</v>
       </c>
       <c r="F188" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D188)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G188" s="3" t="s">
@@ -17864,7 +17903,7 @@
         <v>652</v>
       </c>
       <c r="F189" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D189)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G189" s="3" t="s">
@@ -17900,7 +17939,7 @@
         <v>488</v>
       </c>
       <c r="F190" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D190)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G190" s="3" t="s">
@@ -17936,7 +17975,7 @@
         <v>576</v>
       </c>
       <c r="F191" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D191)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G191" s="3" t="s">
@@ -17972,7 +18011,7 @@
         <v>399</v>
       </c>
       <c r="F192" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D192)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G192" s="3" t="s">
@@ -18008,7 +18047,7 @@
         <v>412</v>
       </c>
       <c r="F193" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D193)=1,"Oui","Non")</f>
+        <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
       <c r="G193" s="3" t="s">
@@ -18044,7 +18083,7 @@
         <v>783</v>
       </c>
       <c r="F194" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D194)=1,"Oui","Non")</f>
+        <f t="shared" ref="F194:F257" si="3">IF(COUNTIF(D:D,"="&amp;D194)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G194" s="3" t="s">
@@ -18080,7 +18119,7 @@
         <v>783</v>
       </c>
       <c r="F195" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D195)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G195" s="3" t="s">
@@ -18116,7 +18155,7 @@
         <v>412</v>
       </c>
       <c r="F196" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D196)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G196" s="3" t="s">
@@ -18152,7 +18191,7 @@
         <v>389</v>
       </c>
       <c r="F197" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D197)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G197" s="3" t="s">
@@ -18188,7 +18227,7 @@
         <v>783</v>
       </c>
       <c r="F198" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D198)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G198" s="3" t="s">
@@ -18224,7 +18263,7 @@
         <v>783</v>
       </c>
       <c r="F199" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D199)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G199" s="3" t="s">
@@ -18260,7 +18299,7 @@
         <v>783</v>
       </c>
       <c r="F200" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D200)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G200" s="3" t="s">
@@ -18296,7 +18335,7 @@
         <v>488</v>
       </c>
       <c r="F201" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D201)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G201" s="3" t="s">
@@ -18332,7 +18371,7 @@
         <v>422</v>
       </c>
       <c r="F202" s="2" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D202)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G202" s="4" t="s">
@@ -18368,7 +18407,7 @@
         <v>797</v>
       </c>
       <c r="F203" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D203)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G203" s="3" t="s">
@@ -18404,7 +18443,7 @@
         <v>797</v>
       </c>
       <c r="F204" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D204)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G204" s="3" t="s">
@@ -18440,7 +18479,7 @@
         <v>305</v>
       </c>
       <c r="F205" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D205)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G205" s="3" t="s">
@@ -18476,7 +18515,7 @@
         <v>422</v>
       </c>
       <c r="F206" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D206)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G206" s="3" t="s">
@@ -18512,7 +18551,7 @@
         <v>412</v>
       </c>
       <c r="F207" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D207)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G207" s="3" t="s">
@@ -18548,7 +18587,7 @@
         <v>389</v>
       </c>
       <c r="F208" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D208)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G208" s="3" t="s">
@@ -18584,7 +18623,7 @@
         <v>804</v>
       </c>
       <c r="F209" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D209)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G209" s="3" t="s">
@@ -18620,7 +18659,7 @@
         <v>402</v>
       </c>
       <c r="F210" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D210)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G210" s="3" t="s">
@@ -18656,7 +18695,7 @@
         <v>412</v>
       </c>
       <c r="F211" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D211)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G211" s="3" t="s">
@@ -18692,7 +18731,7 @@
         <v>804</v>
       </c>
       <c r="F212" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D212)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G212" s="3" t="s">
@@ -18728,7 +18767,7 @@
         <v>797</v>
       </c>
       <c r="F213" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D213)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G213" s="3" t="s">
@@ -18764,7 +18803,7 @@
         <v>452</v>
       </c>
       <c r="F214" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D214)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G214" s="3" t="s">
@@ -18800,7 +18839,7 @@
         <v>802</v>
       </c>
       <c r="F215" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D215)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G215" s="3" t="s">
@@ -18836,7 +18875,7 @@
         <v>452</v>
       </c>
       <c r="F216" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D216)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G216" s="3" t="s">
@@ -18872,7 +18911,7 @@
         <v>389</v>
       </c>
       <c r="F217" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D217)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G217" s="3" t="s">
@@ -18908,7 +18947,7 @@
         <v>797</v>
       </c>
       <c r="F218" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D218)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G218" s="3" t="s">
@@ -18944,7 +18983,7 @@
         <v>804</v>
       </c>
       <c r="F219" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D219)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G219" s="3" t="s">
@@ -18980,7 +19019,7 @@
         <v>422</v>
       </c>
       <c r="F220" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D220)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G220" s="3" t="s">
@@ -19016,7 +19055,7 @@
         <v>595</v>
       </c>
       <c r="F221" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D221)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G221" s="3" t="s">
@@ -19052,7 +19091,7 @@
         <v>757</v>
       </c>
       <c r="F222" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D222)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G222" s="3" t="s">
@@ -19088,7 +19127,7 @@
         <v>422</v>
       </c>
       <c r="F223" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D223)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G223" s="3" t="s">
@@ -19124,7 +19163,7 @@
         <v>846</v>
       </c>
       <c r="F224" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D224)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G224" s="3" t="s">
@@ -19160,7 +19199,7 @@
         <v>823</v>
       </c>
       <c r="F225" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D225)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G225" s="3" t="s">
@@ -19196,7 +19235,7 @@
         <v>389</v>
       </c>
       <c r="F226" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D226)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G226" s="3" t="s">
@@ -19232,7 +19271,7 @@
         <v>846</v>
       </c>
       <c r="F227" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D227)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G227" s="3" t="s">
@@ -19268,7 +19307,7 @@
         <v>389</v>
       </c>
       <c r="F228" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D228)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G228" s="3" t="s">
@@ -19304,7 +19343,7 @@
         <v>823</v>
       </c>
       <c r="F229" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D229)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G229" s="3" t="s">
@@ -19340,7 +19379,7 @@
         <v>823</v>
       </c>
       <c r="F230" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D230)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G230" s="3" t="s">
@@ -19376,7 +19415,7 @@
         <v>823</v>
       </c>
       <c r="F231" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D231)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G231" s="3" t="s">
@@ -19412,7 +19451,7 @@
         <v>846</v>
       </c>
       <c r="F232" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D232)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G232" s="3" t="s">
@@ -19448,7 +19487,7 @@
         <v>846</v>
       </c>
       <c r="F233" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D233)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G233" s="3" t="s">
@@ -19484,7 +19523,7 @@
         <v>595</v>
       </c>
       <c r="F234" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D234)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G234" s="3" t="s">
@@ -19520,7 +19559,7 @@
         <v>823</v>
       </c>
       <c r="F235" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D235)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G235" s="3" t="s">
@@ -19556,7 +19595,7 @@
         <v>846</v>
       </c>
       <c r="F236" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D236)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G236" s="3" t="s">
@@ -19592,7 +19631,7 @@
         <v>783</v>
       </c>
       <c r="F237" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D237)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G237" s="3" t="s">
@@ -19628,7 +19667,7 @@
         <v>594</v>
       </c>
       <c r="F238" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D238)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G238" s="3" t="s">
@@ -19664,7 +19703,7 @@
         <v>823</v>
       </c>
       <c r="F239" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D239)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G239" s="3" t="s">
@@ -19700,7 +19739,7 @@
         <v>425</v>
       </c>
       <c r="F240" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D240)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G240" s="3" t="s">
@@ -19736,7 +19775,7 @@
         <v>846</v>
       </c>
       <c r="F241" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D241)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G241" s="3" t="s">
@@ -19772,7 +19811,7 @@
         <v>422</v>
       </c>
       <c r="F242" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D242)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G242" s="3" t="s">
@@ -19808,7 +19847,7 @@
         <v>520</v>
       </c>
       <c r="F243" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D243)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G243" s="3" t="s">
@@ -19844,7 +19883,7 @@
         <v>868</v>
       </c>
       <c r="F244" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D244)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G244" s="3" t="s">
@@ -19880,7 +19919,7 @@
         <v>867</v>
       </c>
       <c r="F245" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D245)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G245" s="3" t="s">
@@ -19916,7 +19955,7 @@
         <v>687</v>
       </c>
       <c r="F246" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D246)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G246" s="3" t="s">
@@ -19952,7 +19991,7 @@
         <v>389</v>
       </c>
       <c r="F247" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D247)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G247" s="3" t="s">
@@ -19988,7 +20027,7 @@
         <v>869</v>
       </c>
       <c r="F248" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D248)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G248" s="3" t="s">
@@ -20024,7 +20063,7 @@
         <v>868</v>
       </c>
       <c r="F249" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D249)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G249" s="3" t="s">
@@ -20060,7 +20099,7 @@
         <v>868</v>
       </c>
       <c r="F250" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D250)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G250" s="3" t="s">
@@ -20096,7 +20135,7 @@
         <v>402</v>
       </c>
       <c r="F251" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D251)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G251" s="3" t="s">
@@ -20132,7 +20171,7 @@
         <v>868</v>
       </c>
       <c r="F252" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D252)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G252" s="3" t="s">
@@ -20168,7 +20207,7 @@
         <v>867</v>
       </c>
       <c r="F253" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D253)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G253" s="3" t="s">
@@ -20204,7 +20243,7 @@
         <v>703</v>
       </c>
       <c r="F254" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D254)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G254" s="3" t="s">
@@ -20240,7 +20279,7 @@
         <v>867</v>
       </c>
       <c r="F255" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D255)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G255" s="3" t="s">
@@ -20276,7 +20315,7 @@
         <v>867</v>
       </c>
       <c r="F256" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D256)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G256" s="3" t="s">
@@ -20312,7 +20351,7 @@
         <v>399</v>
       </c>
       <c r="F257" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D257)=1,"Oui","Non")</f>
+        <f t="shared" si="3"/>
         <v>Non</v>
       </c>
       <c r="G257" s="3" t="s">
@@ -20348,7 +20387,7 @@
         <v>867</v>
       </c>
       <c r="F258" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D258)=1,"Oui","Non")</f>
+        <f t="shared" ref="F258:F321" si="4">IF(COUNTIF(D:D,"="&amp;D258)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G258" s="3" t="s">
@@ -20384,7 +20423,7 @@
         <v>422</v>
       </c>
       <c r="F259" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D259)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G259" s="3" t="s">
@@ -20420,7 +20459,7 @@
         <v>867</v>
       </c>
       <c r="F260" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D260)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G260" s="3" t="s">
@@ -20456,7 +20495,7 @@
         <v>867</v>
       </c>
       <c r="F261" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D261)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G261" s="3" t="s">
@@ -20492,7 +20531,7 @@
         <v>867</v>
       </c>
       <c r="F262" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D262)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G262" s="3" t="s">
@@ -20528,7 +20567,7 @@
         <v>452</v>
       </c>
       <c r="F263" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D263)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G263" s="3" t="s">
@@ -20564,7 +20603,7 @@
         <v>311</v>
       </c>
       <c r="F264" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D264)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G264" s="3" t="s">
@@ -20583,7 +20622,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -20597,11 +20636,26 @@
         <v>245</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>422</v>
+        <v>873</v>
       </c>
       <c r="F265" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D265)=1,"Oui","Non")</f>
-        <v>Oui</v>
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J265" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -20621,7 +20675,7 @@
         <v>389</v>
       </c>
       <c r="F266" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D266)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G266" s="3" t="s">
@@ -20654,14 +20708,29 @@
         <v>246</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>422</v>
+        <v>873</v>
       </c>
       <c r="F267" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D267)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="J267" s="9">
+        <v>6</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -20675,11 +20744,26 @@
         <v>247</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>422</v>
+        <v>877</v>
       </c>
       <c r="F268" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D268)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J268" s="9">
+        <v>7</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -20699,8 +20783,23 @@
         <v>422</v>
       </c>
       <c r="F269" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D269)=1,"Oui","Non")</f>
-        <v>Oui</v>
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="J269" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -20717,14 +20816,29 @@
         <v>249</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>422</v>
+        <v>873</v>
       </c>
       <c r="F270" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D270)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="J270" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -20738,14 +20852,29 @@
         <v>250</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>422</v>
+        <v>877</v>
       </c>
       <c r="F271" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D271)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J271" s="9">
+        <v>7</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -20759,14 +20888,29 @@
         <v>251</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>422</v>
+        <v>873</v>
       </c>
       <c r="F272" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D272)=1,"Oui","Non")</f>
-        <v>Oui</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J272" s="9">
+        <v>8</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -20783,8 +20927,23 @@
         <v>422</v>
       </c>
       <c r="F273" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D273)=1,"Oui","Non")</f>
-        <v>Oui</v>
+        <f t="shared" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J273" s="9">
+        <v>8</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -20804,7 +20963,7 @@
         <v>422</v>
       </c>
       <c r="F274" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D274)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -20825,7 +20984,7 @@
         <v>402</v>
       </c>
       <c r="F275" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D275)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G275" s="3" t="s">
@@ -20861,7 +21020,7 @@
         <v>422</v>
       </c>
       <c r="F276" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D276)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -20882,7 +21041,7 @@
         <v>422</v>
       </c>
       <c r="F277" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D277)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G277" s="3" t="s">
@@ -20918,7 +21077,7 @@
         <v>422</v>
       </c>
       <c r="F278" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D278)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G278" s="3" t="s">
@@ -20954,7 +21113,7 @@
         <v>422</v>
       </c>
       <c r="F279" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D279)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -20975,7 +21134,7 @@
         <v>422</v>
       </c>
       <c r="F280" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D280)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -20996,7 +21155,7 @@
         <v>422</v>
       </c>
       <c r="F281" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D281)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21017,7 +21176,7 @@
         <v>422</v>
       </c>
       <c r="F282" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D282)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21038,7 +21197,7 @@
         <v>422</v>
       </c>
       <c r="F283" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D283)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21059,7 +21218,7 @@
         <v>422</v>
       </c>
       <c r="F284" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D284)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21080,7 +21239,7 @@
         <v>412</v>
       </c>
       <c r="F285" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D285)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G285" s="3" t="s">
@@ -21116,7 +21275,7 @@
         <v>412</v>
       </c>
       <c r="F286" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D286)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G286" s="3" t="s">
@@ -21152,7 +21311,7 @@
         <v>422</v>
       </c>
       <c r="F287" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D287)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21173,7 +21332,7 @@
         <v>422</v>
       </c>
       <c r="F288" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D288)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21194,7 +21353,7 @@
         <v>422</v>
       </c>
       <c r="F289" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D289)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21215,7 +21374,7 @@
         <v>402</v>
       </c>
       <c r="F290" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D290)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G290" s="3" t="s">
@@ -21251,7 +21410,7 @@
         <v>422</v>
       </c>
       <c r="F291" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D291)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21272,7 +21431,7 @@
         <v>573</v>
       </c>
       <c r="F292" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D292)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G292" s="3" t="s">
@@ -21308,7 +21467,7 @@
         <v>422</v>
       </c>
       <c r="F293" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D293)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21329,7 +21488,7 @@
         <v>422</v>
       </c>
       <c r="F294" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D294)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21350,7 +21509,7 @@
         <v>422</v>
       </c>
       <c r="F295" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D295)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21371,7 +21530,7 @@
         <v>422</v>
       </c>
       <c r="F296" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D296)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21392,7 +21551,7 @@
         <v>422</v>
       </c>
       <c r="F297" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D297)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21413,7 +21572,7 @@
         <v>422</v>
       </c>
       <c r="F298" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D298)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21434,7 +21593,7 @@
         <v>425</v>
       </c>
       <c r="F299" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D299)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G299" s="3" t="s">
@@ -21470,7 +21629,7 @@
         <v>402</v>
       </c>
       <c r="F300" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D300)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G300" s="3" t="s">
@@ -21506,7 +21665,7 @@
         <v>422</v>
       </c>
       <c r="F301" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D301)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21527,7 +21686,7 @@
         <v>422</v>
       </c>
       <c r="F302" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D302)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21548,7 +21707,7 @@
         <v>422</v>
       </c>
       <c r="F303" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D303)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21569,7 +21728,7 @@
         <v>422</v>
       </c>
       <c r="F304" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D304)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21590,7 +21749,7 @@
         <v>427</v>
       </c>
       <c r="F305" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D305)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G305" s="3" t="s">
@@ -21626,7 +21785,7 @@
         <v>422</v>
       </c>
       <c r="F306" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D306)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21647,7 +21806,7 @@
         <v>422</v>
       </c>
       <c r="F307" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D307)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21668,7 +21827,7 @@
         <v>422</v>
       </c>
       <c r="F308" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D308)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21689,7 +21848,7 @@
         <v>422</v>
       </c>
       <c r="F309" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D309)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G309" s="3" t="s">
@@ -21725,7 +21884,7 @@
         <v>422</v>
       </c>
       <c r="F310" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D310)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21746,7 +21905,7 @@
         <v>573</v>
       </c>
       <c r="F311" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D311)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G311" s="3" t="s">
@@ -21782,7 +21941,7 @@
         <v>422</v>
       </c>
       <c r="F312" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D312)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21803,7 +21962,7 @@
         <v>422</v>
       </c>
       <c r="F313" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D313)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21824,7 +21983,7 @@
         <v>311</v>
       </c>
       <c r="F314" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D314)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G314" s="3" t="s">
@@ -21860,7 +22019,7 @@
         <v>422</v>
       </c>
       <c r="F315" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D315)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21881,7 +22040,7 @@
         <v>422</v>
       </c>
       <c r="F316" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D316)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21902,7 +22061,7 @@
         <v>422</v>
       </c>
       <c r="F317" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D317)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21923,7 +22082,7 @@
         <v>422</v>
       </c>
       <c r="F318" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D318)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21944,7 +22103,7 @@
         <v>422</v>
       </c>
       <c r="F319" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D319)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21965,7 +22124,7 @@
         <v>422</v>
       </c>
       <c r="F320" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D320)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -21986,7 +22145,7 @@
         <v>422</v>
       </c>
       <c r="F321" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D321)=1,"Oui","Non")</f>
+        <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22007,7 +22166,7 @@
         <v>422</v>
       </c>
       <c r="F322" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D322)=1,"Oui","Non")</f>
+        <f t="shared" ref="F322:F385" si="5">IF(COUNTIF(D:D,"="&amp;D322)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
@@ -22028,7 +22187,7 @@
         <v>305</v>
       </c>
       <c r="F323" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D323)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22049,7 +22208,7 @@
         <v>296</v>
       </c>
       <c r="F324" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D324)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22070,7 +22229,7 @@
         <v>296</v>
       </c>
       <c r="F325" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D325)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22091,7 +22250,7 @@
         <v>687</v>
       </c>
       <c r="F326" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D326)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G326" s="3" t="s">
@@ -22127,7 +22286,7 @@
         <v>296</v>
       </c>
       <c r="F327" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D327)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22148,7 +22307,7 @@
         <v>296</v>
       </c>
       <c r="F328" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D328)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22169,7 +22328,7 @@
         <v>296</v>
       </c>
       <c r="F329" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D329)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G329" s="3" t="s">
@@ -22205,7 +22364,7 @@
         <v>422</v>
       </c>
       <c r="F330" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D330)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22226,7 +22385,7 @@
         <v>305</v>
       </c>
       <c r="F331" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D331)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22247,7 +22406,7 @@
         <v>296</v>
       </c>
       <c r="F332" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D332)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22268,7 +22427,7 @@
         <v>296</v>
       </c>
       <c r="F333" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D333)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22289,7 +22448,7 @@
         <v>422</v>
       </c>
       <c r="F334" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D334)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22310,7 +22469,7 @@
         <v>311</v>
       </c>
       <c r="F335" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D335)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G335" s="3" t="s">
@@ -22346,7 +22505,7 @@
         <v>422</v>
       </c>
       <c r="F336" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D336)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22367,7 +22526,7 @@
         <v>422</v>
       </c>
       <c r="F337" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D337)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22388,7 +22547,7 @@
         <v>422</v>
       </c>
       <c r="F338" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D338)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22409,7 +22568,7 @@
         <v>407</v>
       </c>
       <c r="F339" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D339)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G339" s="3" t="s">
@@ -22445,7 +22604,7 @@
         <v>296</v>
       </c>
       <c r="F340" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D340)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22466,7 +22625,7 @@
         <v>296</v>
       </c>
       <c r="F341" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D341)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22487,7 +22646,7 @@
         <v>422</v>
       </c>
       <c r="F342" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D342)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22508,7 +22667,7 @@
         <v>316</v>
       </c>
       <c r="F343" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D343)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22529,7 +22688,7 @@
         <v>422</v>
       </c>
       <c r="F344" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D344)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22550,7 +22709,7 @@
         <v>422</v>
       </c>
       <c r="F345" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D345)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22571,7 +22730,7 @@
         <v>422</v>
       </c>
       <c r="F346" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D346)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22592,7 +22751,7 @@
         <v>389</v>
       </c>
       <c r="F347" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D347)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G347" s="3" t="s">
@@ -22628,7 +22787,7 @@
         <v>422</v>
       </c>
       <c r="F348" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D348)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22649,7 +22808,7 @@
         <v>422</v>
       </c>
       <c r="F349" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D349)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22670,7 +22829,7 @@
         <v>422</v>
       </c>
       <c r="F350" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D350)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22691,7 +22850,7 @@
         <v>427</v>
       </c>
       <c r="F351" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D351)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G351" s="3" t="s">
@@ -22727,7 +22886,7 @@
         <v>422</v>
       </c>
       <c r="F352" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D352)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22748,7 +22907,7 @@
         <v>422</v>
       </c>
       <c r="F353" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D353)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22769,7 +22928,7 @@
         <v>422</v>
       </c>
       <c r="F354" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D354)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22790,7 +22949,7 @@
         <v>422</v>
       </c>
       <c r="F355" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D355)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22811,7 +22970,7 @@
         <v>399</v>
       </c>
       <c r="F356" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D356)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G356" s="3" t="s">
@@ -22847,7 +23006,7 @@
         <v>422</v>
       </c>
       <c r="F357" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D357)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22868,7 +23027,7 @@
         <v>422</v>
       </c>
       <c r="F358" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D358)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22889,7 +23048,7 @@
         <v>422</v>
       </c>
       <c r="F359" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D359)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22910,7 +23069,7 @@
         <v>407</v>
       </c>
       <c r="F360" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D360)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G360" s="3" t="s">
@@ -22946,7 +23105,7 @@
         <v>422</v>
       </c>
       <c r="F361" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D361)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22967,7 +23126,7 @@
         <v>316</v>
       </c>
       <c r="F362" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D362)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -22988,7 +23147,7 @@
         <v>422</v>
       </c>
       <c r="F363" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D363)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23009,7 +23168,7 @@
         <v>422</v>
       </c>
       <c r="F364" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D364)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23030,7 +23189,7 @@
         <v>422</v>
       </c>
       <c r="F365" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D365)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23051,7 +23210,7 @@
         <v>422</v>
       </c>
       <c r="F366" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D366)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23072,7 +23231,7 @@
         <v>422</v>
       </c>
       <c r="F367" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D367)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23093,7 +23252,7 @@
         <v>389</v>
       </c>
       <c r="F368" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D368)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G368" s="3" t="s">
@@ -23129,7 +23288,7 @@
         <v>422</v>
       </c>
       <c r="F369" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D369)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23150,7 +23309,7 @@
         <v>422</v>
       </c>
       <c r="F370" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D370)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23171,7 +23330,7 @@
         <v>422</v>
       </c>
       <c r="F371" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D371)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23192,7 +23351,7 @@
         <v>422</v>
       </c>
       <c r="F372" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D372)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G372" s="3" t="s">
@@ -23228,7 +23387,7 @@
         <v>422</v>
       </c>
       <c r="F373" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D373)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23249,7 +23408,7 @@
         <v>422</v>
       </c>
       <c r="F374" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D374)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23270,7 +23429,7 @@
         <v>422</v>
       </c>
       <c r="F375" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D375)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23291,7 +23450,7 @@
         <v>422</v>
       </c>
       <c r="F376" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D376)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23312,7 +23471,7 @@
         <v>422</v>
       </c>
       <c r="F377" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D377)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23333,7 +23492,7 @@
         <v>422</v>
       </c>
       <c r="F378" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D378)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23354,7 +23513,7 @@
         <v>422</v>
       </c>
       <c r="F379" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D379)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23375,7 +23534,7 @@
         <v>628</v>
       </c>
       <c r="F380" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D380)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G380" s="3" t="s">
@@ -23411,7 +23570,7 @@
         <v>422</v>
       </c>
       <c r="F381" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D381)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23432,7 +23591,7 @@
         <v>298</v>
       </c>
       <c r="F382" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D382)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
     </row>
@@ -23453,7 +23612,7 @@
         <v>520</v>
       </c>
       <c r="F383" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D383)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G383" s="3" t="s">
@@ -23489,7 +23648,7 @@
         <v>407</v>
       </c>
       <c r="F384" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D384)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Non</v>
       </c>
       <c r="G384" s="3" t="s">
@@ -23525,7 +23684,7 @@
         <v>422</v>
       </c>
       <c r="F385" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D385)=1,"Oui","Non")</f>
+        <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G385" s="3" t="s">
@@ -23561,7 +23720,7 @@
         <v>412</v>
       </c>
       <c r="F386" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D386)=1,"Oui","Non")</f>
+        <f t="shared" ref="F386:F422" si="6">IF(COUNTIF(D:D,"="&amp;D386)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G386" s="3" t="s">
@@ -23597,7 +23756,7 @@
         <v>412</v>
       </c>
       <c r="F387" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D387)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G387" s="3" t="s">
@@ -23633,7 +23792,7 @@
         <v>628</v>
       </c>
       <c r="F388" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D388)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G388" s="3" t="s">
@@ -23669,7 +23828,7 @@
         <v>520</v>
       </c>
       <c r="F389" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D389)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G389" s="3" t="s">
@@ -23705,7 +23864,7 @@
         <v>520</v>
       </c>
       <c r="F390" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D390)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G390" s="3" t="s">
@@ -23741,7 +23900,7 @@
         <v>633</v>
       </c>
       <c r="F391" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D391)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G391" s="3" t="s">
@@ -23777,7 +23936,7 @@
         <v>592</v>
       </c>
       <c r="F392" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D392)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G392" s="3" t="s">
@@ -23813,7 +23972,7 @@
         <v>633</v>
       </c>
       <c r="F393" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D393)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G393" s="3" t="s">
@@ -23849,7 +24008,7 @@
         <v>633</v>
       </c>
       <c r="F394" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D394)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G394" s="3" t="s">
@@ -23885,7 +24044,7 @@
         <v>412</v>
       </c>
       <c r="F395" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D395)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G395" s="3" t="s">
@@ -23921,7 +24080,7 @@
         <v>427</v>
       </c>
       <c r="F396" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D396)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G396" s="3" t="s">
@@ -23957,7 +24116,7 @@
         <v>422</v>
       </c>
       <c r="F397" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D397)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G397" s="3" t="s">
@@ -23993,7 +24152,7 @@
         <v>646</v>
       </c>
       <c r="F398" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D398)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G398" s="3" t="s">
@@ -24029,7 +24188,7 @@
         <v>628</v>
       </c>
       <c r="F399" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D399)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G399" s="3" t="s">
@@ -24065,7 +24224,7 @@
         <v>311</v>
       </c>
       <c r="F400" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D400)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G400" s="3" t="s">
@@ -24101,7 +24260,7 @@
         <v>633</v>
       </c>
       <c r="F401" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D401)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G401" s="3" t="s">
@@ -24137,7 +24296,7 @@
         <v>628</v>
       </c>
       <c r="F402" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D402)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G402" s="3" t="s">
@@ -24173,7 +24332,7 @@
         <v>653</v>
       </c>
       <c r="F403" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D403)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G403" s="3" t="s">
@@ -24209,7 +24368,7 @@
         <v>676</v>
       </c>
       <c r="F404" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D404)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G404" s="3" t="s">
@@ -24245,7 +24404,7 @@
         <v>427</v>
       </c>
       <c r="F405" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D405)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G405" s="3" t="s">
@@ -24281,7 +24440,7 @@
         <v>633</v>
       </c>
       <c r="F406" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D406)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G406" s="3" t="s">
@@ -24317,7 +24476,7 @@
         <v>389</v>
       </c>
       <c r="F407" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D407)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G407" s="3" t="s">
@@ -24350,10 +24509,10 @@
         <v>247</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>422</v>
+        <v>877</v>
       </c>
       <c r="F408" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D408)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
     </row>
@@ -24374,7 +24533,7 @@
         <v>520</v>
       </c>
       <c r="F409" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D409)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G409" s="3" t="s">
@@ -24410,7 +24569,7 @@
         <v>673</v>
       </c>
       <c r="F410" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D410)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G410" s="3" t="s">
@@ -24446,7 +24605,7 @@
         <v>653</v>
       </c>
       <c r="F411" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D411)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G411" s="3" t="s">
@@ -24482,7 +24641,7 @@
         <v>769</v>
       </c>
       <c r="F412" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D412)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G412" s="3" t="s">
@@ -24518,7 +24677,7 @@
         <v>422</v>
       </c>
       <c r="F413" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D413)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G413" s="3" t="s">
@@ -24554,7 +24713,7 @@
         <v>676</v>
       </c>
       <c r="F414" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D414)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G414" s="3" t="s">
@@ -24590,7 +24749,7 @@
         <v>439</v>
       </c>
       <c r="F415" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D415)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G415" s="3" t="s">
@@ -24626,7 +24785,7 @@
         <v>653</v>
       </c>
       <c r="F416" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D416)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G416" s="3" t="s">
@@ -24662,7 +24821,7 @@
         <v>676</v>
       </c>
       <c r="F417" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D417)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G417" s="3" t="s">
@@ -24698,7 +24857,7 @@
         <v>422</v>
       </c>
       <c r="F418" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D418)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G418" s="3" t="s">
@@ -24734,7 +24893,7 @@
         <v>653</v>
       </c>
       <c r="F419" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D419)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G419" s="3" t="s">
@@ -24770,7 +24929,7 @@
         <v>422</v>
       </c>
       <c r="F420" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D420)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Non</v>
       </c>
       <c r="G420" s="3" t="s">
@@ -24806,7 +24965,7 @@
         <v>673</v>
       </c>
       <c r="F421" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D421)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G421" s="3" t="s">
@@ -24842,7 +25001,7 @@
         <v>653</v>
       </c>
       <c r="F422" s="1" t="str">
-        <f>IF(COUNTIF(D:D,"="&amp;D422)=1,"Oui","Non")</f>
+        <f t="shared" si="6"/>
         <v>Oui</v>
       </c>
       <c r="G422" s="3" t="s">
@@ -24879,7 +25038,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25097,10 +25256,13 @@
         <v>244</v>
       </c>
       <c r="C15" t="s">
+        <v>874</v>
+      </c>
+      <c r="D15" t="s">
+        <v>873</v>
+      </c>
+      <c r="E15" t="s">
         <v>870</v>
-      </c>
-      <c r="E15" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{414E4CC9-A408-4207-968D-236C41C2FC72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091FD884-DF49-4266-831F-39E42F629FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repartition thèmes par liste" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dons d''origine'!$A$1:$K$422</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Listes par type'!$A$1:$D$22</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -24,12 +24,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="895">
   <si>
     <t>Liste</t>
   </si>
@@ -2692,6 +2698,36 @@
   </si>
   <si>
     <t>Redirige la douleur de ses blessures à ceux qui les lui ont infligées</t>
+  </si>
+  <si>
+    <t>Change le sang du LG en bile qui empoisonne au contact</t>
+  </si>
+  <si>
+    <t>Le LG ne peut plus échouer un test de Vigueur</t>
+  </si>
+  <si>
+    <t>1 V + 1 R</t>
+  </si>
+  <si>
+    <t>Double la Vigueur du LG</t>
+  </si>
+  <si>
+    <t>Invoque des grands loups pour l'aider</t>
+  </si>
+  <si>
+    <t>Rage et Gnose variable</t>
+  </si>
+  <si>
+    <t>La morsure du LG peut estropier les membres</t>
+  </si>
+  <si>
+    <t>Force + Insctinct primal</t>
+  </si>
+  <si>
+    <t>Invoque un Avatar du Grand Fenrir</t>
+  </si>
+  <si>
+    <t>Vigueur + Occultisme</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +2848,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Auteur" refreshedDate="43643.43254386574" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="420" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="43643.43254386574" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="420" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K422" sheet="Dons d'origine"/>
   </cacheSource>
@@ -9049,36 +9085,36 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>559</v>
       </c>
@@ -9086,7 +9122,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>161</v>
       </c>
@@ -9100,7 +9136,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>835</v>
       </c>
@@ -9168,7 +9204,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>422</v>
       </c>
@@ -9235,7 +9271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>770</v>
       </c>
@@ -9266,7 +9302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>520</v>
       </c>
@@ -9305,7 +9341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>305</v>
       </c>
@@ -9340,7 +9376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>802</v>
       </c>
@@ -9371,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>452</v>
       </c>
@@ -9406,7 +9442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>768</v>
       </c>
@@ -9437,7 +9473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>676</v>
       </c>
@@ -9468,7 +9504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>703</v>
       </c>
@@ -9501,7 +9537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>573</v>
       </c>
@@ -9538,7 +9574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>783</v>
       </c>
@@ -9573,7 +9609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>687</v>
       </c>
@@ -9610,7 +9646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>298</v>
       </c>
@@ -9645,7 +9681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>311</v>
       </c>
@@ -9692,7 +9728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>646</v>
       </c>
@@ -9723,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>628</v>
       </c>
@@ -9756,7 +9792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>594</v>
       </c>
@@ -9791,7 +9827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>93</v>
       </c>
@@ -9824,7 +9860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>415</v>
       </c>
@@ -9855,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>817</v>
       </c>
@@ -9886,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>427</v>
       </c>
@@ -9931,7 +9967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>222</v>
       </c>
@@ -9966,7 +10002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>821</v>
       </c>
@@ -9997,7 +10033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>797</v>
       </c>
@@ -10030,7 +10066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>653</v>
       </c>
@@ -10061,7 +10097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>560</v>
       </c>
@@ -10094,7 +10130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>633</v>
       </c>
@@ -10131,7 +10167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>804</v>
       </c>
@@ -10162,7 +10198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>595</v>
       </c>
@@ -10201,7 +10237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>402</v>
       </c>
@@ -10248,7 +10284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>673</v>
       </c>
@@ -10279,7 +10315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>757</v>
       </c>
@@ -10312,7 +10348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
         <v>425</v>
       </c>
@@ -10347,7 +10383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
         <v>824</v>
       </c>
@@ -10378,7 +10414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>412</v>
       </c>
@@ -10429,7 +10465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>678</v>
       </c>
@@ -10460,7 +10496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>496</v>
       </c>
@@ -10493,7 +10529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>389</v>
       </c>
@@ -10542,7 +10578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
         <v>712</v>
       </c>
@@ -10573,7 +10609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
         <v>769</v>
       </c>
@@ -10606,7 +10642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A46" s="6" t="s">
         <v>439</v>
       </c>
@@ -10639,7 +10675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47" s="6" t="s">
         <v>407</v>
       </c>
@@ -10682,7 +10718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
         <v>395</v>
       </c>
@@ -10717,7 +10753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49" s="6" t="s">
         <v>592</v>
       </c>
@@ -10750,7 +10786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>316</v>
       </c>
@@ -10783,7 +10819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>296</v>
       </c>
@@ -10820,7 +10856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
         <v>399</v>
       </c>
@@ -10857,7 +10893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53" s="6" t="s">
         <v>491</v>
       </c>
@@ -10888,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
         <v>488</v>
       </c>
@@ -10923,7 +10959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
         <v>576</v>
       </c>
@@ -10960,7 +10996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
         <v>652</v>
       </c>
@@ -10995,7 +11031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57" s="6" t="s">
         <v>836</v>
       </c>
@@ -11026,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
         <v>834</v>
       </c>
@@ -11108,27 +11144,27 @@
   <dimension ref="A1:K422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E274" sqref="E274"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.86328125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -11163,7 +11199,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
@@ -11199,7 +11235,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -11235,7 +11271,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -11271,7 +11307,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -11307,7 +11343,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -11343,7 +11379,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -11379,7 +11415,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -11415,7 +11451,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -11451,7 +11487,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
@@ -11487,7 +11523,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -11523,7 +11559,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -11559,7 +11595,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -11595,7 +11631,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -11631,7 +11667,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -11667,7 +11703,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -11703,7 +11739,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -11739,7 +11775,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -11775,7 +11811,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
@@ -11811,7 +11847,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -11847,7 +11883,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -11883,7 +11919,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -11919,7 +11955,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -11955,7 +11991,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -11991,7 +12027,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -12027,7 +12063,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -12063,7 +12099,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -12096,7 +12132,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -12132,7 +12168,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>160</v>
       </c>
@@ -12165,7 +12201,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>160</v>
       </c>
@@ -12201,7 +12237,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -12237,7 +12273,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -12273,7 +12309,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -12309,7 +12345,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>160</v>
       </c>
@@ -12345,7 +12381,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>160</v>
       </c>
@@ -12381,7 +12417,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -12417,7 +12453,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
@@ -12453,7 +12489,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -12489,7 +12525,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -12525,7 +12561,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -12561,7 +12597,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -12597,7 +12633,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
@@ -12633,7 +12669,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -12669,7 +12705,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
@@ -12705,7 +12741,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -12741,7 +12777,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -12777,7 +12813,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>160</v>
       </c>
@@ -12813,7 +12849,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -12849,7 +12885,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -12885,7 +12921,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>160</v>
       </c>
@@ -12921,7 +12957,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -12957,7 +12993,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -12993,7 +13029,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -13029,7 +13065,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -13065,7 +13101,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -13101,7 +13137,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -13137,7 +13173,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -13173,7 +13209,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
@@ -13209,7 +13245,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -13245,7 +13281,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
@@ -13281,7 +13317,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>160</v>
       </c>
@@ -13317,7 +13353,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
@@ -13353,7 +13389,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
@@ -13389,7 +13425,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -13425,7 +13461,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -13461,7 +13497,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -13497,7 +13533,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -13533,7 +13569,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -13569,7 +13605,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -13605,7 +13641,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
@@ -13641,7 +13677,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -13677,7 +13713,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -13713,7 +13749,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>161</v>
       </c>
@@ -13749,7 +13785,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
@@ -13785,7 +13821,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
@@ -13821,7 +13857,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
@@ -13857,7 +13893,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -13893,7 +13929,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -13929,7 +13965,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -13965,7 +14001,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
@@ -14001,7 +14037,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -14037,7 +14073,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -14073,7 +14109,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -14109,7 +14145,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -14145,7 +14181,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
@@ -14181,7 +14217,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
@@ -14217,7 +14253,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -14253,7 +14289,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -14289,7 +14325,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -14325,7 +14361,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -14361,7 +14397,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -14397,7 +14433,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -14433,7 +14469,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>161</v>
       </c>
@@ -14469,7 +14505,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -14505,7 +14541,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>161</v>
       </c>
@@ -14541,7 +14577,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>161</v>
       </c>
@@ -14577,7 +14613,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>161</v>
       </c>
@@ -14613,7 +14649,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -14649,7 +14685,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -14685,7 +14721,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -14721,7 +14757,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -14757,7 +14793,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>161</v>
       </c>
@@ -14793,7 +14829,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -14829,7 +14865,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>161</v>
       </c>
@@ -14865,7 +14901,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -14901,7 +14937,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -14937,7 +14973,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>161</v>
       </c>
@@ -14973,7 +15009,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>161</v>
       </c>
@@ -15009,7 +15045,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -15045,7 +15081,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -15081,7 +15117,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
@@ -15117,7 +15153,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
@@ -15153,7 +15189,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>161</v>
       </c>
@@ -15189,7 +15225,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -15225,7 +15261,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>161</v>
       </c>
@@ -15261,7 +15297,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
@@ -15297,7 +15333,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>161</v>
       </c>
@@ -15333,7 +15369,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -15369,7 +15405,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>161</v>
       </c>
@@ -15402,7 +15438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>161</v>
       </c>
@@ -15438,7 +15474,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -15474,7 +15510,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>161</v>
       </c>
@@ -15510,7 +15546,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>161</v>
       </c>
@@ -15546,7 +15582,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -15582,7 +15618,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -15618,7 +15654,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>161</v>
       </c>
@@ -15654,7 +15690,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>161</v>
       </c>
@@ -15690,7 +15726,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>161</v>
       </c>
@@ -15726,7 +15762,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>161</v>
       </c>
@@ -15762,7 +15798,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>161</v>
       </c>
@@ -15798,7 +15834,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
@@ -15834,7 +15870,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -15870,7 +15906,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
@@ -15906,7 +15942,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>161</v>
       </c>
@@ -15942,7 +15978,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
@@ -15978,7 +16014,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -16014,7 +16050,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -16050,7 +16086,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -16086,7 +16122,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>161</v>
       </c>
@@ -16122,7 +16158,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>161</v>
       </c>
@@ -16158,7 +16194,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -16194,7 +16230,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>161</v>
       </c>
@@ -16230,7 +16266,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
@@ -16266,7 +16302,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
@@ -16302,7 +16338,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>161</v>
       </c>
@@ -16338,7 +16374,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -16374,7 +16410,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>161</v>
       </c>
@@ -16410,7 +16446,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -16446,7 +16482,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
@@ -16482,7 +16518,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -16518,7 +16554,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -16554,7 +16590,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -16590,7 +16626,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>161</v>
       </c>
@@ -16626,7 +16662,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -16662,7 +16698,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>161</v>
       </c>
@@ -16698,7 +16734,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
@@ -16734,7 +16770,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -16770,7 +16806,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -16806,7 +16842,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -16842,7 +16878,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -16878,7 +16914,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -16914,7 +16950,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -16950,7 +16986,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -16986,7 +17022,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -17022,7 +17058,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -17058,7 +17094,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>162</v>
       </c>
@@ -17094,7 +17130,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
@@ -17130,7 +17166,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -17166,7 +17202,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>162</v>
       </c>
@@ -17202,7 +17238,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>162</v>
       </c>
@@ -17238,7 +17274,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -17274,7 +17310,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>162</v>
       </c>
@@ -17310,7 +17346,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -17346,7 +17382,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>162</v>
       </c>
@@ -17382,7 +17418,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>162</v>
       </c>
@@ -17418,7 +17454,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>162</v>
       </c>
@@ -17454,7 +17490,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>162</v>
       </c>
@@ -17490,7 +17526,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>162</v>
       </c>
@@ -17526,7 +17562,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>162</v>
       </c>
@@ -17562,7 +17598,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>162</v>
       </c>
@@ -17598,7 +17634,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>162</v>
       </c>
@@ -17634,7 +17670,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>162</v>
       </c>
@@ -17670,7 +17706,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -17706,7 +17742,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -17742,7 +17778,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>162</v>
       </c>
@@ -17778,7 +17814,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
@@ -17814,7 +17850,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>162</v>
       </c>
@@ -17850,7 +17886,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>162</v>
       </c>
@@ -17886,7 +17922,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>162</v>
       </c>
@@ -17922,7 +17958,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>162</v>
       </c>
@@ -17958,7 +17994,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
@@ -17994,7 +18030,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>162</v>
       </c>
@@ -18030,7 +18066,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>162</v>
       </c>
@@ -18066,7 +18102,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>162</v>
       </c>
@@ -18102,7 +18138,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>162</v>
       </c>
@@ -18138,7 +18174,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -18174,7 +18210,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>162</v>
       </c>
@@ -18210,7 +18246,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>162</v>
       </c>
@@ -18246,7 +18282,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>162</v>
       </c>
@@ -18282,7 +18318,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>162</v>
       </c>
@@ -18318,7 +18354,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>162</v>
       </c>
@@ -18354,7 +18390,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
         <v>162</v>
       </c>
@@ -18390,7 +18426,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>162</v>
       </c>
@@ -18426,7 +18462,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>162</v>
       </c>
@@ -18462,7 +18498,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>162</v>
       </c>
@@ -18498,7 +18534,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>162</v>
       </c>
@@ -18534,7 +18570,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>162</v>
       </c>
@@ -18570,7 +18606,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>162</v>
       </c>
@@ -18606,7 +18642,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>162</v>
       </c>
@@ -18642,7 +18678,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>162</v>
       </c>
@@ -18678,7 +18714,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>162</v>
       </c>
@@ -18714,7 +18750,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>162</v>
       </c>
@@ -18750,7 +18786,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>162</v>
       </c>
@@ -18786,7 +18822,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>162</v>
       </c>
@@ -18822,7 +18858,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>162</v>
       </c>
@@ -18858,7 +18894,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>162</v>
       </c>
@@ -18894,7 +18930,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>162</v>
       </c>
@@ -18930,7 +18966,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>162</v>
       </c>
@@ -18966,7 +19002,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>162</v>
       </c>
@@ -19002,7 +19038,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>162</v>
       </c>
@@ -19038,7 +19074,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>162</v>
       </c>
@@ -19074,7 +19110,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>162</v>
       </c>
@@ -19110,7 +19146,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>162</v>
       </c>
@@ -19146,7 +19182,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>162</v>
       </c>
@@ -19182,7 +19218,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>162</v>
       </c>
@@ -19218,7 +19254,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -19254,7 +19290,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>162</v>
       </c>
@@ -19290,7 +19326,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
@@ -19326,7 +19362,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>162</v>
       </c>
@@ -19362,7 +19398,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>162</v>
       </c>
@@ -19398,7 +19434,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>162</v>
       </c>
@@ -19434,7 +19470,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>162</v>
       </c>
@@ -19470,7 +19506,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>162</v>
       </c>
@@ -19506,7 +19542,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>162</v>
       </c>
@@ -19542,7 +19578,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>162</v>
       </c>
@@ -19578,7 +19614,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>162</v>
       </c>
@@ -19614,7 +19650,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>162</v>
       </c>
@@ -19650,7 +19686,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>162</v>
       </c>
@@ -19686,7 +19722,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>162</v>
       </c>
@@ -19722,7 +19758,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>162</v>
       </c>
@@ -19758,7 +19794,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>162</v>
       </c>
@@ -19794,7 +19830,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>162</v>
       </c>
@@ -19830,7 +19866,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -19866,7 +19902,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -19902,7 +19938,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -19938,7 +19974,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>162</v>
       </c>
@@ -19974,7 +20010,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>162</v>
       </c>
@@ -20010,7 +20046,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>162</v>
       </c>
@@ -20046,7 +20082,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>162</v>
       </c>
@@ -20082,7 +20118,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>162</v>
       </c>
@@ -20118,7 +20154,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -20154,7 +20190,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -20190,7 +20226,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -20226,7 +20262,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>162</v>
       </c>
@@ -20262,7 +20298,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>162</v>
       </c>
@@ -20298,7 +20334,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>162</v>
       </c>
@@ -20334,7 +20370,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>162</v>
       </c>
@@ -20370,7 +20406,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -20406,7 +20442,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -20442,7 +20478,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -20478,7 +20514,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -20514,7 +20550,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>162</v>
       </c>
@@ -20550,7 +20586,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>162</v>
       </c>
@@ -20586,7 +20622,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>162</v>
       </c>
@@ -20622,7 +20658,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -20658,7 +20694,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>162</v>
       </c>
@@ -20694,7 +20730,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>162</v>
       </c>
@@ -20730,7 +20766,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -20766,7 +20802,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>162</v>
       </c>
@@ -20802,7 +20838,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>162</v>
       </c>
@@ -20838,7 +20874,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -20874,7 +20910,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -20910,7 +20946,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -20946,7 +20982,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -20960,14 +20996,29 @@
         <v>253</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>422</v>
+        <v>877</v>
       </c>
       <c r="F274" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G274" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J274" s="9">
+        <v>7</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>162</v>
       </c>
@@ -21003,7 +21054,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>162</v>
       </c>
@@ -21023,8 +21074,23 @@
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G276" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J276" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -21060,7 +21126,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -21096,7 +21162,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -21110,14 +21176,29 @@
         <v>256</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>422</v>
+        <v>873</v>
       </c>
       <c r="F279" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G279" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J279" s="9">
+        <v>6</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>162</v>
       </c>
@@ -21131,14 +21212,29 @@
         <v>257</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>422</v>
+        <v>877</v>
       </c>
       <c r="F280" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G280" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="J280" s="9">
+        <v>6</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>162</v>
       </c>
@@ -21152,14 +21248,29 @@
         <v>258</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>422</v>
+        <v>873</v>
       </c>
       <c r="F281" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G281" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="J281" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>162</v>
       </c>
@@ -21173,14 +21284,29 @@
         <v>259</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>422</v>
+        <v>877</v>
       </c>
       <c r="F282" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G282" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="J282" s="9">
+        <v>6</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>162</v>
       </c>
@@ -21201,7 +21327,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>162</v>
       </c>
@@ -21222,7 +21348,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>162</v>
       </c>
@@ -21258,7 +21384,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>162</v>
       </c>
@@ -21294,7 +21420,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>162</v>
       </c>
@@ -21315,7 +21441,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>162</v>
       </c>
@@ -21336,7 +21462,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>162</v>
       </c>
@@ -21357,7 +21483,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>162</v>
       </c>
@@ -21393,7 +21519,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>162</v>
       </c>
@@ -21414,7 +21540,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>162</v>
       </c>
@@ -21450,7 +21576,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>162</v>
       </c>
@@ -21471,7 +21597,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>162</v>
       </c>
@@ -21492,7 +21618,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>162</v>
       </c>
@@ -21513,7 +21639,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>162</v>
       </c>
@@ -21534,7 +21660,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>162</v>
       </c>
@@ -21555,7 +21681,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
@@ -21576,7 +21702,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>162</v>
       </c>
@@ -21612,7 +21738,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>162</v>
       </c>
@@ -21648,7 +21774,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>162</v>
       </c>
@@ -21669,7 +21795,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>162</v>
       </c>
@@ -21690,7 +21816,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>162</v>
       </c>
@@ -21711,7 +21837,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>162</v>
       </c>
@@ -21732,7 +21858,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>162</v>
       </c>
@@ -21768,7 +21894,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>162</v>
       </c>
@@ -21789,7 +21915,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>162</v>
       </c>
@@ -21810,7 +21936,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>162</v>
       </c>
@@ -21831,7 +21957,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>162</v>
       </c>
@@ -21867,7 +21993,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>162</v>
       </c>
@@ -21888,7 +22014,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>162</v>
       </c>
@@ -21924,7 +22050,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>162</v>
       </c>
@@ -21945,7 +22071,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>162</v>
       </c>
@@ -21966,7 +22092,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
@@ -22002,7 +22128,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>162</v>
       </c>
@@ -22023,7 +22149,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>162</v>
       </c>
@@ -22044,7 +22170,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>162</v>
       </c>
@@ -22065,7 +22191,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>162</v>
       </c>
@@ -22086,7 +22212,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>162</v>
       </c>
@@ -22107,7 +22233,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>162</v>
       </c>
@@ -22128,7 +22254,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>162</v>
       </c>
@@ -22149,7 +22275,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>162</v>
       </c>
@@ -22170,7 +22296,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>162</v>
       </c>
@@ -22191,7 +22317,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>162</v>
       </c>
@@ -22212,7 +22338,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>162</v>
       </c>
@@ -22233,7 +22359,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>162</v>
       </c>
@@ -22269,7 +22395,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>162</v>
       </c>
@@ -22290,7 +22416,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>162</v>
       </c>
@@ -22311,7 +22437,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>162</v>
       </c>
@@ -22347,7 +22473,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>162</v>
       </c>
@@ -22368,7 +22494,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>162</v>
       </c>
@@ -22389,7 +22515,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>162</v>
       </c>
@@ -22410,7 +22536,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>162</v>
       </c>
@@ -22431,7 +22557,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>162</v>
       </c>
@@ -22452,7 +22578,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>162</v>
       </c>
@@ -22488,7 +22614,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>162</v>
       </c>
@@ -22509,7 +22635,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>162</v>
       </c>
@@ -22530,7 +22656,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>162</v>
       </c>
@@ -22551,7 +22677,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>162</v>
       </c>
@@ -22587,7 +22713,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
         <v>162</v>
       </c>
@@ -22608,7 +22734,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>162</v>
       </c>
@@ -22629,7 +22755,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>162</v>
       </c>
@@ -22650,7 +22776,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>162</v>
       </c>
@@ -22671,7 +22797,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>162</v>
       </c>
@@ -22692,7 +22818,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>162</v>
       </c>
@@ -22713,7 +22839,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -22734,7 +22860,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -22770,7 +22896,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>162</v>
       </c>
@@ -22791,7 +22917,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>162</v>
       </c>
@@ -22812,7 +22938,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>162</v>
       </c>
@@ -22833,7 +22959,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>162</v>
       </c>
@@ -22869,7 +22995,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -22890,7 +23016,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>162</v>
       </c>
@@ -22911,7 +23037,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>162</v>
       </c>
@@ -22932,7 +23058,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>162</v>
       </c>
@@ -22953,7 +23079,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>162</v>
       </c>
@@ -22989,7 +23115,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>162</v>
       </c>
@@ -23010,7 +23136,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>162</v>
       </c>
@@ -23031,7 +23157,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -23052,7 +23178,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -23088,7 +23214,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>162</v>
       </c>
@@ -23109,7 +23235,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
         <v>162</v>
       </c>
@@ -23130,7 +23256,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>162</v>
       </c>
@@ -23151,7 +23277,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>162</v>
       </c>
@@ -23172,7 +23298,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
@@ -23193,7 +23319,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
         <v>162</v>
       </c>
@@ -23214,7 +23340,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>162</v>
       </c>
@@ -23235,7 +23361,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>162</v>
       </c>
@@ -23271,7 +23397,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>162</v>
       </c>
@@ -23292,7 +23418,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -23313,7 +23439,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -23334,7 +23460,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -23370,7 +23496,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>162</v>
       </c>
@@ -23391,7 +23517,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>162</v>
       </c>
@@ -23412,7 +23538,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
         <v>162</v>
       </c>
@@ -23433,7 +23559,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
         <v>162</v>
       </c>
@@ -23454,7 +23580,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>162</v>
       </c>
@@ -23475,7 +23601,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
         <v>162</v>
       </c>
@@ -23496,7 +23622,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
         <v>162</v>
       </c>
@@ -23517,7 +23643,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
         <v>162</v>
       </c>
@@ -23553,7 +23679,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>162</v>
       </c>
@@ -23574,7 +23700,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
         <v>162</v>
       </c>
@@ -23595,7 +23721,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
         <v>162</v>
       </c>
@@ -23631,7 +23757,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
         <v>162</v>
       </c>
@@ -23667,7 +23793,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
         <v>162</v>
       </c>
@@ -23703,7 +23829,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
         <v>162</v>
       </c>
@@ -23739,7 +23865,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
         <v>162</v>
       </c>
@@ -23775,7 +23901,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
         <v>162</v>
       </c>
@@ -23811,7 +23937,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -23847,7 +23973,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
         <v>162</v>
       </c>
@@ -23883,7 +24009,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
         <v>162</v>
       </c>
@@ -23919,7 +24045,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
         <v>162</v>
       </c>
@@ -23955,7 +24081,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
         <v>162</v>
       </c>
@@ -23991,7 +24117,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
         <v>162</v>
       </c>
@@ -24027,7 +24153,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
         <v>162</v>
       </c>
@@ -24063,7 +24189,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
         <v>162</v>
       </c>
@@ -24099,7 +24225,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
         <v>162</v>
       </c>
@@ -24135,7 +24261,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="1" t="s">
         <v>162</v>
       </c>
@@ -24171,7 +24297,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
         <v>162</v>
       </c>
@@ -24207,7 +24333,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="1" t="s">
         <v>162</v>
       </c>
@@ -24243,7 +24369,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
         <v>162</v>
       </c>
@@ -24279,7 +24405,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="1" t="s">
         <v>162</v>
       </c>
@@ -24315,7 +24441,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
         <v>162</v>
       </c>
@@ -24351,7 +24477,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
         <v>162</v>
       </c>
@@ -24387,7 +24513,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
         <v>162</v>
       </c>
@@ -24423,7 +24549,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="1" t="s">
         <v>162</v>
       </c>
@@ -24459,7 +24585,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
         <v>162</v>
       </c>
@@ -24495,7 +24621,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="1" t="s">
         <v>162</v>
       </c>
@@ -24516,7 +24642,7 @@
         <v>Non</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="1" t="s">
         <v>162</v>
       </c>
@@ -24552,7 +24678,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="1" t="s">
         <v>162</v>
       </c>
@@ -24588,7 +24714,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="1" t="s">
         <v>162</v>
       </c>
@@ -24624,7 +24750,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" s="1" t="s">
         <v>162</v>
       </c>
@@ -24660,7 +24786,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
         <v>162</v>
       </c>
@@ -24696,7 +24822,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="1" t="s">
         <v>162</v>
       </c>
@@ -24732,7 +24858,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
         <v>162</v>
       </c>
@@ -24768,7 +24894,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
         <v>162</v>
       </c>
@@ -24804,7 +24930,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
         <v>162</v>
       </c>
@@ -24840,7 +24966,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="1" t="s">
         <v>162</v>
       </c>
@@ -24876,7 +25002,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="1" t="s">
         <v>162</v>
       </c>
@@ -24912,7 +25038,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="1" t="s">
         <v>162</v>
       </c>
@@ -24948,7 +25074,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
         <v>162</v>
       </c>
@@ -24984,7 +25110,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" s="1" t="s">
         <v>162</v>
       </c>
@@ -25041,15 +25167,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>159</v>
       </c>
@@ -25063,7 +25189,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -25077,7 +25203,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -25091,7 +25217,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -25105,7 +25231,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -25119,7 +25245,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -25133,7 +25259,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -25147,7 +25273,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -25161,7 +25287,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -25175,7 +25301,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -25189,7 +25315,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -25203,7 +25329,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -25217,7 +25343,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -25231,7 +25357,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -25248,7 +25374,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -25265,7 +25391,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -25273,7 +25399,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -25281,7 +25407,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -25292,7 +25418,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -25301,7 +25427,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -25310,7 +25436,7 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -25324,7 +25450,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>162</v>
       </c>

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8F10CC-43EE-4FDB-B0EC-0D4FF8BC133F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF90F77D-3B96-4D2B-9468-079CD3CE8E72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="6533" windowWidth="20468" windowHeight="6547" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repartition thèmes par liste" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="1011">
   <si>
     <t>Liste</t>
   </si>
@@ -2854,9 +2854,6 @@
     <t>L'Ithaeur apprends l'interdit et le fléau de l'esprit</t>
   </si>
   <si>
-    <t>Homicide ?</t>
-  </si>
-  <si>
     <t>La cible humaine aura peur de la nature au point de la laisser intacte</t>
   </si>
   <si>
@@ -2896,9 +2893,6 @@
     <t>Permet de stocker de la Rage, Gnose ou Volonté (à choisir lors de l'acquisition)</t>
   </si>
   <si>
-    <t>Prédation ?</t>
-  </si>
-  <si>
     <t>Homicide</t>
   </si>
   <si>
@@ -2986,12 +2980,6 @@
     <t>Permet d'envoyer un message sur n'importe quel appareil electronique</t>
   </si>
   <si>
-    <t>Toile?</t>
-  </si>
-  <si>
-    <t>Toile ?</t>
-  </si>
-  <si>
     <t>Invoque une Araignée du réseau</t>
   </si>
   <si>
@@ -2999,6 +2987,96 @@
   </si>
   <si>
     <t>Permet d'utiliser la Rage et la Gnose dans le même tour sans pénalités</t>
+  </si>
+  <si>
+    <t>fait une bouillie nutritive à partir de n'importe quoi</t>
+  </si>
+  <si>
+    <t>En réalisant un tour de force (page 270) le LG peut ajouter des dès en échange de dégâts</t>
+  </si>
+  <si>
+    <t>Après avoir touché sa cible le LG la rends mielleuse, elle a une odeur sucrée et est légerement collante. Elle attire des insectes qui lui collent et la dérangent</t>
+  </si>
+  <si>
+    <t>1 heure par réussite</t>
+  </si>
+  <si>
+    <t>Répare temporairement tout objet cassé</t>
+  </si>
+  <si>
+    <t>Survie, poubelles ?</t>
+  </si>
+  <si>
+    <t>Amplifie son musc jusqu'à ce qu'il suffoque ses adversaires</t>
+  </si>
+  <si>
+    <t>Permet de trouver un lieu inhabité par l'humain dans un centre urbain (usines désafectées, appartements abandonnés, etc.)</t>
+  </si>
+  <si>
+    <t>Astuce + Connaissance de la rue</t>
+  </si>
+  <si>
+    <t>Le LG se plonge dans la frénésie pour se battre et augmente ses dégâts</t>
+  </si>
+  <si>
+    <t>La forme lupus du LG resemble à un chien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rouille le métal à proximité </t>
+  </si>
+  <si>
+    <t>Projette son musc sur ses adversaires pour les dégouter au point de les faire vomir</t>
+  </si>
+  <si>
+    <t>Pourrit le bois et le papier</t>
+  </si>
+  <si>
+    <t>Intelligence + Artisanats</t>
+  </si>
+  <si>
+    <t>Résiste aux contrôles mentaux</t>
+  </si>
+  <si>
+    <t>Tant qu'il rit tout haut</t>
+  </si>
+  <si>
+    <t>Plonge dans un coin sombre pour en sortir dans un autre à quelque distance</t>
+  </si>
+  <si>
+    <t>Invoque une horde de vermines</t>
+  </si>
+  <si>
+    <t>Manipulation + Animaux</t>
+  </si>
+  <si>
+    <t>Invoque une horde d'esprits malveillants qui poussent les habitants à faire une émeute</t>
+  </si>
+  <si>
+    <t>Le LG n'a plus besoin de se nourrir, boire ou même respirer. Les températures ne l'affectent plus, etc.</t>
+  </si>
+  <si>
+    <t>Poubelles</t>
+  </si>
+  <si>
+    <t>Domination, orage, secrets</t>
+  </si>
+  <si>
+    <t>Secret ?</t>
+  </si>
+  <si>
+    <t>Toile</t>
+  </si>
+  <si>
+    <t>Entends très bien les chuchotements à proximité</t>
+  </si>
+  <si>
+    <t>Le LG a une aura de supériorité qui l'empêche les autres de lui trouver des défauts</t>
+  </si>
+  <si>
+    <t>Le LG trouve la faiblesse de l'adversaire pour l'utiliser au combat</t>
+  </si>
+  <si>
+    <t>Perception + Empathie</t>
   </si>
 </sst>
 </file>
@@ -11657,8 +11735,8 @@
   <dimension ref="A1:K422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D346" sqref="D346"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22049,7 +22127,7 @@
         <v>264</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="F289" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22193,7 +22271,7 @@
         <v>266</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="F293" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22265,7 +22343,7 @@
         <v>268</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="F295" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22301,7 +22379,7 @@
         <v>269</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="F296" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22337,7 +22415,7 @@
         <v>270</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="F297" s="1" t="str">
         <f t="shared" si="4"/>
@@ -22589,14 +22667,14 @@
         <v>274</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="F304" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>387</v>
@@ -22608,7 +22686,7 @@
         <v>484</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -22668,7 +22746,7 @@
         <v>Oui</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>387</v>
@@ -22704,13 +22782,13 @@
         <v>Oui</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>387</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J307" s="9">
         <v>7</v>
@@ -22733,14 +22811,14 @@
         <v>277</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="F308" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>387</v>
@@ -22752,7 +22830,7 @@
         <v>484</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -22805,14 +22883,14 @@
         <v>278</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="F310" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>387</v>
@@ -22877,14 +22955,14 @@
         <v>279</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="F312" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>387</v>
@@ -22920,13 +22998,13 @@
         <v>Oui</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J313" s="9">
         <v>6</v>
@@ -22992,7 +23070,7 @@
         <v>Oui</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>387</v>
@@ -23028,7 +23106,7 @@
         <v>Oui</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>387</v>
@@ -23064,7 +23142,7 @@
         <v>Oui</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>387</v>
@@ -23100,7 +23178,7 @@
         <v>Oui</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>420</v>
@@ -23129,20 +23207,20 @@
         <v>286</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="F319" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J319" s="9">
         <v>7</v>
@@ -23165,14 +23243,14 @@
         <v>287</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="F320" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>420</v>
@@ -23208,7 +23286,7 @@
         <v>Oui</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>665</v>
@@ -23244,7 +23322,7 @@
         <v>Oui</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>387</v>
@@ -23280,7 +23358,7 @@
         <v>Oui</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>387</v>
@@ -23316,7 +23394,7 @@
         <v>Oui</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>393</v>
@@ -23352,7 +23430,7 @@
         <v>Oui</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>420</v>
@@ -23417,14 +23495,14 @@
         <v>296</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="F327" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>393</v>
@@ -23460,7 +23538,7 @@
         <v>Oui</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>420</v>
@@ -23532,13 +23610,13 @@
         <v>Oui</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J330" s="9">
         <v>7</v>
@@ -23568,7 +23646,7 @@
         <v>Oui</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>420</v>
@@ -23604,13 +23682,13 @@
         <v>Oui</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J332" s="9">
         <v>7</v>
@@ -23640,13 +23718,13 @@
         <v>Oui</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J333" s="9">
         <v>8</v>
@@ -23676,10 +23754,10 @@
         <v>Oui</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>384</v>
@@ -23748,7 +23826,7 @@
         <v>Oui</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>420</v>
@@ -23760,7 +23838,7 @@
         <v>7</v>
       </c>
       <c r="K336" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
@@ -23777,17 +23855,17 @@
         <v>305</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="F337" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>384</v>
@@ -23820,7 +23898,7 @@
         <v>Oui</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>420</v>
@@ -23885,14 +23963,14 @@
         <v>307</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="F340" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>420</v>
@@ -23921,20 +23999,20 @@
         <v>309</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="F341" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="J341" s="9">
         <v>8</v>
@@ -23964,7 +24042,7 @@
         <v>Oui</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>387</v>
@@ -23979,7 +24057,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>162</v>
       </c>
@@ -23999,8 +24077,23 @@
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G343" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="J343" s="9">
+        <v>6</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>162</v>
       </c>
@@ -24020,8 +24113,23 @@
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G344" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J344" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>162</v>
       </c>
@@ -24035,14 +24143,29 @@
         <v>315</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>418</v>
+        <v>1003</v>
       </c>
       <c r="F345" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G345" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J345" s="9">
+        <v>7</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -24056,14 +24179,29 @@
         <v>316</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>418</v>
+        <v>1003</v>
       </c>
       <c r="F346" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G346" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J346" s="9">
+        <v>6</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -24099,7 +24237,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>162</v>
       </c>
@@ -24113,14 +24251,29 @@
         <v>317</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>418</v>
+        <v>1003</v>
       </c>
       <c r="F348" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G348" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J348" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="K348" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>162</v>
       </c>
@@ -24134,14 +24287,29 @@
         <v>318</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>418</v>
+        <v>313</v>
       </c>
       <c r="F349" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G349" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="J349" s="9">
+        <v>5</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>162</v>
       </c>
@@ -24161,8 +24329,23 @@
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G350" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J350" s="9">
+        <v>8</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>162</v>
       </c>
@@ -24198,7 +24381,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -24212,14 +24395,29 @@
         <v>320</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>418</v>
+        <v>588</v>
       </c>
       <c r="F352" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G352" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J352" s="9">
+        <v>7</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>162</v>
       </c>
@@ -24233,14 +24431,29 @@
         <v>321</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>418</v>
+        <v>1003</v>
       </c>
       <c r="F353" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G353" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J353" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="K353" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>162</v>
       </c>
@@ -24254,14 +24467,29 @@
         <v>322</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>418</v>
+        <v>1003</v>
       </c>
       <c r="F354" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G354" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J354" s="9">
+        <v>7</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>162</v>
       </c>
@@ -24275,14 +24503,29 @@
         <v>323</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>418</v>
+        <v>1003</v>
       </c>
       <c r="F355" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G355" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="J355" s="9">
+        <v>7</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>162</v>
       </c>
@@ -24318,7 +24561,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>162</v>
       </c>
@@ -24338,8 +24581,23 @@
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G357" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J357" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>162</v>
       </c>
@@ -24359,8 +24617,23 @@
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G358" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J358" s="9">
+        <v>6</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -24374,14 +24647,29 @@
         <v>326</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>418</v>
+        <v>1003</v>
       </c>
       <c r="F359" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="G359" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J359" s="9">
+        <v>7</v>
+      </c>
+      <c r="K359" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -24417,7 +24705,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>162</v>
       </c>
@@ -24437,8 +24725,23 @@
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G361" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J361" s="9">
+        <v>8</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
         <v>162</v>
       </c>
@@ -24458,8 +24761,23 @@
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G362" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J362" s="9">
+        <v>6</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>162</v>
       </c>
@@ -24473,14 +24791,29 @@
         <v>330</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>418</v>
+        <v>1005</v>
       </c>
       <c r="F363" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G363" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J363" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>162</v>
       </c>
@@ -24494,14 +24827,29 @@
         <v>331</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>418</v>
+        <v>683</v>
       </c>
       <c r="F364" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G364" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J364" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
@@ -24521,8 +24869,23 @@
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G365" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J365" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
         <v>162</v>
       </c>
@@ -24543,7 +24906,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>162</v>
       </c>
@@ -24564,7 +24927,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>162</v>
       </c>
@@ -24600,7 +24963,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>162</v>
       </c>
@@ -24621,7 +24984,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -24642,7 +25005,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -24663,7 +25026,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -24699,7 +25062,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>162</v>
       </c>
@@ -24720,7 +25083,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>162</v>
       </c>
@@ -24741,7 +25104,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
         <v>162</v>
       </c>
@@ -24762,7 +25125,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
         <v>162</v>
       </c>
@@ -24783,7 +25146,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>162</v>
       </c>
@@ -24804,7 +25167,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
         <v>162</v>
       </c>
@@ -24825,7 +25188,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
         <v>162</v>
       </c>
@@ -24846,7 +25209,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
         <v>162</v>
       </c>
@@ -24882,7 +25245,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>162</v>
       </c>
@@ -24903,7 +25266,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
         <v>162</v>
       </c>
@@ -25838,7 +26201,7 @@
         <v>246</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="F408" s="1" t="str">
         <f t="shared" si="6"/>
@@ -26353,7 +26716,7 @@
   <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Rongeurs d'Os"/>
+        <filter val="Seigneurs de l'Ombre"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -26366,8 +26729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35BA778-DA30-4EA6-A9D5-58601F95069A}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26619,10 +26982,10 @@
         <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D17" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E17" t="s">
         <v>916</v>
@@ -26636,7 +26999,7 @@
         <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>980</v>
+        <v>1006</v>
       </c>
       <c r="D18" t="s">
         <v>293</v>
@@ -26649,10 +27012,18 @@
       <c r="A19" t="s">
         <v>162</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
@@ -26662,6 +27033,9 @@
         <v>329</v>
       </c>
       <c r="C20" s="8"/>
+      <c r="E20" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{60E5F676-3C35-4906-974F-360CCED02213}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D628CC1-5F1C-44DA-BF8C-55E67B3DB581}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4323" uniqueCount="1024">
   <si>
     <t>Liste</t>
   </si>
@@ -3096,6 +3096,21 @@
   </si>
   <si>
     <t>La morsure du LG inflige un nombre de dégâts non absorbables supplémentaires égal à sa Gloire. Ces dégâts sont du même type que ceux de la morsure.</t>
+  </si>
+  <si>
+    <t>Aiguise ses griffes sur une surface dure pendant un tour. Ensuite les jets de dégâts on un bonus égal à la Sagesse du LG.</t>
+  </si>
+  <si>
+    <t>Change les griffes en argent. Ce don fait mal au LG. S'il a moins de 3 en Ruse il gagne un point de Rage par tour tant que le Don est activé et doit faire des tests de frénésie si sa Rage dépasse sa Volonté. En plus s'il a moins de 5 en Ruse il a un malus de 1 pour toutes ses actions hors combat pendant la durée du Don. Le LG peut consacrer un tour à désactiver ce Don.</t>
+  </si>
+  <si>
+    <t>Les griffes du LG se transforment en armes d'estoc pouvant empaler les adversaires agrippés. Cette attaque inflige un nombre de dégâts létaux supplémentaires égal à la Gloire du LG.</t>
+  </si>
+  <si>
+    <t>Tant que le LG tiens sa cible avec une morsure il peut refaire une attaque morsure pour infliger plus de dégâts.</t>
+  </si>
+  <si>
+    <t>Quand il touche sa cible avec ses crocs ou ses griffes le LG peut activer ce Don pour ignorer un montant de l'armure (normale ou magique) de la cible égale à sa Pureté.</t>
   </si>
 </sst>
 </file>
@@ -3209,17 +3224,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8879,7 +8884,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{477637CD-FD25-47E8-A7D2-A30D4A046A9C}" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{477637CD-FD25-47E8-A7D2-A30D4A046A9C}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:W69" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -12348,7 +12353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13194,7 +13199,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -13230,7 +13235,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -13302,7 +13307,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -13548,7 +13553,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>160</v>
       </c>
@@ -13584,7 +13589,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>160</v>
       </c>
@@ -13692,7 +13697,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>160</v>
       </c>
@@ -13872,7 +13877,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -14232,7 +14237,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -17469,7 +17474,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
@@ -17505,39 +17510,39 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="14">
         <v>1</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F144" s="1" t="str">
+      <c r="F144" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="G144" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H144" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="I144" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J144" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>385</v>
       </c>
     </row>
@@ -17829,75 +17834,75 @@
         <v>385</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="14">
         <v>3</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F153" s="1" t="str">
+      <c r="F153" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G153" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J153" s="9">
+      <c r="J153" s="16">
         <v>7</v>
       </c>
-      <c r="K153" s="3" t="s">
+      <c r="K153" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    <row r="154" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="14">
         <v>3</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F154" s="1" t="str">
+      <c r="F154" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="G154" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J154" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K154" s="3" t="s">
+      <c r="I154" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J154" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K154" s="15" t="s">
         <v>674</v>
       </c>
     </row>
@@ -18045,39 +18050,39 @@
         <v>385</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="14">
         <v>4</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F159" s="1" t="str">
+      <c r="F159" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G159" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H159" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="I159" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J159" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K159" s="3" t="s">
+      <c r="I159" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J159" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K159" s="15" t="s">
         <v>727</v>
       </c>
     </row>
@@ -20025,39 +20030,39 @@
         <v>385</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+    <row r="214" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="14">
         <v>3</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F214" s="1" t="str">
+      <c r="F214" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G214" s="3" t="s">
+      <c r="G214" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="H214" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="I214" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J214" s="9">
+      <c r="J214" s="16">
         <v>7</v>
       </c>
-      <c r="K214" s="3" t="s">
+      <c r="K214" s="15" t="s">
         <v>385</v>
       </c>
     </row>
@@ -20097,39 +20102,39 @@
         <v>445</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+    <row r="216" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="14">
         <v>3</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F216" s="1" t="str">
+      <c r="F216" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
-      <c r="G216" s="3" t="s">
+      <c r="G216" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="H216" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="I216" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J216" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K216" s="3" t="s">
+      <c r="I216" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J216" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K216" s="15" t="s">
         <v>385</v>
       </c>
     </row>
@@ -21069,7 +21074,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -21789,39 +21794,39 @@
         <v>385</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+    <row r="263" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="14">
         <v>1</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D263" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E263" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F263" s="1" t="str">
+      <c r="F263" s="14" t="str">
         <f t="shared" si="4"/>
         <v>Non</v>
       </c>
-      <c r="G263" s="3" t="s">
+      <c r="G263" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="H263" s="1" t="s">
+      <c r="H263" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="I263" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J263" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K263" s="3" t="s">
+      <c r="I263" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J263" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K263" s="15" t="s">
         <v>385</v>
       </c>
     </row>
@@ -26109,7 +26114,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>162</v>
       </c>
@@ -26325,7 +26330,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -26361,7 +26366,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>162</v>
       </c>
@@ -27030,7 +27035,7 @@
         <v>Non</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>162</v>
       </c>
@@ -27538,7 +27543,7 @@
   <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Animalisme"/>
+        <filter val="Armes naturelles"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -27555,7 +27560,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27740,80 +27745,150 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1021</v>
+      </c>
       <c r="D7" s="18" t="s">
         <v>1005</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="H7" s="18">
+        <v>6</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>1022</v>
+      </c>
       <c r="D8" s="18" t="s">
         <v>1006</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1023</v>
+      </c>
       <c r="D9" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1020</v>
+      </c>
       <c r="D10" s="18" t="s">
         <v>1008</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1019</v>
+      </c>
       <c r="D11" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D628CC1-5F1C-44DA-BF8C-55E67B3DB581}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1CEB1858-1C7B-414D-8452-542C9515F9A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repartition thèmes par liste" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4323" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4357" uniqueCount="1034">
   <si>
     <t>Liste</t>
   </si>
@@ -2374,9 +2374,6 @@
     <t>Combat non létal</t>
   </si>
   <si>
-    <t>A l'activation de ce Donc les attaques du LG infligent des dégâts sont blesser l'adversaire. Une fois la cible hors combat elle se soigne de toutes ses blessures</t>
-  </si>
-  <si>
     <t>Quand il est la cible d'une attaque armée le LG peut réduire le jet de touche de son adversaire. S'il fait plus de réussites que lui il le désarme</t>
   </si>
   <si>
@@ -2471,9 +2468,6 @@
   </si>
   <si>
     <t>Empêche les armes de marcher pendant un tour</t>
-  </si>
-  <si>
-    <t>Le LG semble être à sa place n'import où peu importe son apparence</t>
   </si>
   <si>
     <t>Apparence + Empathie</t>
@@ -3111,13 +3105,49 @@
   </si>
   <si>
     <t>Quand il touche sa cible avec ses crocs ou ses griffes le LG peut activer ce Don pour ignorer un montant de l'armure (normale ou magique) de la cible égale à sa Pureté.</t>
+  </si>
+  <si>
+    <t>Permet au LG de lancer l'une des tactiques de meutes (page 300). Il donne un dé bonus à toute action de ses compagnons qui sont réalisées pour mener à bien la tactique par réussite à son jet. Il peut connaître une tactique pour chaque point d'Honneur qu'il a.</t>
+  </si>
+  <si>
+    <t>Pour le LG les personnes qui cherchent activement à le nuire lui et sa meute sont entourées d'un halo de lumière argenté.</t>
+  </si>
+  <si>
+    <t>Esprit de la mélée</t>
+  </si>
+  <si>
+    <t>Augmente le score d'initiative du LG d'un montant égal à son score de Ruse.</t>
+  </si>
+  <si>
+    <t>Donne un nombre de points de Volonté à ses compagnons de meute égal à son score de Gloire. Ces points de Volonté disparaissent à la fin de scène s'ils ne sont pas utilisés.</t>
+  </si>
+  <si>
+    <t>1scène</t>
+  </si>
+  <si>
+    <t>Astuce + Commandement</t>
+  </si>
+  <si>
+    <t>Le LG semble être à sa place n'importe où, peu importe son apparence</t>
+  </si>
+  <si>
+    <t>A l'activation de ce Donc les attaques du LG infligent des dégâts sans blesser l'adversaire. Une fois la cible hors combat elle se soigne de toutes ses blessures</t>
+  </si>
+  <si>
+    <t>Chair commune</t>
+  </si>
+  <si>
+    <t>Transfére des dégâts de ses compagnons de meute sur soit. Le LG peut transférer ainsi un nombre de dégâts égal à son score de pureté par scène.</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3135,6 +3165,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3177,7 +3215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3219,6 +3257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9606,7 +9647,7 @@
         <v>555</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -9620,12 +9661,12 @@
         <v>162</v>
       </c>
       <c r="W4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B5" t="s">
         <v>140</v>
@@ -9867,7 +9908,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -10250,7 +10291,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -10351,7 +10392,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -10382,7 +10423,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -10413,7 +10454,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -10491,7 +10532,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -10555,7 +10596,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10656,7 +10697,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -10687,7 +10728,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -10718,7 +10759,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -10788,7 +10829,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -10868,7 +10909,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -11002,7 +11043,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -11033,7 +11074,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -11117,7 +11158,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -11148,7 +11189,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -11243,7 +11284,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -11276,7 +11317,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B51" s="7">
         <v>2</v>
@@ -11636,7 +11677,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -11667,7 +11708,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -11766,7 +11807,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -11904,7 +11945,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B69" s="7">
         <v>20</v>
@@ -12154,10 +12195,10 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12168,10 +12209,10 @@
         <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -12182,10 +12223,10 @@
         <v>228</v>
       </c>
       <c r="C14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -12196,10 +12237,10 @@
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D15" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -12210,10 +12251,10 @@
         <v>259</v>
       </c>
       <c r="C16" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D16" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -12224,10 +12265,10 @@
         <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D17" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -12238,7 +12279,7 @@
         <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D18" t="s">
         <v>293</v>
@@ -12252,7 +12293,7 @@
         <v>311</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D19" t="s">
         <v>313</v>
@@ -12266,10 +12307,10 @@
         <v>329</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D20" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -12302,10 +12343,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B23" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" t="s">
@@ -12314,10 +12355,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B24" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" t="s">
@@ -12326,10 +12367,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B25" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" t="s">
@@ -12348,12 +12389,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K422"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12407,7 +12447,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
@@ -12443,7 +12483,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -12479,7 +12519,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -12515,7 +12555,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -12551,7 +12591,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -12587,7 +12627,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -12623,7 +12663,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -12659,7 +12699,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -12695,7 +12735,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
@@ -12731,7 +12771,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -12767,7 +12807,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -12803,7 +12843,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -12839,7 +12879,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -12875,7 +12915,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -12911,7 +12951,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -12947,7 +12987,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -12983,7 +13023,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -13019,7 +13059,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
@@ -13055,7 +13095,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -13091,7 +13131,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -13127,7 +13167,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -13163,7 +13203,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -13199,7 +13239,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -13235,7 +13275,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -13271,7 +13311,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -13307,7 +13347,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -13340,7 +13380,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -13376,7 +13416,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>160</v>
       </c>
@@ -13409,7 +13449,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>160</v>
       </c>
@@ -13445,7 +13485,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -13481,7 +13521,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -13517,7 +13557,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -13553,7 +13593,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>160</v>
       </c>
@@ -13589,7 +13629,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>160</v>
       </c>
@@ -13625,7 +13665,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -13661,7 +13701,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
@@ -13697,7 +13737,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>160</v>
       </c>
@@ -13733,7 +13773,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -13769,7 +13809,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -13805,7 +13845,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -13841,7 +13881,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
@@ -13877,7 +13917,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -13913,7 +13953,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
@@ -13949,7 +13989,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -13985,7 +14025,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -14021,7 +14061,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>160</v>
       </c>
@@ -14057,7 +14097,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -14093,7 +14133,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -14129,7 +14169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>160</v>
       </c>
@@ -14165,7 +14205,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -14201,7 +14241,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -14237,7 +14277,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -14273,7 +14313,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -14309,7 +14349,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -14345,7 +14385,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -14381,7 +14421,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -14417,7 +14457,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
@@ -14453,7 +14493,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -14489,7 +14529,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
@@ -14525,7 +14565,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>160</v>
       </c>
@@ -14561,7 +14601,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
@@ -14597,7 +14637,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
@@ -14633,7 +14673,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -14669,7 +14709,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -14705,7 +14745,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -14741,7 +14781,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -14777,7 +14817,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -14813,7 +14853,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -14849,7 +14889,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
@@ -14885,7 +14925,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -14921,7 +14961,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -14957,7 +14997,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>161</v>
       </c>
@@ -14993,7 +15033,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
@@ -15029,7 +15069,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
@@ -15065,7 +15105,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
@@ -15101,7 +15141,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -15137,7 +15177,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -15173,7 +15213,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -15209,7 +15249,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
@@ -15245,7 +15285,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -15281,7 +15321,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -15317,7 +15357,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -15353,7 +15393,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -15389,7 +15429,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
@@ -15425,7 +15465,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
@@ -15439,7 +15479,7 @@
         <v>88</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F86" s="1" t="str">
         <f t="shared" si="1"/>
@@ -15461,7 +15501,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -15497,7 +15537,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -15533,7 +15573,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -15569,7 +15609,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -15605,7 +15645,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -15641,7 +15681,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -15677,7 +15717,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>161</v>
       </c>
@@ -15713,7 +15753,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -15749,7 +15789,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>161</v>
       </c>
@@ -15785,7 +15825,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>161</v>
       </c>
@@ -15821,7 +15861,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>161</v>
       </c>
@@ -15857,7 +15897,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -15893,7 +15933,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -15929,7 +15969,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -15965,7 +16005,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -16001,7 +16041,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>161</v>
       </c>
@@ -16037,7 +16077,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -16073,7 +16113,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>161</v>
       </c>
@@ -16109,7 +16149,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -16145,7 +16185,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -16181,7 +16221,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>161</v>
       </c>
@@ -16217,7 +16257,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>161</v>
       </c>
@@ -16253,7 +16293,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -16289,7 +16329,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -16325,7 +16365,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
@@ -16361,7 +16401,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
@@ -16397,7 +16437,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>161</v>
       </c>
@@ -16433,7 +16473,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -16469,7 +16509,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>161</v>
       </c>
@@ -16505,7 +16545,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
@@ -16541,7 +16581,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>161</v>
       </c>
@@ -16577,7 +16617,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -16613,7 +16653,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>161</v>
       </c>
@@ -16646,7 +16686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>161</v>
       </c>
@@ -16682,7 +16722,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -16718,7 +16758,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>161</v>
       </c>
@@ -16754,7 +16794,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>161</v>
       </c>
@@ -16790,7 +16830,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -16826,7 +16866,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -16862,7 +16902,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>161</v>
       </c>
@@ -16898,7 +16938,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>161</v>
       </c>
@@ -16934,7 +16974,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>161</v>
       </c>
@@ -16970,7 +17010,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>161</v>
       </c>
@@ -17006,7 +17046,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>161</v>
       </c>
@@ -17042,7 +17082,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
@@ -17078,7 +17118,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -17114,7 +17154,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
@@ -17150,7 +17190,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>161</v>
       </c>
@@ -17186,7 +17226,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
@@ -17222,7 +17262,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -17258,7 +17298,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -17294,7 +17334,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -17330,7 +17370,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>161</v>
       </c>
@@ -17366,7 +17406,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>161</v>
       </c>
@@ -17402,7 +17442,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -17438,7 +17478,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>161</v>
       </c>
@@ -17546,43 +17586,43 @@
         <v>385</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="14">
         <v>1</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="F145" s="1" t="str">
+      <c r="E145" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="F145" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="H145" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="I145" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K145" s="3" t="s">
+      <c r="I145" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J145" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K145" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -17618,43 +17658,43 @@
         <v>395</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="14">
         <v>1</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="F147" s="1" t="str">
+      <c r="F147" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="G147" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H147" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="I147" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="J147" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K147" s="3" t="s">
+      <c r="I147" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="J147" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K147" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -17690,43 +17730,43 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="14">
         <v>2</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="F149" s="1" t="str">
+      <c r="F149" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G149" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H149" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J149" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K149" s="3" t="s">
+      <c r="I149" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J149" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K149" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -17762,7 +17802,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -17798,7 +17838,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -17906,7 +17946,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>161</v>
       </c>
@@ -17920,7 +17960,7 @@
         <v>152</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F155" s="1" t="str">
         <f t="shared" si="2"/>
@@ -17942,7 +17982,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
@@ -17978,7 +18018,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -18014,39 +18054,39 @@
         <v>408</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="14">
         <v>4</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="F158" s="1" t="str">
+      <c r="F158" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G158" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H158" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="I158" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J158" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="I158" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J158" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K158" s="15" t="s">
         <v>385</v>
       </c>
     </row>
@@ -18086,7 +18126,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -18122,7 +18162,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -18158,7 +18198,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -18172,7 +18212,7 @@
         <v>158</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F162" s="1" t="str">
         <f t="shared" si="2"/>
@@ -18194,7 +18234,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -18230,7 +18270,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -18266,7 +18306,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -18302,7 +18342,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>162</v>
       </c>
@@ -18338,7 +18378,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
@@ -18374,7 +18414,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -18410,7 +18450,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>162</v>
       </c>
@@ -18446,7 +18486,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>162</v>
       </c>
@@ -18482,7 +18522,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -18518,7 +18558,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>162</v>
       </c>
@@ -18554,7 +18594,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -18590,7 +18630,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>162</v>
       </c>
@@ -18626,7 +18666,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>162</v>
       </c>
@@ -18662,7 +18702,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>162</v>
       </c>
@@ -18698,7 +18738,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>162</v>
       </c>
@@ -18734,7 +18774,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>162</v>
       </c>
@@ -18770,7 +18810,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>162</v>
       </c>
@@ -18806,7 +18846,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>162</v>
       </c>
@@ -18842,7 +18882,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>162</v>
       </c>
@@ -18878,7 +18918,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>162</v>
       </c>
@@ -18914,7 +18954,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -18950,7 +18990,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -18986,7 +19026,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>162</v>
       </c>
@@ -19022,7 +19062,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
@@ -19058,7 +19098,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>162</v>
       </c>
@@ -19094,7 +19134,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>162</v>
       </c>
@@ -19130,7 +19170,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>162</v>
       </c>
@@ -19166,7 +19206,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>162</v>
       </c>
@@ -19202,7 +19242,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
@@ -19238,7 +19278,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>162</v>
       </c>
@@ -19274,7 +19314,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>162</v>
       </c>
@@ -19310,7 +19350,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>162</v>
       </c>
@@ -19331,7 +19371,7 @@
         <v>Oui</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>778</v>
+        <v>1030</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>420</v>
@@ -19346,7 +19386,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>162</v>
       </c>
@@ -19367,7 +19407,7 @@
         <v>Oui</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>393</v>
@@ -19376,13 +19416,13 @@
         <v>416</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -19418,7 +19458,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>162</v>
       </c>
@@ -19454,7 +19494,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>162</v>
       </c>
@@ -19490,7 +19530,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>162</v>
       </c>
@@ -19511,13 +19551,13 @@
         <v>Oui</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J199" s="9">
         <v>7</v>
@@ -19526,7 +19566,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>162</v>
       </c>
@@ -19547,7 +19587,7 @@
         <v>Oui</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>393</v>
@@ -19556,13 +19596,13 @@
         <v>485</v>
       </c>
       <c r="J200" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>162</v>
       </c>
@@ -19583,22 +19623,22 @@
         <v>Oui</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J201" s="9">
         <v>7</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>162</v>
       </c>
@@ -19619,7 +19659,7 @@
         <v>Oui</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>420</v>
@@ -19631,10 +19671,10 @@
         <v>384</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>162</v>
       </c>
@@ -19648,14 +19688,14 @@
         <v>198</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F203" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>393</v>
@@ -19670,43 +19710,43 @@
         <v>385</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+    <row r="204" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="14">
         <v>1</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="F204" s="1" t="str">
+      <c r="E204" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="F204" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G204" s="3" t="s">
+      <c r="G204" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="H204" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="I204" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J204" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K204" s="3" t="s">
+      <c r="I204" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J204" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K204" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>162</v>
       </c>
@@ -19727,7 +19767,7 @@
         <v>Oui</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>420</v>
@@ -19742,7 +19782,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>162</v>
       </c>
@@ -19763,7 +19803,7 @@
         <v>Oui</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>450</v>
@@ -19778,7 +19818,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>162</v>
       </c>
@@ -19814,7 +19854,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>162</v>
       </c>
@@ -19850,7 +19890,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>162</v>
       </c>
@@ -19864,14 +19904,14 @@
         <v>202</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F209" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>420</v>
@@ -19886,7 +19926,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>162</v>
       </c>
@@ -19907,7 +19947,7 @@
         <v>Oui</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>450</v>
@@ -19922,7 +19962,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>162</v>
       </c>
@@ -19958,7 +19998,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>162</v>
       </c>
@@ -19972,14 +20012,14 @@
         <v>204</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F212" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>387</v>
@@ -19994,7 +20034,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>162</v>
       </c>
@@ -20008,14 +20048,14 @@
         <v>205</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F213" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>420</v>
@@ -20066,7 +20106,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>162</v>
       </c>
@@ -20080,14 +20120,14 @@
         <v>206</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F215" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>387</v>
@@ -20123,7 +20163,7 @@
         <v>Oui</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H216" s="14" t="s">
         <v>420</v>
@@ -20138,7 +20178,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>162</v>
       </c>
@@ -20174,7 +20214,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>162</v>
       </c>
@@ -20188,17 +20228,17 @@
         <v>208</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F218" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G218" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="H218" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>384</v>
@@ -20210,7 +20250,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>162</v>
       </c>
@@ -20224,14 +20264,14 @@
         <v>209</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F219" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>387</v>
@@ -20246,7 +20286,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>162</v>
       </c>
@@ -20267,7 +20307,7 @@
         <v>Oui</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>553</v>
@@ -20276,13 +20316,13 @@
         <v>437</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K220" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>162</v>
       </c>
@@ -20303,7 +20343,7 @@
         <v>Oui</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>420</v>
@@ -20318,7 +20358,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>162</v>
       </c>
@@ -20339,7 +20379,7 @@
         <v>Oui</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>613</v>
@@ -20354,7 +20394,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>162</v>
       </c>
@@ -20375,7 +20415,7 @@
         <v>Oui</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>420</v>
@@ -20390,7 +20430,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>162</v>
       </c>
@@ -20404,20 +20444,20 @@
         <v>215</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F224" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>811</v>
+        <v>1029</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J224" s="9">
         <v>6</v>
@@ -20426,7 +20466,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>162</v>
       </c>
@@ -20440,14 +20480,14 @@
         <v>216</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F225" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>420</v>
@@ -20462,7 +20502,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -20498,7 +20538,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>162</v>
       </c>
@@ -20512,7 +20552,7 @@
         <v>88</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F227" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20534,7 +20574,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
@@ -20570,7 +20610,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>162</v>
       </c>
@@ -20584,14 +20624,14 @@
         <v>217</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F229" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>420</v>
@@ -20606,7 +20646,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>162</v>
       </c>
@@ -20620,14 +20660,14 @@
         <v>218</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F230" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>420</v>
@@ -20642,7 +20682,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>162</v>
       </c>
@@ -20656,14 +20696,14 @@
         <v>219</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F231" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>450</v>
@@ -20678,7 +20718,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>162</v>
       </c>
@@ -20692,14 +20732,14 @@
         <v>220</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F232" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>420</v>
@@ -20714,7 +20754,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>162</v>
       </c>
@@ -20728,14 +20768,14 @@
         <v>221</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F233" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>387</v>
@@ -20750,7 +20790,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>162</v>
       </c>
@@ -20786,7 +20826,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>162</v>
       </c>
@@ -20800,14 +20840,14 @@
         <v>222</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F235" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>387</v>
@@ -20822,7 +20862,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>162</v>
       </c>
@@ -20836,29 +20876,29 @@
         <v>223</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F236" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J236" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="K236" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>162</v>
       </c>
@@ -20894,7 +20934,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>162</v>
       </c>
@@ -20915,7 +20955,7 @@
         <v>Oui</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>420</v>
@@ -20930,7 +20970,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>162</v>
       </c>
@@ -20944,20 +20984,20 @@
         <v>225</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F239" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J239" s="9" t="s">
         <v>484</v>
@@ -20966,7 +21006,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>162</v>
       </c>
@@ -21002,7 +21042,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>162</v>
       </c>
@@ -21016,20 +21056,20 @@
         <v>226</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F241" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J241" s="9">
         <v>8</v>
@@ -21038,7 +21078,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>162</v>
       </c>
@@ -21059,7 +21099,7 @@
         <v>Oui</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>420</v>
@@ -21074,7 +21114,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -21110,7 +21150,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -21124,14 +21164,14 @@
         <v>229</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F244" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>393</v>
@@ -21146,7 +21186,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -21160,14 +21200,14 @@
         <v>230</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F245" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>387</v>
@@ -21179,10 +21219,10 @@
         <v>6</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>162</v>
       </c>
@@ -21218,7 +21258,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>162</v>
       </c>
@@ -21254,7 +21294,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>162</v>
       </c>
@@ -21268,14 +21308,14 @@
         <v>232</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F248" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>450</v>
@@ -21287,10 +21327,10 @@
         <v>384</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>162</v>
       </c>
@@ -21304,14 +21344,14 @@
         <v>233</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F249" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>420</v>
@@ -21326,7 +21366,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>162</v>
       </c>
@@ -21340,14 +21380,14 @@
         <v>234</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F250" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>387</v>
@@ -21362,7 +21402,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -21398,7 +21438,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -21412,14 +21452,14 @@
         <v>235</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F252" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>420</v>
@@ -21428,13 +21468,13 @@
         <v>714</v>
       </c>
       <c r="J252" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K252" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -21448,14 +21488,14 @@
         <v>236</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F253" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>420</v>
@@ -21467,10 +21507,10 @@
         <v>384</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>162</v>
       </c>
@@ -21506,7 +21546,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>162</v>
       </c>
@@ -21520,14 +21560,14 @@
         <v>237</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F255" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>613</v>
@@ -21542,7 +21582,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>162</v>
       </c>
@@ -21556,14 +21596,14 @@
         <v>238</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F256" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>420</v>
@@ -21578,7 +21618,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>162</v>
       </c>
@@ -21614,7 +21654,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -21625,23 +21665,23 @@
         <v>4</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F258" s="1" t="str">
         <f t="shared" ref="F258:F321" si="4">IF(COUNTIF(D:D,"="&amp;D258)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>613</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J258" s="9">
         <v>6</v>
@@ -21650,7 +21690,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -21671,7 +21711,7 @@
         <v>Oui</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H259" s="3" t="s">
         <v>664</v>
@@ -21686,7 +21726,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -21700,14 +21740,14 @@
         <v>240</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F260" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>420</v>
@@ -21722,7 +21762,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -21736,14 +21776,14 @@
         <v>241</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F261" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>393</v>
@@ -21758,7 +21798,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>162</v>
       </c>
@@ -21772,14 +21812,14 @@
         <v>242</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F262" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>420</v>
@@ -21830,7 +21870,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>162</v>
       </c>
@@ -21866,7 +21906,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -21880,14 +21920,14 @@
         <v>244</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F265" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>393</v>
@@ -21899,10 +21939,10 @@
         <v>384</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>162</v>
       </c>
@@ -21938,7 +21978,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>162</v>
       </c>
@@ -21952,20 +21992,20 @@
         <v>245</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F267" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>387</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J267" s="9">
         <v>6</v>
@@ -21974,7 +22014,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -21988,20 +22028,20 @@
         <v>246</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F268" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Non</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J268" s="9">
         <v>7</v>
@@ -22010,7 +22050,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>162</v>
       </c>
@@ -22031,13 +22071,13 @@
         <v>Oui</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>387</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J269" s="9" t="s">
         <v>484</v>
@@ -22046,7 +22086,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>162</v>
       </c>
@@ -22060,29 +22100,29 @@
         <v>248</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F270" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>387</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J270" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K270" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -22096,14 +22136,14 @@
         <v>249</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F271" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>420</v>
@@ -22118,7 +22158,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -22132,14 +22172,14 @@
         <v>250</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F272" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="H272" s="3" t="s">
         <v>664</v>
@@ -22154,7 +22194,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -22175,7 +22215,7 @@
         <v>Oui</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>450</v>
@@ -22190,7 +22230,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -22204,14 +22244,14 @@
         <v>252</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F274" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>450</v>
@@ -22226,7 +22266,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>162</v>
       </c>
@@ -22262,7 +22302,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>162</v>
       </c>
@@ -22283,10 +22323,10 @@
         <v>Oui</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>384</v>
@@ -22298,7 +22338,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -22334,7 +22374,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -22370,7 +22410,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -22384,14 +22424,14 @@
         <v>255</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F279" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>553</v>
@@ -22406,7 +22446,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>162</v>
       </c>
@@ -22420,17 +22460,17 @@
         <v>256</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F280" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>683</v>
@@ -22442,7 +22482,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>162</v>
       </c>
@@ -22456,20 +22496,20 @@
         <v>257</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F281" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>450</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J281" s="9" t="s">
         <v>660</v>
@@ -22478,7 +22518,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>162</v>
       </c>
@@ -22492,20 +22532,20 @@
         <v>258</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F282" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J282" s="9">
         <v>6</v>
@@ -22514,7 +22554,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>162</v>
       </c>
@@ -22535,7 +22575,7 @@
         <v>Oui</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>387</v>
@@ -22550,7 +22590,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>162</v>
       </c>
@@ -22564,14 +22604,14 @@
         <v>261</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F284" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>420</v>
@@ -22586,7 +22626,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>162</v>
       </c>
@@ -22622,7 +22662,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>162</v>
       </c>
@@ -22658,7 +22698,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>162</v>
       </c>
@@ -22672,14 +22712,14 @@
         <v>262</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F287" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>387</v>
@@ -22688,13 +22728,13 @@
         <v>437</v>
       </c>
       <c r="J287" s="9" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="K287" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>162</v>
       </c>
@@ -22715,7 +22755,7 @@
         <v>Oui</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>387</v>
@@ -22730,7 +22770,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>162</v>
       </c>
@@ -22744,29 +22784,29 @@
         <v>264</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F289" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>450</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J289" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K289" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>162</v>
       </c>
@@ -22802,7 +22842,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>162</v>
       </c>
@@ -22816,14 +22856,14 @@
         <v>265</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F291" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>387</v>
@@ -22838,7 +22878,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>162</v>
       </c>
@@ -22874,7 +22914,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>162</v>
       </c>
@@ -22888,14 +22928,14 @@
         <v>266</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F293" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>450</v>
@@ -22910,7 +22950,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>162</v>
       </c>
@@ -22931,7 +22971,7 @@
         <v>Oui</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>420</v>
@@ -22943,10 +22983,10 @@
         <v>384</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>162</v>
       </c>
@@ -22960,14 +23000,14 @@
         <v>268</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F295" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>393</v>
@@ -22982,7 +23022,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>162</v>
       </c>
@@ -22996,14 +23036,14 @@
         <v>269</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F296" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>393</v>
@@ -23015,10 +23055,10 @@
         <v>384</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>162</v>
       </c>
@@ -23032,29 +23072,29 @@
         <v>270</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F297" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>450</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J297" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K297" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
@@ -23075,7 +23115,7 @@
         <v>Oui</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>420</v>
@@ -23090,7 +23130,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>162</v>
       </c>
@@ -23126,7 +23166,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>162</v>
       </c>
@@ -23162,7 +23202,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>162</v>
       </c>
@@ -23173,7 +23213,7 @@
         <v>5</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>418</v>
@@ -23183,13 +23223,13 @@
         <v>Oui</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="J301" s="9" t="s">
         <v>484</v>
@@ -23198,7 +23238,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>162</v>
       </c>
@@ -23212,14 +23252,14 @@
         <v>272</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F302" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>420</v>
@@ -23234,7 +23274,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>162</v>
       </c>
@@ -23270,7 +23310,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>162</v>
       </c>
@@ -23284,14 +23324,14 @@
         <v>274</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F304" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>387</v>
@@ -23303,10 +23343,10 @@
         <v>484</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>162</v>
       </c>
@@ -23342,7 +23382,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>162</v>
       </c>
@@ -23356,14 +23396,14 @@
         <v>275</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F306" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>387</v>
@@ -23378,7 +23418,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>162</v>
       </c>
@@ -23392,20 +23432,20 @@
         <v>276</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F307" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>387</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J307" s="9">
         <v>7</v>
@@ -23414,7 +23454,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>162</v>
       </c>
@@ -23428,14 +23468,14 @@
         <v>277</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F308" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>387</v>
@@ -23447,10 +23487,10 @@
         <v>484</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>162</v>
       </c>
@@ -23486,7 +23526,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>162</v>
       </c>
@@ -23500,14 +23540,14 @@
         <v>278</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F310" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>387</v>
@@ -23522,7 +23562,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>162</v>
       </c>
@@ -23558,7 +23598,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>162</v>
       </c>
@@ -23572,14 +23612,14 @@
         <v>279</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F312" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>387</v>
@@ -23594,7 +23634,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>162</v>
       </c>
@@ -23608,29 +23648,29 @@
         <v>280</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F313" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J313" s="9">
         <v>6</v>
       </c>
       <c r="K313" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
@@ -23666,7 +23706,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>162</v>
       </c>
@@ -23680,14 +23720,14 @@
         <v>282</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F315" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>387</v>
@@ -23702,7 +23742,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>162</v>
       </c>
@@ -23716,14 +23756,14 @@
         <v>283</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F316" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>387</v>
@@ -23738,7 +23778,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>162</v>
       </c>
@@ -23759,7 +23799,7 @@
         <v>Oui</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>387</v>
@@ -23774,7 +23814,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>162</v>
       </c>
@@ -23795,7 +23835,7 @@
         <v>Oui</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>420</v>
@@ -23810,7 +23850,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>162</v>
       </c>
@@ -23824,20 +23864,20 @@
         <v>286</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F319" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J319" s="9">
         <v>7</v>
@@ -23846,7 +23886,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>162</v>
       </c>
@@ -23860,14 +23900,14 @@
         <v>287</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F320" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Oui</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>420</v>
@@ -23882,7 +23922,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>162</v>
       </c>
@@ -23903,7 +23943,7 @@
         <v>Oui</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>664</v>
@@ -23918,7 +23958,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>162</v>
       </c>
@@ -23939,7 +23979,7 @@
         <v>Oui</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>387</v>
@@ -23954,7 +23994,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>162</v>
       </c>
@@ -23975,7 +24015,7 @@
         <v>Oui</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>387</v>
@@ -23990,7 +24030,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>162</v>
       </c>
@@ -24011,7 +24051,7 @@
         <v>Oui</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>393</v>
@@ -24026,7 +24066,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>162</v>
       </c>
@@ -24047,7 +24087,7 @@
         <v>Oui</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>420</v>
@@ -24062,7 +24102,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>162</v>
       </c>
@@ -24098,7 +24138,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>162</v>
       </c>
@@ -24112,14 +24152,14 @@
         <v>296</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F327" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>393</v>
@@ -24131,10 +24171,10 @@
         <v>384</v>
       </c>
       <c r="K327" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>162</v>
       </c>
@@ -24155,7 +24195,7 @@
         <v>Oui</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>420</v>
@@ -24170,7 +24210,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>162</v>
       </c>
@@ -24206,7 +24246,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>162</v>
       </c>
@@ -24227,13 +24267,13 @@
         <v>Oui</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J330" s="9">
         <v>7</v>
@@ -24242,7 +24282,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>162</v>
       </c>
@@ -24263,7 +24303,7 @@
         <v>Oui</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>420</v>
@@ -24278,7 +24318,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>162</v>
       </c>
@@ -24299,13 +24339,13 @@
         <v>Oui</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J332" s="9">
         <v>7</v>
@@ -24314,7 +24354,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>162</v>
       </c>
@@ -24335,13 +24375,13 @@
         <v>Oui</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J333" s="9">
         <v>8</v>
@@ -24350,7 +24390,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>162</v>
       </c>
@@ -24371,10 +24411,10 @@
         <v>Oui</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>384</v>
@@ -24386,7 +24426,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>162</v>
       </c>
@@ -24422,7 +24462,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>162</v>
       </c>
@@ -24443,7 +24483,7 @@
         <v>Oui</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>420</v>
@@ -24455,10 +24495,10 @@
         <v>7</v>
       </c>
       <c r="K336" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>162</v>
       </c>
@@ -24472,17 +24512,17 @@
         <v>305</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F337" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>384</v>
@@ -24494,7 +24534,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>162</v>
       </c>
@@ -24515,7 +24555,7 @@
         <v>Oui</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>420</v>
@@ -24530,7 +24570,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>162</v>
       </c>
@@ -24566,7 +24606,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>162</v>
       </c>
@@ -24580,14 +24620,14 @@
         <v>307</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F340" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>420</v>
@@ -24602,7 +24642,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>162</v>
       </c>
@@ -24616,20 +24656,20 @@
         <v>309</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F341" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J341" s="9">
         <v>8</v>
@@ -24638,7 +24678,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>162</v>
       </c>
@@ -24659,7 +24699,7 @@
         <v>Oui</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>387</v>
@@ -24674,7 +24714,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>162</v>
       </c>
@@ -24695,13 +24735,13 @@
         <v>Oui</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>387</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J343" s="9">
         <v>6</v>
@@ -24710,7 +24750,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>162</v>
       </c>
@@ -24731,7 +24771,7 @@
         <v>Oui</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>387</v>
@@ -24746,7 +24786,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>162</v>
       </c>
@@ -24760,14 +24800,14 @@
         <v>315</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F345" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>420</v>
@@ -24779,10 +24819,10 @@
         <v>7</v>
       </c>
       <c r="K345" s="3" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -24796,14 +24836,14 @@
         <v>316</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F346" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>387</v>
@@ -24818,7 +24858,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -24854,7 +24894,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>162</v>
       </c>
@@ -24868,14 +24908,14 @@
         <v>317</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F348" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>420</v>
@@ -24890,7 +24930,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>162</v>
       </c>
@@ -24911,13 +24951,13 @@
         <v>Oui</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J349" s="9">
         <v>5</v>
@@ -24926,7 +24966,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>162</v>
       </c>
@@ -24947,7 +24987,7 @@
         <v>Oui</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>450</v>
@@ -24962,7 +25002,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>162</v>
       </c>
@@ -24998,7 +25038,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -25019,7 +25059,7 @@
         <v>Oui</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>387</v>
@@ -25034,7 +25074,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>162</v>
       </c>
@@ -25048,14 +25088,14 @@
         <v>321</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F353" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>420</v>
@@ -25070,7 +25110,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>162</v>
       </c>
@@ -25084,14 +25124,14 @@
         <v>322</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F354" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>387</v>
@@ -25106,7 +25146,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>162</v>
       </c>
@@ -25120,20 +25160,20 @@
         <v>323</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F355" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J355" s="9">
         <v>7</v>
@@ -25142,7 +25182,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>162</v>
       </c>
@@ -25178,7 +25218,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>162</v>
       </c>
@@ -25199,7 +25239,7 @@
         <v>Oui</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>387</v>
@@ -25211,10 +25251,10 @@
         <v>384</v>
       </c>
       <c r="K357" s="3" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>162</v>
       </c>
@@ -25235,7 +25275,7 @@
         <v>Oui</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H358" s="1" t="s">
         <v>420</v>
@@ -25250,7 +25290,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -25264,20 +25304,20 @@
         <v>326</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F359" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H359" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J359" s="9">
         <v>7</v>
@@ -25286,7 +25326,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -25322,7 +25362,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>162</v>
       </c>
@@ -25343,7 +25383,7 @@
         <v>Oui</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>420</v>
@@ -25358,7 +25398,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>162</v>
       </c>
@@ -25379,7 +25419,7 @@
         <v>Oui</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>420</v>
@@ -25394,7 +25434,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>162</v>
       </c>
@@ -25408,14 +25448,14 @@
         <v>330</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F363" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>393</v>
@@ -25430,7 +25470,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>162</v>
       </c>
@@ -25444,14 +25484,14 @@
         <v>331</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F364" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H364" s="1" t="s">
         <v>387</v>
@@ -25466,7 +25506,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
@@ -25487,13 +25527,13 @@
         <v>Oui</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>387</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J365" s="9" t="s">
         <v>571</v>
@@ -25502,7 +25542,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>162</v>
       </c>
@@ -25523,7 +25563,7 @@
         <v>Oui</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>387</v>
@@ -25538,7 +25578,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>162</v>
       </c>
@@ -25552,14 +25592,14 @@
         <v>334</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F367" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H367" s="1" t="s">
         <v>420</v>
@@ -25574,7 +25614,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>162</v>
       </c>
@@ -25610,7 +25650,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>162</v>
       </c>
@@ -25631,7 +25671,7 @@
         <v>Oui</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H369" s="1" t="s">
         <v>553</v>
@@ -25643,10 +25683,10 @@
         <v>7</v>
       </c>
       <c r="K369" s="3" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -25660,14 +25700,14 @@
         <v>336</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F370" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>420</v>
@@ -25682,7 +25722,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -25696,14 +25736,14 @@
         <v>337</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F371" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>420</v>
@@ -25718,7 +25758,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -25754,7 +25794,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>162</v>
       </c>
@@ -25775,13 +25815,13 @@
         <v>Oui</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J373" s="9">
         <v>6</v>
@@ -25790,7 +25830,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>162</v>
       </c>
@@ -25804,14 +25844,14 @@
         <v>339</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F374" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>420</v>
@@ -25826,7 +25866,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>162</v>
       </c>
@@ -25840,14 +25880,14 @@
         <v>340</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F375" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H375" s="1" t="s">
         <v>420</v>
@@ -25862,7 +25902,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>162</v>
       </c>
@@ -25883,7 +25923,7 @@
         <v>Oui</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H376" s="1" t="s">
         <v>420</v>
@@ -25898,7 +25938,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>162</v>
       </c>
@@ -25912,14 +25952,14 @@
         <v>342</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F377" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>420</v>
@@ -25934,7 +25974,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>162</v>
       </c>
@@ -25955,13 +25995,13 @@
         <v>Oui</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>420</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="J378" s="9">
         <v>7</v>
@@ -25970,7 +26010,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>162</v>
       </c>
@@ -25984,20 +26024,20 @@
         <v>344</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F379" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H379" s="1" t="s">
         <v>387</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="J379" s="9" t="s">
         <v>484</v>
@@ -26006,7 +26046,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>162</v>
       </c>
@@ -26042,7 +26082,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>162</v>
       </c>
@@ -26056,14 +26096,14 @@
         <v>346</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F381" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H381" s="1" t="s">
         <v>613</v>
@@ -26078,7 +26118,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>162</v>
       </c>
@@ -26092,14 +26132,14 @@
         <v>347</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F382" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oui</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H382" s="1" t="s">
         <v>420</v>
@@ -26111,10 +26151,10 @@
         <v>8</v>
       </c>
       <c r="K382" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>162</v>
       </c>
@@ -26150,7 +26190,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>162</v>
       </c>
@@ -26186,7 +26226,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>162</v>
       </c>
@@ -26222,7 +26262,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>162</v>
       </c>
@@ -26258,7 +26298,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>162</v>
       </c>
@@ -26294,7 +26334,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>162</v>
       </c>
@@ -26330,7 +26370,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -26366,7 +26406,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>162</v>
       </c>
@@ -26402,7 +26442,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>162</v>
       </c>
@@ -26438,7 +26478,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>162</v>
       </c>
@@ -26474,7 +26514,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>162</v>
       </c>
@@ -26510,7 +26550,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>162</v>
       </c>
@@ -26546,7 +26586,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>162</v>
       </c>
@@ -26582,7 +26622,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>162</v>
       </c>
@@ -26618,7 +26658,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>162</v>
       </c>
@@ -26654,7 +26694,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>162</v>
       </c>
@@ -26690,7 +26730,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>162</v>
       </c>
@@ -26726,7 +26766,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>162</v>
       </c>
@@ -26762,7 +26802,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>162</v>
       </c>
@@ -26798,7 +26838,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>162</v>
       </c>
@@ -26834,7 +26874,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>162</v>
       </c>
@@ -26870,7 +26910,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>162</v>
       </c>
@@ -26906,7 +26946,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>162</v>
       </c>
@@ -26942,7 +26982,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>162</v>
       </c>
@@ -26978,7 +27018,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>162</v>
       </c>
@@ -27014,7 +27054,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>162</v>
       </c>
@@ -27028,14 +27068,14 @@
         <v>246</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F408" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Non</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>162</v>
       </c>
@@ -27071,7 +27111,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>162</v>
       </c>
@@ -27107,7 +27147,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>162</v>
       </c>
@@ -27143,7 +27183,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>162</v>
       </c>
@@ -27179,7 +27219,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>162</v>
       </c>
@@ -27215,7 +27255,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>162</v>
       </c>
@@ -27251,7 +27291,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>162</v>
       </c>
@@ -27287,7 +27327,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>162</v>
       </c>
@@ -27323,7 +27363,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>162</v>
       </c>
@@ -27359,7 +27399,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>162</v>
       </c>
@@ -27395,7 +27435,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>162</v>
       </c>
@@ -27431,7 +27471,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>162</v>
       </c>
@@ -27467,7 +27507,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>162</v>
       </c>
@@ -27503,7 +27543,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>162</v>
       </c>
@@ -27540,13 +27580,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Armes naturelles"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -27556,19 +27590,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE07F88F-88EC-40BA-9516-0F3D1085A2BB}">
   <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -27579,16 +27618,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>380</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>382</v>
@@ -27608,13 +27647,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>468</v>
@@ -27634,19 +27673,19 @@
         <v>516</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>384</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>518</v>
@@ -27666,7 +27705,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>672</v>
@@ -27695,13 +27734,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>1008</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>1010</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>468</v>
@@ -27721,19 +27760,19 @@
         <v>516</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>1012</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>1014</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>384</v>
@@ -27753,19 +27792,19 @@
         <v>207</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>420</v>
+        <v>1008</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H7" s="18">
         <v>6</v>
@@ -27782,16 +27821,16 @@
         <v>155</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>384</v>
@@ -27811,13 +27850,13 @@
         <v>151</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>672</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>468</v>
@@ -27840,16 +27879,16 @@
         <v>150</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>384</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>384</v>
@@ -27869,16 +27908,16 @@
         <v>142</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>384</v>
@@ -27890,80 +27929,150 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>1026</v>
+      </c>
       <c r="D12" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>1022</v>
+      </c>
       <c r="D13" s="18" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H13" s="18">
+        <v>7</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>1032</v>
+      </c>
       <c r="D14" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1025</v>
+      </c>
       <c r="D15" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1023</v>
+      </c>
       <c r="D16" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+        <v>1005</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
@@ -27972,7 +28081,7 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -27987,7 +28096,7 @@
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -28017,7 +28126,7 @@
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -28032,7 +28141,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -28047,7 +28156,7 @@
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -28062,7 +28171,7 @@
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -28092,7 +28201,7 @@
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -28107,7 +28216,7 @@
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -28122,7 +28231,7 @@
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
@@ -28137,7 +28246,7 @@
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -28167,7 +28276,7 @@
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -28182,7 +28291,7 @@
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -28197,7 +28306,7 @@
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -28212,7 +28321,7 @@
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
@@ -28242,7 +28351,7 @@
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -28257,7 +28366,7 @@
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -28272,7 +28381,7 @@
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
@@ -28287,7 +28396,7 @@
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -28317,7 +28426,7 @@
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -28332,7 +28441,7 @@
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -28347,7 +28456,7 @@
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -28362,7 +28471,7 @@
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
@@ -28392,7 +28501,7 @@
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -28407,7 +28516,7 @@
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -28422,7 +28531,7 @@
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -28437,7 +28546,7 @@
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
@@ -28467,7 +28576,7 @@
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
@@ -28482,7 +28591,7 @@
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
@@ -28492,12 +28601,12 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
@@ -28507,12 +28616,12 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
@@ -28522,7 +28631,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
@@ -28537,12 +28646,12 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -28552,12 +28661,12 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
@@ -28567,12 +28676,12 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -28582,12 +28691,12 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
@@ -28597,7 +28706,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -28612,12 +28721,12 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -28627,12 +28736,12 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -28642,12 +28751,12 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -28657,12 +28766,12 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -28672,7 +28781,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
@@ -28687,12 +28796,12 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
@@ -28702,12 +28811,12 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -28722,7 +28831,7 @@
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -28737,7 +28846,7 @@
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
@@ -28767,7 +28876,7 @@
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
@@ -28782,7 +28891,7 @@
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
@@ -28792,12 +28901,12 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
@@ -28807,12 +28916,12 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
@@ -28822,7 +28931,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
@@ -28837,12 +28946,12 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
@@ -28852,12 +28961,12 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
@@ -28872,7 +28981,7 @@
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
@@ -28887,7 +28996,7 @@
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
@@ -28917,7 +29026,7 @@
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
@@ -28932,7 +29041,7 @@
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
@@ -28942,12 +29051,12 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
@@ -28957,12 +29066,12 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
       <c r="D83" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
@@ -28972,7 +29081,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
@@ -28987,12 +29096,12 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
       <c r="D85" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
@@ -29002,12 +29111,12 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
       <c r="D86" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
@@ -29022,7 +29131,7 @@
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
       <c r="D87" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
@@ -29037,7 +29146,7 @@
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
       <c r="D88" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
@@ -29067,7 +29176,7 @@
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
       <c r="D90" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
@@ -29082,7 +29191,7 @@
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
       <c r="D91" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
@@ -29097,7 +29206,7 @@
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
       <c r="D92" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
@@ -29112,7 +29221,7 @@
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
       <c r="D93" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
@@ -29142,7 +29251,7 @@
       <c r="B95" s="18"/>
       <c r="C95" s="19"/>
       <c r="D95" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
@@ -29157,7 +29266,7 @@
       <c r="B96" s="18"/>
       <c r="C96" s="19"/>
       <c r="D96" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
@@ -29167,12 +29276,12 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
       <c r="D97" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
@@ -29182,12 +29291,12 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
       <c r="D98" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
@@ -29197,7 +29306,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
@@ -29212,12 +29321,12 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
       <c r="D100" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
@@ -29227,12 +29336,12 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
       <c r="D101" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
@@ -29242,12 +29351,12 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="19"/>
       <c r="D102" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
@@ -29257,12 +29366,12 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="19"/>
       <c r="D103" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
@@ -29272,7 +29381,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
@@ -29287,12 +29396,12 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
       <c r="D105" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
@@ -29302,12 +29411,12 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
       <c r="D106" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
@@ -29317,12 +29426,12 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
       <c r="D107" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
@@ -29332,12 +29441,12 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
       <c r="D108" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="18"/>
@@ -29347,7 +29456,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="19"/>
@@ -29362,12 +29471,12 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="19"/>
       <c r="D110" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
@@ -29377,12 +29486,12 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
       <c r="D111" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
@@ -29397,7 +29506,7 @@
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
       <c r="D112" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
@@ -29412,7 +29521,7 @@
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
       <c r="D113" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
@@ -29442,7 +29551,7 @@
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
       <c r="D115" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
@@ -29457,7 +29566,7 @@
       <c r="B116" s="18"/>
       <c r="C116" s="19"/>
       <c r="D116" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
@@ -29467,12 +29576,12 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="19"/>
       <c r="D117" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
@@ -29482,12 +29591,12 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
       <c r="D118" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
@@ -29497,7 +29606,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
@@ -29512,12 +29621,12 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
       <c r="D120" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
@@ -29527,12 +29636,12 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
       <c r="D121" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
@@ -29547,7 +29656,7 @@
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
       <c r="D122" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
@@ -29562,7 +29671,7 @@
       <c r="B123" s="18"/>
       <c r="C123" s="19"/>
       <c r="D123" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
@@ -29592,7 +29701,7 @@
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
       <c r="D125" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
@@ -29607,7 +29716,7 @@
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
       <c r="D126" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E126" s="18"/>
       <c r="F126" s="18"/>
@@ -29622,7 +29731,7 @@
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
       <c r="D127" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="18"/>
@@ -29637,7 +29746,7 @@
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
       <c r="D128" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
@@ -29667,7 +29776,7 @@
       <c r="B130" s="18"/>
       <c r="C130" s="19"/>
       <c r="D130" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E130" s="18"/>
       <c r="F130" s="18"/>
@@ -29682,7 +29791,7 @@
       <c r="B131" s="18"/>
       <c r="C131" s="19"/>
       <c r="D131" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E131" s="18"/>
       <c r="F131" s="18"/>
@@ -29692,12 +29801,12 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
       <c r="D132" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="18"/>
@@ -29707,12 +29816,12 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
       <c r="D133" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
@@ -29722,7 +29831,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
@@ -29737,12 +29846,12 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
       <c r="D135" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E135" s="18"/>
       <c r="F135" s="18"/>
@@ -29752,12 +29861,12 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
       <c r="D136" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="18"/>
@@ -29767,12 +29876,12 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B137" s="18"/>
       <c r="C137" s="19"/>
       <c r="D137" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
@@ -29782,12 +29891,12 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B138" s="18"/>
       <c r="C138" s="19"/>
       <c r="D138" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
@@ -29797,7 +29906,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
@@ -29812,12 +29921,12 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
       <c r="D140" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
@@ -29827,12 +29936,12 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
       <c r="D141" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
@@ -29847,7 +29956,7 @@
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
       <c r="D142" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
@@ -29862,7 +29971,7 @@
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
       <c r="D143" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -29892,7 +30001,7 @@
       <c r="B145" s="18"/>
       <c r="C145" s="19"/>
       <c r="D145" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="18"/>
@@ -29907,7 +30016,7 @@
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
       <c r="D146" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
@@ -29917,12 +30026,12 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
       <c r="D147" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
@@ -29932,12 +30041,12 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
       <c r="D148" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="18"/>
@@ -29947,7 +30056,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
@@ -29962,12 +30071,12 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
       <c r="D150" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="18"/>
@@ -29977,12 +30086,12 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B151" s="18"/>
       <c r="C151" s="19"/>
       <c r="D151" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
@@ -29992,12 +30101,12 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B152" s="18"/>
       <c r="C152" s="19"/>
       <c r="D152" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
@@ -30007,12 +30116,12 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
       <c r="D153" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E153" s="18"/>
       <c r="F153" s="18"/>
@@ -30022,7 +30131,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
@@ -30037,12 +30146,12 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
       <c r="D155" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
@@ -30052,12 +30161,12 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
       <c r="D156" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
@@ -30072,7 +30181,7 @@
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
       <c r="D157" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="18"/>
@@ -30087,7 +30196,7 @@
       <c r="B158" s="18"/>
       <c r="C158" s="19"/>
       <c r="D158" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="18"/>
@@ -30117,7 +30226,7 @@
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
       <c r="D160" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E160" s="18"/>
       <c r="F160" s="18"/>
@@ -30132,7 +30241,7 @@
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
       <c r="D161" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
@@ -30142,12 +30251,12 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
       <c r="D162" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E162" s="18"/>
       <c r="F162" s="18"/>
@@ -30157,12 +30266,12 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
       <c r="D163" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="18"/>
@@ -30172,7 +30281,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
@@ -30187,12 +30296,12 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B165" s="18"/>
       <c r="C165" s="19"/>
       <c r="D165" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E165" s="18"/>
       <c r="F165" s="18"/>
@@ -30202,12 +30311,12 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B166" s="18"/>
       <c r="C166" s="19"/>
       <c r="D166" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E166" s="18"/>
       <c r="F166" s="18"/>
@@ -30222,7 +30331,7 @@
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
       <c r="D167" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E167" s="18"/>
       <c r="F167" s="18"/>
@@ -30237,7 +30346,7 @@
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
       <c r="D168" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E168" s="18"/>
       <c r="F168" s="18"/>
@@ -30267,7 +30376,7 @@
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
       <c r="D170" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="18"/>
@@ -30282,7 +30391,7 @@
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
       <c r="D171" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E171" s="18"/>
       <c r="F171" s="18"/>
@@ -30297,7 +30406,7 @@
       <c r="B172" s="18"/>
       <c r="C172" s="19"/>
       <c r="D172" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="18"/>
@@ -30312,7 +30421,7 @@
       <c r="B173" s="18"/>
       <c r="C173" s="19"/>
       <c r="D173" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
@@ -30342,7 +30451,7 @@
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
       <c r="D175" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="18"/>
@@ -30357,7 +30466,7 @@
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
       <c r="D176" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="18"/>
@@ -30372,7 +30481,7 @@
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
       <c r="D177" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="18"/>
@@ -30387,7 +30496,7 @@
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
       <c r="D178" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="18"/>
@@ -30417,7 +30526,7 @@
       <c r="B180" s="18"/>
       <c r="C180" s="19"/>
       <c r="D180" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="18"/>
@@ -30432,7 +30541,7 @@
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
       <c r="D181" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="18"/>
@@ -30447,7 +30556,7 @@
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
       <c r="D182" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E182" s="18"/>
       <c r="F182" s="18"/>
@@ -30462,7 +30571,7 @@
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
       <c r="D183" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="18"/>
@@ -30492,7 +30601,7 @@
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
       <c r="D185" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E185" s="18"/>
       <c r="F185" s="18"/>
@@ -30507,7 +30616,7 @@
       <c r="B186" s="18"/>
       <c r="C186" s="19"/>
       <c r="D186" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="18"/>
@@ -30522,7 +30631,7 @@
       <c r="B187" s="18"/>
       <c r="C187" s="19"/>
       <c r="D187" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="18"/>
@@ -30537,7 +30646,7 @@
       <c r="B188" s="18"/>
       <c r="C188" s="19"/>
       <c r="D188" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E188" s="18"/>
       <c r="F188" s="18"/>
@@ -30567,7 +30676,7 @@
       <c r="B190" s="18"/>
       <c r="C190" s="19"/>
       <c r="D190" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E190" s="18"/>
       <c r="F190" s="18"/>
@@ -30582,7 +30691,7 @@
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
       <c r="D191" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E191" s="18"/>
       <c r="F191" s="18"/>
@@ -30592,12 +30701,12 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B192" s="18"/>
       <c r="C192" s="19"/>
       <c r="D192" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E192" s="18"/>
       <c r="F192" s="18"/>
@@ -30607,12 +30716,12 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B193" s="18"/>
       <c r="C193" s="19"/>
       <c r="D193" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E193" s="18"/>
       <c r="F193" s="18"/>
@@ -30622,7 +30731,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B194" s="18"/>
       <c r="C194" s="19"/>
@@ -30637,12 +30746,12 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B195" s="18"/>
       <c r="C195" s="19"/>
       <c r="D195" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E195" s="18"/>
       <c r="F195" s="18"/>
@@ -30652,12 +30761,12 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B196" s="18"/>
       <c r="C196" s="19"/>
       <c r="D196" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E196" s="18"/>
       <c r="F196" s="18"/>
@@ -30667,12 +30776,12 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B197" s="18"/>
       <c r="C197" s="19"/>
       <c r="D197" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E197" s="18"/>
       <c r="F197" s="18"/>
@@ -30682,12 +30791,12 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B198" s="18"/>
       <c r="C198" s="19"/>
       <c r="D198" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E198" s="18"/>
       <c r="F198" s="18"/>
@@ -30697,7 +30806,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B199" s="18"/>
       <c r="C199" s="19"/>
@@ -30712,12 +30821,12 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B200" s="18"/>
       <c r="C200" s="19"/>
       <c r="D200" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E200" s="18"/>
       <c r="F200" s="18"/>
@@ -30727,12 +30836,12 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B201" s="18"/>
       <c r="C201" s="19"/>
       <c r="D201" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E201" s="18"/>
       <c r="F201" s="18"/>
@@ -30747,7 +30856,7 @@
       <c r="B202" s="18"/>
       <c r="C202" s="19"/>
       <c r="D202" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E202" s="18"/>
       <c r="F202" s="18"/>
@@ -30762,7 +30871,7 @@
       <c r="B203" s="18"/>
       <c r="C203" s="19"/>
       <c r="D203" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E203" s="18"/>
       <c r="F203" s="18"/>
@@ -30792,7 +30901,7 @@
       <c r="B205" s="18"/>
       <c r="C205" s="19"/>
       <c r="D205" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E205" s="18"/>
       <c r="F205" s="18"/>
@@ -30807,7 +30916,7 @@
       <c r="B206" s="18"/>
       <c r="C206" s="19"/>
       <c r="D206" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E206" s="18"/>
       <c r="F206" s="18"/>
@@ -30822,7 +30931,7 @@
       <c r="B207" s="18"/>
       <c r="C207" s="19"/>
       <c r="D207" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E207" s="18"/>
       <c r="F207" s="18"/>
@@ -30837,7 +30946,7 @@
       <c r="B208" s="18"/>
       <c r="C208" s="19"/>
       <c r="D208" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E208" s="18"/>
       <c r="F208" s="18"/>
@@ -30867,7 +30976,7 @@
       <c r="B210" s="18"/>
       <c r="C210" s="19"/>
       <c r="D210" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E210" s="18"/>
       <c r="F210" s="18"/>
@@ -30882,7 +30991,7 @@
       <c r="B211" s="18"/>
       <c r="C211" s="19"/>
       <c r="D211" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E211" s="18"/>
       <c r="F211" s="18"/>
@@ -30897,7 +31006,7 @@
       <c r="B212" s="18"/>
       <c r="C212" s="19"/>
       <c r="D212" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E212" s="18"/>
       <c r="F212" s="18"/>
@@ -30912,7 +31021,7 @@
       <c r="B213" s="18"/>
       <c r="C213" s="19"/>
       <c r="D213" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E213" s="18"/>
       <c r="F213" s="18"/>
@@ -30942,7 +31051,7 @@
       <c r="B215" s="18"/>
       <c r="C215" s="19"/>
       <c r="D215" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E215" s="18"/>
       <c r="F215" s="18"/>
@@ -30957,7 +31066,7 @@
       <c r="B216" s="18"/>
       <c r="C216" s="19"/>
       <c r="D216" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E216" s="18"/>
       <c r="F216" s="18"/>

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1CEB1858-1C7B-414D-8452-542C9515F9A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0336F049-A091-4EFA-AF56-A7BA97DFCF69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repartition thèmes par liste" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4357" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="1032">
   <si>
     <t>Liste</t>
   </si>
@@ -3122,9 +3122,6 @@
     <t>Donne un nombre de points de Volonté à ses compagnons de meute égal à son score de Gloire. Ces points de Volonté disparaissent à la fin de scène s'ils ne sont pas utilisés.</t>
   </si>
   <si>
-    <t>1scène</t>
-  </si>
-  <si>
     <t>Astuce + Commandement</t>
   </si>
   <si>
@@ -3134,20 +3131,17 @@
     <t>A l'activation de ce Donc les attaques du LG infligent des dégâts sans blesser l'adversaire. Une fois la cible hors combat elle se soigne de toutes ses blessures</t>
   </si>
   <si>
-    <t>Chair commune</t>
-  </si>
-  <si>
-    <t>Transfére des dégâts de ses compagnons de meute sur soit. Le LG peut transférer ainsi un nombre de dégâts égal à son score de pureté par scène.</t>
-  </si>
-  <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Le LG peut se soigner au milieu d'une bataille sans avoir à s'arrêter un tour pour le faire. Le nombre de blessures qu'il peut se soigner par scène grace à ce Don est égal à sa Pureté.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3165,14 +3159,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3258,7 +3244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12389,11 +12375,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12447,7 +12434,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
@@ -12483,7 +12470,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -12519,7 +12506,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -12555,7 +12542,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -12591,7 +12578,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -12627,7 +12614,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -12663,7 +12650,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -12699,7 +12686,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -12735,7 +12722,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
@@ -12771,7 +12758,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -12807,7 +12794,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -12843,7 +12830,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -12879,7 +12866,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -12915,7 +12902,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -12951,7 +12938,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -12987,7 +12974,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -13023,7 +13010,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -13059,7 +13046,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
@@ -13095,7 +13082,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -13131,7 +13118,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -13167,7 +13154,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -13203,7 +13190,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -13239,7 +13226,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -13275,7 +13262,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -13311,7 +13298,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -13347,7 +13334,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -13380,7 +13367,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -13416,7 +13403,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>160</v>
       </c>
@@ -13449,7 +13436,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>160</v>
       </c>
@@ -13485,7 +13472,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -13521,7 +13508,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -13557,7 +13544,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -13593,7 +13580,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>160</v>
       </c>
@@ -13629,7 +13616,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>160</v>
       </c>
@@ -13665,7 +13652,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -13701,7 +13688,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
@@ -13737,7 +13724,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>160</v>
       </c>
@@ -13773,7 +13760,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -13809,7 +13796,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -13845,7 +13832,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -13881,7 +13868,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
@@ -13917,7 +13904,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -13953,7 +13940,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
@@ -13989,7 +13976,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -14025,7 +14012,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -14061,7 +14048,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>160</v>
       </c>
@@ -14097,7 +14084,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -14133,7 +14120,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -14169,7 +14156,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>160</v>
       </c>
@@ -14205,7 +14192,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -14241,7 +14228,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -14277,7 +14264,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -14313,7 +14300,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -14349,7 +14336,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -14385,7 +14372,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -14421,7 +14408,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -14457,7 +14444,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
@@ -14493,7 +14480,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -14529,7 +14516,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
@@ -14565,7 +14552,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>160</v>
       </c>
@@ -14601,7 +14588,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
@@ -14637,7 +14624,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
@@ -14673,7 +14660,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -14709,7 +14696,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -14745,7 +14732,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -14781,7 +14768,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -14817,7 +14804,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -14853,7 +14840,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -14889,7 +14876,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
@@ -14925,7 +14912,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -14961,7 +14948,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -14997,7 +14984,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>161</v>
       </c>
@@ -15033,7 +15020,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
@@ -15069,7 +15056,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
@@ -15105,7 +15092,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
@@ -15141,7 +15128,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -15177,7 +15164,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -15213,7 +15200,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -15249,7 +15236,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
@@ -15285,7 +15272,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -15321,7 +15308,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -15357,7 +15344,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -15393,7 +15380,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -15429,7 +15416,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
@@ -15465,7 +15452,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
@@ -15501,7 +15488,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -15537,7 +15524,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -15573,7 +15560,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -15609,7 +15596,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -15645,7 +15632,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -15681,7 +15668,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -15717,7 +15704,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>161</v>
       </c>
@@ -15753,7 +15740,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -15789,7 +15776,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>161</v>
       </c>
@@ -15825,7 +15812,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>161</v>
       </c>
@@ -15861,7 +15848,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>161</v>
       </c>
@@ -15897,7 +15884,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -15933,7 +15920,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -15969,7 +15956,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -16005,7 +15992,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -16041,7 +16028,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>161</v>
       </c>
@@ -16077,7 +16064,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -16113,7 +16100,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>161</v>
       </c>
@@ -16149,7 +16136,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -16185,7 +16172,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -16221,7 +16208,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>161</v>
       </c>
@@ -16257,7 +16244,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>161</v>
       </c>
@@ -16293,7 +16280,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -16329,7 +16316,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -16365,7 +16352,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
@@ -16401,7 +16388,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
@@ -16437,7 +16424,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>161</v>
       </c>
@@ -16473,7 +16460,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -16509,7 +16496,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>161</v>
       </c>
@@ -16545,7 +16532,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
@@ -16581,7 +16568,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>161</v>
       </c>
@@ -16617,7 +16604,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -16653,7 +16640,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>161</v>
       </c>
@@ -16686,7 +16673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>161</v>
       </c>
@@ -16722,7 +16709,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -16758,7 +16745,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>161</v>
       </c>
@@ -16794,7 +16781,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>161</v>
       </c>
@@ -16830,7 +16817,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -16866,7 +16853,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -16902,7 +16889,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>161</v>
       </c>
@@ -16938,7 +16925,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>161</v>
       </c>
@@ -16974,7 +16961,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>161</v>
       </c>
@@ -17010,7 +16997,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>161</v>
       </c>
@@ -17046,7 +17033,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>161</v>
       </c>
@@ -17082,7 +17069,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
@@ -17118,7 +17105,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -17154,7 +17141,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
@@ -17190,7 +17177,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>161</v>
       </c>
@@ -17226,7 +17213,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
@@ -17262,7 +17249,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -17298,7 +17285,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -17334,7 +17321,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -17370,7 +17357,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>161</v>
       </c>
@@ -17406,7 +17393,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>161</v>
       </c>
@@ -17442,7 +17429,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -17478,7 +17465,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>161</v>
       </c>
@@ -17514,7 +17501,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
@@ -17550,7 +17537,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>161</v>
       </c>
@@ -17586,7 +17573,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>161</v>
       </c>
@@ -17622,7 +17609,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -17658,7 +17645,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>161</v>
       </c>
@@ -17694,7 +17681,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -17730,7 +17717,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>161</v>
       </c>
@@ -17766,7 +17753,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -17802,7 +17789,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -17838,7 +17825,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -17874,7 +17861,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>161</v>
       </c>
@@ -17910,7 +17897,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>161</v>
       </c>
@@ -17946,43 +17933,43 @@
         <v>674</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    <row r="155" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="14">
         <v>3</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="F155" s="1" t="str">
+      <c r="F155" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="H155" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K155" s="3" t="s">
+      <c r="I155" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J155" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K155" s="15" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
@@ -18018,7 +18005,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -18054,7 +18041,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" s="14" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>161</v>
       </c>
@@ -18090,7 +18077,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" s="14" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>161</v>
       </c>
@@ -18126,7 +18113,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -18162,7 +18149,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -18234,7 +18221,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -18270,7 +18257,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -18306,7 +18293,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -18342,7 +18329,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>162</v>
       </c>
@@ -18378,7 +18365,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
@@ -18414,7 +18401,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -18450,7 +18437,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>162</v>
       </c>
@@ -18486,7 +18473,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>162</v>
       </c>
@@ -18522,7 +18509,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -18558,7 +18545,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>162</v>
       </c>
@@ -18594,7 +18581,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -18630,7 +18617,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>162</v>
       </c>
@@ -18666,7 +18653,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>162</v>
       </c>
@@ -18702,7 +18689,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>162</v>
       </c>
@@ -18738,7 +18725,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>162</v>
       </c>
@@ -18774,7 +18761,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>162</v>
       </c>
@@ -18810,7 +18797,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>162</v>
       </c>
@@ -18846,7 +18833,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>162</v>
       </c>
@@ -18882,7 +18869,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>162</v>
       </c>
@@ -18918,7 +18905,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>162</v>
       </c>
@@ -18954,7 +18941,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -18990,7 +18977,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -19026,7 +19013,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>162</v>
       </c>
@@ -19062,7 +19049,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
@@ -19098,7 +19085,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>162</v>
       </c>
@@ -19134,7 +19121,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>162</v>
       </c>
@@ -19170,7 +19157,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>162</v>
       </c>
@@ -19206,7 +19193,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>162</v>
       </c>
@@ -19242,7 +19229,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
@@ -19278,7 +19265,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>162</v>
       </c>
@@ -19314,7 +19301,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>162</v>
       </c>
@@ -19350,7 +19337,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>162</v>
       </c>
@@ -19371,7 +19358,7 @@
         <v>Oui</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>420</v>
@@ -19386,7 +19373,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>162</v>
       </c>
@@ -19422,7 +19409,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -19458,7 +19445,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>162</v>
       </c>
@@ -19494,7 +19481,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>162</v>
       </c>
@@ -19530,7 +19517,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>162</v>
       </c>
@@ -19566,7 +19553,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>162</v>
       </c>
@@ -19602,7 +19589,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>162</v>
       </c>
@@ -19638,7 +19625,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>162</v>
       </c>
@@ -19674,7 +19661,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>162</v>
       </c>
@@ -19710,7 +19697,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="204" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
         <v>162</v>
       </c>
@@ -19746,7 +19733,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>162</v>
       </c>
@@ -19782,7 +19769,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>162</v>
       </c>
@@ -19818,7 +19805,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>162</v>
       </c>
@@ -19854,7 +19841,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>162</v>
       </c>
@@ -19890,7 +19877,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>162</v>
       </c>
@@ -19926,7 +19913,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>162</v>
       </c>
@@ -19962,7 +19949,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>162</v>
       </c>
@@ -19998,7 +19985,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>162</v>
       </c>
@@ -20034,7 +20021,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>162</v>
       </c>
@@ -20070,7 +20057,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
         <v>162</v>
       </c>
@@ -20106,7 +20093,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>162</v>
       </c>
@@ -20142,7 +20129,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" s="14" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>162</v>
       </c>
@@ -20178,7 +20165,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>162</v>
       </c>
@@ -20214,7 +20201,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>162</v>
       </c>
@@ -20250,7 +20237,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>162</v>
       </c>
@@ -20286,7 +20273,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>162</v>
       </c>
@@ -20322,7 +20309,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>162</v>
       </c>
@@ -20358,7 +20345,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>162</v>
       </c>
@@ -20394,7 +20381,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>162</v>
       </c>
@@ -20430,7 +20417,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>162</v>
       </c>
@@ -20451,7 +20438,7 @@
         <v>Oui</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>420</v>
@@ -20466,7 +20453,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>162</v>
       </c>
@@ -20502,7 +20489,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -20538,7 +20525,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>162</v>
       </c>
@@ -20574,7 +20561,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
@@ -20610,7 +20597,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>162</v>
       </c>
@@ -20646,7 +20633,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>162</v>
       </c>
@@ -20682,7 +20669,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>162</v>
       </c>
@@ -20718,7 +20705,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>162</v>
       </c>
@@ -20754,7 +20741,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>162</v>
       </c>
@@ -20790,7 +20777,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>162</v>
       </c>
@@ -20826,7 +20813,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>162</v>
       </c>
@@ -20862,7 +20849,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>162</v>
       </c>
@@ -20898,7 +20885,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>162</v>
       </c>
@@ -20934,7 +20921,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>162</v>
       </c>
@@ -20970,7 +20957,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>162</v>
       </c>
@@ -21006,7 +20993,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>162</v>
       </c>
@@ -21042,7 +21029,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>162</v>
       </c>
@@ -21078,7 +21065,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>162</v>
       </c>
@@ -21114,7 +21101,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -21150,7 +21137,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -21186,7 +21173,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -21222,7 +21209,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>162</v>
       </c>
@@ -21258,7 +21245,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>162</v>
       </c>
@@ -21294,7 +21281,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>162</v>
       </c>
@@ -21330,7 +21317,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>162</v>
       </c>
@@ -21366,7 +21353,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>162</v>
       </c>
@@ -21402,7 +21389,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -21438,7 +21425,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -21474,7 +21461,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -21510,7 +21497,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>162</v>
       </c>
@@ -21546,7 +21533,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>162</v>
       </c>
@@ -21582,7 +21569,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>162</v>
       </c>
@@ -21618,7 +21605,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>162</v>
       </c>
@@ -21654,7 +21641,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -21690,7 +21677,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -21726,7 +21713,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -21762,7 +21749,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -21798,7 +21785,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>162</v>
       </c>
@@ -21834,7 +21821,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="263" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
         <v>162</v>
       </c>
@@ -21870,7 +21857,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>162</v>
       </c>
@@ -21906,7 +21893,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -21942,7 +21929,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>162</v>
       </c>
@@ -21978,7 +21965,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>162</v>
       </c>
@@ -22014,7 +22001,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -22050,7 +22037,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>162</v>
       </c>
@@ -22086,7 +22073,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>162</v>
       </c>
@@ -22122,7 +22109,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -22158,7 +22145,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -22194,7 +22181,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -22230,7 +22217,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -22266,7 +22253,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>162</v>
       </c>
@@ -22302,7 +22289,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>162</v>
       </c>
@@ -22338,7 +22325,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -22374,7 +22361,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -22410,7 +22397,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -22446,7 +22433,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>162</v>
       </c>
@@ -22482,7 +22469,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>162</v>
       </c>
@@ -22518,7 +22505,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>162</v>
       </c>
@@ -22554,7 +22541,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>162</v>
       </c>
@@ -22590,7 +22577,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>162</v>
       </c>
@@ -22626,7 +22613,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>162</v>
       </c>
@@ -22662,7 +22649,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>162</v>
       </c>
@@ -22698,7 +22685,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>162</v>
       </c>
@@ -22734,7 +22721,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>162</v>
       </c>
@@ -22770,7 +22757,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>162</v>
       </c>
@@ -22806,7 +22793,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>162</v>
       </c>
@@ -22842,7 +22829,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>162</v>
       </c>
@@ -22878,7 +22865,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>162</v>
       </c>
@@ -22914,7 +22901,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>162</v>
       </c>
@@ -22950,7 +22937,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>162</v>
       </c>
@@ -22986,7 +22973,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>162</v>
       </c>
@@ -23022,7 +23009,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>162</v>
       </c>
@@ -23058,7 +23045,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>162</v>
       </c>
@@ -23094,7 +23081,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
@@ -23130,7 +23117,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>162</v>
       </c>
@@ -23166,7 +23153,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>162</v>
       </c>
@@ -23202,7 +23189,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>162</v>
       </c>
@@ -23238,7 +23225,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>162</v>
       </c>
@@ -23274,7 +23261,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>162</v>
       </c>
@@ -23310,7 +23297,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>162</v>
       </c>
@@ -23346,7 +23333,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>162</v>
       </c>
@@ -23382,7 +23369,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>162</v>
       </c>
@@ -23418,7 +23405,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>162</v>
       </c>
@@ -23454,7 +23441,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>162</v>
       </c>
@@ -23490,7 +23477,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>162</v>
       </c>
@@ -23526,7 +23513,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>162</v>
       </c>
@@ -23562,7 +23549,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>162</v>
       </c>
@@ -23598,7 +23585,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>162</v>
       </c>
@@ -23634,7 +23621,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>162</v>
       </c>
@@ -23670,7 +23657,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
@@ -23706,7 +23693,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>162</v>
       </c>
@@ -23742,7 +23729,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>162</v>
       </c>
@@ -23778,7 +23765,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>162</v>
       </c>
@@ -23814,7 +23801,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>162</v>
       </c>
@@ -23850,7 +23837,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>162</v>
       </c>
@@ -23886,7 +23873,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>162</v>
       </c>
@@ -23922,7 +23909,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>162</v>
       </c>
@@ -23958,7 +23945,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>162</v>
       </c>
@@ -23994,7 +23981,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>162</v>
       </c>
@@ -24030,7 +24017,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>162</v>
       </c>
@@ -24066,7 +24053,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>162</v>
       </c>
@@ -24102,7 +24089,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>162</v>
       </c>
@@ -24138,7 +24125,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>162</v>
       </c>
@@ -24174,7 +24161,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>162</v>
       </c>
@@ -24210,7 +24197,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>162</v>
       </c>
@@ -24246,7 +24233,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>162</v>
       </c>
@@ -24282,7 +24269,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>162</v>
       </c>
@@ -24318,7 +24305,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>162</v>
       </c>
@@ -24354,7 +24341,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>162</v>
       </c>
@@ -24390,7 +24377,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>162</v>
       </c>
@@ -24426,7 +24413,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>162</v>
       </c>
@@ -24462,7 +24449,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>162</v>
       </c>
@@ -24498,7 +24485,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>162</v>
       </c>
@@ -24534,7 +24521,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>162</v>
       </c>
@@ -24570,7 +24557,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>162</v>
       </c>
@@ -24606,7 +24593,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>162</v>
       </c>
@@ -24642,7 +24629,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>162</v>
       </c>
@@ -24678,7 +24665,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>162</v>
       </c>
@@ -24714,7 +24701,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>162</v>
       </c>
@@ -24750,7 +24737,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>162</v>
       </c>
@@ -24786,7 +24773,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>162</v>
       </c>
@@ -24822,7 +24809,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -24858,7 +24845,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -24894,7 +24881,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>162</v>
       </c>
@@ -24930,7 +24917,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>162</v>
       </c>
@@ -24966,7 +24953,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>162</v>
       </c>
@@ -25002,7 +24989,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>162</v>
       </c>
@@ -25038,7 +25025,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -25074,7 +25061,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>162</v>
       </c>
@@ -25110,7 +25097,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>162</v>
       </c>
@@ -25146,7 +25133,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>162</v>
       </c>
@@ -25182,7 +25169,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>162</v>
       </c>
@@ -25218,7 +25205,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>162</v>
       </c>
@@ -25254,7 +25241,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>162</v>
       </c>
@@ -25290,7 +25277,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -25326,7 +25313,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -25362,7 +25349,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>162</v>
       </c>
@@ -25398,7 +25385,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>162</v>
       </c>
@@ -25434,7 +25421,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>162</v>
       </c>
@@ -25470,7 +25457,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>162</v>
       </c>
@@ -25506,7 +25493,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
@@ -25542,7 +25529,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>162</v>
       </c>
@@ -25578,7 +25565,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>162</v>
       </c>
@@ -25614,7 +25601,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>162</v>
       </c>
@@ -25650,7 +25637,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>162</v>
       </c>
@@ -25686,7 +25673,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -25722,7 +25709,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -25758,7 +25745,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -25794,7 +25781,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>162</v>
       </c>
@@ -25830,7 +25817,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>162</v>
       </c>
@@ -25866,7 +25853,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>162</v>
       </c>
@@ -25902,7 +25889,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>162</v>
       </c>
@@ -25938,7 +25925,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>162</v>
       </c>
@@ -25974,7 +25961,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>162</v>
       </c>
@@ -26010,7 +25997,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>162</v>
       </c>
@@ -26046,7 +26033,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>162</v>
       </c>
@@ -26082,7 +26069,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>162</v>
       </c>
@@ -26118,7 +26105,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>162</v>
       </c>
@@ -26154,7 +26141,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>162</v>
       </c>
@@ -26190,7 +26177,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>162</v>
       </c>
@@ -26226,7 +26213,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>162</v>
       </c>
@@ -26262,7 +26249,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>162</v>
       </c>
@@ -26298,7 +26285,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>162</v>
       </c>
@@ -26334,7 +26321,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>162</v>
       </c>
@@ -26370,7 +26357,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -26406,7 +26393,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>162</v>
       </c>
@@ -26442,7 +26429,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>162</v>
       </c>
@@ -26478,7 +26465,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>162</v>
       </c>
@@ -26514,7 +26501,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>162</v>
       </c>
@@ -26550,7 +26537,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>162</v>
       </c>
@@ -26586,7 +26573,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>162</v>
       </c>
@@ -26622,7 +26609,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>162</v>
       </c>
@@ -26658,7 +26645,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>162</v>
       </c>
@@ -26694,7 +26681,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>162</v>
       </c>
@@ -26730,7 +26717,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>162</v>
       </c>
@@ -26766,7 +26753,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>162</v>
       </c>
@@ -26802,7 +26789,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>162</v>
       </c>
@@ -26838,7 +26825,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>162</v>
       </c>
@@ -26874,7 +26861,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>162</v>
       </c>
@@ -26910,7 +26897,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>162</v>
       </c>
@@ -26946,7 +26933,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>162</v>
       </c>
@@ -26982,7 +26969,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>162</v>
       </c>
@@ -27018,7 +27005,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>162</v>
       </c>
@@ -27054,7 +27041,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>162</v>
       </c>
@@ -27075,7 +27062,7 @@
         <v>Non</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>162</v>
       </c>
@@ -27111,7 +27098,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>162</v>
       </c>
@@ -27147,7 +27134,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>162</v>
       </c>
@@ -27183,7 +27170,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>162</v>
       </c>
@@ -27219,7 +27206,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>162</v>
       </c>
@@ -27255,7 +27242,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>162</v>
       </c>
@@ -27291,7 +27278,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>162</v>
       </c>
@@ -27327,7 +27314,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>162</v>
       </c>
@@ -27363,7 +27350,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>162</v>
       </c>
@@ -27399,7 +27386,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>162</v>
       </c>
@@ -27435,7 +27422,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>162</v>
       </c>
@@ -27471,7 +27458,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>162</v>
       </c>
@@ -27507,7 +27494,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>162</v>
       </c>
@@ -27543,7 +27530,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>162</v>
       </c>
@@ -27580,7 +27567,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}"/>
+  <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Régénération"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -27590,11 +27583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE07F88F-88EC-40BA-9516-0F3D1085A2BB}">
   <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27955,7 +27948,7 @@
         <v>384</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>1027</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -27972,13 +27965,13 @@
         <v>1004</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>1009</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H13" s="18">
         <v>7</v>
@@ -27987,33 +27980,33 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>762</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>1031</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>1032</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>672</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1008</v>
+        <v>384</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>1009</v>
+        <v>468</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>384</v>
+        <v>462</v>
+      </c>
+      <c r="H14" s="18">
+        <v>7</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">

--- a/Liste de dons LG Apocalypse.xlsx
+++ b/Liste de dons LG Apocalypse.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2801AE7A-3F37-4306-8D16-0492A4E6D444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5BCE6-896A-4FEF-8651-78233E9C6516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="6450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Repartition thèmes par liste" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dons d''origine'!$A$1:$K$422</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Dons Redistribués'!$A$1:$I$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Dons Redistribués'!$A$1:$I$221</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listes par type'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4500" uniqueCount="1075">
   <si>
     <t>Liste</t>
   </si>
@@ -3198,6 +3197,80 @@
   </si>
   <si>
     <t>Quand le LG agripe une cible il peut activer ce don. Il augmente la difficulté des jets de la cible par sa Sagesse.</t>
+  </si>
+  <si>
+    <t>Cœur de Glace</t>
+  </si>
+  <si>
+    <t>Après avoir blessé sa cible le LG peut utiliser ce don pour geler la blessure. Transformant les blessures infligées en aggravées et empêchant ainsi toute guérison, même surnaturelle, tant que la glace n'a pas fondu. La glace fonds en un nombre de jours égal à la Gloire du LG.</t>
+  </si>
+  <si>
+    <t>Fait chuter la température à des températures glaciales sur une zone autour du LG. La taille de la zone est de 100m² par point de Honneur.</t>
+  </si>
+  <si>
+    <t>4 en hiver
+6 en printemps ou automne
+9 en canicule</t>
+  </si>
+  <si>
+    <t>Le LG deviens immunisé aux effets de l'hiver. Il ignore toutes les pénalités dues au froid, il gagne 5 dés supplémentaires pour absorber les dégâts impliquant le froid, les jets de survie dans un environnement froid ont une difficulté réduite de 2.</t>
+  </si>
+  <si>
+    <t>Un fort vent froid se met à souffler. Le LG contrôle le sens du vent à son gré. Les personnages qui sont pris dans le vent ont un malus égal à la Ruse du LG sur toutes leurs actions physiques tant qu'ils sont dans le vent et aussi une minute après en être sortis. Un bon équipement peut réduire ce malus.</t>
+  </si>
+  <si>
+    <t>Une brume épaisse s'installe, camouflant le LG. Tous les jets de Perception des personnages pris dans la brume ont un malus égal à la Ruse du LG</t>
+  </si>
+  <si>
+    <t>Dextérité + Furtivité</t>
+  </si>
+  <si>
+    <t>1 heure par succès</t>
+  </si>
+  <si>
+    <t>Permet d'augmenter un de ses hurlements pour attirer l'attention des esprits du Kaos. Le Rang total des esprits qui répondront est égal à l'Honneur du LG</t>
+  </si>
+  <si>
+    <t>Provoque la frénésie sur un nombre de cibles inférieur ou égal à la Gloire du LG</t>
+  </si>
+  <si>
+    <t>étendue (15)</t>
+  </si>
+  <si>
+    <t>Pureté tous</t>
+  </si>
+  <si>
+    <t>Ruse tours</t>
+  </si>
+  <si>
+    <t>Calme + Résolution</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>étendue (20)</t>
+  </si>
+  <si>
+    <t>En racontant une épopée héroïque l'auditoire du LG peut gagner un point de capacité temporairement. Le nombre maximal de bénéficiaires de ce Don est égal au double de la Sagesse du LG.</t>
+  </si>
+  <si>
+    <t>étendu en opposition (10 de diff)</t>
+  </si>
+  <si>
+    <t>Volonté + Gloire</t>
+  </si>
+  <si>
+    <t>Honneur tours</t>
+  </si>
+  <si>
+    <t>Variable en fonction de la Pureté et la complexité de l'ordre</t>
+  </si>
+  <si>
+    <t>Diminution de la difficulté des jets sociaux par la Ruse du LG</t>
+  </si>
+  <si>
+    <t>Sagesse jours</t>
   </si>
 </sst>
 </file>
@@ -3283,7 +3356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3338,21 +3411,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3387,7 +3463,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="43782.813645717593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="421" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Auteur" refreshedDate="43782.813645717593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="421" xr:uid="{2C21D036-61B9-4234-91DA-1EFDCFF6F2F1}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K422" sheet="Dons d'origine"/>
   </cacheSource>
@@ -9029,7 +9105,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{477637CD-FD25-47E8-A7D2-A30D4A046A9C}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{477637CD-FD25-47E8-A7D2-A30D4A046A9C}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:W73" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -9739,37 +9815,37 @@
       <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>552</v>
       </c>
@@ -9777,7 +9853,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>161</v>
       </c>
@@ -9791,7 +9867,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1044</v>
       </c>
@@ -9859,7 +9935,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>417</v>
       </c>
@@ -9924,7 +10000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>1040</v>
       </c>
@@ -9955,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>761</v>
       </c>
@@ -9986,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>514</v>
       </c>
@@ -10025,7 +10101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>301</v>
       </c>
@@ -10062,7 +10138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>792</v>
       </c>
@@ -10093,7 +10169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>447</v>
       </c>
@@ -10128,7 +10204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>759</v>
       </c>
@@ -10161,7 +10237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>668</v>
       </c>
@@ -10192,7 +10268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>694</v>
       </c>
@@ -10225,7 +10301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>566</v>
       </c>
@@ -10260,7 +10336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>1032</v>
       </c>
@@ -10291,7 +10367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>774</v>
       </c>
@@ -10326,7 +10402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>678</v>
       </c>
@@ -10365,7 +10441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>307</v>
       </c>
@@ -10412,7 +10488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>621</v>
       </c>
@@ -10445,7 +10521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>850</v>
       </c>
@@ -10476,7 +10552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>587</v>
       </c>
@@ -10511,7 +10587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>1033</v>
       </c>
@@ -10542,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>93</v>
       </c>
@@ -10575,7 +10651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>848</v>
       </c>
@@ -10606,7 +10682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>872</v>
       </c>
@@ -10637,7 +10713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>828</v>
       </c>
@@ -10670,7 +10746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>422</v>
       </c>
@@ -10715,7 +10791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>787</v>
       </c>
@@ -10748,7 +10824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>645</v>
       </c>
@@ -10779,7 +10855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>915</v>
       </c>
@@ -10810,7 +10886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>553</v>
       </c>
@@ -10843,7 +10919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>626</v>
       </c>
@@ -10880,7 +10956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>875</v>
       </c>
@@ -10911,7 +10987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>1039</v>
       </c>
@@ -10942,7 +11018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>900</v>
       </c>
@@ -10973,7 +11049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>588</v>
       </c>
@@ -11012,7 +11088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>985</v>
       </c>
@@ -11045,7 +11121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>398</v>
       </c>
@@ -11092,7 +11168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>1041</v>
       </c>
@@ -11123,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>884</v>
       </c>
@@ -11154,7 +11230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>665</v>
       </c>
@@ -11185,7 +11261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>748</v>
       </c>
@@ -11218,7 +11294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>420</v>
       </c>
@@ -11257,7 +11333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>975</v>
       </c>
@@ -11288,7 +11364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>810</v>
       </c>
@@ -11319,7 +11395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>408</v>
       </c>
@@ -11368,7 +11444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>1034</v>
       </c>
@@ -11405,7 +11481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>968</v>
       </c>
@@ -11436,7 +11512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>916</v>
       </c>
@@ -11467,7 +11543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>669</v>
       </c>
@@ -11498,7 +11574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>490</v>
       </c>
@@ -11531,7 +11607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>873</v>
       </c>
@@ -11564,7 +11640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>827</v>
       </c>
@@ -11595,7 +11671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>385</v>
       </c>
@@ -11644,7 +11720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>703</v>
       </c>
@@ -11675,7 +11751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>760</v>
       </c>
@@ -11708,7 +11784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>434</v>
       </c>
@@ -11741,7 +11817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>403</v>
       </c>
@@ -11784,7 +11860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>391</v>
       </c>
@@ -11819,7 +11895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>585</v>
       </c>
@@ -11854,7 +11930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>312</v>
       </c>
@@ -11887,7 +11963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>293</v>
       </c>
@@ -11922,7 +11998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>1035</v>
       </c>
@@ -11953,7 +12029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>994</v>
       </c>
@@ -11984,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>969</v>
       </c>
@@ -12015,7 +12091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>395</v>
       </c>
@@ -12052,7 +12128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>849</v>
       </c>
@@ -12085,7 +12161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>483</v>
       </c>
@@ -12120,7 +12196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>569</v>
       </c>
@@ -12157,7 +12233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>644</v>
       </c>
@@ -12192,7 +12268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>1043</v>
       </c>
@@ -12272,19 +12348,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35BA778-DA30-4EA6-A9D5-58601F95069A}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>159</v>
       </c>
@@ -12298,7 +12374,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -12312,7 +12388,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -12324,7 +12400,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -12338,7 +12414,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -12352,7 +12428,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -12366,7 +12442,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -12376,11 +12452,11 @@
       <c r="C7" t="s">
         <v>669</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -12390,11 +12466,11 @@
       <c r="C8" t="s">
         <v>703</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="20" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -12408,7 +12484,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -12422,7 +12498,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -12436,7 +12512,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -12450,7 +12526,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -12464,7 +12540,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -12474,11 +12550,11 @@
       <c r="C14" t="s">
         <v>848</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="25" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -12492,7 +12568,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -12506,7 +12582,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -12520,7 +12596,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -12534,7 +12610,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -12548,7 +12624,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -12562,7 +12638,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -12576,7 +12652,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -12590,7 +12666,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>877</v>
       </c>
@@ -12602,7 +12678,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>877</v>
       </c>
@@ -12614,7 +12690,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>877</v>
       </c>
@@ -12626,7 +12702,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>877</v>
       </c>
@@ -12641,7 +12717,7 @@
   </sheetData>
   <autoFilter ref="A1:D22" xr:uid="{AA0A2059-2468-4436-9D39-9E427EB14547}"/>
   <conditionalFormatting sqref="C2:D25 E4 D26">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -12656,28 +12732,28 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K422"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K206" sqref="K206"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -12712,7 +12788,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
@@ -12748,7 +12824,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -12784,7 +12860,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -12820,7 +12896,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -12856,43 +12932,43 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="15">
         <v>7</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -12928,7 +13004,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -12964,7 +13040,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -13000,7 +13076,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
@@ -13036,7 +13112,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -13072,7 +13148,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -13108,7 +13184,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -13144,7 +13220,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -13180,7 +13256,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -13216,7 +13292,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -13252,7 +13328,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -13288,7 +13364,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -13324,7 +13400,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
@@ -13360,7 +13436,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -13396,7 +13472,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -13432,7 +13508,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -13468,7 +13544,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -13504,7 +13580,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="13" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>160</v>
       </c>
@@ -13540,7 +13616,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -13576,7 +13652,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -13612,7 +13688,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -13645,7 +13721,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -13681,7 +13757,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>160</v>
       </c>
@@ -13714,7 +13790,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>160</v>
       </c>
@@ -13750,7 +13826,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -13786,7 +13862,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -13822,7 +13898,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -13858,7 +13934,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>160</v>
       </c>
@@ -13894,7 +13970,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>160</v>
       </c>
@@ -13930,7 +14006,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -13966,7 +14042,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
@@ -14002,7 +14078,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>160</v>
       </c>
@@ -14038,7 +14114,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -14074,7 +14150,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -14110,7 +14186,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -14146,7 +14222,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>160</v>
       </c>
@@ -14182,7 +14258,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -14218,7 +14294,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
@@ -14254,7 +14330,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -14290,7 +14366,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -14326,7 +14402,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>160</v>
       </c>
@@ -14362,7 +14438,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -14398,7 +14474,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -14434,7 +14510,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>160</v>
       </c>
@@ -14470,7 +14546,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -14506,7 +14582,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -14542,7 +14618,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -14578,7 +14654,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -14614,7 +14690,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -14650,7 +14726,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -14686,7 +14762,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -14722,7 +14798,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
@@ -14758,7 +14834,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -14794,7 +14870,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
@@ -14830,7 +14906,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>160</v>
       </c>
@@ -14866,7 +14942,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
@@ -14902,7 +14978,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
@@ -14938,7 +15014,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -14974,7 +15050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -15010,7 +15086,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -15046,7 +15122,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -15082,7 +15158,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -15118,7 +15194,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -15154,7 +15230,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
@@ -15190,7 +15266,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -15226,7 +15302,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -15262,7 +15338,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>161</v>
       </c>
@@ -15298,7 +15374,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
@@ -15334,7 +15410,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
@@ -15370,7 +15446,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
@@ -15406,7 +15482,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -15442,7 +15518,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -15478,7 +15554,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -15514,7 +15590,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
@@ -15550,7 +15626,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -15586,7 +15662,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -15622,7 +15698,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -15658,7 +15734,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -15694,7 +15770,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
@@ -15730,7 +15806,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
@@ -15766,7 +15842,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -15802,7 +15878,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -15838,7 +15914,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -15874,7 +15950,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
@@ -15910,7 +15986,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -15946,7 +16022,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -15982,7 +16058,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>161</v>
       </c>
@@ -16018,7 +16094,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -16054,7 +16130,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>161</v>
       </c>
@@ -16090,7 +16166,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>161</v>
       </c>
@@ -16126,7 +16202,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>161</v>
       </c>
@@ -16162,7 +16238,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -16198,7 +16274,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -16234,7 +16310,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -16270,7 +16346,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>161</v>
       </c>
@@ -16306,7 +16382,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>161</v>
       </c>
@@ -16342,7 +16418,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -16378,7 +16454,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>161</v>
       </c>
@@ -16414,43 +16490,43 @@
         <v>407</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="13">
         <v>1</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F105" s="1" t="str">
+      <c r="F105" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I105" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="J105" s="8">
+      <c r="J105" s="15">
         <v>7</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K105" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -16486,7 +16562,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>161</v>
       </c>
@@ -16522,79 +16598,79 @@
         <v>394</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="13">
         <v>2</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F108" s="1" t="str">
+      <c r="F108" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="I108" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="J108" s="8" t="s">
+      <c r="J108" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="K108" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="13">
         <v>2</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F109" s="1" t="str">
+      <c r="F109" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I109" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="J109" s="8">
+      <c r="J109" s="15">
         <v>6</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K109" s="14" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -16630,43 +16706,43 @@
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="13">
         <v>2</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F111" s="1" t="str">
+      <c r="F111" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I111" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="15">
         <v>7</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="K111" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
@@ -16702,7 +16778,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>161</v>
       </c>
@@ -16738,7 +16814,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -16774,7 +16850,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>161</v>
       </c>
@@ -16810,7 +16886,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
@@ -16846,43 +16922,43 @@
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="13">
         <v>4</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F117" s="1" t="str">
+      <c r="F117" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H117" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I117" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="J117" s="8">
+      <c r="J117" s="15">
         <v>6</v>
       </c>
-      <c r="K117" s="3" t="s">
+      <c r="K117" s="14" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -16918,7 +16994,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>161</v>
       </c>
@@ -16951,7 +17027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>161</v>
       </c>
@@ -16987,7 +17063,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -17023,7 +17099,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>161</v>
       </c>
@@ -17059,43 +17135,43 @@
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="13">
         <v>1</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F123" s="1" t="str">
+      <c r="F123" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G123" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H123" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="I123" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="J123" s="8">
+      <c r="J123" s="15">
         <v>6</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="K123" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
@@ -17131,7 +17207,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>161</v>
       </c>
@@ -17167,7 +17243,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>161</v>
       </c>
@@ -17203,7 +17279,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>161</v>
       </c>
@@ -17239,115 +17315,115 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:11" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="26">
         <v>2</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="F128" s="1" t="str">
+      <c r="F128" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G128" s="27" t="s">
         <v>699</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="I128" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="28">
         <v>7</v>
       </c>
-      <c r="K128" s="3" t="s">
+      <c r="K128" s="27" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="13">
         <v>2</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F129" s="1" t="str">
+      <c r="F129" s="13" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H129" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="I129" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="J129" s="8">
+      <c r="J129" s="15">
         <v>6</v>
       </c>
-      <c r="K129" s="3" t="s">
+      <c r="K129" s="14" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="13">
         <v>2</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F130" s="1" t="str">
+      <c r="F130" s="13" t="str">
         <f t="shared" ref="F130:F193" si="2">IF(COUNTIF(D:D,"="&amp;D130)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H130" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I130" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="J130" s="8" t="s">
+      <c r="J130" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="K130" s="3" t="s">
+      <c r="K130" s="14" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>161</v>
       </c>
@@ -17383,7 +17459,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>161</v>
       </c>
@@ -17419,115 +17495,115 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="13">
         <v>3</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F133" s="1" t="str">
+      <c r="F133" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H133" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I133" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="J133" s="8" t="s">
+      <c r="J133" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K133" s="14" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="13">
         <v>3</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F134" s="1" t="str">
+      <c r="F134" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="H134" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I134" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="J134" s="8" t="s">
+      <c r="J134" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="K134" s="3" t="s">
+      <c r="K134" s="14" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="13">
         <v>3</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F135" s="1" t="str">
+      <c r="F135" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Oui</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G135" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H135" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="I135" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="15">
         <v>8</v>
       </c>
-      <c r="K135" s="3" t="s">
+      <c r="K135" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -17563,7 +17639,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -17599,7 +17675,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -17635,7 +17711,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>161</v>
       </c>
@@ -17671,7 +17747,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>161</v>
       </c>
@@ -17707,7 +17783,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
@@ -17743,7 +17819,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>161</v>
       </c>
@@ -17779,7 +17855,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>161</v>
       </c>
@@ -17815,7 +17891,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -17851,7 +17927,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>161</v>
       </c>
@@ -17887,7 +17963,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -17923,7 +17999,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>161</v>
       </c>
@@ -17959,7 +18035,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -17995,7 +18071,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>161</v>
       </c>
@@ -18031,7 +18107,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -18067,7 +18143,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>161</v>
       </c>
@@ -18103,7 +18179,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -18139,7 +18215,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>161</v>
       </c>
@@ -18175,7 +18251,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="13" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>161</v>
       </c>
@@ -18211,7 +18287,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="13" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>161</v>
       </c>
@@ -18247,7 +18323,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
@@ -18283,7 +18359,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -18319,7 +18395,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="13" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>161</v>
       </c>
@@ -18355,7 +18431,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>161</v>
       </c>
@@ -18391,7 +18467,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -18427,7 +18503,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -18463,7 +18539,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -18499,7 +18575,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -18535,7 +18611,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -18571,7 +18647,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -18607,7 +18683,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>162</v>
       </c>
@@ -18643,7 +18719,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
@@ -18679,7 +18755,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -18715,7 +18791,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>162</v>
       </c>
@@ -18751,7 +18827,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>162</v>
       </c>
@@ -18787,7 +18863,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -18823,7 +18899,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>162</v>
       </c>
@@ -18859,7 +18935,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -18895,7 +18971,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>162</v>
       </c>
@@ -18931,7 +19007,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>162</v>
       </c>
@@ -18967,7 +19043,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>162</v>
       </c>
@@ -19003,7 +19079,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>162</v>
       </c>
@@ -19039,7 +19115,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>162</v>
       </c>
@@ -19075,7 +19151,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>162</v>
       </c>
@@ -19111,7 +19187,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>162</v>
       </c>
@@ -19147,7 +19223,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>162</v>
       </c>
@@ -19183,7 +19259,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>162</v>
       </c>
@@ -19219,7 +19295,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -19255,7 +19331,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -19291,7 +19367,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>162</v>
       </c>
@@ -19327,7 +19403,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
@@ -19363,7 +19439,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>162</v>
       </c>
@@ -19399,7 +19475,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>162</v>
       </c>
@@ -19435,7 +19511,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>162</v>
       </c>
@@ -19471,7 +19547,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>162</v>
       </c>
@@ -19507,7 +19583,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
@@ -19543,7 +19619,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>162</v>
       </c>
@@ -19579,7 +19655,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>162</v>
       </c>
@@ -19615,7 +19691,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>162</v>
       </c>
@@ -19651,7 +19727,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>162</v>
       </c>
@@ -19687,7 +19763,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -19723,7 +19799,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>162</v>
       </c>
@@ -19759,7 +19835,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>162</v>
       </c>
@@ -19795,7 +19871,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>162</v>
       </c>
@@ -19831,7 +19907,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>162</v>
       </c>
@@ -19867,7 +19943,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>162</v>
       </c>
@@ -19903,7 +19979,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>162</v>
       </c>
@@ -19939,7 +20015,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>162</v>
       </c>
@@ -19975,7 +20051,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="204" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>162</v>
       </c>
@@ -20011,7 +20087,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>162</v>
       </c>
@@ -20047,7 +20123,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>162</v>
       </c>
@@ -20083,7 +20159,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>162</v>
       </c>
@@ -20119,7 +20195,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>162</v>
       </c>
@@ -20155,7 +20231,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>162</v>
       </c>
@@ -20191,7 +20267,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>162</v>
       </c>
@@ -20227,7 +20303,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>162</v>
       </c>
@@ -20263,7 +20339,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="1:11" s="21" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" s="21" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
         <v>162</v>
       </c>
@@ -20299,7 +20375,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>162</v>
       </c>
@@ -20335,7 +20411,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>162</v>
       </c>
@@ -20371,7 +20447,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>162</v>
       </c>
@@ -20407,7 +20483,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="13" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>162</v>
       </c>
@@ -20443,7 +20519,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>162</v>
       </c>
@@ -20479,7 +20555,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>162</v>
       </c>
@@ -20515,7 +20591,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>162</v>
       </c>
@@ -20551,7 +20627,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>162</v>
       </c>
@@ -20587,7 +20663,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>162</v>
       </c>
@@ -20623,7 +20699,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>162</v>
       </c>
@@ -20659,7 +20735,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>162</v>
       </c>
@@ -20695,7 +20771,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>162</v>
       </c>
@@ -20731,7 +20807,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>162</v>
       </c>
@@ -20767,7 +20843,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -20803,7 +20879,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>162</v>
       </c>
@@ -20839,7 +20915,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
@@ -20875,7 +20951,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>162</v>
       </c>
@@ -20911,7 +20987,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>162</v>
       </c>
@@ -20947,7 +21023,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>162</v>
       </c>
@@ -20983,7 +21059,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>162</v>
       </c>
@@ -21019,7 +21095,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>162</v>
       </c>
@@ -21055,7 +21131,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>162</v>
       </c>
@@ -21091,7 +21167,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>162</v>
       </c>
@@ -21127,7 +21203,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>162</v>
       </c>
@@ -21163,7 +21239,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>162</v>
       </c>
@@ -21199,7 +21275,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>162</v>
       </c>
@@ -21235,7 +21311,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>162</v>
       </c>
@@ -21271,7 +21347,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>162</v>
       </c>
@@ -21307,7 +21383,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>162</v>
       </c>
@@ -21343,7 +21419,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>162</v>
       </c>
@@ -21379,7 +21455,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>162</v>
       </c>
@@ -21415,7 +21491,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>162</v>
       </c>
@@ -21451,7 +21527,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>162</v>
       </c>
@@ -21487,43 +21563,43 @@
         <v>831</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A246" s="1" t="s">
+    <row r="246" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="13">
         <v>1</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E246" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F246" s="1" t="str">
+      <c r="F246" s="13" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="G246" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="H246" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I246" s="1" t="s">
+      <c r="I246" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="J246" s="8">
+      <c r="J246" s="15">
         <v>7</v>
       </c>
-      <c r="K246" s="3" t="s">
+      <c r="K246" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>162</v>
       </c>
@@ -21559,7 +21635,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>162</v>
       </c>
@@ -21595,7 +21671,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>162</v>
       </c>
@@ -21631,7 +21707,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>162</v>
       </c>
@@ -21667,7 +21743,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -21703,7 +21779,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>162</v>
       </c>
@@ -21739,7 +21815,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>162</v>
       </c>
@@ -21775,43 +21851,43 @@
         <v>833</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A254" s="1" t="s">
+    <row r="254" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="13">
         <v>3</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E254" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F254" s="1" t="str">
+      <c r="F254" s="13" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G254" s="3" t="s">
+      <c r="G254" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="H254" s="1" t="s">
+      <c r="H254" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="I254" s="1" t="s">
+      <c r="I254" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="J254" s="8" t="s">
+      <c r="J254" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="K254" s="3" t="s">
+      <c r="K254" s="14" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>162</v>
       </c>
@@ -21847,7 +21923,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>162</v>
       </c>
@@ -21883,7 +21959,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>162</v>
       </c>
@@ -21919,7 +21995,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>162</v>
       </c>
@@ -21955,7 +22031,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>162</v>
       </c>
@@ -21991,7 +22067,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>162</v>
       </c>
@@ -22027,7 +22103,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>162</v>
       </c>
@@ -22063,7 +22139,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>162</v>
       </c>
@@ -22099,7 +22175,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="263" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
         <v>162</v>
       </c>
@@ -22135,7 +22211,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>162</v>
       </c>
@@ -22171,7 +22247,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>162</v>
       </c>
@@ -22207,7 +22283,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>162</v>
       </c>
@@ -22243,7 +22319,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>162</v>
       </c>
@@ -22279,7 +22355,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>162</v>
       </c>
@@ -22315,7 +22391,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>162</v>
       </c>
@@ -22351,7 +22427,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>162</v>
       </c>
@@ -22387,7 +22463,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>162</v>
       </c>
@@ -22423,7 +22499,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>162</v>
       </c>
@@ -22459,7 +22535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>162</v>
       </c>
@@ -22495,7 +22571,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -22531,7 +22607,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>162</v>
       </c>
@@ -22567,7 +22643,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>162</v>
       </c>
@@ -22603,7 +22679,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>162</v>
       </c>
@@ -22639,7 +22715,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>162</v>
       </c>
@@ -22675,7 +22751,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>162</v>
       </c>
@@ -22711,7 +22787,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>162</v>
       </c>
@@ -22747,7 +22823,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>162</v>
       </c>
@@ -22783,7 +22859,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>162</v>
       </c>
@@ -22819,7 +22895,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>162</v>
       </c>
@@ -22855,7 +22931,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>162</v>
       </c>
@@ -22891,7 +22967,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>162</v>
       </c>
@@ -22927,7 +23003,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>162</v>
       </c>
@@ -22963,7 +23039,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>162</v>
       </c>
@@ -22999,7 +23075,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>162</v>
       </c>
@@ -23035,7 +23111,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>162</v>
       </c>
@@ -23071,7 +23147,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>162</v>
       </c>
@@ -23107,7 +23183,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>162</v>
       </c>
@@ -23143,7 +23219,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>162</v>
       </c>
@@ -23179,7 +23255,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>162</v>
       </c>
@@ -23215,7 +23291,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>162</v>
       </c>
@@ -23251,7 +23327,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>162</v>
       </c>
@@ -23287,7 +23363,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>162</v>
       </c>
@@ -23323,7 +23399,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>162</v>
       </c>
@@ -23359,7 +23435,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
@@ -23395,7 +23471,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>162</v>
       </c>
@@ -23431,7 +23507,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>162</v>
       </c>
@@ -23467,7 +23543,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>162</v>
       </c>
@@ -23503,7 +23579,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>162</v>
       </c>
@@ -23539,7 +23615,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>162</v>
       </c>
@@ -23575,7 +23651,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>162</v>
       </c>
@@ -23611,7 +23687,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>162</v>
       </c>
@@ -23647,7 +23723,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>162</v>
       </c>
@@ -23683,7 +23759,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>162</v>
       </c>
@@ -23719,7 +23795,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>162</v>
       </c>
@@ -23755,7 +23831,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>162</v>
       </c>
@@ -23791,7 +23867,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>162</v>
       </c>
@@ -23827,7 +23903,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>162</v>
       </c>
@@ -23863,7 +23939,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>162</v>
       </c>
@@ -23899,7 +23975,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>162</v>
       </c>
@@ -23935,7 +24011,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
@@ -23971,7 +24047,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>162</v>
       </c>
@@ -24007,7 +24083,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>162</v>
       </c>
@@ -24043,7 +24119,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>162</v>
       </c>
@@ -24079,7 +24155,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>162</v>
       </c>
@@ -24115,7 +24191,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>162</v>
       </c>
@@ -24151,7 +24227,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>162</v>
       </c>
@@ -24187,7 +24263,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>162</v>
       </c>
@@ -24223,7 +24299,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>162</v>
       </c>
@@ -24259,7 +24335,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>162</v>
       </c>
@@ -24295,7 +24371,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>162</v>
       </c>
@@ -24331,7 +24407,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>162</v>
       </c>
@@ -24367,43 +24443,43 @@
         <v>394</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A326" s="1" t="s">
+    <row r="326" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="13">
         <v>1</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="D326" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E326" s="1" t="s">
+      <c r="E326" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F326" s="1" t="str">
+      <c r="F326" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Non</v>
       </c>
-      <c r="G326" s="3" t="s">
+      <c r="G326" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="H326" s="1" t="s">
+      <c r="H326" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I326" s="1" t="s">
+      <c r="I326" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="J326" s="8">
+      <c r="J326" s="15">
         <v>7</v>
       </c>
-      <c r="K326" s="3" t="s">
+      <c r="K326" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>162</v>
       </c>
@@ -24439,7 +24515,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>162</v>
       </c>
@@ -24475,7 +24551,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>162</v>
       </c>
@@ -24511,7 +24587,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>162</v>
       </c>
@@ -24547,7 +24623,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>162</v>
       </c>
@@ -24583,7 +24659,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>162</v>
       </c>
@@ -24619,7 +24695,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>162</v>
       </c>
@@ -24655,7 +24731,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>162</v>
       </c>
@@ -24691,7 +24767,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>162</v>
       </c>
@@ -24727,7 +24803,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>162</v>
       </c>
@@ -24763,7 +24839,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>162</v>
       </c>
@@ -24799,7 +24875,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>162</v>
       </c>
@@ -24835,7 +24911,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>162</v>
       </c>
@@ -24871,7 +24947,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>162</v>
       </c>
@@ -24907,7 +24983,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>162</v>
       </c>
@@ -24943,7 +25019,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>162</v>
       </c>
@@ -24979,7 +25055,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>162</v>
       </c>
@@ -25015,7 +25091,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>162</v>
       </c>
@@ -25051,7 +25127,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>162</v>
       </c>
@@ -25087,7 +25163,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -25123,7 +25199,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -25159,7 +25235,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>162</v>
       </c>
@@ -25195,7 +25271,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>162</v>
       </c>
@@ -25231,7 +25307,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>162</v>
       </c>
@@ -25267,7 +25343,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>162</v>
       </c>
@@ -25303,7 +25379,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>162</v>
       </c>
@@ -25339,7 +25415,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>162</v>
       </c>
@@ -25375,7 +25451,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>162</v>
       </c>
@@ -25411,7 +25487,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>162</v>
       </c>
@@ -25447,7 +25523,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>162</v>
       </c>
@@ -25483,7 +25559,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>162</v>
       </c>
@@ -25519,7 +25595,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>162</v>
       </c>
@@ -25555,7 +25631,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>162</v>
       </c>
@@ -25591,7 +25667,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
@@ -25627,7 +25703,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>162</v>
       </c>
@@ -25663,7 +25739,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>162</v>
       </c>
@@ -25699,7 +25775,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>162</v>
       </c>
@@ -25735,7 +25811,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>162</v>
       </c>
@@ -25771,7 +25847,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>162</v>
       </c>
@@ -25807,7 +25883,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>162</v>
       </c>
@@ -25843,7 +25919,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>162</v>
       </c>
@@ -25879,7 +25955,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>162</v>
       </c>
@@ -25915,7 +25991,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>162</v>
       </c>
@@ -25951,7 +26027,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -25987,7 +26063,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -26023,7 +26099,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>162</v>
       </c>
@@ -26059,7 +26135,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>162</v>
       </c>
@@ -26095,7 +26171,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>162</v>
       </c>
@@ -26131,7 +26207,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>162</v>
       </c>
@@ -26167,7 +26243,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>162</v>
       </c>
@@ -26203,7 +26279,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>162</v>
       </c>
@@ -26239,7 +26315,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>162</v>
       </c>
@@ -26275,7 +26351,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>162</v>
       </c>
@@ -26311,7 +26387,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>162</v>
       </c>
@@ -26347,7 +26423,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>162</v>
       </c>
@@ -26383,7 +26459,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>162</v>
       </c>
@@ -26419,7 +26495,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>162</v>
       </c>
@@ -26455,7 +26531,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>162</v>
       </c>
@@ -26491,7 +26567,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>162</v>
       </c>
@@ -26527,7 +26603,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>162</v>
       </c>
@@ -26563,7 +26639,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>162</v>
       </c>
@@ -26599,7 +26675,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>162</v>
       </c>
@@ -26635,7 +26711,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>162</v>
       </c>
@@ -26671,7 +26747,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>162</v>
       </c>
@@ -26707,7 +26783,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>162</v>
       </c>
@@ -26743,7 +26819,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>162</v>
       </c>
@@ -26779,7 +26855,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>162</v>
       </c>
@@ -26815,7 +26891,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>162</v>
       </c>
@@ -26851,7 +26927,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>162</v>
       </c>
@@ -26887,7 +26963,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>162</v>
       </c>
@@ -26923,7 +26999,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>162</v>
       </c>
@@ -26959,7 +27035,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>162</v>
       </c>
@@ -26995,7 +27071,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>162</v>
       </c>
@@ -27031,7 +27107,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>162</v>
       </c>
@@ -27067,7 +27143,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>162</v>
       </c>
@@ -27103,7 +27179,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>162</v>
       </c>
@@ -27139,7 +27215,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>162</v>
       </c>
@@ -27175,7 +27251,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="404" spans="1:11" s="13" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="s">
         <v>162</v>
       </c>
@@ -27211,7 +27287,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>162</v>
       </c>
@@ -27247,7 +27323,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>162</v>
       </c>
@@ -27283,7 +27359,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>162</v>
       </c>
@@ -27319,7 +27395,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>162</v>
       </c>
@@ -27355,7 +27431,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>162</v>
       </c>
@@ -27391,7 +27467,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>162</v>
       </c>
@@ -27427,7 +27503,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>162</v>
       </c>
@@ -27463,7 +27539,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>162</v>
       </c>
@@ -27499,7 +27575,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>162</v>
       </c>
@@ -27535,7 +27611,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="414" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="s">
         <v>162</v>
       </c>
@@ -27571,7 +27647,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>162</v>
       </c>
@@ -27607,7 +27683,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>162</v>
       </c>
@@ -27643,7 +27719,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="417" spans="1:11" s="13" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
         <v>162</v>
       </c>
@@ -27679,7 +27755,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>162</v>
       </c>
@@ -27715,7 +27791,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>162</v>
       </c>
@@ -27751,7 +27827,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>162</v>
       </c>
@@ -27787,7 +27863,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>162</v>
       </c>
@@ -27823,7 +27899,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>162</v>
       </c>
@@ -27861,13 +27937,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K422" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
-    <filterColumn colId="6">
+    <filterColumn colId="4">
       <filters>
-        <filter val="Augmente les dégâts de morsure"/>
-        <filter val="Il deviens presque impossible de se libérer de la poigne (ou morsure) du LG"/>
-        <filter val="La morsure du LG peut estropier les membres"/>
-        <filter val="Les dégâts de morsure après absorption sont doublés"/>
-        <filter val="Tant que le LG tiens sa cible avec une morsure il peut refaire une attaque morsure pour infliger plus de dégâts"/>
+        <filter val="Commandement"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -27878,29 +27950,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE07F88F-88EC-40BA-9516-0F3D1085A2BB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -27919,17 +27992,17 @@
       <c r="F1" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="29" t="s">
         <v>469</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>514</v>
       </c>
@@ -27958,7 +28031,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>514</v>
       </c>
@@ -27987,7 +28060,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>514</v>
       </c>
@@ -28016,7 +28089,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>514</v>
       </c>
@@ -28045,7 +28118,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>514</v>
       </c>
@@ -28074,7 +28147,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>447</v>
       </c>
@@ -28103,7 +28176,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>447</v>
       </c>
@@ -28132,7 +28205,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>447</v>
       </c>
@@ -28161,7 +28234,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>447</v>
       </c>
@@ -28190,7 +28263,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>447</v>
       </c>
@@ -28219,7 +28292,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>759</v>
       </c>
@@ -28248,7 +28321,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>759</v>
       </c>
@@ -28277,7 +28350,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>759</v>
       </c>
@@ -28306,7 +28379,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>759</v>
       </c>
@@ -28335,7 +28408,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>759</v>
       </c>
@@ -28364,7 +28437,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>668</v>
       </c>
@@ -28393,7 +28466,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>668</v>
       </c>
@@ -28422,7 +28495,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>668</v>
       </c>
@@ -28437,7 +28510,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>668</v>
       </c>
@@ -28466,7 +28539,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>668</v>
       </c>
@@ -28495,82 +28568,152 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1061</v>
+      </c>
       <c r="D22" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E22" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1060</v>
+      </c>
       <c r="D23" s="17" t="s">
         <v>998</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E23" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="H23" s="18">
+        <v>6</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="D24" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E24" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>700</v>
+      </c>
       <c r="D25" s="17" t="s">
         <v>1000</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E25" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1068</v>
+      </c>
       <c r="D26" s="17" t="s">
         <v>999</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E26" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="H26" s="18">
+        <v>8</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>1037</v>
       </c>
@@ -28585,7 +28728,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>1037</v>
       </c>
@@ -28600,7 +28743,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>1037</v>
       </c>
@@ -28615,7 +28758,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>1037</v>
       </c>
@@ -28630,7 +28773,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>1037</v>
       </c>
@@ -28645,7 +28788,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>774</v>
       </c>
@@ -28660,7 +28803,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>774</v>
       </c>
@@ -28675,7 +28818,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>774</v>
       </c>
@@ -28690,7 +28833,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>774</v>
       </c>
@@ -28705,7 +28848,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>774</v>
       </c>
@@ -28720,82 +28863,152 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>686</v>
+      </c>
       <c r="D37" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E37" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H37" s="17">
+        <v>6</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="D38" s="17" t="s">
         <v>998</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E38" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="H38" s="17">
+        <v>6</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="D39" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E39" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H39" s="17">
+        <v>7</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1073</v>
+      </c>
       <c r="D40" s="17" t="s">
         <v>1000</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E40" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="H40" s="17">
+        <v>7</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>675</v>
+      </c>
       <c r="D41" s="17" t="s">
         <v>999</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E41" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>621</v>
       </c>
@@ -28810,7 +29023,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>621</v>
       </c>
@@ -28825,7 +29038,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>621</v>
       </c>
@@ -28840,7 +29053,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>621</v>
       </c>
@@ -28855,7 +29068,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>621</v>
       </c>
@@ -28870,7 +29083,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>93</v>
       </c>
@@ -28885,7 +29098,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>93</v>
       </c>
@@ -28900,7 +29113,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>93</v>
       </c>
@@ -28915,7 +29128,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>93</v>
       </c>
@@ -28930,7 +29143,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>93</v>
       </c>
@@ -28945,7 +29158,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>848</v>
       </c>
@@ -28960,7 +29173,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>848</v>
       </c>
@@ -28975,7 +29188,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>848</v>
       </c>
@@ -28990,7 +29203,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>848</v>
       </c>
@@ -29005,7 +29218,7 @@
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>848</v>
       </c>
@@ -29020,7 +29233,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>872</v>
       </c>
@@ -29035,7 +29248,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>872</v>
       </c>
@@ -29050,7 +29263,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>872</v>
       </c>
@@ -29065,7 +29278,7 @@
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>872</v>
       </c>
@@ -29080,7 +29293,7 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>872</v>
       </c>
@@ -29095,7 +29308,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>825</v>
       </c>
@@ -29110,7 +29323,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>825</v>
       </c>
@@ -29125,7 +29338,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>825</v>
       </c>
@@ -29140,7 +29353,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>825</v>
       </c>
@@ -29155,7 +29368,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>825</v>
       </c>
@@ -29170,7 +29383,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>422</v>
       </c>
@@ -29185,7 +29398,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>422</v>
       </c>
@@ -29200,7 +29413,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>422</v>
       </c>
@@ -29215,7 +29428,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>422</v>
       </c>
@@ -29230,7 +29443,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>422</v>
       </c>
@@ -29245,7 +29458,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>787</v>
       </c>
@@ -29260,7 +29473,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>787</v>
       </c>
@@ -29275,7 +29488,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>787</v>
       </c>
@@ -29290,7 +29503,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>787</v>
       </c>
@@ -29305,7 +29518,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>787</v>
       </c>
@@ -29320,82 +29533,152 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>1052</v>
+      </c>
       <c r="D77" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E77" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="B78" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>1053</v>
+      </c>
       <c r="D78" s="17" t="s">
-        <v>998</v>
-      </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+        <v>999</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="B79" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>1055</v>
+      </c>
       <c r="D79" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+        <v>998</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="B80" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>1056</v>
+      </c>
       <c r="D80" s="17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+        <v>669</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="H80" s="17">
+        <v>8</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
+      <c r="B81" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>1057</v>
+      </c>
       <c r="D81" s="17" t="s">
-        <v>999</v>
-      </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H81" s="17">
+        <v>8</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>915</v>
       </c>
@@ -29410,7 +29693,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>915</v>
       </c>
@@ -29425,7 +29708,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>915</v>
       </c>
@@ -29440,7 +29723,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>915</v>
       </c>
@@ -29455,7 +29738,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>915</v>
       </c>
@@ -29470,7 +29753,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>553</v>
       </c>
@@ -29485,7 +29768,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>553</v>
       </c>
@@ -29500,7 +29783,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>553</v>
       </c>
@@ -29515,7 +29798,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>553</v>
       </c>
@@ -29530,7 +29813,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>553</v>
       </c>
@@ -29545,7 +29828,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>626</v>
       </c>
@@ -29560,7 +29843,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>626</v>
       </c>
@@ -29575,7 +29858,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>626</v>
       </c>
@@ -29590,7 +29873,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>626</v>
       </c>
@@ -29605,7 +29888,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>626</v>
       </c>
@@ -29620,7 +29903,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>875</v>
       </c>
@@ -29635,7 +29918,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>875</v>
       </c>
@@ -29650,7 +29933,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>875</v>
       </c>
@@ -29665,7 +29948,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>875</v>
       </c>
@@ -29680,7 +29963,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>875</v>
       </c>
@@ -29695,7 +29978,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>794</v>
       </c>
@@ -29710,7 +29993,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>794</v>
       </c>
@@ -29725,7 +30008,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>794</v>
       </c>
@@ -29740,7 +30023,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>794</v>
       </c>
@@ -29755,7 +30038,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>794</v>
       </c>
@@ -29770,7 +30053,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>900</v>
       </c>
@@ -29785,7 +30068,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>900</v>
       </c>
@@ -29800,7 +30083,7 @@
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>900</v>
       </c>
@@ -29815,7 +30098,7 @@
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>900</v>
       </c>
@@ -29830,7 +30113,7 @@
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>900</v>
       </c>
@@ -29845,7 +30128,7 @@
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>588</v>
       </c>
@@ -29860,7 +30143,7 @@
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>588</v>
       </c>
@@ -29875,7 +30158,7 @@
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>588</v>
       </c>
@@ -29890,7 +30173,7 @@
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>588</v>
       </c>
@@ -29905,7 +30188,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>588</v>
       </c>
@@ -29920,7 +30203,7 @@
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>985</v>
       </c>
@@ -29935,7 +30218,7 @@
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>985</v>
       </c>
@@ -29950,7 +30233,7 @@
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>985</v>
       </c>
@@ -29965,7 +30248,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>985</v>
       </c>
@@ -29980,7 +30263,7 @@
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>985</v>
       </c>
@@ -29995,7 +30278,7 @@
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>398</v>
       </c>
@@ -30010,7 +30293,7 @@
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>398</v>
       </c>
@@ -30025,7 +30308,7 @@
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>398</v>
       </c>
@@ -30040,7 +30323,7 @@
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>398</v>
       </c>
@@ -30055,7 +30338,7 @@
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>398</v>
       </c>
@@ -30070,7 +30353,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>748</v>
       </c>
@@ -30085,7 +30368,7 @@
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>748</v>
       </c>
@@ -30100,7 +30383,7 @@
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>748</v>
       </c>
@@ -30115,7 +30398,7 @@
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>748</v>
       </c>
@@ -30130,7 +30413,7 @@
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>748</v>
       </c>
@@ -30145,7 +30428,7 @@
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>975</v>
       </c>
@@ -30160,7 +30443,7 @@
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>975</v>
       </c>
@@ -30175,7 +30458,7 @@
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>975</v>
       </c>
@@ -30190,7 +30473,7 @@
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>975</v>
       </c>
@@ -30205,7 +30488,7 @@
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>975</v>
       </c>
@@ -30220,7 +30503,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>826</v>
       </c>
@@ -30235,7 +30518,7 @@
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>826</v>
       </c>
@@ -30250,7 +30533,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>826</v>
       </c>
@@ -30265,7 +30548,7 @@
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>826</v>
       </c>
@@ -30280,7 +30563,7 @@
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>826</v>
       </c>
@@ -30295,7 +30578,7 @@
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>408</v>
       </c>
@@ -30310,7 +30593,7 @@
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>408</v>
       </c>
@@ -30325,7 +30608,7 @@
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>408</v>
       </c>
@@ -30340,7 +30623,7 @@
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>408</v>
       </c>
@@ -30355,7 +30638,7 @@
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>408</v>
       </c>
@@ -30370,7 +30653,7 @@
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>968</v>
       </c>
@@ -30385,7 +30668,7 @@
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>968</v>
       </c>
@@ -30400,7 +30683,7 @@
       <c r="H148" s="17"/>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>968</v>
       </c>
@@ -30415,7 +30698,7 @@
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>968</v>
       </c>
@@ -30430,7 +30713,7 @@
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>968</v>
       </c>
@@ -30445,7 +30728,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>916</v>
       </c>
@@ -30460,7 +30743,7 @@
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>916</v>
       </c>
@@ -30475,7 +30758,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>916</v>
       </c>
@@ -30490,7 +30773,7 @@
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>916</v>
       </c>
@@ -30505,7 +30788,7 @@
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>916</v>
       </c>
@@ -30520,7 +30803,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>669</v>
       </c>
@@ -30535,7 +30818,7 @@
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>669</v>
       </c>
@@ -30550,7 +30833,7 @@
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>669</v>
       </c>
@@ -30565,7 +30848,7 @@
       <c r="H159" s="17"/>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>669</v>
       </c>
@@ -30580,7 +30863,7 @@
       <c r="H160" s="17"/>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>669</v>
       </c>
@@ -30595,7 +30878,7 @@
       <c r="H161" s="17"/>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>873</v>
       </c>
@@ -30610,7 +30893,7 @@
       <c r="H162" s="17"/>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>873</v>
       </c>
@@ -30625,7 +30908,7 @@
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>873</v>
       </c>
@@ -30640,7 +30923,7 @@
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>873</v>
       </c>
@@ -30655,7 +30938,7 @@
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>873</v>
       </c>
@@ -30670,7 +30953,7 @@
       <c r="H166" s="17"/>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>703</v>
       </c>
@@ -30685,7 +30968,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>703</v>
       </c>
@@ -30700,7 +30983,7 @@
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>703</v>
       </c>
@@ -30715,7 +30998,7 @@
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>703</v>
       </c>
@@ -30730,7 +31013,7 @@
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>703</v>
       </c>
@@ -30745,7 +31028,7 @@
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>760</v>
       </c>
@@ -30760,7 +31043,7 @@
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>760</v>
       </c>
@@ -30775,7 +31058,7 @@
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>760</v>
       </c>
@@ -30790,7 +31073,7 @@
       <c r="H174" s="17"/>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>760</v>
       </c>
@@ -30805,7 +31088,7 @@
       <c r="H175" s="17"/>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>760</v>
       </c>
@@ -30820,7 +31103,7 @@
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
         <v>585</v>
       </c>
@@ -30835,7 +31118,7 @@
       <c r="H177" s="17"/>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
         <v>585</v>
       </c>
@@ -30850,7 +31133,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>585</v>
       </c>
@@ -30865,7 +31148,7 @@
       <c r="H179" s="17"/>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>585</v>
       </c>
@@ -30880,7 +31163,7 @@
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>585</v>
       </c>
@@ -30895,7 +31178,7 @@
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>312</v>
       </c>
@@ -30910,7 +31193,7 @@
       <c r="H182" s="17"/>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>312</v>
       </c>
@@ -30925,7 +31208,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>312</v>
       </c>
@@ -30940,7 +31223,7 @@
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>312</v>
       </c>
@@ -30955,7 +31238,7 @@
       <c r="H185" s="17"/>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>312</v>
       </c>
@@ -30970,7 +31253,7 @@
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>293</v>
       </c>
@@ -30985,7 +31268,7 @@
       <c r="H187" s="17"/>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
         <v>293</v>
       </c>
@@ -31000,7 +31283,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>293</v>
       </c>
@@ -31015,7 +31298,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>293</v>
       </c>
@@ -31030,7 +31313,7 @@
       <c r="H190" s="17"/>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>293</v>
       </c>
@@ -31045,7 +31328,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>969</v>
       </c>
@@ -31060,7 +31343,7 @@
       <c r="H192" s="17"/>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>969</v>
       </c>
@@ -31075,7 +31358,7 @@
       <c r="H193" s="17"/>
       <c r="I193" s="17"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>969</v>
       </c>
@@ -31090,7 +31373,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>969</v>
       </c>
@@ -31105,7 +31388,7 @@
       <c r="H195" s="17"/>
       <c r="I195" s="17"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>969</v>
       </c>
@@ -31120,7 +31403,7 @@
       <c r="H196" s="17"/>
       <c r="I196" s="17"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
         <v>849</v>
       </c>
@@ -31135,7 +31418,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
         <v>849</v>
       </c>
@@ -31150,7 +31433,7 @@
       <c r="H198" s="17"/>
       <c r="I198" s="17"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
         <v>849</v>
       </c>
@@ -31165,7 +31448,7 @@
       <c r="H199" s="17"/>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
         <v>849</v>
       </c>
@@ -31180,7 +31463,7 @@
       <c r="H200" s="17"/>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
         <v>849</v>
       </c>
@@ -31195,7 +31478,7 @@
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
         <v>483</v>
       </c>
@@ -31210,7 +31493,7 @@
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
         <v>483</v>
       </c>
@@ -31225,7 +31508,7 @@
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
         <v>483</v>
       </c>
@@ -31240,7 +31523,7 @@
       <c r="H204" s="17"/>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
         <v>483</v>
       </c>
@@ -31255,7 +31538,7 @@
       <c r="H205" s="17"/>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="17" t="s">
         <v>483</v>
       </c>
@@ -31270,7 +31553,7 @@
       <c r="H206" s="17"/>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="s">
         <v>569</v>
       </c>
@@ -31285,7 +31568,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
         <v>569</v>
       </c>
@@ -31300,7 +31583,7 @@
       <c r="H208" s="17"/>
       <c r="I208" s="17"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>569</v>
       </c>
@@ -31315,7 +31598,7 @@
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17" t="s">
         <v>569</v>
       </c>
@@ -31330,7 +31613,7 @@
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
         <v>569</v>
       </c>
@@ -31345,7 +31628,7 @@
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>644</v>
       </c>
@@ -31360,7 +31643,7 @@
       <c r="H212" s="17"/>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>644</v>
       </c>
@@ -31375,7 +31658,7 @@
       <c r="H213" s="17"/>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>644</v>
       </c>
@@ -31390,7 +31673,7 @@
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
         <v>644</v>
       </c>
@@ -31405,7 +31688,7 @@
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
         <v>644</v>
       </c>
@@ -31420,7 +31703,7 @@
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
         <v>1038</v>
       </c>
@@ -31435,7 +31718,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
         <v>1038</v>
       </c>
@@ -31450,7 +31733,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>1038</v>
       </c>
@@ -31465,7 +31748,7 @@
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>1038</v>
       </c>
@@ -31480,7 +31763,7 @@
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
         <v>1038</v>
       </c>
@@ -31496,7 +31779,13 @@
       <c r="I221" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I216" xr:uid="{224A19FE-2638-436D-BC31-959763854BBF}"/>
+  <autoFilter ref="A1:I221" xr:uid="{224A19FE-2638-436D-BC31-959763854BBF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Commandement"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
